--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6647305-954E-4DA9-932F-6FF872B726E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE21076-3ED6-47B6-AF8A-C1D7770E72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="237">
   <si>
     <t>run</t>
   </si>
@@ -189,12 +189,6 @@
     <t>AutomationTestChicago10</t>
   </si>
   <si>
-    <t>AutomationTestChicago12</t>
-  </si>
-  <si>
-    <t>AutomationTestChicago13</t>
-  </si>
-  <si>
     <t>AutomationTestChicago14</t>
   </si>
   <si>
@@ -210,12 +204,6 @@
     <t>AutomationTestChicago7@gmail.com</t>
   </si>
   <si>
-    <t>AutomationTestChicago12@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestChicago13@gmail.com</t>
-  </si>
-  <si>
     <t>AutomationTestChicago14@gmail.com</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>TestChicago10</t>
   </si>
   <si>
-    <t>TestChicago11</t>
-  </si>
-  <si>
     <t>TestChicago12</t>
   </si>
   <si>
@@ -745,6 +730,24 @@
   </si>
   <si>
     <t>AutomationTestChicago8</t>
+  </si>
+  <si>
+    <t>AutomationTestChicago102</t>
+  </si>
+  <si>
+    <t>AutomationTestChicago103</t>
+  </si>
+  <si>
+    <t>AutomationTestChicago102@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestChicago103@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicago110</t>
+  </si>
+  <si>
+    <t>TestChicago110@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,16 +1329,16 @@
         <v>38</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1343,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1355,28 +1358,28 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1384,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1396,39 +1399,39 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>180</v>
-      </c>
       <c r="L3" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1437,33 +1440,33 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>45</v>
@@ -1478,33 +1481,33 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>46</v>
@@ -1519,33 +1522,33 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -1560,39 +1563,39 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1601,33 +1604,33 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>48</v>
@@ -1642,33 +1645,33 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>49</v>
@@ -1683,33 +1686,33 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>41</v>
@@ -1724,33 +1727,33 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -1765,39 +1768,39 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -1806,33 +1809,33 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>40</v>
@@ -1847,33 +1850,33 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1888,39 +1891,39 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1929,39 +1932,39 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1970,28 +1973,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2039,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,37 +2142,37 @@
         <v>13</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W1" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2177,10 +2180,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2192,28 +2195,28 @@
         <v>39</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>35</v>
@@ -2222,40 +2225,40 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>31</v>
@@ -2264,7 +2267,7 @@
         <v>32</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -2272,10 +2275,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
@@ -2287,28 +2290,28 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>35</v>
@@ -2317,16 +2320,16 @@
         <v>34</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -2334,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -2349,22 +2352,22 @@
         <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>31</v>
@@ -2379,16 +2382,16 @@
         <v>34</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
@@ -2396,10 +2399,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -2411,22 +2414,22 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>31</v>
@@ -2441,16 +2444,16 @@
         <v>34</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -2458,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -2473,22 +2476,22 @@
         <v>39</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>31</v>
@@ -2503,16 +2506,16 @@
         <v>34</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -2520,10 +2523,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -2535,19 +2538,19 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>30</v>
@@ -2565,16 +2568,16 @@
         <v>34</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -2582,10 +2585,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -2597,19 +2600,19 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>44</v>
@@ -2618,7 +2621,7 @@
         <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>35</v>
@@ -2627,16 +2630,16 @@
         <v>34</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -2644,10 +2647,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
@@ -2659,19 +2662,19 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>31</v>
@@ -2686,16 +2689,16 @@
         <v>34</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
@@ -2703,10 +2706,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>18</v>
@@ -2718,19 +2721,19 @@
         <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>31</v>
@@ -2745,16 +2748,16 @@
         <v>34</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
@@ -2777,19 +2780,19 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>31</v>
@@ -2804,16 +2807,16 @@
         <v>34</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
@@ -2836,19 +2839,19 @@
         <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>31</v>
@@ -2863,16 +2866,16 @@
         <v>34</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T12" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
@@ -2895,19 +2898,19 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>31</v>
@@ -2922,16 +2925,16 @@
         <v>34</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T13" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
@@ -2954,19 +2957,19 @@
         <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>31</v>
@@ -2982,35 +2985,35 @@
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T14" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T15" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T16" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE21076-3ED6-47B6-AF8A-C1D7770E72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35C934-A940-4D67-BD5D-556667A560AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35C934-A940-4D67-BD5D-556667A560AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13FCD2E-08CD-44C9-A780-2AA02D357616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13FCD2E-08CD-44C9-A780-2AA02D357616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508121D-B3D8-413C-A51B-122EAD547857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508121D-B3D8-413C-A51B-122EAD547857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B658E66E-0348-4080-BE03-FF827E3B769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="236">
   <si>
     <t>run</t>
   </si>
@@ -294,9 +294,6 @@
     <t>TestChicago9</t>
   </si>
   <si>
-    <t>TestChicago10</t>
-  </si>
-  <si>
     <t>TestChicago12</t>
   </si>
   <si>
@@ -648,9 +645,6 @@
     <t>TestChicago7</t>
   </si>
   <si>
-    <t>TestChicago1@gmail.com</t>
-  </si>
-  <si>
     <t>TestChicago2@gmail.com</t>
   </si>
   <si>
@@ -747,7 +741,10 @@
     <t>TestChicago110</t>
   </si>
   <si>
-    <t>TestChicago110@gmail.com</t>
+    <t>TestChicago111@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicago111</t>
   </si>
 </sst>
 </file>
@@ -1329,16 +1326,16 @@
         <v>38</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1346,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1358,28 +1355,28 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1387,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1399,28 +1396,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1428,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1449,19 +1446,19 @@
         <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1490,19 +1487,19 @@
         <v>56</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1531,19 +1528,19 @@
         <v>57</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1575,16 +1572,16 @@
         <v>54</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1592,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1604,28 +1601,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1645,28 +1642,28 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1686,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1727,28 +1724,28 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1768,28 +1765,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1800,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -1809,28 +1806,28 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1850,28 +1847,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1891,28 +1888,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1923,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1932,28 +1929,28 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1961,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1973,28 +1970,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +2040,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,37 +2139,37 @@
         <v>13</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W1" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2180,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2195,16 +2192,16 @@
         <v>39</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>69</v>
@@ -2213,10 +2210,10 @@
         <v>59</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>35</v>
@@ -2225,34 +2222,34 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>72</v>
@@ -2267,7 +2264,7 @@
         <v>32</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -2275,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
@@ -2290,16 +2287,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>70</v>
@@ -2311,7 +2308,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>35</v>
@@ -2320,16 +2317,16 @@
         <v>34</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -2337,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -2352,16 +2349,16 @@
         <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>71</v>
@@ -2382,16 +2379,16 @@
         <v>34</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
@@ -2399,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -2414,16 +2411,16 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>72</v>
@@ -2444,16 +2441,16 @@
         <v>34</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -2461,10 +2458,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -2476,16 +2473,16 @@
         <v>39</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>73</v>
@@ -2506,16 +2503,16 @@
         <v>34</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -2523,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -2538,16 +2535,16 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>74</v>
@@ -2568,16 +2565,16 @@
         <v>34</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -2585,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -2600,16 +2597,16 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>75</v>
@@ -2621,7 +2618,7 @@
         <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>35</v>
@@ -2630,16 +2627,16 @@
         <v>34</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -2662,13 +2659,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>76</v>
@@ -2689,16 +2686,16 @@
         <v>34</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
@@ -2721,13 +2718,13 @@
         <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>77</v>
@@ -2748,16 +2745,16 @@
         <v>34</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
@@ -2780,13 +2777,13 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>78</v>
@@ -2807,16 +2804,16 @@
         <v>34</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
@@ -2839,13 +2836,13 @@
         <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>79</v>
@@ -2866,16 +2863,16 @@
         <v>34</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
@@ -2898,13 +2895,13 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>80</v>
@@ -2925,16 +2922,16 @@
         <v>34</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
@@ -2957,13 +2954,13 @@
         <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>81</v>
@@ -2985,35 +2982,35 @@
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R16" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B658E66E-0348-4080-BE03-FF827E3B769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999200F-5284-4810-9F37-475B293B2802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="230">
   <si>
     <t>run</t>
   </si>
@@ -588,18 +588,6 @@
     <t>AutomationTestChicago27@gmail.com</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>Moskow</t>
   </si>
   <si>
@@ -613,12 +601,6 @@
   </si>
   <si>
     <t>District Of Columbia</t>
-  </si>
-  <si>
-    <t>Albania, Algeria, Angola, Argentina, Australia, Bangladesh, Benin, Bolivia</t>
-  </si>
-  <si>
-    <t>country_select</t>
   </si>
   <si>
     <t>Thank you. Your order has been received.</t>
@@ -873,7 +855,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -932,9 +914,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1277,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1355,13 +1334,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
@@ -1396,13 +1375,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>169</v>
@@ -1589,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -2037,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,20 +2043,19 @@
     <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2139,48 +2117,45 @@
         <v>13</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>195</v>
+        <v>189</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="W1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2201,7 +2176,7 @@
         <v>133</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>69</v>
@@ -2210,10 +2185,10 @@
         <v>59</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>35</v>
@@ -2222,60 +2197,57 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD2" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
@@ -2296,7 +2268,7 @@
         <v>134</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>70</v>
@@ -2308,7 +2280,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>35</v>
@@ -2317,7 +2289,7 @@
         <v>34</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>85</v>
@@ -2329,15 +2301,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -2379,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>86</v>
@@ -2391,15 +2363,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -2420,7 +2392,7 @@
         <v>136</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>72</v>
@@ -2441,7 +2413,7 @@
         <v>34</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>87</v>
@@ -2453,15 +2425,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -2482,7 +2454,7 @@
         <v>137</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>73</v>
@@ -2503,7 +2475,7 @@
         <v>34</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>88</v>
@@ -2515,15 +2487,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -2544,7 +2516,7 @@
         <v>138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>74</v>
@@ -2565,7 +2537,7 @@
         <v>34</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>89</v>
@@ -2577,15 +2549,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -2606,7 +2578,7 @@
         <v>139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>75</v>
@@ -2618,7 +2590,7 @@
         <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>35</v>
@@ -2627,7 +2599,7 @@
         <v>34</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>90</v>
@@ -2639,7 +2611,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
@@ -2667,6 +2639,9 @@
       <c r="I9" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="J9" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="K9" s="8" t="s">
         <v>76</v>
       </c>
@@ -2698,7 +2673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2732,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
@@ -2816,7 +2791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
@@ -2866,16 +2841,16 @@
         <v>97</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
@@ -2925,16 +2900,16 @@
         <v>98</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>3</v>
       </c>
@@ -2982,35 +2957,35 @@
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T15" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="R15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T16" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="R16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999200F-5284-4810-9F37-475B293B2802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082AA527-D012-41A9-81E1-458F9AED8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -708,15 +708,9 @@
     <t>AutomationTestChicago8</t>
   </si>
   <si>
-    <t>AutomationTestChicago102</t>
-  </si>
-  <si>
     <t>AutomationTestChicago103</t>
   </si>
   <si>
-    <t>AutomationTestChicago102@gmail.com</t>
-  </si>
-  <si>
     <t>AutomationTestChicago103@gmail.com</t>
   </si>
   <si>
@@ -727,6 +721,12 @@
   </si>
   <si>
     <t>TestChicago111</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,13 +1334,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="3" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>167</v>
@@ -1375,13 +1375,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>169</v>
@@ -2018,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2152,10 +2152,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2197,16 +2197,16 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>188</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082AA527-D012-41A9-81E1-458F9AED8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6A4746-23EC-42D8-8C40-24F670F3D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="232">
   <si>
     <t>run</t>
   </si>
@@ -714,19 +714,25 @@
     <t>AutomationTestChicago103@gmail.com</t>
   </si>
   <si>
-    <t>TestChicago110</t>
-  </si>
-  <si>
-    <t>TestChicago111@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicago111</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine@gmail.com</t>
+    <t>An account is already registered with that username. Please choose another.</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine1</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine1@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicago112</t>
+  </si>
+  <si>
+    <t>TestChicago112@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity</t>
+  </si>
+  <si>
+    <t>TestChicagoCity@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,13 +1340,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
@@ -1349,7 +1355,7 @@
         <v>147</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>178</v>
@@ -2019,7 +2025,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2152,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2197,16 +2203,16 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>188</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6A4746-23EC-42D8-8C40-24F670F3D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0D0EC-AA1A-4CDC-8DE2-527783A35275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="233">
   <si>
     <t>run</t>
   </si>
@@ -717,12 +717,6 @@
     <t>An account is already registered with that username. Please choose another.</t>
   </si>
   <si>
-    <t>AutomationTestPalatine1</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine1@gmail.com</t>
-  </si>
-  <si>
     <t>TestChicago112</t>
   </si>
   <si>
@@ -733,6 +727,15 @@
   </si>
   <si>
     <t>TestChicagoCity@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine2</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1266,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1340,13 +1343,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
@@ -2158,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2203,16 +2206,16 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T2" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>188</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0D0EC-AA1A-4CDC-8DE2-527783A35275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD62CD-68DB-4BC0-A38E-C8B8AEA075CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="233">
   <si>
     <t>run</t>
   </si>
@@ -294,9 +294,6 @@
     <t>TestChicago9</t>
   </si>
   <si>
-    <t>TestChicago12</t>
-  </si>
-  <si>
     <t>TestChicago13</t>
   </si>
   <si>
@@ -609,9 +606,6 @@
     <t>order_confirmation</t>
   </si>
   <si>
-    <t>TestChicago2</t>
-  </si>
-  <si>
     <t>TestChicago3</t>
   </si>
   <si>
@@ -627,9 +621,6 @@
     <t>TestChicago7</t>
   </si>
   <si>
-    <t>TestChicago2@gmail.com</t>
-  </si>
-  <si>
     <t>TestChicago3@gmail.com</t>
   </si>
   <si>
@@ -708,12 +699,6 @@
     <t>AutomationTestChicago8</t>
   </si>
   <si>
-    <t>AutomationTestChicago103</t>
-  </si>
-  <si>
-    <t>AutomationTestChicago103@gmail.com</t>
-  </si>
-  <si>
     <t>An account is already registered with that username. Please choose another.</t>
   </si>
   <si>
@@ -723,19 +708,34 @@
     <t>TestChicago112@gmail.com</t>
   </si>
   <si>
-    <t>TestChicagoCity</t>
-  </si>
-  <si>
-    <t>TestChicagoCity@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine2</t>
-  </si>
-  <si>
     <t>AutomationTestPalatine</t>
   </si>
   <si>
-    <t>AutomationTestPalatine2@gmail.com</t>
+    <t>AutomationTestPalatine4</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine5</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine4@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine5@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity1</t>
+  </si>
+  <si>
+    <t>TestChicagoCity1@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity2</t>
+  </si>
+  <si>
+    <t>TestChicagoCity2@gmail.com</t>
+  </si>
+  <si>
+    <t>58587</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,16 +1314,16 @@
         <v>38</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1331,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1343,39 +1343,39 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1384,28 +1384,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>223</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1413,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1434,19 +1434,19 @@
         <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1475,19 +1475,19 @@
         <v>56</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1516,19 +1516,19 @@
         <v>57</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1560,16 +1560,16 @@
         <v>54</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1577,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1589,28 +1589,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1630,28 +1630,28 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1671,28 +1671,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1712,28 +1712,28 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1753,28 +1753,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1785,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -1794,28 +1794,28 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1835,28 +1835,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1876,28 +1876,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1908,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1917,28 +1917,28 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -1946,10 +1946,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1958,28 +1958,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1994,30 +1994,30 @@
     <hyperlink ref="H4" r:id="rId7" xr:uid="{F37CFD5B-720B-4D29-8320-E8172B0DC2AA}"/>
     <hyperlink ref="H2" r:id="rId8" xr:uid="{FAA270D8-B32D-4263-B50A-619A8BA3431D}"/>
     <hyperlink ref="H5" r:id="rId9" xr:uid="{4C33460F-C88E-4B44-995C-8BC09311393C}"/>
-    <hyperlink ref="H3" r:id="rId10" xr:uid="{B1CF73E1-2344-4056-9CC1-55E61E189E9A}"/>
-    <hyperlink ref="H15" r:id="rId11" xr:uid="{16006D79-536D-4E87-BA81-B969B044B635}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{5467031F-2C64-4E35-A5E4-274B05E131A0}"/>
-    <hyperlink ref="H11" r:id="rId13" xr:uid="{44EF9D53-5216-49A6-A83E-2083DB835EDB}"/>
-    <hyperlink ref="H9" r:id="rId14" xr:uid="{640EC3DF-211E-4108-BDE3-B4D168229149}"/>
-    <hyperlink ref="H14" r:id="rId15" xr:uid="{4AD54A96-2AA0-4BE6-9774-98E795B0ABFC}"/>
-    <hyperlink ref="H12" r:id="rId16" xr:uid="{735E08D0-0238-41DA-97DF-CB1927F4D2A7}"/>
-    <hyperlink ref="H10" r:id="rId17" xr:uid="{4B050270-1A89-4B9F-9001-A1C1BA6105FA}"/>
-    <hyperlink ref="H8" r:id="rId18" xr:uid="{DA24CD9E-BD39-4C18-BAA6-DB1C1BAF384E}"/>
-    <hyperlink ref="I14" r:id="rId19" xr:uid="{A5BE0088-FE2C-40FA-802E-F99DF75C0F06}"/>
-    <hyperlink ref="I12" r:id="rId20" xr:uid="{C22A296C-5A40-48DC-9F11-1184847B3D7E}"/>
-    <hyperlink ref="I15" r:id="rId21" xr:uid="{D6067514-F8C0-4F24-AC24-4D5572B9CDD8}"/>
-    <hyperlink ref="I13" r:id="rId22" xr:uid="{9550CA71-B30B-40CD-BDEF-0BCFB3F314D8}"/>
-    <hyperlink ref="I16" r:id="rId23" xr:uid="{8C950FD7-B84B-4C88-B20F-8BDB932373A6}"/>
-    <hyperlink ref="I17" r:id="rId24" xr:uid="{69A9A631-1A65-4944-A7A0-B7582B794C22}"/>
-    <hyperlink ref="I2:I6" r:id="rId25" display="AutoTestChicago1@gmail.com" xr:uid="{7F91D625-5288-43DC-8979-78A7388D337B}"/>
-    <hyperlink ref="I2" r:id="rId26" xr:uid="{15D73157-6E66-4502-AC65-62B4BAFE9816}"/>
-    <hyperlink ref="I3" r:id="rId27" xr:uid="{D4FD3346-1CEF-4AE7-97C7-FD9419EB66FD}"/>
-    <hyperlink ref="I4" r:id="rId28" xr:uid="{2B07D480-0736-40DF-8A36-25B2532F0DC3}"/>
-    <hyperlink ref="I5" r:id="rId29" xr:uid="{691950DE-0A4E-4C50-9147-1314C8961CBE}"/>
-    <hyperlink ref="I6" r:id="rId30" xr:uid="{DC7DDA1C-2E8A-4CAF-8043-2F94A93D7F89}"/>
-    <hyperlink ref="I7" r:id="rId31" xr:uid="{41422F61-10AC-473A-A09F-0AEE6F9C1C38}"/>
-    <hyperlink ref="H16" r:id="rId32" xr:uid="{E737AF29-C808-407D-91BD-440A2AACC8C1}"/>
-    <hyperlink ref="H17" r:id="rId33" xr:uid="{1052E125-31DF-453D-B0DC-38D8A296A067}"/>
+    <hyperlink ref="H15" r:id="rId10" xr:uid="{16006D79-536D-4E87-BA81-B969B044B635}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{5467031F-2C64-4E35-A5E4-274B05E131A0}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{44EF9D53-5216-49A6-A83E-2083DB835EDB}"/>
+    <hyperlink ref="H9" r:id="rId13" xr:uid="{640EC3DF-211E-4108-BDE3-B4D168229149}"/>
+    <hyperlink ref="H14" r:id="rId14" xr:uid="{4AD54A96-2AA0-4BE6-9774-98E795B0ABFC}"/>
+    <hyperlink ref="H12" r:id="rId15" xr:uid="{735E08D0-0238-41DA-97DF-CB1927F4D2A7}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{4B050270-1A89-4B9F-9001-A1C1BA6105FA}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{DA24CD9E-BD39-4C18-BAA6-DB1C1BAF384E}"/>
+    <hyperlink ref="I14" r:id="rId18" xr:uid="{A5BE0088-FE2C-40FA-802E-F99DF75C0F06}"/>
+    <hyperlink ref="I12" r:id="rId19" xr:uid="{C22A296C-5A40-48DC-9F11-1184847B3D7E}"/>
+    <hyperlink ref="I15" r:id="rId20" xr:uid="{D6067514-F8C0-4F24-AC24-4D5572B9CDD8}"/>
+    <hyperlink ref="I13" r:id="rId21" xr:uid="{9550CA71-B30B-40CD-BDEF-0BCFB3F314D8}"/>
+    <hyperlink ref="I16" r:id="rId22" xr:uid="{8C950FD7-B84B-4C88-B20F-8BDB932373A6}"/>
+    <hyperlink ref="I17" r:id="rId23" xr:uid="{69A9A631-1A65-4944-A7A0-B7582B794C22}"/>
+    <hyperlink ref="I2:I6" r:id="rId24" display="AutoTestChicago1@gmail.com" xr:uid="{7F91D625-5288-43DC-8979-78A7388D337B}"/>
+    <hyperlink ref="I2" r:id="rId25" xr:uid="{15D73157-6E66-4502-AC65-62B4BAFE9816}"/>
+    <hyperlink ref="I3" r:id="rId26" xr:uid="{D4FD3346-1CEF-4AE7-97C7-FD9419EB66FD}"/>
+    <hyperlink ref="I4" r:id="rId27" xr:uid="{2B07D480-0736-40DF-8A36-25B2532F0DC3}"/>
+    <hyperlink ref="I5" r:id="rId28" xr:uid="{691950DE-0A4E-4C50-9147-1314C8961CBE}"/>
+    <hyperlink ref="I6" r:id="rId29" xr:uid="{DC7DDA1C-2E8A-4CAF-8043-2F94A93D7F89}"/>
+    <hyperlink ref="I7" r:id="rId30" xr:uid="{41422F61-10AC-473A-A09F-0AEE6F9C1C38}"/>
+    <hyperlink ref="H16" r:id="rId31" xr:uid="{E737AF29-C808-407D-91BD-440A2AACC8C1}"/>
+    <hyperlink ref="H17" r:id="rId32" xr:uid="{1052E125-31DF-453D-B0DC-38D8A296A067}"/>
+    <hyperlink ref="H3" r:id="rId33" xr:uid="{C021D0EC-76BC-4701-88EE-D549AEAEFBD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,34 +2126,34 @@
         <v>13</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V1" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2161,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2176,16 +2176,16 @@
         <v>39</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>69</v>
@@ -2194,10 +2194,10 @@
         <v>59</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>35</v>
@@ -2206,7 +2206,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>228</v>
@@ -2218,19 +2218,19 @@
         <v>229</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>72</v>
@@ -2245,18 +2245,18 @@
         <v>32</v>
       </c>
       <c r="AD2" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
@@ -2268,16 +2268,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>70</v>
@@ -2289,7 +2289,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>35</v>
@@ -2298,16 +2298,46 @@
         <v>34</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>98</v>
+        <v>231</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -2315,10 +2345,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -2330,16 +2360,16 @@
         <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>71</v>
@@ -2360,16 +2390,16 @@
         <v>34</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -2377,10 +2407,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -2392,16 +2422,16 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>72</v>
@@ -2422,16 +2452,16 @@
         <v>34</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -2439,10 +2469,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -2454,16 +2484,16 @@
         <v>39</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>73</v>
@@ -2484,16 +2514,16 @@
         <v>34</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -2501,10 +2531,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -2516,16 +2546,16 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>74</v>
@@ -2546,16 +2576,16 @@
         <v>34</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -2563,10 +2593,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -2578,16 +2608,16 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>75</v>
@@ -2599,7 +2629,7 @@
         <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>35</v>
@@ -2608,16 +2638,16 @@
         <v>34</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -2640,16 +2670,16 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>76</v>
@@ -2670,16 +2700,16 @@
         <v>34</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -2702,13 +2732,13 @@
         <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>77</v>
@@ -2729,16 +2759,16 @@
         <v>34</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -2761,13 +2791,13 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>78</v>
@@ -2788,16 +2818,16 @@
         <v>34</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -2820,13 +2850,13 @@
         <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>79</v>
@@ -2847,16 +2877,16 @@
         <v>34</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -2879,13 +2909,13 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>80</v>
@@ -2906,16 +2936,16 @@
         <v>34</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -2938,13 +2968,13 @@
         <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>81</v>
@@ -2966,35 +2996,35 @@
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R16" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3002,33 +3032,32 @@
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{351EB7D8-82E1-436C-860F-1D5CA443C67F}"/>
     <hyperlink ref="T2" r:id="rId2" xr:uid="{2B7B6198-44E5-477D-9A1A-30CD23CAECCC}"/>
-    <hyperlink ref="T3" r:id="rId3" xr:uid="{EC13D623-EBEF-42D9-A567-FA3B1F26E51D}"/>
-    <hyperlink ref="T4" r:id="rId4" xr:uid="{8373022F-07A5-434A-9C94-24DFFA9E8371}"/>
-    <hyperlink ref="T5" r:id="rId5" xr:uid="{B4255747-D828-48F4-9E37-ED92B97C4687}"/>
-    <hyperlink ref="T6" r:id="rId6" xr:uid="{793303F5-4F66-4285-BFD9-48DCADE091BB}"/>
-    <hyperlink ref="T7" r:id="rId7" xr:uid="{9545CF08-8FA7-4395-836E-1A851F92CB6F}"/>
-    <hyperlink ref="T8" r:id="rId8" xr:uid="{F0AEB9F9-8600-42F3-89B4-469E557C36A6}"/>
-    <hyperlink ref="T9" r:id="rId9" xr:uid="{94DD1AC5-971E-4086-B19D-635240C6F99D}"/>
-    <hyperlink ref="T10" r:id="rId10" xr:uid="{33C25037-0AB5-418E-AF3E-12E2EF9CF486}"/>
-    <hyperlink ref="T11" r:id="rId11" xr:uid="{80CC568A-5C15-49E3-BEAA-861CB61D3030}"/>
-    <hyperlink ref="Q3:Q13" r:id="rId12" display="TestChicago1@gmail.com" xr:uid="{B4A750BB-95B3-4F4B-A238-6612E52F82E7}"/>
-    <hyperlink ref="Q3" r:id="rId13" xr:uid="{53760AEE-490A-477D-AC91-5E3857323743}"/>
-    <hyperlink ref="Q4" r:id="rId14" xr:uid="{AE199BA9-684F-4032-9D9D-411BC24F9E43}"/>
-    <hyperlink ref="Q5" r:id="rId15" xr:uid="{90606066-3B99-4D63-82E9-3C12AD59B5B7}"/>
-    <hyperlink ref="Q6" r:id="rId16" xr:uid="{3CD25826-9102-4E59-8DC6-3E8E99F87031}"/>
-    <hyperlink ref="Q7" r:id="rId17" xr:uid="{5D440933-E386-4E27-BD5F-C303E762E963}"/>
-    <hyperlink ref="Q8" r:id="rId18" xr:uid="{22F42DAF-FCC9-4A92-9393-8CD3E5DB40BD}"/>
-    <hyperlink ref="Q9" r:id="rId19" xr:uid="{73FDA6FB-D512-4D8A-8431-985BC01605AC}"/>
-    <hyperlink ref="Q10" r:id="rId20" xr:uid="{8538BAF4-2FF3-421C-AF22-27839AD2FBB0}"/>
-    <hyperlink ref="Q11" r:id="rId21" xr:uid="{47057405-933D-4F65-844E-8D6C7DAA5A0B}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{49A0F55D-BE09-454C-999F-1AF05AD2711C}"/>
-    <hyperlink ref="Q13" r:id="rId23" xr:uid="{541DCD86-A216-4CF0-BDA0-E596B216DF2E}"/>
-    <hyperlink ref="T12:T16" r:id="rId24" display="TestChicago20@gmail.com" xr:uid="{BCAAF09F-A025-4369-B02E-1409F76234DD}"/>
-    <hyperlink ref="T12" r:id="rId25" xr:uid="{B3308BDD-D204-4951-8023-99C16D11EF9C}"/>
-    <hyperlink ref="T13" r:id="rId26" xr:uid="{53CDE3DE-F422-4F80-BB9D-D31627E3260C}"/>
-    <hyperlink ref="T14" r:id="rId27" xr:uid="{77D885F3-3D46-4665-BCC3-3FFDB276ED32}"/>
-    <hyperlink ref="T15" r:id="rId28" xr:uid="{7C533B27-490F-4C55-B3DC-CC1E73D61487}"/>
-    <hyperlink ref="T16" r:id="rId29" xr:uid="{8C60969C-0C05-4C8F-BCAA-5CD3F13726C6}"/>
+    <hyperlink ref="T4" r:id="rId3" xr:uid="{8373022F-07A5-434A-9C94-24DFFA9E8371}"/>
+    <hyperlink ref="T5" r:id="rId4" xr:uid="{B4255747-D828-48F4-9E37-ED92B97C4687}"/>
+    <hyperlink ref="T6" r:id="rId5" xr:uid="{793303F5-4F66-4285-BFD9-48DCADE091BB}"/>
+    <hyperlink ref="T7" r:id="rId6" xr:uid="{9545CF08-8FA7-4395-836E-1A851F92CB6F}"/>
+    <hyperlink ref="T8" r:id="rId7" xr:uid="{F0AEB9F9-8600-42F3-89B4-469E557C36A6}"/>
+    <hyperlink ref="T9" r:id="rId8" xr:uid="{94DD1AC5-971E-4086-B19D-635240C6F99D}"/>
+    <hyperlink ref="T10" r:id="rId9" xr:uid="{33C25037-0AB5-418E-AF3E-12E2EF9CF486}"/>
+    <hyperlink ref="T11" r:id="rId10" xr:uid="{80CC568A-5C15-49E3-BEAA-861CB61D3030}"/>
+    <hyperlink ref="Q4" r:id="rId11" xr:uid="{AE199BA9-684F-4032-9D9D-411BC24F9E43}"/>
+    <hyperlink ref="Q5" r:id="rId12" xr:uid="{90606066-3B99-4D63-82E9-3C12AD59B5B7}"/>
+    <hyperlink ref="Q6" r:id="rId13" xr:uid="{3CD25826-9102-4E59-8DC6-3E8E99F87031}"/>
+    <hyperlink ref="Q7" r:id="rId14" xr:uid="{5D440933-E386-4E27-BD5F-C303E762E963}"/>
+    <hyperlink ref="Q8" r:id="rId15" xr:uid="{22F42DAF-FCC9-4A92-9393-8CD3E5DB40BD}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{73FDA6FB-D512-4D8A-8431-985BC01605AC}"/>
+    <hyperlink ref="Q10" r:id="rId17" xr:uid="{8538BAF4-2FF3-421C-AF22-27839AD2FBB0}"/>
+    <hyperlink ref="Q11" r:id="rId18" xr:uid="{47057405-933D-4F65-844E-8D6C7DAA5A0B}"/>
+    <hyperlink ref="Q12" r:id="rId19" xr:uid="{49A0F55D-BE09-454C-999F-1AF05AD2711C}"/>
+    <hyperlink ref="Q13" r:id="rId20" xr:uid="{541DCD86-A216-4CF0-BDA0-E596B216DF2E}"/>
+    <hyperlink ref="T12:T16" r:id="rId21" display="TestChicago20@gmail.com" xr:uid="{BCAAF09F-A025-4369-B02E-1409F76234DD}"/>
+    <hyperlink ref="T12" r:id="rId22" xr:uid="{B3308BDD-D204-4951-8023-99C16D11EF9C}"/>
+    <hyperlink ref="T13" r:id="rId23" xr:uid="{53CDE3DE-F422-4F80-BB9D-D31627E3260C}"/>
+    <hyperlink ref="T14" r:id="rId24" xr:uid="{77D885F3-3D46-4665-BCC3-3FFDB276ED32}"/>
+    <hyperlink ref="T15" r:id="rId25" xr:uid="{7C533B27-490F-4C55-B3DC-CC1E73D61487}"/>
+    <hyperlink ref="T16" r:id="rId26" xr:uid="{8C60969C-0C05-4C8F-BCAA-5CD3F13726C6}"/>
+    <hyperlink ref="Q3" r:id="rId27" xr:uid="{D16B7B07-84E8-4639-A53C-9E620AE1AA98}"/>
+    <hyperlink ref="T3" r:id="rId28" xr:uid="{8FEE5D5A-D91F-4957-BBDD-7C3C0C0ABB3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD62CD-68DB-4BC0-A38E-C8B8AEA075CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E2E0F-E015-4811-AF05-5C3C90B881FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -711,31 +711,31 @@
     <t>AutomationTestPalatine</t>
   </si>
   <si>
-    <t>AutomationTestPalatine4</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine5</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine4@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine5@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity1</t>
-  </si>
-  <si>
-    <t>TestChicagoCity1@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity2</t>
-  </si>
-  <si>
-    <t>TestChicagoCity2@gmail.com</t>
-  </si>
-  <si>
     <t>58587</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine6</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine6@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine7</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine7@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity3</t>
+  </si>
+  <si>
+    <t>TestChicagoCity3@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity4</t>
+  </si>
+  <si>
+    <t>TestChicagoCity4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>223</v>
@@ -1384,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>223</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>168</v>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2209,13 +2209,13 @@
         <v>222</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>187</v>
@@ -2301,13 +2301,13 @@
         <v>222</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U3" s="20" t="s">
         <v>187</v>
@@ -2337,7 +2337,7 @@
         <v>32</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E2E0F-E015-4811-AF05-5C3C90B881FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E31A84-A437-40AD-9BD0-3E2B644EF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -699,9 +699,6 @@
     <t>AutomationTestChicago8</t>
   </si>
   <si>
-    <t>An account is already registered with that username. Please choose another.</t>
-  </si>
-  <si>
     <t>TestChicago112</t>
   </si>
   <si>
@@ -726,23 +723,37 @@
     <t>AutomationTestPalatine7@gmail.com</t>
   </si>
   <si>
-    <t>TestChicagoCity3</t>
-  </si>
-  <si>
     <t>TestChicagoCity3@gmail.com</t>
   </si>
   <si>
-    <t>TestChicagoCity4</t>
-  </si>
-  <si>
-    <t>TestChicagoCity4@gmail.com</t>
+    <r>
+      <t>Error:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF515151"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> An account is already registered with that username. Please choose another.</t>
+    </r>
+  </si>
+  <si>
+    <t>TestChicagoCity5</t>
+  </si>
+  <si>
+    <t>TestChicagoCity6</t>
+  </si>
+  <si>
+    <t>TestChicagoCity6@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +796,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -800,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -856,6 +880,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFB81C23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -864,7 +897,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -926,6 +959,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1265,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1321,7 @@
     <col min="13" max="13" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1362,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1343,13 +1379,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
@@ -1357,8 +1393,8 @@
       <c r="J2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>220</v>
+      <c r="K2" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>177</v>
@@ -1367,7 +1403,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="145.80000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1384,13 +1420,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>168</v>
@@ -1398,8 +1434,8 @@
       <c r="J3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>173</v>
+      <c r="K3" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>177</v>
@@ -2028,7 +2064,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,10 +2197,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -2206,16 +2242,16 @@
         <v>34</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>187</v>
@@ -2253,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
@@ -2298,7 +2334,7 @@
         <v>34</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>231</v>
@@ -2337,7 +2373,7 @@
         <v>32</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E31A84-A437-40AD-9BD0-3E2B644EF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2DEB3E-ABDF-43FB-B721-84864B136745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -726,20 +726,6 @@
     <t>TestChicagoCity3@gmail.com</t>
   </si>
   <si>
-    <r>
-      <t>Error:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF515151"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> An account is already registered with that username. Please choose another.</t>
-    </r>
-  </si>
-  <si>
     <t>TestChicagoCity5</t>
   </si>
   <si>
@@ -747,13 +733,16 @@
   </si>
   <si>
     <t>TestChicagoCity6@gmail.com</t>
+  </si>
+  <si>
+    <t>Error: An account is already registered with that username. Please choose another.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,12 +782,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF515151"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -960,7 +943,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1301,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1377,7 @@
         <v>146</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>177</v>
@@ -1435,7 +1418,7 @@
         <v>146</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>177</v>
@@ -2063,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -2245,10 +2228,10 @@
         <v>221</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>228</v>
@@ -2337,13 +2320,13 @@
         <v>221</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="16" t="s">
         <v>231</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>232</v>
       </c>
       <c r="U3" s="20" t="s">
         <v>187</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2DEB3E-ABDF-43FB-B721-84864B136745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1E8A6-1E4C-40E2-B273-2A8DCAF4382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -711,31 +711,31 @@
     <t>58587</t>
   </si>
   <si>
-    <t>AutomationTestPalatine6</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine6@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine7</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine7@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity3@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity5</t>
-  </si>
-  <si>
-    <t>TestChicagoCity6</t>
-  </si>
-  <si>
-    <t>TestChicagoCity6@gmail.com</t>
-  </si>
-  <si>
     <t>Error: An account is already registered with that username. Please choose another.</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine8</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine9</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine8@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine9@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity7</t>
+  </si>
+  <si>
+    <t>TestChicagoCity7@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity8</t>
+  </si>
+  <si>
+    <t>TestChicagoCity8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,13 +1362,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
@@ -1377,7 +1377,7 @@
         <v>146</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>177</v>
@@ -1409,7 +1409,7 @@
         <v>222</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>168</v>
@@ -1418,7 +1418,7 @@
         <v>146</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>177</v>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,7 +2234,7 @@
         <v>229</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>187</v>
@@ -2320,13 +2320,13 @@
         <v>221</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U3" s="20" t="s">
         <v>187</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1E8A6-1E4C-40E2-B273-2A8DCAF4382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F14EF-7B4D-43E0-AA2E-273DFEAD8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -714,28 +714,28 @@
     <t>Error: An account is already registered with that username. Please choose another.</t>
   </si>
   <si>
-    <t>AutomationTestPalatine8</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine9</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine8@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine9@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity7</t>
-  </si>
-  <si>
-    <t>TestChicagoCity7@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity8</t>
-  </si>
-  <si>
-    <t>TestChicagoCity8@gmail.com</t>
+    <t>AutomationTestPalatine10</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine10@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine11</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine11@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity9</t>
+  </si>
+  <si>
+    <t>TestChicagoCity9@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity10</t>
+  </si>
+  <si>
+    <t>TestChicagoCity10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1368,7 @@
         <v>222</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
@@ -1403,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>222</v>
@@ -2047,7 +2047,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D3FC10-0E47-4901-B10C-5214B4BE3FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9791038E-DE57-499F-BAB6-7229EA042233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="252">
   <si>
     <t>run</t>
   </si>
@@ -93,9 +93,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>used_email</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>AutoTestChicago2@gmail.com</t>
   </si>
   <si>
@@ -432,171 +426,30 @@
     <t>Error: An account is already registered with that username. Please choose another.</t>
   </si>
   <si>
-    <t>AutomationTestPalatine12</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine12@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine13</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine13@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine14</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine15</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine16</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine17</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine18</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine19</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine20</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine21</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine22</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine23</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine24</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine25</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine26</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine27</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine14@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine15@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine16@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine17@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine18@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine19@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine20@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine21@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine22@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine23@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine24@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine25@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine26@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine27@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TestChicagoCity13</t>
-  </si>
-  <si>
     <t>58588</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>TestChicagoCity14</t>
-  </si>
-  <si>
     <t>58589</t>
   </si>
   <si>
-    <t>TestChicagoCity15</t>
-  </si>
-  <si>
     <t>58590</t>
   </si>
   <si>
-    <t>TestChicagoCity16</t>
-  </si>
-  <si>
     <t>58591</t>
   </si>
   <si>
-    <t>TestChicagoCity17</t>
-  </si>
-  <si>
     <t>58592</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>TestChicagoCity18</t>
-  </si>
-  <si>
     <t>58593</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>TestChicagoCity19</t>
-  </si>
-  <si>
     <t>58594</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TestChicagoCity20</t>
-  </si>
-  <si>
     <t>58595</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>TestChicagoCity21</t>
-  </si>
-  <si>
     <t>143 Kevin Dr</t>
   </si>
   <si>
@@ -606,12 +459,6 @@
     <t>58596</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>TestChicagoCity22</t>
-  </si>
-  <si>
     <t>144 Kevin Dr</t>
   </si>
   <si>
@@ -621,12 +468,6 @@
     <t>58597</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>TestChicagoCity23</t>
-  </si>
-  <si>
     <t>145 Kevin Dr</t>
   </si>
   <si>
@@ -636,9 +477,6 @@
     <t>58598</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>David19</t>
   </si>
   <si>
@@ -648,9 +486,6 @@
     <t>David Inc19</t>
   </si>
   <si>
-    <t>TestChicagoCity24</t>
-  </si>
-  <si>
     <t>146 Kevin Dr</t>
   </si>
   <si>
@@ -660,9 +495,6 @@
     <t>58599</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>David20</t>
   </si>
   <si>
@@ -672,9 +504,6 @@
     <t>David Inc20</t>
   </si>
   <si>
-    <t>TestChicagoCity25</t>
-  </si>
-  <si>
     <t>147 Kevin Dr</t>
   </si>
   <si>
@@ -684,9 +513,6 @@
     <t>58600</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>David21</t>
   </si>
   <si>
@@ -696,9 +522,6 @@
     <t>David Inc21</t>
   </si>
   <si>
-    <t>TestChicagoCity26</t>
-  </si>
-  <si>
     <t>148 Kevin Dr</t>
   </si>
   <si>
@@ -708,9 +531,6 @@
     <t>58601</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>David22</t>
   </si>
   <si>
@@ -720,9 +540,6 @@
     <t>David Inc22</t>
   </si>
   <si>
-    <t>TestChicagoCity27</t>
-  </si>
-  <si>
     <t>149 Kevin Dr</t>
   </si>
   <si>
@@ -732,9 +549,6 @@
     <t>58602</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>David23</t>
   </si>
   <si>
@@ -744,9 +558,6 @@
     <t>David Inc23</t>
   </si>
   <si>
-    <t>TestChicagoCity28</t>
-  </si>
-  <si>
     <t>150 Kevin Dr</t>
   </si>
   <si>
@@ -756,9 +567,6 @@
     <t>58603</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>David24</t>
   </si>
   <si>
@@ -768,9 +576,6 @@
     <t>David Inc24</t>
   </si>
   <si>
-    <t>TestChicagoCity29</t>
-  </si>
-  <si>
     <t>151 Kevin Dr</t>
   </si>
   <si>
@@ -780,67 +585,214 @@
     <t>58604</t>
   </si>
   <si>
-    <t>TestChicagoCity30</t>
-  </si>
-  <si>
-    <t>TestChicagoCity31</t>
-  </si>
-  <si>
-    <t>TestChicagoCity13@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity14@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity15@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity16@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity17@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity18@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity19@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity20@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity21@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity22@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity23@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity24@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity25@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity26@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity27@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity28@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity29@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity30@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity31@gmail.com</t>
+    <t>TestChicagoCity32</t>
+  </si>
+  <si>
+    <t>TestChicagoCity33</t>
+  </si>
+  <si>
+    <t>TestChicagoCity34</t>
+  </si>
+  <si>
+    <t>TestChicagoCity36</t>
+  </si>
+  <si>
+    <t>TestChicagoCity35</t>
+  </si>
+  <si>
+    <t>TestChicagoCity38</t>
+  </si>
+  <si>
+    <t>TestChicagoCity40</t>
+  </si>
+  <si>
+    <t>TestChicagoCity37</t>
+  </si>
+  <si>
+    <t>TestChicagoCity42</t>
+  </si>
+  <si>
+    <t>TestChicagoCity44</t>
+  </si>
+  <si>
+    <t>TestChicagoCity39</t>
+  </si>
+  <si>
+    <t>TestChicagoCity46</t>
+  </si>
+  <si>
+    <t>TestChicagoCity48</t>
+  </si>
+  <si>
+    <t>TestChicagoCity41</t>
+  </si>
+  <si>
+    <t>TestChicagoCity50</t>
+  </si>
+  <si>
+    <t>TestChicagoCity43</t>
+  </si>
+  <si>
+    <t>TestChicagoCity45</t>
+  </si>
+  <si>
+    <t>TestChicagoCity47</t>
+  </si>
+  <si>
+    <t>TestChicagoCity49</t>
+  </si>
+  <si>
+    <t>TestChicagoCity32@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity33@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity34@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity35@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity36@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity37@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity38@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity39@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity40@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity41@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity42@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity43@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity44@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity45@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity46@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity47@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity48@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity49@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity50@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine28</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine28@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine29</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine29@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine30</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine31</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine32</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine33</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine34</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine35</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine36</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine37</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine38</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine39</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine40</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine41</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine42</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine43</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine30@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine31@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine32@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine33@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine34@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine35@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine36@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine37@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine38@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine39@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine40@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine41@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine42@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine43@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1364,11 +1316,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
@@ -1384,7 +1336,7 @@
     <col min="13" max="13" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1410,30 +1362,30 @@
         <v>11</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1442,39 +1394,39 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1483,39 +1435,39 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1524,39 +1476,39 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="L4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1565,39 +1517,39 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1606,39 +1558,39 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="L6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -1647,39 +1599,39 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1688,39 +1640,39 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="L8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1729,39 +1681,39 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="10" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1770,39 +1722,39 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="L10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -1811,39 +1763,39 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="12" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1852,39 +1804,39 @@
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="L12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1893,39 +1845,39 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="14" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1934,39 +1886,39 @@
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="L14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -1975,39 +1927,39 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="16" spans="1:13" ht="146.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -2016,39 +1968,39 @@
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="L16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="145.80000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2057,28 +2009,28 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="L17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2089,41 +2041,41 @@
     <hyperlink ref="I2" r:id="rId3" xr:uid="{15D73157-6E66-4502-AC65-62B4BAFE9816}"/>
     <hyperlink ref="I3" r:id="rId4" xr:uid="{D4FD3346-1CEF-4AE7-97C7-FD9419EB66FD}"/>
     <hyperlink ref="H3" r:id="rId5" xr:uid="{C021D0EC-76BC-4701-88EE-D549AEAEFBD2}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{09740A49-22F1-40EF-918C-08C6FCA3E672}"/>
-    <hyperlink ref="H6" r:id="rId7" xr:uid="{3C431FB5-2C0C-42C8-99D6-EEAFD4CFEEE0}"/>
-    <hyperlink ref="H8" r:id="rId8" xr:uid="{AD6A3025-C6F1-4714-924F-78BCF43C259D}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{678B7041-935C-4213-AE01-5F64D16F5EA4}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{EF4940AB-C9B5-4EC0-86A7-01F449A64254}"/>
-    <hyperlink ref="H14" r:id="rId11" xr:uid="{1C4E9588-C78E-44D0-B23D-093ED939A30C}"/>
-    <hyperlink ref="H16" r:id="rId12" xr:uid="{2C8B06CB-F2E5-43B0-93ED-FF3340125968}"/>
-    <hyperlink ref="I4:I5" r:id="rId13" display="AutoTestChicago1@gmail.com" xr:uid="{C9481CE0-2508-41E6-A916-6DEE20D9E1A0}"/>
-    <hyperlink ref="I6:I7" r:id="rId14" display="AutoTestChicago1@gmail.com" xr:uid="{FD3D8037-74BE-4749-8808-67ACB96B7FEA}"/>
-    <hyperlink ref="I8:I9" r:id="rId15" display="AutoTestChicago1@gmail.com" xr:uid="{A79E3732-2844-49C8-8701-0FD3C08E02F4}"/>
-    <hyperlink ref="I10:I11" r:id="rId16" display="AutoTestChicago1@gmail.com" xr:uid="{6F7ABCC3-94A8-4942-B94F-C2A7D48C4822}"/>
-    <hyperlink ref="I12:I13" r:id="rId17" display="AutoTestChicago1@gmail.com" xr:uid="{A5A255A4-C0A8-46A2-BC38-2855EA6AE312}"/>
-    <hyperlink ref="I14:I15" r:id="rId18" display="AutoTestChicago1@gmail.com" xr:uid="{A23DAACF-7E86-4F72-87CE-DAD083D5E492}"/>
-    <hyperlink ref="I16:I17" r:id="rId19" display="AutoTestChicago1@gmail.com" xr:uid="{194C6FB3-BA95-4977-80DE-6A006CFBEC66}"/>
-    <hyperlink ref="I4" r:id="rId20" xr:uid="{79E7172D-25FB-4057-87A8-8AEB517EF0DF}"/>
-    <hyperlink ref="I6" r:id="rId21" xr:uid="{71372C41-8F24-4416-A60C-81F5259EF097}"/>
-    <hyperlink ref="I8" r:id="rId22" xr:uid="{97501CFB-1C2F-4E63-BA73-9627AB45D56E}"/>
-    <hyperlink ref="I10" r:id="rId23" xr:uid="{B62FA038-9B79-47A1-937F-B58D8BFA51C8}"/>
-    <hyperlink ref="I12" r:id="rId24" xr:uid="{E100B131-B4BB-4674-A287-FB0AF327E132}"/>
-    <hyperlink ref="I14" r:id="rId25" xr:uid="{938601F9-05FB-47AC-B729-376FAA36D6DD}"/>
-    <hyperlink ref="I16" r:id="rId26" xr:uid="{A015B10D-73DA-4750-BBB5-E313C24DC706}"/>
-    <hyperlink ref="I5" r:id="rId27" xr:uid="{F71BD189-2D03-4B7C-9DFE-F340DF3C37B4}"/>
-    <hyperlink ref="I7" r:id="rId28" xr:uid="{69DBCB76-DC67-44F7-833A-646CEA2D7F74}"/>
-    <hyperlink ref="I9" r:id="rId29" xr:uid="{48F1A990-4BF8-4C1E-B096-0301D3989B81}"/>
-    <hyperlink ref="I11" r:id="rId30" xr:uid="{D5ED9D19-6C96-4475-B1AE-488B7BFBCBD8}"/>
-    <hyperlink ref="I13" r:id="rId31" xr:uid="{8048E439-CF3F-4BC0-B159-8D492B54AB71}"/>
-    <hyperlink ref="I15" r:id="rId32" xr:uid="{83BD500C-B648-4789-B411-85D60FA9385E}"/>
-    <hyperlink ref="I17" r:id="rId33" xr:uid="{C6A2ABB0-4E7B-4B5A-9736-8007E9A4CD3F}"/>
-    <hyperlink ref="H5" r:id="rId34" xr:uid="{F4B50A17-D85C-4B44-BCBB-6AEA8F497802}"/>
-    <hyperlink ref="H7" r:id="rId35" xr:uid="{87E92ADF-1297-48BE-8162-6C1AF213D5CE}"/>
-    <hyperlink ref="H9" r:id="rId36" xr:uid="{BCE32FF5-4FF5-46BE-942A-80E0FCA9EF8E}"/>
-    <hyperlink ref="H11" r:id="rId37" xr:uid="{7E802B36-A6AE-4CB4-B741-2D612266E504}"/>
-    <hyperlink ref="H13" r:id="rId38" xr:uid="{5CC39A1F-6056-4730-AF29-119B52CF757E}"/>
-    <hyperlink ref="H15" r:id="rId39" xr:uid="{25DD13EC-5F5D-4FD9-8665-99967AC45353}"/>
-    <hyperlink ref="H17" r:id="rId40" xr:uid="{C353D7FA-D6FA-4359-991E-7E5D80A69DCE}"/>
+    <hyperlink ref="I4:I5" r:id="rId6" display="AutoTestChicago1@gmail.com" xr:uid="{C9481CE0-2508-41E6-A916-6DEE20D9E1A0}"/>
+    <hyperlink ref="I6:I7" r:id="rId7" display="AutoTestChicago1@gmail.com" xr:uid="{FD3D8037-74BE-4749-8808-67ACB96B7FEA}"/>
+    <hyperlink ref="I8:I9" r:id="rId8" display="AutoTestChicago1@gmail.com" xr:uid="{A79E3732-2844-49C8-8701-0FD3C08E02F4}"/>
+    <hyperlink ref="I10:I11" r:id="rId9" display="AutoTestChicago1@gmail.com" xr:uid="{6F7ABCC3-94A8-4942-B94F-C2A7D48C4822}"/>
+    <hyperlink ref="I12:I13" r:id="rId10" display="AutoTestChicago1@gmail.com" xr:uid="{A5A255A4-C0A8-46A2-BC38-2855EA6AE312}"/>
+    <hyperlink ref="I14:I15" r:id="rId11" display="AutoTestChicago1@gmail.com" xr:uid="{A23DAACF-7E86-4F72-87CE-DAD083D5E492}"/>
+    <hyperlink ref="I16:I17" r:id="rId12" display="AutoTestChicago1@gmail.com" xr:uid="{194C6FB3-BA95-4977-80DE-6A006CFBEC66}"/>
+    <hyperlink ref="I4" r:id="rId13" xr:uid="{79E7172D-25FB-4057-87A8-8AEB517EF0DF}"/>
+    <hyperlink ref="I6" r:id="rId14" xr:uid="{71372C41-8F24-4416-A60C-81F5259EF097}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{97501CFB-1C2F-4E63-BA73-9627AB45D56E}"/>
+    <hyperlink ref="I10" r:id="rId16" xr:uid="{B62FA038-9B79-47A1-937F-B58D8BFA51C8}"/>
+    <hyperlink ref="I12" r:id="rId17" xr:uid="{E100B131-B4BB-4674-A287-FB0AF327E132}"/>
+    <hyperlink ref="I14" r:id="rId18" xr:uid="{938601F9-05FB-47AC-B729-376FAA36D6DD}"/>
+    <hyperlink ref="I16" r:id="rId19" xr:uid="{A015B10D-73DA-4750-BBB5-E313C24DC706}"/>
+    <hyperlink ref="I5" r:id="rId20" xr:uid="{F71BD189-2D03-4B7C-9DFE-F340DF3C37B4}"/>
+    <hyperlink ref="I7" r:id="rId21" xr:uid="{69DBCB76-DC67-44F7-833A-646CEA2D7F74}"/>
+    <hyperlink ref="I9" r:id="rId22" xr:uid="{48F1A990-4BF8-4C1E-B096-0301D3989B81}"/>
+    <hyperlink ref="I11" r:id="rId23" xr:uid="{D5ED9D19-6C96-4475-B1AE-488B7BFBCBD8}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{8048E439-CF3F-4BC0-B159-8D492B54AB71}"/>
+    <hyperlink ref="I15" r:id="rId25" xr:uid="{83BD500C-B648-4789-B411-85D60FA9385E}"/>
+    <hyperlink ref="I17" r:id="rId26" xr:uid="{C6A2ABB0-4E7B-4B5A-9736-8007E9A4CD3F}"/>
+    <hyperlink ref="H4" r:id="rId27" xr:uid="{4D996292-49F0-4B26-BDA9-A8C0E4BE08F7}"/>
+    <hyperlink ref="H6" r:id="rId28" xr:uid="{749C0762-0C25-462F-979E-3693A50ED911}"/>
+    <hyperlink ref="H8" r:id="rId29" xr:uid="{114A5669-22AB-42D1-B748-48567E1FD651}"/>
+    <hyperlink ref="H10" r:id="rId30" xr:uid="{00A70196-EE88-4C78-994B-5FF7DBE35245}"/>
+    <hyperlink ref="H12" r:id="rId31" xr:uid="{2F9CE860-5141-4733-8A90-60C45D17FD9A}"/>
+    <hyperlink ref="H14" r:id="rId32" xr:uid="{B1167D6C-9AC4-409E-991E-EA0BA4ADD8EE}"/>
+    <hyperlink ref="H16" r:id="rId33" xr:uid="{A61FF0B5-3804-4EA5-A12D-24A42CC9BBCF}"/>
+    <hyperlink ref="H5" r:id="rId34" xr:uid="{B930910C-2FC8-4C3B-A8CC-E9F3CD2DA98C}"/>
+    <hyperlink ref="H7" r:id="rId35" xr:uid="{C64B1CC1-419C-4BA9-9664-9CB275E09453}"/>
+    <hyperlink ref="H9" r:id="rId36" xr:uid="{F48C74BA-CE9C-41D5-BA5D-3661F04B2CD5}"/>
+    <hyperlink ref="H11" r:id="rId37" xr:uid="{753C5DA7-343F-4ECB-A12B-3B5081190D36}"/>
+    <hyperlink ref="H13" r:id="rId38" xr:uid="{FCEC3658-98F3-4361-983D-31C97A618E00}"/>
+    <hyperlink ref="H15" r:id="rId39" xr:uid="{3B518D4C-49B6-4293-8473-14F774117C27}"/>
+    <hyperlink ref="H17" r:id="rId40" xr:uid="{E94ACFE6-547A-43C7-B057-263C1CBC2A17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2133,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -2190,37 +2142,37 @@
         <v>17</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>9</v>
@@ -2232,34 +2184,34 @@
         <v>11</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2267,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -2278,80 +2230,80 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
+      <c r="F2" s="5">
+        <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -2359,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -2370,80 +2322,80 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
+      <c r="F3" s="5">
+        <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+      <c r="AD3" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -2451,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -2462,80 +2414,80 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>163</v>
+      <c r="F4" s="5">
+        <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD4" s="5" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -2543,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -2554,80 +2506,80 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>166</v>
+      <c r="F5" s="5">
+        <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD5" s="5" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -2635,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -2646,80 +2598,80 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>163</v>
+      <c r="F6" s="5">
+        <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD6" s="5" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -2727,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -2738,80 +2690,80 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
+      <c r="F7" s="5">
+        <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD7" s="5" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -2819,10 +2771,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -2830,80 +2782,80 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="M8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD8" s="5" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -2911,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
@@ -2922,80 +2874,80 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>175</v>
+      <c r="F9" s="5">
+        <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD9" s="5" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3003,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
@@ -3014,80 +2966,80 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>178</v>
+      <c r="F10" s="5">
+        <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC10" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD10" s="5" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3095,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -3106,80 +3058,80 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>181</v>
+      <c r="F11" s="5">
+        <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD11" s="5" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3187,10 +3139,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -3198,80 +3150,80 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>184</v>
+      <c r="F12" s="5">
+        <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="AB12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC12" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD12" s="5" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3279,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -3290,80 +3242,80 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>189</v>
+      <c r="F13" s="5">
+        <v>2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD13" s="5" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3371,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -3382,80 +3334,80 @@
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>194</v>
+      <c r="F14" s="5">
+        <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="AB14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC14" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD14" s="5" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3463,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
@@ -3474,80 +3426,80 @@
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>199</v>
+      <c r="F15" s="5">
+        <v>2</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="M15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD15" s="5" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3555,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
@@ -3566,80 +3518,80 @@
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>207</v>
+      <c r="F16" s="5">
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="AB16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC16" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD16" s="5" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3647,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
@@ -3658,80 +3610,80 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>215</v>
+      <c r="F17" s="5">
+        <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="U17" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD17" s="5" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3739,10 +3691,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
@@ -3750,80 +3702,80 @@
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>223</v>
+      <c r="F18" s="5">
+        <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="J18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="AB18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC18" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD18" s="5" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3831,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
@@ -3842,80 +3794,80 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>231</v>
+      <c r="F19" s="5">
+        <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD19" s="5" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -3923,10 +3875,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -3934,80 +3886,80 @@
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>239</v>
+      <c r="F20" s="5">
+        <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="J20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="O20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="AB20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC20" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="AD20" s="5" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4016,41 +3968,41 @@
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{351EB7D8-82E1-436C-860F-1D5CA443C67F}"/>
     <hyperlink ref="T2" r:id="rId2" xr:uid="{2B7B6198-44E5-477D-9A1A-30CD23CAECCC}"/>
     <hyperlink ref="Q3" r:id="rId3" xr:uid="{D16B7B07-84E8-4639-A53C-9E620AE1AA98}"/>
-    <hyperlink ref="T3" r:id="rId4" xr:uid="{8FEE5D5A-D91F-4957-BBDD-7C3C0C0ABB3A}"/>
-    <hyperlink ref="Q4" r:id="rId5" xr:uid="{52404E07-04E7-441C-9603-036A3C1BD321}"/>
-    <hyperlink ref="Q6" r:id="rId6" xr:uid="{2D365E08-AE0E-4909-9F48-CFA409AAA4F9}"/>
-    <hyperlink ref="Q8" r:id="rId7" xr:uid="{7FD886B9-1C06-4BE1-B65C-93F19F595638}"/>
-    <hyperlink ref="Q10" r:id="rId8" xr:uid="{B9732A51-5EC8-4ADE-9B0B-7FADFD560067}"/>
-    <hyperlink ref="Q12" r:id="rId9" xr:uid="{02A88560-0698-454D-ABB6-446E63BEA669}"/>
-    <hyperlink ref="Q14" r:id="rId10" xr:uid="{339F9882-8D00-4CAF-8900-735961C5911E}"/>
-    <hyperlink ref="Q16" r:id="rId11" xr:uid="{EB21183B-C477-4609-88B8-C3CFB8678CD6}"/>
-    <hyperlink ref="Q18" r:id="rId12" xr:uid="{8828821F-07DD-454B-B4E9-ADFE384C6A20}"/>
-    <hyperlink ref="Q20" r:id="rId13" xr:uid="{05283449-8150-4407-9238-832ACAC031B9}"/>
-    <hyperlink ref="Q5" r:id="rId14" xr:uid="{3C680E6F-23EB-45C1-B3CD-7E019CF4A64C}"/>
-    <hyperlink ref="Q7" r:id="rId15" xr:uid="{84FDBF05-0AF8-44CA-B438-470431C73615}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{46DD84F6-C13C-46B0-951F-6D79C05CBD1D}"/>
-    <hyperlink ref="Q11" r:id="rId17" xr:uid="{64C65812-AABB-431F-AAEC-CE565156B32E}"/>
-    <hyperlink ref="Q13" r:id="rId18" xr:uid="{E5B7402A-7BCE-49EA-A1D9-6254518B98A5}"/>
-    <hyperlink ref="Q15" r:id="rId19" xr:uid="{BF8B9E50-D5D0-4CEE-BF35-53BCE6780839}"/>
-    <hyperlink ref="Q17" r:id="rId20" xr:uid="{89DB1F82-ED86-4ED4-8DF3-FACD814A2A2D}"/>
-    <hyperlink ref="Q19" r:id="rId21" xr:uid="{7AC0AAFA-1B43-4D89-8BC6-165533773A6C}"/>
-    <hyperlink ref="T4" r:id="rId22" xr:uid="{B0841764-971E-49C8-92B7-0581D5807C8D}"/>
-    <hyperlink ref="T6" r:id="rId23" xr:uid="{60F7AEA8-5467-4F2F-8556-D5ABE17E681A}"/>
-    <hyperlink ref="T8" r:id="rId24" xr:uid="{CBC96E67-AB8C-4552-BEAC-587ADC852054}"/>
-    <hyperlink ref="T10" r:id="rId25" xr:uid="{7A69EFBE-78A8-4463-ABE9-FBD019A71EFE}"/>
-    <hyperlink ref="T12" r:id="rId26" xr:uid="{1B37205C-43D8-4E00-90C4-242ECDB19C70}"/>
-    <hyperlink ref="T14" r:id="rId27" xr:uid="{7F9BACE1-CF7E-44F1-8602-EA9D8B53298D}"/>
-    <hyperlink ref="T16" r:id="rId28" xr:uid="{A8A6FF6F-D51A-40FC-8422-C453D9FA1D3E}"/>
-    <hyperlink ref="T18" r:id="rId29" xr:uid="{A92F3D21-0F8F-4225-BA1F-D0CFB6A4D5DD}"/>
-    <hyperlink ref="T20" r:id="rId30" xr:uid="{24D67EF0-0537-48FB-95E0-F1085CE58EB6}"/>
-    <hyperlink ref="T5" r:id="rId31" xr:uid="{376B53D4-472C-4E1C-80BA-D1FCB130596A}"/>
-    <hyperlink ref="T7" r:id="rId32" xr:uid="{B6B0FEF3-A56F-43A5-9AEF-B0DCEEF44411}"/>
-    <hyperlink ref="T9" r:id="rId33" xr:uid="{5FAF925F-985A-493D-9639-8151794FA3B2}"/>
-    <hyperlink ref="T11" r:id="rId34" xr:uid="{922629DC-314B-4C19-B256-9FE872E96D09}"/>
-    <hyperlink ref="T13" r:id="rId35" xr:uid="{7E05EE8B-433C-4C17-9949-7752E9FB8FDC}"/>
-    <hyperlink ref="T15" r:id="rId36" xr:uid="{AE589AA3-7ACE-4FDB-A8A9-32D0E472873C}"/>
-    <hyperlink ref="T17" r:id="rId37" xr:uid="{037C70F1-D075-4490-B72B-9569BA3A126E}"/>
-    <hyperlink ref="T19" r:id="rId38" xr:uid="{E202CD58-C4DA-4829-B008-702F500430A1}"/>
+    <hyperlink ref="Q4" r:id="rId4" xr:uid="{52404E07-04E7-441C-9603-036A3C1BD321}"/>
+    <hyperlink ref="Q6" r:id="rId5" xr:uid="{2D365E08-AE0E-4909-9F48-CFA409AAA4F9}"/>
+    <hyperlink ref="Q8" r:id="rId6" xr:uid="{7FD886B9-1C06-4BE1-B65C-93F19F595638}"/>
+    <hyperlink ref="Q10" r:id="rId7" xr:uid="{B9732A51-5EC8-4ADE-9B0B-7FADFD560067}"/>
+    <hyperlink ref="Q12" r:id="rId8" xr:uid="{02A88560-0698-454D-ABB6-446E63BEA669}"/>
+    <hyperlink ref="Q14" r:id="rId9" xr:uid="{339F9882-8D00-4CAF-8900-735961C5911E}"/>
+    <hyperlink ref="Q16" r:id="rId10" xr:uid="{EB21183B-C477-4609-88B8-C3CFB8678CD6}"/>
+    <hyperlink ref="Q18" r:id="rId11" xr:uid="{8828821F-07DD-454B-B4E9-ADFE384C6A20}"/>
+    <hyperlink ref="Q20" r:id="rId12" xr:uid="{05283449-8150-4407-9238-832ACAC031B9}"/>
+    <hyperlink ref="Q5" r:id="rId13" xr:uid="{3C680E6F-23EB-45C1-B3CD-7E019CF4A64C}"/>
+    <hyperlink ref="Q7" r:id="rId14" xr:uid="{84FDBF05-0AF8-44CA-B438-470431C73615}"/>
+    <hyperlink ref="Q9" r:id="rId15" xr:uid="{46DD84F6-C13C-46B0-951F-6D79C05CBD1D}"/>
+    <hyperlink ref="Q11" r:id="rId16" xr:uid="{64C65812-AABB-431F-AAEC-CE565156B32E}"/>
+    <hyperlink ref="Q13" r:id="rId17" xr:uid="{E5B7402A-7BCE-49EA-A1D9-6254518B98A5}"/>
+    <hyperlink ref="Q15" r:id="rId18" xr:uid="{BF8B9E50-D5D0-4CEE-BF35-53BCE6780839}"/>
+    <hyperlink ref="Q17" r:id="rId19" xr:uid="{89DB1F82-ED86-4ED4-8DF3-FACD814A2A2D}"/>
+    <hyperlink ref="Q19" r:id="rId20" xr:uid="{7AC0AAFA-1B43-4D89-8BC6-165533773A6C}"/>
+    <hyperlink ref="T3" r:id="rId21" xr:uid="{574FA1F0-6967-4B14-A17D-3321E82080B4}"/>
+    <hyperlink ref="T4" r:id="rId22" xr:uid="{3E26E38C-EAAA-4E07-BF80-365819F3D280}"/>
+    <hyperlink ref="T6" r:id="rId23" xr:uid="{1A15176B-B04D-4D59-A426-EE6FFA1FA056}"/>
+    <hyperlink ref="T8" r:id="rId24" xr:uid="{4F54608A-350F-4A94-9DCB-7212928E920B}"/>
+    <hyperlink ref="T10" r:id="rId25" xr:uid="{4C6A8FFA-421B-4AD2-B81D-69E1649F2B0E}"/>
+    <hyperlink ref="T12" r:id="rId26" xr:uid="{BCA8145E-528C-4391-B2FF-56D566675C7A}"/>
+    <hyperlink ref="T14" r:id="rId27" xr:uid="{1B75A24E-0499-43D3-B901-1EC13AEB3EA4}"/>
+    <hyperlink ref="T16" r:id="rId28" xr:uid="{895BA6AD-38F0-464B-A718-76DCE3A71036}"/>
+    <hyperlink ref="T18" r:id="rId29" xr:uid="{8E286C63-4D2C-4296-8858-C7B79623877D}"/>
+    <hyperlink ref="T20" r:id="rId30" xr:uid="{613183B6-0E12-4A6A-9A5B-E72C65C0D6E7}"/>
+    <hyperlink ref="T5" r:id="rId31" xr:uid="{C982C112-EAB1-47C0-A310-B7A69B421718}"/>
+    <hyperlink ref="T7" r:id="rId32" xr:uid="{4D415C1B-A839-42CF-9E1F-03C51E53E738}"/>
+    <hyperlink ref="T9" r:id="rId33" xr:uid="{AFB2968F-7E8A-446B-A008-CD7A0704E477}"/>
+    <hyperlink ref="T11" r:id="rId34" xr:uid="{E8A51998-4088-487A-B604-3BCC4AFB6B9D}"/>
+    <hyperlink ref="T13" r:id="rId35" xr:uid="{39EBACC5-4386-4ECE-833B-DA6CD5CC49D8}"/>
+    <hyperlink ref="T15" r:id="rId36" xr:uid="{AF939DC7-48E1-4D1C-B16E-8961D2EF2BDD}"/>
+    <hyperlink ref="T17" r:id="rId37" xr:uid="{4C81D209-52B4-4ADB-AA03-7203EA71BFD6}"/>
+    <hyperlink ref="T19" r:id="rId38" xr:uid="{9E413A02-5129-43D5-9F53-46B6A7A9BDF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A764F2CD-4DD8-423E-A8D1-3E00F19B0CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E349215-0006-41AC-8B57-4B5D82ECC831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="201">
   <si>
     <t>run</t>
   </si>
@@ -588,42 +588,6 @@
     <t xml:space="preserve"> Tshirt       </t>
   </si>
   <si>
-    <t xml:space="preserve"> Bracelet     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dark Brown Jeans     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blue Shoes           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blue Tshirt          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Denim Blue Jeans     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Shoes            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Green Tshirt         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dark Grey Jeans      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anchor Bracelet      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Faint Blue Jeans     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boho Bangle Bracelet </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Basic Blue Jeans     </t>
-  </si>
-  <si>
     <t>@mail.com</t>
   </si>
   <si>
@@ -631,6 +595,51 @@
   </si>
   <si>
     <t>@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blue Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dark Brown Jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Denim Blue Jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Green Tshirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dark Grey Jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anchor Bracelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faint Blue Jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boho Bangle Bracelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basic Blue Jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blue Tshirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bracelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tshirt</t>
   </si>
 </sst>
 </file>
@@ -816,7 +825,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1242,15 +1251,15 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>CONCATENATE($F$2,O2)</f>
-        <v>AutomationTestPalatine44</v>
+        <v>AutomationTestPalatine60</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>G2</f>
-        <v>AutomationTestPalatine44</v>
+        <v>AutomationTestPalatine60</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE(G2,$P$2)</f>
-        <v>AutomationTestPalatine44@gmail.com</v>
+        <v>AutomationTestPalatine60@gmail.com</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>31</v>
@@ -1268,10 +1277,10 @@
         <v>105</v>
       </c>
       <c r="O2">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1293,15 +1302,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G17" si="0">CONCATENATE($F$2,O3)</f>
-        <v>AutomationTestPalatine45</v>
+        <v>AutomationTestPalatine61</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H17" si="1">G3</f>
-        <v>AutomationTestPalatine45</v>
+        <v>AutomationTestPalatine61</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I17" si="2">CONCATENATE(G3,$P$2)</f>
-        <v>AutomationTestPalatine45@gmail.com</v>
+        <v>AutomationTestPalatine61@gmail.com</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>100</v>
@@ -1319,7 +1328,7 @@
         <v>105</v>
       </c>
       <c r="O3">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1341,15 +1350,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine46</v>
+        <v>AutomationTestPalatine62</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine46</v>
+        <v>AutomationTestPalatine62</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine46@gmail.com</v>
+        <v>AutomationTestPalatine62@gmail.com</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -1367,7 +1376,7 @@
         <v>105</v>
       </c>
       <c r="O4">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1389,15 +1398,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine47</v>
+        <v>AutomationTestPalatine63</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine47</v>
+        <v>AutomationTestPalatine63</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine47@gmail.com</v>
+        <v>AutomationTestPalatine63@gmail.com</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>100</v>
@@ -1415,7 +1424,7 @@
         <v>105</v>
       </c>
       <c r="O5">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1437,15 +1446,15 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine48</v>
+        <v>AutomationTestPalatine64</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine48</v>
+        <v>AutomationTestPalatine64</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine48@gmail.com</v>
+        <v>AutomationTestPalatine64@gmail.com</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>31</v>
@@ -1463,7 +1472,7 @@
         <v>105</v>
       </c>
       <c r="O6">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1485,15 +1494,15 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine49</v>
+        <v>AutomationTestPalatine65</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine49</v>
+        <v>AutomationTestPalatine65</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine49@gmail.com</v>
+        <v>AutomationTestPalatine65@gmail.com</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>100</v>
@@ -1511,7 +1520,7 @@
         <v>105</v>
       </c>
       <c r="O7">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1533,15 +1542,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine50</v>
+        <v>AutomationTestPalatine66</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine50</v>
+        <v>AutomationTestPalatine66</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine50@gmail.com</v>
+        <v>AutomationTestPalatine66@gmail.com</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>31</v>
@@ -1559,7 +1568,7 @@
         <v>105</v>
       </c>
       <c r="O8">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1581,15 +1590,15 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine51</v>
+        <v>AutomationTestPalatine67</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine51</v>
+        <v>AutomationTestPalatine67</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine51@gmail.com</v>
+        <v>AutomationTestPalatine67@gmail.com</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>100</v>
@@ -1607,7 +1616,7 @@
         <v>105</v>
       </c>
       <c r="O9">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1629,15 +1638,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine52</v>
+        <v>AutomationTestPalatine68</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine52</v>
+        <v>AutomationTestPalatine68</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine52@gmail.com</v>
+        <v>AutomationTestPalatine68@gmail.com</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>31</v>
@@ -1655,7 +1664,7 @@
         <v>105</v>
       </c>
       <c r="O10">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1677,15 +1686,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine53</v>
+        <v>AutomationTestPalatine69</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine53</v>
+        <v>AutomationTestPalatine69</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine53@gmail.com</v>
+        <v>AutomationTestPalatine69@gmail.com</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>100</v>
@@ -1703,7 +1712,7 @@
         <v>105</v>
       </c>
       <c r="O11">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1725,15 +1734,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine54</v>
+        <v>AutomationTestPalatine70</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine54</v>
+        <v>AutomationTestPalatine70</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine54@gmail.com</v>
+        <v>AutomationTestPalatine70@gmail.com</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>31</v>
@@ -1751,7 +1760,7 @@
         <v>105</v>
       </c>
       <c r="O12">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1773,15 +1782,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine55</v>
+        <v>AutomationTestPalatine71</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine55</v>
+        <v>AutomationTestPalatine71</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine55@gmail.com</v>
+        <v>AutomationTestPalatine71@gmail.com</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>100</v>
@@ -1799,7 +1808,7 @@
         <v>105</v>
       </c>
       <c r="O13">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1821,15 +1830,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine56</v>
+        <v>AutomationTestPalatine72</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine56</v>
+        <v>AutomationTestPalatine72</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine56@gmail.com</v>
+        <v>AutomationTestPalatine72@gmail.com</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>31</v>
@@ -1847,7 +1856,7 @@
         <v>105</v>
       </c>
       <c r="O14">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1869,15 +1878,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine57</v>
+        <v>AutomationTestPalatine73</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine57</v>
+        <v>AutomationTestPalatine73</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine57@gmail.com</v>
+        <v>AutomationTestPalatine73@gmail.com</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>100</v>
@@ -1895,7 +1904,7 @@
         <v>105</v>
       </c>
       <c r="O15">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1917,15 +1926,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine58</v>
+        <v>AutomationTestPalatine74</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine58</v>
+        <v>AutomationTestPalatine74</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine58@gmail.com</v>
+        <v>AutomationTestPalatine74@gmail.com</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>31</v>
@@ -1943,7 +1952,7 @@
         <v>105</v>
       </c>
       <c r="O16">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1965,15 +1974,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine59</v>
+        <v>AutomationTestPalatine75</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine59</v>
+        <v>AutomationTestPalatine75</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine59@gmail.com</v>
+        <v>AutomationTestPalatine75@gmail.com</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>100</v>
@@ -1991,7 +2000,7 @@
         <v>105</v>
       </c>
       <c r="O17">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2032,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,7 +2186,7 @@
         <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -2216,19 +2225,19 @@
         <v>123</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="S2" s="1" t="str">
         <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity51</v>
+        <v>TestChicagoCity70</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>S2</f>
-        <v>TestChicagoCity51</v>
+        <v>TestChicagoCity70</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity51@mail.com</v>
+        <v>TestChicagoCity70@mail.com</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>110</v>
@@ -2261,10 +2270,10 @@
         <v>121</v>
       </c>
       <c r="AF2">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
@@ -2281,7 +2290,7 @@
         <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -2322,15 +2331,15 @@
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity52</v>
+        <v>TestChicagoCity71</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity52</v>
+        <v>TestChicagoCity71</v>
       </c>
       <c r="U3" s="11" t="str">
         <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity52@mail.com</v>
+        <v>TestChicagoCity71@mail.com</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>110</v>
@@ -2363,7 +2372,7 @@
         <v>125</v>
       </c>
       <c r="AF3">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
@@ -2381,7 +2390,7 @@
         <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2422,15 +2431,15 @@
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity53</v>
+        <v>TestChicagoCity72</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity53</v>
+        <v>TestChicagoCity72</v>
       </c>
       <c r="U4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity53@mail.com</v>
+        <v>TestChicagoCity72@mail.com</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>110</v>
@@ -2463,7 +2472,7 @@
         <v>127</v>
       </c>
       <c r="AF4">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
@@ -2481,7 +2490,7 @@
         <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -2522,15 +2531,15 @@
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity54</v>
+        <v>TestChicagoCity73</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity54</v>
+        <v>TestChicagoCity73</v>
       </c>
       <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity54@mail.com</v>
+        <v>TestChicagoCity73@mail.com</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>110</v>
@@ -2563,7 +2572,7 @@
         <v>128</v>
       </c>
       <c r="AF5">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
@@ -2581,7 +2590,7 @@
         <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2622,15 +2631,15 @@
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity55</v>
+        <v>TestChicagoCity74</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity55</v>
+        <v>TestChicagoCity74</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity55@mail.com</v>
+        <v>TestChicagoCity74@mail.com</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>110</v>
@@ -2663,7 +2672,7 @@
         <v>129</v>
       </c>
       <c r="AF6">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
@@ -2681,7 +2690,7 @@
         <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2722,15 +2731,15 @@
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity56</v>
+        <v>TestChicagoCity75</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity56</v>
+        <v>TestChicagoCity75</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity56@mail.com</v>
+        <v>TestChicagoCity75@mail.com</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>110</v>
@@ -2763,7 +2772,7 @@
         <v>130</v>
       </c>
       <c r="AF7">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
@@ -2778,10 +2787,10 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2821,16 +2830,16 @@
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity57</v>
+        <f>CONCATENATE($R$2,AF8)</f>
+        <v>TestChicagoCity76</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity57</v>
+        <v>TestChicagoCity76</v>
       </c>
       <c r="U8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity57@mail.com</v>
+        <v>TestChicagoCity76@mail.com</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>110</v>
@@ -2863,7 +2872,7 @@
         <v>131</v>
       </c>
       <c r="AF8">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
@@ -2878,10 +2887,10 @@
         <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -2922,15 +2931,15 @@
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity58</v>
+        <v>TestChicagoCity77</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity58</v>
+        <v>TestChicagoCity77</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity58@mail.com</v>
+        <v>TestChicagoCity77@mail.com</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>110</v>
@@ -2963,7 +2972,7 @@
         <v>132</v>
       </c>
       <c r="AF9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
@@ -2978,10 +2987,10 @@
         <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3022,15 +3031,15 @@
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity59</v>
+        <v>TestChicagoCity78</v>
       </c>
       <c r="T10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity59</v>
+        <v>TestChicagoCity78</v>
       </c>
       <c r="U10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity59@mail.com</v>
+        <v>TestChicagoCity78@mail.com</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>110</v>
@@ -3063,7 +3072,7 @@
         <v>133</v>
       </c>
       <c r="AF10">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
@@ -3078,10 +3087,10 @@
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -3122,15 +3131,15 @@
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity60</v>
+        <v>TestChicagoCity79</v>
       </c>
       <c r="T11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity60</v>
+        <v>TestChicagoCity79</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity60@mail.com</v>
+        <v>TestChicagoCity79@mail.com</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>110</v>
@@ -3163,7 +3172,7 @@
         <v>134</v>
       </c>
       <c r="AF11">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
@@ -3178,10 +3187,10 @@
         <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3222,15 +3231,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity61</v>
+        <v>TestChicagoCity80</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity61</v>
+        <v>TestChicagoCity80</v>
       </c>
       <c r="U12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity61@mail.com</v>
+        <v>TestChicagoCity80@mail.com</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>110</v>
@@ -3263,7 +3272,7 @@
         <v>137</v>
       </c>
       <c r="AF12">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
@@ -3278,10 +3287,10 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -3322,15 +3331,15 @@
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity62</v>
+        <v>TestChicagoCity81</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity62</v>
+        <v>TestChicagoCity81</v>
       </c>
       <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity62@mail.com</v>
+        <v>TestChicagoCity81@mail.com</v>
       </c>
       <c r="V13" s="15" t="s">
         <v>110</v>
@@ -3363,7 +3372,7 @@
         <v>140</v>
       </c>
       <c r="AF13">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
@@ -3378,10 +3387,10 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3422,15 +3431,15 @@
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity63</v>
+        <v>TestChicagoCity82</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity63</v>
+        <v>TestChicagoCity82</v>
       </c>
       <c r="U14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity63@mail.com</v>
+        <v>TestChicagoCity82@mail.com</v>
       </c>
       <c r="V14" s="15" t="s">
         <v>110</v>
@@ -3463,7 +3472,7 @@
         <v>143</v>
       </c>
       <c r="AF14">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
@@ -3478,10 +3487,10 @@
         <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3522,15 +3531,15 @@
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity64</v>
+        <v>TestChicagoCity83</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity64</v>
+        <v>TestChicagoCity83</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity64@mail.com</v>
+        <v>TestChicagoCity83@mail.com</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>110</v>
@@ -3563,7 +3572,7 @@
         <v>149</v>
       </c>
       <c r="AF15">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
@@ -3578,10 +3587,10 @@
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3622,15 +3631,15 @@
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity65</v>
+        <v>TestChicagoCity84</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity65</v>
+        <v>TestChicagoCity84</v>
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity65@mail.com</v>
+        <v>TestChicagoCity84@mail.com</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>110</v>
@@ -3663,7 +3672,7 @@
         <v>155</v>
       </c>
       <c r="AF16">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
@@ -3678,10 +3687,10 @@
         <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3722,15 +3731,15 @@
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity66</v>
+        <v>TestChicagoCity85</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity66</v>
+        <v>TestChicagoCity85</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity66@mail.com</v>
+        <v>TestChicagoCity85@mail.com</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>110</v>
@@ -3763,7 +3772,7 @@
         <v>161</v>
       </c>
       <c r="AF17">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3777,10 +3786,10 @@
         <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3821,15 +3830,15 @@
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity67</v>
+        <v>TestChicagoCity86</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity67</v>
+        <v>TestChicagoCity86</v>
       </c>
       <c r="U18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity67@mail.com</v>
+        <v>TestChicagoCity86@mail.com</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>110</v>
@@ -3862,7 +3871,7 @@
         <v>167</v>
       </c>
       <c r="AF18">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3876,10 +3885,10 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3920,15 +3929,15 @@
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity68</v>
+        <v>TestChicagoCity87</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity68</v>
+        <v>TestChicagoCity87</v>
       </c>
       <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity68@mail.com</v>
+        <v>TestChicagoCity87@mail.com</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>110</v>
@@ -3961,7 +3970,7 @@
         <v>173</v>
       </c>
       <c r="AF19">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3975,10 +3984,10 @@
         <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -4019,15 +4028,15 @@
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity69</v>
+        <v>TestChicagoCity88</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity69</v>
+        <v>TestChicagoCity88</v>
       </c>
       <c r="U20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity69@mail.com</v>
+        <v>TestChicagoCity88@mail.com</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>110</v>
@@ -4060,7 +4069,7 @@
         <v>179</v>
       </c>
       <c r="AF20">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E349215-0006-41AC-8B57-4B5D82ECC831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C82136-306F-4E91-93F1-561A1C60B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="205">
   <si>
     <t>run</t>
   </si>
@@ -606,40 +606,52 @@
     <t xml:space="preserve"> Denim Blue Jeans</t>
   </si>
   <si>
-    <t xml:space="preserve"> Red Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Green Tshirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dark Grey Jeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anchor Bracelet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Faint Blue Jeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boho Bangle Bracelet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Basic Blue Jeans</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Blue Tshirt</t>
   </si>
   <si>
-    <t xml:space="preserve"> jeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bracelet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tshirt</t>
+    <t>Red Shoes</t>
+  </si>
+  <si>
+    <t>Green Tshirt</t>
+  </si>
+  <si>
+    <t>Dark Grey Jeans</t>
+  </si>
+  <si>
+    <t>Anchor Bracelet</t>
+  </si>
+  <si>
+    <t>Faint Blue Jeans</t>
+  </si>
+  <si>
+    <t>Boho Bangle Bracelet</t>
+  </si>
+  <si>
+    <t>Basic Blue Jeans</t>
+  </si>
+  <si>
+    <t>Dark Brown Jeans</t>
+  </si>
+  <si>
+    <t>Blue Shoes</t>
+  </si>
+  <si>
+    <t>Blue Tshirt</t>
+  </si>
+  <si>
+    <t>Denim Blue Jeans</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>Bracelet</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1251,15 +1263,15 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>CONCATENATE($F$2,O2)</f>
-        <v>AutomationTestPalatine60</v>
+        <v>AutomationTestPalatine76</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>G2</f>
-        <v>AutomationTestPalatine60</v>
+        <v>AutomationTestPalatine76</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE(G2,$P$2)</f>
-        <v>AutomationTestPalatine60@gmail.com</v>
+        <v>AutomationTestPalatine76@gmail.com</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>31</v>
@@ -1277,7 +1289,7 @@
         <v>105</v>
       </c>
       <c r="O2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>185</v>
@@ -1302,15 +1314,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G17" si="0">CONCATENATE($F$2,O3)</f>
-        <v>AutomationTestPalatine61</v>
+        <v>AutomationTestPalatine77</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H17" si="1">G3</f>
-        <v>AutomationTestPalatine61</v>
+        <v>AutomationTestPalatine77</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I17" si="2">CONCATENATE(G3,$P$2)</f>
-        <v>AutomationTestPalatine61@gmail.com</v>
+        <v>AutomationTestPalatine77@gmail.com</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>100</v>
@@ -1328,7 +1340,7 @@
         <v>105</v>
       </c>
       <c r="O3">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1350,15 +1362,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine62</v>
+        <v>AutomationTestPalatine78</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine62</v>
+        <v>AutomationTestPalatine78</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine62@gmail.com</v>
+        <v>AutomationTestPalatine78@gmail.com</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -1376,7 +1388,7 @@
         <v>105</v>
       </c>
       <c r="O4">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1398,15 +1410,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine63</v>
+        <v>AutomationTestPalatine79</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine63</v>
+        <v>AutomationTestPalatine79</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine63@gmail.com</v>
+        <v>AutomationTestPalatine79@gmail.com</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>100</v>
@@ -1424,7 +1436,7 @@
         <v>105</v>
       </c>
       <c r="O5">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1446,15 +1458,15 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine64</v>
+        <v>AutomationTestPalatine80</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine64</v>
+        <v>AutomationTestPalatine80</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine64@gmail.com</v>
+        <v>AutomationTestPalatine80@gmail.com</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>31</v>
@@ -1472,7 +1484,7 @@
         <v>105</v>
       </c>
       <c r="O6">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1494,15 +1506,15 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine65</v>
+        <v>AutomationTestPalatine81</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine65</v>
+        <v>AutomationTestPalatine81</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine65@gmail.com</v>
+        <v>AutomationTestPalatine81@gmail.com</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>100</v>
@@ -1520,7 +1532,7 @@
         <v>105</v>
       </c>
       <c r="O7">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1542,15 +1554,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine66</v>
+        <v>AutomationTestPalatine82</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine66</v>
+        <v>AutomationTestPalatine82</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine66@gmail.com</v>
+        <v>AutomationTestPalatine82@gmail.com</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>31</v>
@@ -1568,7 +1580,7 @@
         <v>105</v>
       </c>
       <c r="O8">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1590,15 +1602,15 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine67</v>
+        <v>AutomationTestPalatine83</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine67</v>
+        <v>AutomationTestPalatine83</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine67@gmail.com</v>
+        <v>AutomationTestPalatine83@gmail.com</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>100</v>
@@ -1616,7 +1628,7 @@
         <v>105</v>
       </c>
       <c r="O9">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1638,15 +1650,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine68</v>
+        <v>AutomationTestPalatine84</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine68</v>
+        <v>AutomationTestPalatine84</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine68@gmail.com</v>
+        <v>AutomationTestPalatine84@gmail.com</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>31</v>
@@ -1664,7 +1676,7 @@
         <v>105</v>
       </c>
       <c r="O10">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1686,15 +1698,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine69</v>
+        <v>AutomationTestPalatine85</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine69</v>
+        <v>AutomationTestPalatine85</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine69@gmail.com</v>
+        <v>AutomationTestPalatine85@gmail.com</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>100</v>
@@ -1712,7 +1724,7 @@
         <v>105</v>
       </c>
       <c r="O11">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1734,15 +1746,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine70</v>
+        <v>AutomationTestPalatine86</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine70</v>
+        <v>AutomationTestPalatine86</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine70@gmail.com</v>
+        <v>AutomationTestPalatine86@gmail.com</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>31</v>
@@ -1760,7 +1772,7 @@
         <v>105</v>
       </c>
       <c r="O12">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1782,15 +1794,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine71</v>
+        <v>AutomationTestPalatine87</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine71</v>
+        <v>AutomationTestPalatine87</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine71@gmail.com</v>
+        <v>AutomationTestPalatine87@gmail.com</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>100</v>
@@ -1808,7 +1820,7 @@
         <v>105</v>
       </c>
       <c r="O13">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1830,15 +1842,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine72</v>
+        <v>AutomationTestPalatine88</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine72</v>
+        <v>AutomationTestPalatine88</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine72@gmail.com</v>
+        <v>AutomationTestPalatine88@gmail.com</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>31</v>
@@ -1856,7 +1868,7 @@
         <v>105</v>
       </c>
       <c r="O14">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1878,15 +1890,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine73</v>
+        <v>AutomationTestPalatine89</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine73</v>
+        <v>AutomationTestPalatine89</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine73@gmail.com</v>
+        <v>AutomationTestPalatine89@gmail.com</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>100</v>
@@ -1904,7 +1916,7 @@
         <v>105</v>
       </c>
       <c r="O15">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1926,15 +1938,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine74</v>
+        <v>AutomationTestPalatine90</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine74</v>
+        <v>AutomationTestPalatine90</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine74@gmail.com</v>
+        <v>AutomationTestPalatine90@gmail.com</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>31</v>
@@ -1952,7 +1964,7 @@
         <v>105</v>
       </c>
       <c r="O16">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1974,15 +1986,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine75</v>
+        <v>AutomationTestPalatine91</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine75</v>
+        <v>AutomationTestPalatine91</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine75@gmail.com</v>
+        <v>AutomationTestPalatine91@gmail.com</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>100</v>
@@ -2000,7 +2012,7 @@
         <v>105</v>
       </c>
       <c r="O17">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2041,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AF20"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2065,7 +2077,7 @@
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -2229,15 +2241,15 @@
       </c>
       <c r="S2" s="1" t="str">
         <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity70</v>
+        <v>TestChicagoCity89</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>S2</f>
-        <v>TestChicagoCity70</v>
+        <v>TestChicagoCity89</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity70@mail.com</v>
+        <v>TestChicagoCity89@mail.com</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>110</v>
@@ -2270,7 +2282,7 @@
         <v>121</v>
       </c>
       <c r="AF2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AG2" s="18" t="s">
         <v>183</v>
@@ -2331,15 +2343,15 @@
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity71</v>
+        <v>TestChicagoCity90</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity71</v>
+        <v>TestChicagoCity90</v>
       </c>
       <c r="U3" s="11" t="str">
         <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity71@mail.com</v>
+        <v>TestChicagoCity90@mail.com</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>110</v>
@@ -2372,7 +2384,7 @@
         <v>125</v>
       </c>
       <c r="AF3">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
@@ -2390,7 +2402,7 @@
         <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2431,15 +2443,15 @@
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity72</v>
+        <v>TestChicagoCity91</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity72</v>
+        <v>TestChicagoCity91</v>
       </c>
       <c r="U4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity72@mail.com</v>
+        <v>TestChicagoCity91@mail.com</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>110</v>
@@ -2472,7 +2484,7 @@
         <v>127</v>
       </c>
       <c r="AF4">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
@@ -2531,15 +2543,15 @@
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity73</v>
+        <v>TestChicagoCity92</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity73</v>
+        <v>TestChicagoCity92</v>
       </c>
       <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity73@mail.com</v>
+        <v>TestChicagoCity92@mail.com</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>110</v>
@@ -2572,7 +2584,7 @@
         <v>128</v>
       </c>
       <c r="AF5">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
@@ -2587,10 +2599,10 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2631,15 +2643,15 @@
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity74</v>
+        <v>TestChicagoCity93</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity74</v>
+        <v>TestChicagoCity93</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity74@mail.com</v>
+        <v>TestChicagoCity93@mail.com</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>110</v>
@@ -2672,7 +2684,7 @@
         <v>129</v>
       </c>
       <c r="AF6">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
@@ -2687,10 +2699,10 @@
         <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2731,15 +2743,15 @@
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity75</v>
+        <v>TestChicagoCity94</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity75</v>
+        <v>TestChicagoCity94</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity75@mail.com</v>
+        <v>TestChicagoCity94@mail.com</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>110</v>
@@ -2772,7 +2784,7 @@
         <v>130</v>
       </c>
       <c r="AF7">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
@@ -2787,10 +2799,10 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2831,15 +2843,15 @@
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="str">
         <f>CONCATENATE($R$2,AF8)</f>
-        <v>TestChicagoCity76</v>
+        <v>TestChicagoCity95</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity76</v>
+        <v>TestChicagoCity95</v>
       </c>
       <c r="U8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity76@mail.com</v>
+        <v>TestChicagoCity95@mail.com</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>110</v>
@@ -2872,7 +2884,7 @@
         <v>131</v>
       </c>
       <c r="AF8">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
@@ -2887,10 +2899,10 @@
         <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -2931,15 +2943,15 @@
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity77</v>
+        <v>TestChicagoCity96</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity77</v>
+        <v>TestChicagoCity96</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity77@mail.com</v>
+        <v>TestChicagoCity96@mail.com</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>110</v>
@@ -2972,7 +2984,7 @@
         <v>132</v>
       </c>
       <c r="AF9">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
@@ -2987,10 +2999,10 @@
         <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3031,15 +3043,15 @@
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity78</v>
+        <v>TestChicagoCity97</v>
       </c>
       <c r="T10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity78</v>
+        <v>TestChicagoCity97</v>
       </c>
       <c r="U10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity78@mail.com</v>
+        <v>TestChicagoCity97@mail.com</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>110</v>
@@ -3072,7 +3084,7 @@
         <v>133</v>
       </c>
       <c r="AF10">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
@@ -3087,10 +3099,10 @@
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -3131,15 +3143,15 @@
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity79</v>
+        <v>TestChicagoCity98</v>
       </c>
       <c r="T11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity79</v>
+        <v>TestChicagoCity98</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity79@mail.com</v>
+        <v>TestChicagoCity98@mail.com</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>110</v>
@@ -3172,7 +3184,7 @@
         <v>134</v>
       </c>
       <c r="AF11">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
@@ -3187,10 +3199,10 @@
         <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3231,15 +3243,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity80</v>
+        <v>TestChicagoCity99</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity80</v>
+        <v>TestChicagoCity99</v>
       </c>
       <c r="U12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity80@mail.com</v>
+        <v>TestChicagoCity99@mail.com</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>110</v>
@@ -3272,7 +3284,7 @@
         <v>137</v>
       </c>
       <c r="AF12">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
@@ -3287,10 +3299,10 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
         <v>197</v>
-      </c>
-      <c r="E13" t="s">
-        <v>187</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -3331,15 +3343,15 @@
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity81</v>
+        <v>TestChicagoCity100</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity81</v>
+        <v>TestChicagoCity100</v>
       </c>
       <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity81@mail.com</v>
+        <v>TestChicagoCity100@mail.com</v>
       </c>
       <c r="V13" s="15" t="s">
         <v>110</v>
@@ -3372,7 +3384,7 @@
         <v>140</v>
       </c>
       <c r="AF13">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
@@ -3387,10 +3399,10 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3431,15 +3443,15 @@
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity82</v>
+        <v>TestChicagoCity101</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity82</v>
+        <v>TestChicagoCity101</v>
       </c>
       <c r="U14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity82@mail.com</v>
+        <v>TestChicagoCity101@mail.com</v>
       </c>
       <c r="V14" s="15" t="s">
         <v>110</v>
@@ -3472,7 +3484,7 @@
         <v>143</v>
       </c>
       <c r="AF14">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
@@ -3487,10 +3499,10 @@
         <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3531,15 +3543,15 @@
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity83</v>
+        <v>TestChicagoCity102</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity83</v>
+        <v>TestChicagoCity102</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity83@mail.com</v>
+        <v>TestChicagoCity102@mail.com</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>110</v>
@@ -3572,7 +3584,7 @@
         <v>149</v>
       </c>
       <c r="AF15">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
@@ -3587,10 +3599,10 @@
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3631,15 +3643,15 @@
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity84</v>
+        <v>TestChicagoCity103</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity84</v>
+        <v>TestChicagoCity103</v>
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity84@mail.com</v>
+        <v>TestChicagoCity103@mail.com</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>110</v>
@@ -3672,7 +3684,7 @@
         <v>155</v>
       </c>
       <c r="AF16">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
@@ -3687,10 +3699,10 @@
         <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3731,15 +3743,15 @@
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity85</v>
+        <v>TestChicagoCity104</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity85</v>
+        <v>TestChicagoCity104</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity85@mail.com</v>
+        <v>TestChicagoCity104@mail.com</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>110</v>
@@ -3772,7 +3784,7 @@
         <v>161</v>
       </c>
       <c r="AF17">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3786,10 +3798,10 @@
         <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3830,15 +3842,15 @@
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity86</v>
+        <v>TestChicagoCity105</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity86</v>
+        <v>TestChicagoCity105</v>
       </c>
       <c r="U18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity86@mail.com</v>
+        <v>TestChicagoCity105@mail.com</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>110</v>
@@ -3871,7 +3883,7 @@
         <v>167</v>
       </c>
       <c r="AF18">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3885,10 +3897,10 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3929,15 +3941,15 @@
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity87</v>
+        <v>TestChicagoCity106</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity87</v>
+        <v>TestChicagoCity106</v>
       </c>
       <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity87@mail.com</v>
+        <v>TestChicagoCity106@mail.com</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>110</v>
@@ -3970,7 +3982,7 @@
         <v>173</v>
       </c>
       <c r="AF19">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3984,10 +3996,10 @@
         <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -4028,15 +4040,15 @@
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity88</v>
+        <v>TestChicagoCity107</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity88</v>
+        <v>TestChicagoCity107</v>
       </c>
       <c r="U20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity88@mail.com</v>
+        <v>TestChicagoCity107@mail.com</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>110</v>
@@ -4069,7 +4081,7 @@
         <v>179</v>
       </c>
       <c r="AF20">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C82136-306F-4E91-93F1-561A1C60B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78CF6B2-0DBC-4984-BB72-D0E10F54BAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="201">
   <si>
     <t>run</t>
   </si>
@@ -595,18 +595,6 @@
   </si>
   <si>
     <t>@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blue Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dark Brown Jeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Denim Blue Jeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blue Tshirt</t>
   </si>
   <si>
     <t>Red Shoes</t>
@@ -1178,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O17"/>
     </sheetView>
   </sheetViews>
@@ -1263,15 +1251,15 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>CONCATENATE($F$2,O2)</f>
-        <v>AutomationTestPalatine76</v>
+        <v>AutomationTestPalatine92</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>G2</f>
-        <v>AutomationTestPalatine76</v>
+        <v>AutomationTestPalatine92</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE(G2,$P$2)</f>
-        <v>AutomationTestPalatine76@gmail.com</v>
+        <v>AutomationTestPalatine92@gmail.com</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>31</v>
@@ -1289,7 +1277,7 @@
         <v>105</v>
       </c>
       <c r="O2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>185</v>
@@ -1314,15 +1302,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G17" si="0">CONCATENATE($F$2,O3)</f>
-        <v>AutomationTestPalatine77</v>
+        <v>AutomationTestPalatine93</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H17" si="1">G3</f>
-        <v>AutomationTestPalatine77</v>
+        <v>AutomationTestPalatine93</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I17" si="2">CONCATENATE(G3,$P$2)</f>
-        <v>AutomationTestPalatine77@gmail.com</v>
+        <v>AutomationTestPalatine93@gmail.com</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>100</v>
@@ -1340,7 +1328,7 @@
         <v>105</v>
       </c>
       <c r="O3">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1362,15 +1350,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine78</v>
+        <v>AutomationTestPalatine94</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine78</v>
+        <v>AutomationTestPalatine94</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine78@gmail.com</v>
+        <v>AutomationTestPalatine94@gmail.com</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -1388,7 +1376,7 @@
         <v>105</v>
       </c>
       <c r="O4">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1410,15 +1398,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine79</v>
+        <v>AutomationTestPalatine95</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine79</v>
+        <v>AutomationTestPalatine95</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine79@gmail.com</v>
+        <v>AutomationTestPalatine95@gmail.com</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>100</v>
@@ -1436,7 +1424,7 @@
         <v>105</v>
       </c>
       <c r="O5">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1458,15 +1446,15 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine80</v>
+        <v>AutomationTestPalatine96</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine80</v>
+        <v>AutomationTestPalatine96</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine80@gmail.com</v>
+        <v>AutomationTestPalatine96@gmail.com</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>31</v>
@@ -1484,7 +1472,7 @@
         <v>105</v>
       </c>
       <c r="O6">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1506,15 +1494,15 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine81</v>
+        <v>AutomationTestPalatine97</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine81</v>
+        <v>AutomationTestPalatine97</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine81@gmail.com</v>
+        <v>AutomationTestPalatine97@gmail.com</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>100</v>
@@ -1532,7 +1520,7 @@
         <v>105</v>
       </c>
       <c r="O7">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1554,15 +1542,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine82</v>
+        <v>AutomationTestPalatine98</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine82</v>
+        <v>AutomationTestPalatine98</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine82@gmail.com</v>
+        <v>AutomationTestPalatine98@gmail.com</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>31</v>
@@ -1580,7 +1568,7 @@
         <v>105</v>
       </c>
       <c r="O8">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1602,15 +1590,15 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine83</v>
+        <v>AutomationTestPalatine99</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine83</v>
+        <v>AutomationTestPalatine99</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine83@gmail.com</v>
+        <v>AutomationTestPalatine99@gmail.com</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>100</v>
@@ -1628,7 +1616,7 @@
         <v>105</v>
       </c>
       <c r="O9">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1650,15 +1638,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine84</v>
+        <v>AutomationTestPalatine100</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine84</v>
+        <v>AutomationTestPalatine100</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine84@gmail.com</v>
+        <v>AutomationTestPalatine100@gmail.com</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>31</v>
@@ -1676,7 +1664,7 @@
         <v>105</v>
       </c>
       <c r="O10">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1698,15 +1686,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine85</v>
+        <v>AutomationTestPalatine101</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine85</v>
+        <v>AutomationTestPalatine101</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine85@gmail.com</v>
+        <v>AutomationTestPalatine101@gmail.com</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>100</v>
@@ -1724,7 +1712,7 @@
         <v>105</v>
       </c>
       <c r="O11">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1746,15 +1734,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine86</v>
+        <v>AutomationTestPalatine102</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine86</v>
+        <v>AutomationTestPalatine102</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine86@gmail.com</v>
+        <v>AutomationTestPalatine102@gmail.com</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>31</v>
@@ -1772,7 +1760,7 @@
         <v>105</v>
       </c>
       <c r="O12">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1794,15 +1782,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine87</v>
+        <v>AutomationTestPalatine103</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine87</v>
+        <v>AutomationTestPalatine103</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine87@gmail.com</v>
+        <v>AutomationTestPalatine103@gmail.com</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>100</v>
@@ -1820,7 +1808,7 @@
         <v>105</v>
       </c>
       <c r="O13">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1842,15 +1830,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine88</v>
+        <v>AutomationTestPalatine104</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine88</v>
+        <v>AutomationTestPalatine104</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine88@gmail.com</v>
+        <v>AutomationTestPalatine104@gmail.com</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>31</v>
@@ -1868,7 +1856,7 @@
         <v>105</v>
       </c>
       <c r="O14">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1890,15 +1878,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine89</v>
+        <v>AutomationTestPalatine105</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine89</v>
+        <v>AutomationTestPalatine105</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine89@gmail.com</v>
+        <v>AutomationTestPalatine105@gmail.com</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>100</v>
@@ -1916,7 +1904,7 @@
         <v>105</v>
       </c>
       <c r="O15">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1938,15 +1926,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine90</v>
+        <v>AutomationTestPalatine106</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine90</v>
+        <v>AutomationTestPalatine106</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine90@gmail.com</v>
+        <v>AutomationTestPalatine106@gmail.com</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>31</v>
@@ -1964,7 +1952,7 @@
         <v>105</v>
       </c>
       <c r="O16">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1986,15 +1974,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine91</v>
+        <v>AutomationTestPalatine107</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine91</v>
+        <v>AutomationTestPalatine107</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine91@gmail.com</v>
+        <v>AutomationTestPalatine107@gmail.com</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>100</v>
@@ -2012,7 +2000,7 @@
         <v>105</v>
       </c>
       <c r="O17">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2053,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,7 +2051,7 @@
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -2198,7 +2186,7 @@
         <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -2241,15 +2229,15 @@
       </c>
       <c r="S2" s="1" t="str">
         <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity89</v>
+        <v>TestChicagoCity108</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>S2</f>
-        <v>TestChicagoCity89</v>
+        <v>TestChicagoCity108</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity89@mail.com</v>
+        <v>TestChicagoCity108@mail.com</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>110</v>
@@ -2282,7 +2270,7 @@
         <v>121</v>
       </c>
       <c r="AF2">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="AG2" s="18" t="s">
         <v>183</v>
@@ -2302,7 +2290,7 @@
         <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -2343,15 +2331,15 @@
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity90</v>
+        <v>TestChicagoCity109</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity90</v>
+        <v>TestChicagoCity109</v>
       </c>
       <c r="U3" s="11" t="str">
         <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity90@mail.com</v>
+        <v>TestChicagoCity109@mail.com</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>110</v>
@@ -2384,7 +2372,7 @@
         <v>125</v>
       </c>
       <c r="AF3">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
@@ -2402,7 +2390,7 @@
         <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2443,15 +2431,15 @@
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity91</v>
+        <v>TestChicagoCity110</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity91</v>
+        <v>TestChicagoCity110</v>
       </c>
       <c r="U4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity91@mail.com</v>
+        <v>TestChicagoCity110@mail.com</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>110</v>
@@ -2484,7 +2472,7 @@
         <v>127</v>
       </c>
       <c r="AF4">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
@@ -2502,7 +2490,7 @@
         <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -2543,15 +2531,15 @@
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity92</v>
+        <v>TestChicagoCity111</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity92</v>
+        <v>TestChicagoCity111</v>
       </c>
       <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity92@mail.com</v>
+        <v>TestChicagoCity111@mail.com</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>110</v>
@@ -2584,7 +2572,7 @@
         <v>128</v>
       </c>
       <c r="AF5">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
@@ -2599,10 +2587,10 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2643,15 +2631,15 @@
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity93</v>
+        <v>TestChicagoCity112</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity93</v>
+        <v>TestChicagoCity112</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity93@mail.com</v>
+        <v>TestChicagoCity112@mail.com</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>110</v>
@@ -2684,7 +2672,7 @@
         <v>129</v>
       </c>
       <c r="AF6">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
@@ -2699,10 +2687,10 @@
         <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2743,15 +2731,15 @@
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity94</v>
+        <v>TestChicagoCity113</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity94</v>
+        <v>TestChicagoCity113</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity94@mail.com</v>
+        <v>TestChicagoCity113@mail.com</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>110</v>
@@ -2784,7 +2772,7 @@
         <v>130</v>
       </c>
       <c r="AF7">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
@@ -2799,10 +2787,10 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2843,15 +2831,15 @@
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="str">
         <f>CONCATENATE($R$2,AF8)</f>
-        <v>TestChicagoCity95</v>
+        <v>TestChicagoCity114</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity95</v>
+        <v>TestChicagoCity114</v>
       </c>
       <c r="U8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity95@mail.com</v>
+        <v>TestChicagoCity114@mail.com</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>110</v>
@@ -2884,7 +2872,7 @@
         <v>131</v>
       </c>
       <c r="AF8">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
@@ -2899,10 +2887,10 @@
         <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -2943,15 +2931,15 @@
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity96</v>
+        <v>TestChicagoCity115</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity96</v>
+        <v>TestChicagoCity115</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity96@mail.com</v>
+        <v>TestChicagoCity115@mail.com</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>110</v>
@@ -2984,7 +2972,7 @@
         <v>132</v>
       </c>
       <c r="AF9">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
@@ -2999,10 +2987,10 @@
         <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3043,15 +3031,15 @@
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity97</v>
+        <v>TestChicagoCity116</v>
       </c>
       <c r="T10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity97</v>
+        <v>TestChicagoCity116</v>
       </c>
       <c r="U10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity97@mail.com</v>
+        <v>TestChicagoCity116@mail.com</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>110</v>
@@ -3084,7 +3072,7 @@
         <v>133</v>
       </c>
       <c r="AF10">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
@@ -3099,10 +3087,10 @@
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -3143,15 +3131,15 @@
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity98</v>
+        <v>TestChicagoCity117</v>
       </c>
       <c r="T11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity98</v>
+        <v>TestChicagoCity117</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity98@mail.com</v>
+        <v>TestChicagoCity117@mail.com</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>110</v>
@@ -3184,7 +3172,7 @@
         <v>134</v>
       </c>
       <c r="AF11">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
@@ -3199,10 +3187,10 @@
         <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3243,15 +3231,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity99</v>
+        <v>TestChicagoCity118</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity99</v>
+        <v>TestChicagoCity118</v>
       </c>
       <c r="U12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity99@mail.com</v>
+        <v>TestChicagoCity118@mail.com</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>110</v>
@@ -3284,7 +3272,7 @@
         <v>137</v>
       </c>
       <c r="AF12">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
@@ -3299,10 +3287,10 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -3343,15 +3331,15 @@
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity100</v>
+        <v>TestChicagoCity119</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity100</v>
+        <v>TestChicagoCity119</v>
       </c>
       <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity100@mail.com</v>
+        <v>TestChicagoCity119@mail.com</v>
       </c>
       <c r="V13" s="15" t="s">
         <v>110</v>
@@ -3384,7 +3372,7 @@
         <v>140</v>
       </c>
       <c r="AF13">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
@@ -3399,10 +3387,10 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3443,15 +3431,15 @@
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity101</v>
+        <v>TestChicagoCity120</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity101</v>
+        <v>TestChicagoCity120</v>
       </c>
       <c r="U14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity101@mail.com</v>
+        <v>TestChicagoCity120@mail.com</v>
       </c>
       <c r="V14" s="15" t="s">
         <v>110</v>
@@ -3484,7 +3472,7 @@
         <v>143</v>
       </c>
       <c r="AF14">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
@@ -3499,10 +3487,10 @@
         <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3543,15 +3531,15 @@
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity102</v>
+        <v>TestChicagoCity121</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity102</v>
+        <v>TestChicagoCity121</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity102@mail.com</v>
+        <v>TestChicagoCity121@mail.com</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>110</v>
@@ -3584,7 +3572,7 @@
         <v>149</v>
       </c>
       <c r="AF15">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
@@ -3599,10 +3587,10 @@
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3643,15 +3631,15 @@
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity103</v>
+        <v>TestChicagoCity122</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity103</v>
+        <v>TestChicagoCity122</v>
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity103@mail.com</v>
+        <v>TestChicagoCity122@mail.com</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>110</v>
@@ -3684,7 +3672,7 @@
         <v>155</v>
       </c>
       <c r="AF16">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
@@ -3699,10 +3687,10 @@
         <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3743,15 +3731,15 @@
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity104</v>
+        <v>TestChicagoCity123</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity104</v>
+        <v>TestChicagoCity123</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity104@mail.com</v>
+        <v>TestChicagoCity123@mail.com</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>110</v>
@@ -3784,7 +3772,7 @@
         <v>161</v>
       </c>
       <c r="AF17">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3798,10 +3786,10 @@
         <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3842,15 +3830,15 @@
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity105</v>
+        <v>TestChicagoCity124</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity105</v>
+        <v>TestChicagoCity124</v>
       </c>
       <c r="U18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity105@mail.com</v>
+        <v>TestChicagoCity124@mail.com</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>110</v>
@@ -3883,7 +3871,7 @@
         <v>167</v>
       </c>
       <c r="AF18">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3897,10 +3885,10 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3941,15 +3929,15 @@
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity106</v>
+        <v>TestChicagoCity125</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity106</v>
+        <v>TestChicagoCity125</v>
       </c>
       <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity106@mail.com</v>
+        <v>TestChicagoCity125@mail.com</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>110</v>
@@ -3982,7 +3970,7 @@
         <v>173</v>
       </c>
       <c r="AF19">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3996,10 +3984,10 @@
         <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -4040,15 +4028,15 @@
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity107</v>
+        <v>TestChicagoCity126</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity107</v>
+        <v>TestChicagoCity126</v>
       </c>
       <c r="U20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity107@mail.com</v>
+        <v>TestChicagoCity126@mail.com</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>110</v>
@@ -4081,7 +4069,7 @@
         <v>179</v>
       </c>
       <c r="AF20">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78CF6B2-0DBC-4984-BB72-D0E10F54BAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D75BB-852A-452E-98F4-677E33EB00E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="202">
   <si>
     <t>run</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Bracelet</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1251,15 +1254,15 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>CONCATENATE($F$2,O2)</f>
-        <v>AutomationTestPalatine92</v>
+        <v>AutomationTestPalatine108</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>G2</f>
-        <v>AutomationTestPalatine92</v>
+        <v>AutomationTestPalatine108</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE(G2,$P$2)</f>
-        <v>AutomationTestPalatine92@gmail.com</v>
+        <v>AutomationTestPalatine108@gmail.com</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>31</v>
@@ -1277,7 +1280,7 @@
         <v>105</v>
       </c>
       <c r="O2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>185</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="3" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>99</v>
@@ -1302,15 +1305,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G17" si="0">CONCATENATE($F$2,O3)</f>
-        <v>AutomationTestPalatine93</v>
+        <v>AutomationTestPalatine109</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H17" si="1">G3</f>
-        <v>AutomationTestPalatine93</v>
+        <v>AutomationTestPalatine109</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I17" si="2">CONCATENATE(G3,$P$2)</f>
-        <v>AutomationTestPalatine93@gmail.com</v>
+        <v>AutomationTestPalatine109@gmail.com</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>100</v>
@@ -1328,12 +1331,12 @@
         <v>105</v>
       </c>
       <c r="O3">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>98</v>
@@ -1350,15 +1353,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine94</v>
+        <v>AutomationTestPalatine110</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine94</v>
+        <v>AutomationTestPalatine110</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine94@gmail.com</v>
+        <v>AutomationTestPalatine110@gmail.com</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -1376,12 +1379,12 @@
         <v>105</v>
       </c>
       <c r="O4">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>99</v>
@@ -1398,15 +1401,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine95</v>
+        <v>AutomationTestPalatine111</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine95</v>
+        <v>AutomationTestPalatine111</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine95@gmail.com</v>
+        <v>AutomationTestPalatine111@gmail.com</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>100</v>
@@ -1424,12 +1427,12 @@
         <v>105</v>
       </c>
       <c r="O5">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>98</v>
@@ -1446,15 +1449,15 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine96</v>
+        <v>AutomationTestPalatine112</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine96</v>
+        <v>AutomationTestPalatine112</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine96@gmail.com</v>
+        <v>AutomationTestPalatine112@gmail.com</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>31</v>
@@ -1472,12 +1475,12 @@
         <v>105</v>
       </c>
       <c r="O6">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>99</v>
@@ -1494,15 +1497,15 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine97</v>
+        <v>AutomationTestPalatine113</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine97</v>
+        <v>AutomationTestPalatine113</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine97@gmail.com</v>
+        <v>AutomationTestPalatine113@gmail.com</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>100</v>
@@ -1520,12 +1523,12 @@
         <v>105</v>
       </c>
       <c r="O7">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>98</v>
@@ -1542,15 +1545,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine98</v>
+        <v>AutomationTestPalatine114</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine98</v>
+        <v>AutomationTestPalatine114</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine98@gmail.com</v>
+        <v>AutomationTestPalatine114@gmail.com</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>31</v>
@@ -1568,12 +1571,12 @@
         <v>105</v>
       </c>
       <c r="O8">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>99</v>
@@ -1590,15 +1593,15 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine99</v>
+        <v>AutomationTestPalatine115</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine99</v>
+        <v>AutomationTestPalatine115</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine99@gmail.com</v>
+        <v>AutomationTestPalatine115@gmail.com</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>100</v>
@@ -1616,12 +1619,12 @@
         <v>105</v>
       </c>
       <c r="O9">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>98</v>
@@ -1638,15 +1641,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine100</v>
+        <v>AutomationTestPalatine116</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine100</v>
+        <v>AutomationTestPalatine116</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine100@gmail.com</v>
+        <v>AutomationTestPalatine116@gmail.com</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>31</v>
@@ -1664,12 +1667,12 @@
         <v>105</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>99</v>
@@ -1686,15 +1689,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine101</v>
+        <v>AutomationTestPalatine117</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine101</v>
+        <v>AutomationTestPalatine117</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine101@gmail.com</v>
+        <v>AutomationTestPalatine117@gmail.com</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>100</v>
@@ -1712,12 +1715,12 @@
         <v>105</v>
       </c>
       <c r="O11">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>98</v>
@@ -1734,15 +1737,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine102</v>
+        <v>AutomationTestPalatine118</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine102</v>
+        <v>AutomationTestPalatine118</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine102@gmail.com</v>
+        <v>AutomationTestPalatine118@gmail.com</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>31</v>
@@ -1760,12 +1763,12 @@
         <v>105</v>
       </c>
       <c r="O12">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>99</v>
@@ -1782,15 +1785,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine103</v>
+        <v>AutomationTestPalatine119</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine103</v>
+        <v>AutomationTestPalatine119</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine103@gmail.com</v>
+        <v>AutomationTestPalatine119@gmail.com</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>100</v>
@@ -1808,12 +1811,12 @@
         <v>105</v>
       </c>
       <c r="O13">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>98</v>
@@ -1830,15 +1833,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine104</v>
+        <v>AutomationTestPalatine120</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine104</v>
+        <v>AutomationTestPalatine120</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine104@gmail.com</v>
+        <v>AutomationTestPalatine120@gmail.com</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>31</v>
@@ -1856,12 +1859,12 @@
         <v>105</v>
       </c>
       <c r="O14">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>99</v>
@@ -1878,15 +1881,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine105</v>
+        <v>AutomationTestPalatine121</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine105</v>
+        <v>AutomationTestPalatine121</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine105@gmail.com</v>
+        <v>AutomationTestPalatine121@gmail.com</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>100</v>
@@ -1904,12 +1907,12 @@
         <v>105</v>
       </c>
       <c r="O15">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>98</v>
@@ -1926,15 +1929,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine106</v>
+        <v>AutomationTestPalatine122</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine106</v>
+        <v>AutomationTestPalatine122</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine106@gmail.com</v>
+        <v>AutomationTestPalatine122@gmail.com</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>31</v>
@@ -1952,12 +1955,12 @@
         <v>105</v>
       </c>
       <c r="O16">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>99</v>
@@ -1974,15 +1977,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine107</v>
+        <v>AutomationTestPalatine123</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine107</v>
+        <v>AutomationTestPalatine123</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine107@gmail.com</v>
+        <v>AutomationTestPalatine123@gmail.com</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>100</v>
@@ -2000,7 +2003,7 @@
         <v>105</v>
       </c>
       <c r="O17">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2041,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AF20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2229,15 +2232,15 @@
       </c>
       <c r="S2" s="1" t="str">
         <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity108</v>
+        <v>TestChicagoCity127</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>S2</f>
-        <v>TestChicagoCity108</v>
+        <v>TestChicagoCity127</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity108@mail.com</v>
+        <v>TestChicagoCity127@mail.com</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>110</v>
@@ -2270,7 +2273,7 @@
         <v>121</v>
       </c>
       <c r="AF2">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="18" t="s">
         <v>183</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>122</v>
@@ -2331,15 +2334,15 @@
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity109</v>
+        <v>TestChicagoCity128</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity109</v>
+        <v>TestChicagoCity128</v>
       </c>
       <c r="U3" s="11" t="str">
         <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity109@mail.com</v>
+        <v>TestChicagoCity128@mail.com</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>110</v>
@@ -2372,13 +2375,13 @@
         <v>125</v>
       </c>
       <c r="AF3">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
     <row r="4" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>122</v>
@@ -2431,15 +2434,15 @@
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity110</v>
+        <v>TestChicagoCity129</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity110</v>
+        <v>TestChicagoCity129</v>
       </c>
       <c r="U4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity110@mail.com</v>
+        <v>TestChicagoCity129@mail.com</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>110</v>
@@ -2472,13 +2475,13 @@
         <v>127</v>
       </c>
       <c r="AF4">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
     <row r="5" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>122</v>
@@ -2531,15 +2534,15 @@
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity111</v>
+        <v>TestChicagoCity130</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity111</v>
+        <v>TestChicagoCity130</v>
       </c>
       <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity111@mail.com</v>
+        <v>TestChicagoCity130@mail.com</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>110</v>
@@ -2572,13 +2575,13 @@
         <v>128</v>
       </c>
       <c r="AF5">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
     <row r="6" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>122</v>
@@ -2631,15 +2634,15 @@
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity112</v>
+        <v>TestChicagoCity131</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity112</v>
+        <v>TestChicagoCity131</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity112@mail.com</v>
+        <v>TestChicagoCity131@mail.com</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>110</v>
@@ -2672,13 +2675,13 @@
         <v>129</v>
       </c>
       <c r="AF6">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
     <row r="7" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>122</v>
@@ -2731,15 +2734,15 @@
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity113</v>
+        <v>TestChicagoCity132</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity113</v>
+        <v>TestChicagoCity132</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity113@mail.com</v>
+        <v>TestChicagoCity132@mail.com</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>110</v>
@@ -2772,13 +2775,13 @@
         <v>130</v>
       </c>
       <c r="AF7">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
     <row r="8" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>122</v>
@@ -2831,15 +2834,15 @@
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="str">
         <f>CONCATENATE($R$2,AF8)</f>
-        <v>TestChicagoCity114</v>
+        <v>TestChicagoCity133</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity114</v>
+        <v>TestChicagoCity133</v>
       </c>
       <c r="U8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity114@mail.com</v>
+        <v>TestChicagoCity133@mail.com</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>110</v>
@@ -2872,13 +2875,13 @@
         <v>131</v>
       </c>
       <c r="AF8">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
     <row r="9" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>122</v>
@@ -2931,15 +2934,15 @@
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity115</v>
+        <v>TestChicagoCity134</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity115</v>
+        <v>TestChicagoCity134</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity115@mail.com</v>
+        <v>TestChicagoCity134@mail.com</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>110</v>
@@ -2972,13 +2975,13 @@
         <v>132</v>
       </c>
       <c r="AF9">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
     <row r="10" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>122</v>
@@ -3031,15 +3034,15 @@
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity116</v>
+        <v>TestChicagoCity135</v>
       </c>
       <c r="T10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity116</v>
+        <v>TestChicagoCity135</v>
       </c>
       <c r="U10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity116@mail.com</v>
+        <v>TestChicagoCity135@mail.com</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>110</v>
@@ -3072,13 +3075,13 @@
         <v>133</v>
       </c>
       <c r="AF10">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>122</v>
@@ -3131,15 +3134,15 @@
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity117</v>
+        <v>TestChicagoCity136</v>
       </c>
       <c r="T11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity117</v>
+        <v>TestChicagoCity136</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity117@mail.com</v>
+        <v>TestChicagoCity136@mail.com</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>110</v>
@@ -3172,13 +3175,13 @@
         <v>134</v>
       </c>
       <c r="AF11">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3231,15 +3234,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity118</v>
+        <v>TestChicagoCity137</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity118</v>
+        <v>TestChicagoCity137</v>
       </c>
       <c r="U12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity118@mail.com</v>
+        <v>TestChicagoCity137@mail.com</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>110</v>
@@ -3272,13 +3275,13 @@
         <v>137</v>
       </c>
       <c r="AF12">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
     <row r="13" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>122</v>
@@ -3331,15 +3334,15 @@
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity119</v>
+        <v>TestChicagoCity138</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity119</v>
+        <v>TestChicagoCity138</v>
       </c>
       <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity119@mail.com</v>
+        <v>TestChicagoCity138@mail.com</v>
       </c>
       <c r="V13" s="15" t="s">
         <v>110</v>
@@ -3372,13 +3375,13 @@
         <v>140</v>
       </c>
       <c r="AF13">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
     <row r="14" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>122</v>
@@ -3431,15 +3434,15 @@
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity120</v>
+        <v>TestChicagoCity139</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity120</v>
+        <v>TestChicagoCity139</v>
       </c>
       <c r="U14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity120@mail.com</v>
+        <v>TestChicagoCity139@mail.com</v>
       </c>
       <c r="V14" s="15" t="s">
         <v>110</v>
@@ -3472,13 +3475,13 @@
         <v>143</v>
       </c>
       <c r="AF14">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>122</v>
@@ -3531,15 +3534,15 @@
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity121</v>
+        <v>TestChicagoCity140</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity121</v>
+        <v>TestChicagoCity140</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity121@mail.com</v>
+        <v>TestChicagoCity140@mail.com</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>110</v>
@@ -3572,13 +3575,13 @@
         <v>149</v>
       </c>
       <c r="AF15">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
     <row r="16" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>122</v>
@@ -3631,15 +3634,15 @@
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity122</v>
+        <v>TestChicagoCity141</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity122</v>
+        <v>TestChicagoCity141</v>
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity122@mail.com</v>
+        <v>TestChicagoCity141@mail.com</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>110</v>
@@ -3672,13 +3675,13 @@
         <v>155</v>
       </c>
       <c r="AF16">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
     <row r="17" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>122</v>
@@ -3731,15 +3734,15 @@
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity123</v>
+        <v>TestChicagoCity142</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity123</v>
+        <v>TestChicagoCity142</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity123@mail.com</v>
+        <v>TestChicagoCity142@mail.com</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>110</v>
@@ -3772,12 +3775,12 @@
         <v>161</v>
       </c>
       <c r="AF17">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>122</v>
@@ -3830,15 +3833,15 @@
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity124</v>
+        <v>TestChicagoCity143</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity124</v>
+        <v>TestChicagoCity143</v>
       </c>
       <c r="U18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity124@mail.com</v>
+        <v>TestChicagoCity143@mail.com</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>110</v>
@@ -3871,12 +3874,12 @@
         <v>167</v>
       </c>
       <c r="AF18">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>122</v>
@@ -3929,15 +3932,15 @@
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity125</v>
+        <v>TestChicagoCity144</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity125</v>
+        <v>TestChicagoCity144</v>
       </c>
       <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity125@mail.com</v>
+        <v>TestChicagoCity144@mail.com</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>110</v>
@@ -3970,12 +3973,12 @@
         <v>173</v>
       </c>
       <c r="AF19">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>122</v>
@@ -4028,15 +4031,15 @@
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity126</v>
+        <v>TestChicagoCity145</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity126</v>
+        <v>TestChicagoCity145</v>
       </c>
       <c r="U20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity126@mail.com</v>
+        <v>TestChicagoCity145@mail.com</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>110</v>
@@ -4069,7 +4072,7 @@
         <v>179</v>
       </c>
       <c r="AF20">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D75BB-852A-452E-98F4-677E33EB00E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F78E9A2-A754-4067-BE5E-33229B423905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="199">
   <si>
     <t>run</t>
   </si>
@@ -108,9 +108,6 @@
     <t>street_address</t>
   </si>
   <si>
-    <t>home 123</t>
-  </si>
-  <si>
     <t>Chicago</t>
   </si>
   <si>
@@ -135,81 +132,6 @@
     <t>AutoTestChicago2@gmail.com</t>
   </si>
   <si>
-    <t>home 124</t>
-  </si>
-  <si>
-    <t>home 118</t>
-  </si>
-  <si>
-    <t>home 119</t>
-  </si>
-  <si>
-    <t>home 120</t>
-  </si>
-  <si>
-    <t>home 121</t>
-  </si>
-  <si>
-    <t>home 122</t>
-  </si>
-  <si>
-    <t>home 125</t>
-  </si>
-  <si>
-    <t>home 126</t>
-  </si>
-  <si>
-    <t>home 127</t>
-  </si>
-  <si>
-    <t>home 128</t>
-  </si>
-  <si>
-    <t>home 129</t>
-  </si>
-  <si>
-    <t>130 Kevin Dr</t>
-  </si>
-  <si>
-    <t>131 Kevin Dr</t>
-  </si>
-  <si>
-    <t>132 Kevin Dr</t>
-  </si>
-  <si>
-    <t>133 Kevin Dr</t>
-  </si>
-  <si>
-    <t>134 Kevin Dr</t>
-  </si>
-  <si>
-    <t>135 Kevin Dr</t>
-  </si>
-  <si>
-    <t>136 Kevin Dr</t>
-  </si>
-  <si>
-    <t>137 Kevin Dr</t>
-  </si>
-  <si>
-    <t>138 Kevin Dr</t>
-  </si>
-  <si>
-    <t>139 Kevin Dr</t>
-  </si>
-  <si>
-    <t>140 Kevin Dr</t>
-  </si>
-  <si>
-    <t>141 Kevin Dr</t>
-  </si>
-  <si>
-    <t>142 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 130</t>
-  </si>
-  <si>
     <t>David6</t>
   </si>
   <si>
@@ -288,45 +210,6 @@
     <t>Jackson18</t>
   </si>
   <si>
-    <t>David Inc6</t>
-  </si>
-  <si>
-    <t>David Inc7</t>
-  </si>
-  <si>
-    <t>David Inc8</t>
-  </si>
-  <si>
-    <t>David Inc9</t>
-  </si>
-  <si>
-    <t>David Inc10</t>
-  </si>
-  <si>
-    <t>David Inc11</t>
-  </si>
-  <si>
-    <t>David Inc12</t>
-  </si>
-  <si>
-    <t>David Inc13</t>
-  </si>
-  <si>
-    <t>David Inc14</t>
-  </si>
-  <si>
-    <t>David Inc15</t>
-  </si>
-  <si>
-    <t>David Inc16</t>
-  </si>
-  <si>
-    <t>David Inc17</t>
-  </si>
-  <si>
-    <t>David Inc18</t>
-  </si>
-  <si>
     <t>team_members</t>
   </si>
   <si>
@@ -360,18 +243,9 @@
     <t>Moskow</t>
   </si>
   <si>
-    <t>United States (US)</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
-    <t>District Of Columbia</t>
-  </si>
-  <si>
-    <t>Thank you. Your order has been received.</t>
-  </si>
-  <si>
     <t>order_confirmation</t>
   </si>
   <si>
@@ -444,30 +318,12 @@
     <t>58595</t>
   </si>
   <si>
-    <t>143 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 131</t>
-  </si>
-  <si>
     <t>58596</t>
   </si>
   <si>
-    <t>144 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 132</t>
-  </si>
-  <si>
     <t>58597</t>
   </si>
   <si>
-    <t>145 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 133</t>
-  </si>
-  <si>
     <t>58598</t>
   </si>
   <si>
@@ -477,15 +333,6 @@
     <t>Jackson19</t>
   </si>
   <si>
-    <t>David Inc19</t>
-  </si>
-  <si>
-    <t>146 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 134</t>
-  </si>
-  <si>
     <t>58599</t>
   </si>
   <si>
@@ -495,15 +342,6 @@
     <t>Jackson20</t>
   </si>
   <si>
-    <t>David Inc20</t>
-  </si>
-  <si>
-    <t>147 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 135</t>
-  </si>
-  <si>
     <t>58600</t>
   </si>
   <si>
@@ -513,15 +351,6 @@
     <t>Jackson21</t>
   </si>
   <si>
-    <t>David Inc21</t>
-  </si>
-  <si>
-    <t>148 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 136</t>
-  </si>
-  <si>
     <t>58601</t>
   </si>
   <si>
@@ -531,15 +360,6 @@
     <t>Jackson22</t>
   </si>
   <si>
-    <t>David Inc22</t>
-  </si>
-  <si>
-    <t>149 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 137</t>
-  </si>
-  <si>
     <t>58602</t>
   </si>
   <si>
@@ -549,15 +369,6 @@
     <t>Jackson23</t>
   </si>
   <si>
-    <t>David Inc23</t>
-  </si>
-  <si>
-    <t>150 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 138</t>
-  </si>
-  <si>
     <t>58603</t>
   </si>
   <si>
@@ -567,27 +378,9 @@
     <t>Jackson24</t>
   </si>
   <si>
-    <t>David Inc24</t>
-  </si>
-  <si>
-    <t>151 Kevin Dr</t>
-  </si>
-  <si>
-    <t>home 139</t>
-  </si>
-  <si>
     <t>58604</t>
   </si>
   <si>
-    <t xml:space="preserve"> jeans        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shoes        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tshirt       </t>
-  </si>
-  <si>
     <t>@mail.com</t>
   </si>
   <si>
@@ -597,39 +390,6 @@
     <t>@gmail.com</t>
   </si>
   <si>
-    <t>Red Shoes</t>
-  </si>
-  <si>
-    <t>Green Tshirt</t>
-  </si>
-  <si>
-    <t>Dark Grey Jeans</t>
-  </si>
-  <si>
-    <t>Anchor Bracelet</t>
-  </si>
-  <si>
-    <t>Faint Blue Jeans</t>
-  </si>
-  <si>
-    <t>Boho Bangle Bracelet</t>
-  </si>
-  <si>
-    <t>Basic Blue Jeans</t>
-  </si>
-  <si>
-    <t>Dark Brown Jeans</t>
-  </si>
-  <si>
-    <t>Blue Shoes</t>
-  </si>
-  <si>
-    <t>Blue Tshirt</t>
-  </si>
-  <si>
-    <t>Denim Blue Jeans</t>
-  </si>
-  <si>
     <t>Tshirt</t>
   </si>
   <si>
@@ -643,6 +403,237 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>DarkBrownJeans</t>
+  </si>
+  <si>
+    <t>DavidInc6</t>
+  </si>
+  <si>
+    <t>UnitedStates(US)</t>
+  </si>
+  <si>
+    <t>130KevinDr</t>
+  </si>
+  <si>
+    <t>home118</t>
+  </si>
+  <si>
+    <t>DistrictOfColumbia</t>
+  </si>
+  <si>
+    <t>Thankyou.Yourorderhasbeenreceived.</t>
+  </si>
+  <si>
+    <t>133KevinDr</t>
+  </si>
+  <si>
+    <t>home121</t>
+  </si>
+  <si>
+    <t>BlueShoes</t>
+  </si>
+  <si>
+    <t>DavidInc7</t>
+  </si>
+  <si>
+    <t>131KevinDr</t>
+  </si>
+  <si>
+    <t>home119</t>
+  </si>
+  <si>
+    <t>134KevinDr</t>
+  </si>
+  <si>
+    <t>home122</t>
+  </si>
+  <si>
+    <t>BlueTshirt</t>
+  </si>
+  <si>
+    <t>DavidInc8</t>
+  </si>
+  <si>
+    <t>132KevinDr</t>
+  </si>
+  <si>
+    <t>home120</t>
+  </si>
+  <si>
+    <t>135KevinDr</t>
+  </si>
+  <si>
+    <t>home123</t>
+  </si>
+  <si>
+    <t>DenimBlueJeans</t>
+  </si>
+  <si>
+    <t>DavidInc9</t>
+  </si>
+  <si>
+    <t>136KevinDr</t>
+  </si>
+  <si>
+    <t>home124</t>
+  </si>
+  <si>
+    <t>RedShoes</t>
+  </si>
+  <si>
+    <t>DavidInc10</t>
+  </si>
+  <si>
+    <t>137KevinDr</t>
+  </si>
+  <si>
+    <t>home125</t>
+  </si>
+  <si>
+    <t>GreenTshirt</t>
+  </si>
+  <si>
+    <t>DavidInc11</t>
+  </si>
+  <si>
+    <t>138KevinDr</t>
+  </si>
+  <si>
+    <t>home126</t>
+  </si>
+  <si>
+    <t>DarkGreyJeans</t>
+  </si>
+  <si>
+    <t>DavidInc12</t>
+  </si>
+  <si>
+    <t>139KevinDr</t>
+  </si>
+  <si>
+    <t>home127</t>
+  </si>
+  <si>
+    <t>AnchorBracelet</t>
+  </si>
+  <si>
+    <t>DavidInc13</t>
+  </si>
+  <si>
+    <t>140KevinDr</t>
+  </si>
+  <si>
+    <t>home128</t>
+  </si>
+  <si>
+    <t>FaintBlueJeans</t>
+  </si>
+  <si>
+    <t>DavidInc14</t>
+  </si>
+  <si>
+    <t>141KevinDr</t>
+  </si>
+  <si>
+    <t>home129</t>
+  </si>
+  <si>
+    <t>BohoBangleBracelet</t>
+  </si>
+  <si>
+    <t>DavidInc15</t>
+  </si>
+  <si>
+    <t>142KevinDr</t>
+  </si>
+  <si>
+    <t>home130</t>
+  </si>
+  <si>
+    <t>BasicBlueJeans</t>
+  </si>
+  <si>
+    <t>DavidInc16</t>
+  </si>
+  <si>
+    <t>143KevinDr</t>
+  </si>
+  <si>
+    <t>home131</t>
+  </si>
+  <si>
+    <t>DavidInc17</t>
+  </si>
+  <si>
+    <t>144KevinDr</t>
+  </si>
+  <si>
+    <t>home132</t>
+  </si>
+  <si>
+    <t>DavidInc18</t>
+  </si>
+  <si>
+    <t>145KevinDr</t>
+  </si>
+  <si>
+    <t>home133</t>
+  </si>
+  <si>
+    <t>DavidInc19</t>
+  </si>
+  <si>
+    <t>146KevinDr</t>
+  </si>
+  <si>
+    <t>home134</t>
+  </si>
+  <si>
+    <t>DavidInc20</t>
+  </si>
+  <si>
+    <t>147KevinDr</t>
+  </si>
+  <si>
+    <t>home135</t>
+  </si>
+  <si>
+    <t>DavidInc21</t>
+  </si>
+  <si>
+    <t>148KevinDr</t>
+  </si>
+  <si>
+    <t>home136</t>
+  </si>
+  <si>
+    <t>DavidInc22</t>
+  </si>
+  <si>
+    <t>149KevinDr</t>
+  </si>
+  <si>
+    <t>home137</t>
+  </si>
+  <si>
+    <t>DavidInc23</t>
+  </si>
+  <si>
+    <t>150KevinDr</t>
+  </si>
+  <si>
+    <t>home138</t>
+  </si>
+  <si>
+    <t>DavidInc24</t>
+  </si>
+  <si>
+    <t>151KevinDr</t>
+  </si>
+  <si>
+    <t>home139</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1181,12 +1172,12 @@
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.21875" customWidth="1"/>
     <col min="12" max="12" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.44140625" customWidth="1"/>
     <col min="16" max="16" width="11.77734375" customWidth="1"/>
   </cols>
@@ -1218,19 +1209,19 @@
         <v>11</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1238,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1250,51 +1241,51 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>CONCATENATE($F$2,O2)</f>
-        <v>AutomationTestPalatine108</v>
+        <v>AutomationTestPalatine124</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>G2</f>
-        <v>AutomationTestPalatine108</v>
+        <v>AutomationTestPalatine124</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE(G2,$P$2)</f>
-        <v>AutomationTestPalatine108@gmail.com</v>
+        <v>AutomationTestPalatine124@gmail.com</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O2">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1305,44 +1296,44 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G17" si="0">CONCATENATE($F$2,O3)</f>
-        <v>AutomationTestPalatine109</v>
+        <v>AutomationTestPalatine125</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H17" si="1">G3</f>
-        <v>AutomationTestPalatine109</v>
+        <v>AutomationTestPalatine125</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I17" si="2">CONCATENATE(G3,$P$2)</f>
-        <v>AutomationTestPalatine109@gmail.com</v>
+        <v>AutomationTestPalatine125@gmail.com</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O3">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1353,44 +1344,44 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine110</v>
+        <v>AutomationTestPalatine126</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine110</v>
+        <v>AutomationTestPalatine126</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine110@gmail.com</v>
+        <v>AutomationTestPalatine126@gmail.com</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4">
         <v>126</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1401,44 +1392,44 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine111</v>
+        <v>AutomationTestPalatine127</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine111</v>
+        <v>AutomationTestPalatine127</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine111@gmail.com</v>
+        <v>AutomationTestPalatine127@gmail.com</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O5">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1449,44 +1440,44 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine112</v>
+        <v>AutomationTestPalatine128</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine112</v>
+        <v>AutomationTestPalatine128</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine112@gmail.com</v>
+        <v>AutomationTestPalatine128@gmail.com</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O6">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -1497,44 +1488,44 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine113</v>
+        <v>AutomationTestPalatine129</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine113</v>
+        <v>AutomationTestPalatine129</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine113@gmail.com</v>
+        <v>AutomationTestPalatine129@gmail.com</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O7">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1545,44 +1536,44 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine114</v>
+        <v>AutomationTestPalatine130</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine114</v>
+        <v>AutomationTestPalatine130</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine114@gmail.com</v>
+        <v>AutomationTestPalatine130@gmail.com</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O8">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1593,44 +1584,44 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine115</v>
+        <v>AutomationTestPalatine131</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine115</v>
+        <v>AutomationTestPalatine131</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine115@gmail.com</v>
+        <v>AutomationTestPalatine131@gmail.com</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O9">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1641,44 +1632,44 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine116</v>
+        <v>AutomationTestPalatine132</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine116</v>
+        <v>AutomationTestPalatine132</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine116@gmail.com</v>
+        <v>AutomationTestPalatine132@gmail.com</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O10">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -1689,44 +1680,44 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine117</v>
+        <v>AutomationTestPalatine133</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine117</v>
+        <v>AutomationTestPalatine133</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine117@gmail.com</v>
+        <v>AutomationTestPalatine133@gmail.com</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O11">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1737,44 +1728,44 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine118</v>
+        <v>AutomationTestPalatine134</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine118</v>
+        <v>AutomationTestPalatine134</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine118@gmail.com</v>
+        <v>AutomationTestPalatine134@gmail.com</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O12">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1785,44 +1776,44 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine119</v>
+        <v>AutomationTestPalatine135</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine119</v>
+        <v>AutomationTestPalatine135</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine119@gmail.com</v>
+        <v>AutomationTestPalatine135@gmail.com</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O13">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1833,44 +1824,44 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine120</v>
+        <v>AutomationTestPalatine136</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine120</v>
+        <v>AutomationTestPalatine136</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine120@gmail.com</v>
+        <v>AutomationTestPalatine136@gmail.com</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O14">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -1881,44 +1872,44 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine121</v>
+        <v>AutomationTestPalatine137</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine121</v>
+        <v>AutomationTestPalatine137</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine121@gmail.com</v>
+        <v>AutomationTestPalatine137@gmail.com</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O15">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -1929,44 +1920,44 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine122</v>
+        <v>AutomationTestPalatine138</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine122</v>
+        <v>AutomationTestPalatine138</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine122@gmail.com</v>
+        <v>AutomationTestPalatine138@gmail.com</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O16">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -1977,33 +1968,33 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine123</v>
+        <v>AutomationTestPalatine139</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine123</v>
+        <v>AutomationTestPalatine139</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine123@gmail.com</v>
+        <v>AutomationTestPalatine139@gmail.com</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O17">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2044,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,13 +2117,13 @@
         <v>21</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" s="9"/>
       <c r="S1" s="2" t="s">
@@ -2145,34 +2136,34 @@
         <v>11</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2180,1899 +2171,1899 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="S2" s="1" t="str">
         <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity127</v>
+        <v>TestChicagoCity146</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>S2</f>
-        <v>TestChicagoCity127</v>
+        <v>TestChicagoCity146</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity127@mail.com</v>
+        <v>TestChicagoCity146@mail.com</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AC2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="AE2" s="4" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="AF2">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity128</v>
+        <v>TestChicagoCity147</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity128</v>
+        <v>TestChicagoCity147</v>
       </c>
       <c r="U3" s="11" t="str">
         <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity128@mail.com</v>
+        <v>TestChicagoCity147@mail.com</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="AC3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="AE3" s="4" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="AF3">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
     <row r="4" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity129</v>
+        <v>TestChicagoCity148</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity129</v>
+        <v>TestChicagoCity148</v>
       </c>
       <c r="U4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity129@mail.com</v>
+        <v>TestChicagoCity148@mail.com</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AF4">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
     <row r="5" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity130</v>
+        <v>TestChicagoCity149</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity130</v>
+        <v>TestChicagoCity149</v>
       </c>
       <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity130@mail.com</v>
+        <v>TestChicagoCity149@mail.com</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="AF5">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
     <row r="6" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity131</v>
+        <v>TestChicagoCity150</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity131</v>
+        <v>TestChicagoCity150</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity131@mail.com</v>
+        <v>TestChicagoCity150@mail.com</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="AF6">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
     <row r="7" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity132</v>
+        <v>TestChicagoCity151</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity132</v>
+        <v>TestChicagoCity151</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity132@mail.com</v>
+        <v>TestChicagoCity151@mail.com</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Y7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="AF7">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
     <row r="8" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="str">
         <f>CONCATENATE($R$2,AF8)</f>
-        <v>TestChicagoCity133</v>
+        <v>TestChicagoCity152</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity133</v>
+        <v>TestChicagoCity152</v>
       </c>
       <c r="U8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity133@mail.com</v>
+        <v>TestChicagoCity152@mail.com</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="AF8">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
     <row r="9" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity134</v>
+        <v>TestChicagoCity153</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity134</v>
+        <v>TestChicagoCity153</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity134@mail.com</v>
+        <v>TestChicagoCity153@mail.com</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="Y9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="AF9">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
     <row r="10" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity135</v>
+        <v>TestChicagoCity154</v>
       </c>
       <c r="T10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity135</v>
+        <v>TestChicagoCity154</v>
       </c>
       <c r="U10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity135@mail.com</v>
+        <v>TestChicagoCity154@mail.com</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="Y10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="AF10">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity136</v>
+        <v>TestChicagoCity155</v>
       </c>
       <c r="T11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity136</v>
+        <v>TestChicagoCity155</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity136@mail.com</v>
+        <v>TestChicagoCity155@mail.com</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="Y11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Z11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="AF11">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="N12" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity137</v>
+        <v>TestChicagoCity156</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity137</v>
+        <v>TestChicagoCity156</v>
       </c>
       <c r="U12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity137@mail.com</v>
+        <v>TestChicagoCity156@mail.com</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="AF12">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
     <row r="13" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
         <v>122</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" t="s">
-        <v>193</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="O13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity138</v>
+        <v>TestChicagoCity157</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity138</v>
+        <v>TestChicagoCity157</v>
       </c>
       <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity138@mail.com</v>
+        <v>TestChicagoCity157@mail.com</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="Y13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Z13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="AF13">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
     <row r="14" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity139</v>
+        <v>TestChicagoCity158</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity139</v>
+        <v>TestChicagoCity158</v>
       </c>
       <c r="U14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity139@mail.com</v>
+        <v>TestChicagoCity158@mail.com</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="Y14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="AF14">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity140</v>
+        <v>TestChicagoCity159</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity140</v>
+        <v>TestChicagoCity159</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity140@mail.com</v>
+        <v>TestChicagoCity159@mail.com</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="AC15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD15" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="AE15" s="4" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="AF15">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
     <row r="16" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity141</v>
+        <v>TestChicagoCity160</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity141</v>
+        <v>TestChicagoCity160</v>
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity141@mail.com</v>
+        <v>TestChicagoCity160@mail.com</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="AC16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD16" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="AE16" s="4" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AF16">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
     <row r="17" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity142</v>
+        <v>TestChicagoCity161</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity142</v>
+        <v>TestChicagoCity161</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity142@mail.com</v>
+        <v>TestChicagoCity161@mail.com</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="AC17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD17" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="AE17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF17">
         <v>161</v>
-      </c>
-      <c r="AF17">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity143</v>
+        <v>TestChicagoCity162</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity143</v>
+        <v>TestChicagoCity162</v>
       </c>
       <c r="U18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity143@mail.com</v>
+        <v>TestChicagoCity162@mail.com</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF18">
         <v>162</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF18">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity144</v>
+        <v>TestChicagoCity163</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity144</v>
+        <v>TestChicagoCity163</v>
       </c>
       <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity144@mail.com</v>
+        <v>TestChicagoCity163@mail.com</v>
       </c>
       <c r="V19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="AF19">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity145</v>
+        <v>TestChicagoCity164</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity145</v>
+        <v>TestChicagoCity164</v>
       </c>
       <c r="U20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity145@mail.com</v>
+        <v>TestChicagoCity164@mail.com</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AC20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD20" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="AE20" s="4" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="AF20">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F78E9A2-A754-4067-BE5E-33229B423905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9346BDA0-6218-434A-98D4-276561B0B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1245,15 +1245,15 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>CONCATENATE($F$2,O2)</f>
-        <v>AutomationTestPalatine124</v>
+        <v>AutomationTestPalatine140</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>G2</f>
-        <v>AutomationTestPalatine124</v>
-      </c>
-      <c r="I2" s="3" t="str">
+        <v>AutomationTestPalatine140</v>
+      </c>
+      <c r="I2" s="11" t="str">
         <f>CONCATENATE(G2,$P$2)</f>
-        <v>AutomationTestPalatine124@gmail.com</v>
+        <v>AutomationTestPalatine140@gmail.com</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>30</v>
@@ -1271,7 +1271,7 @@
         <v>66</v>
       </c>
       <c r="O2">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>116</v>
@@ -1296,15 +1296,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G17" si="0">CONCATENATE($F$2,O3)</f>
-        <v>AutomationTestPalatine125</v>
+        <v>AutomationTestPalatine141</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H17" si="1">G3</f>
-        <v>AutomationTestPalatine125</v>
-      </c>
-      <c r="I3" s="3" t="str">
+        <v>AutomationTestPalatine141</v>
+      </c>
+      <c r="I3" s="11" t="str">
         <f t="shared" ref="I3:I17" si="2">CONCATENATE(G3,$P$2)</f>
-        <v>AutomationTestPalatine125@gmail.com</v>
+        <v>AutomationTestPalatine141@gmail.com</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>61</v>
@@ -1322,7 +1322,7 @@
         <v>66</v>
       </c>
       <c r="O3">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1344,15 +1344,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine126</v>
+        <v>AutomationTestPalatine142</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine126</v>
-      </c>
-      <c r="I4" s="3" t="str">
+        <v>AutomationTestPalatine142</v>
+      </c>
+      <c r="I4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine126@gmail.com</v>
+        <v>AutomationTestPalatine142@gmail.com</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>30</v>
@@ -1370,7 +1370,7 @@
         <v>66</v>
       </c>
       <c r="O4">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1392,15 +1392,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine127</v>
+        <v>AutomationTestPalatine143</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine127</v>
-      </c>
-      <c r="I5" s="3" t="str">
+        <v>AutomationTestPalatine143</v>
+      </c>
+      <c r="I5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine127@gmail.com</v>
+        <v>AutomationTestPalatine143@gmail.com</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>61</v>
@@ -1418,7 +1418,7 @@
         <v>66</v>
       </c>
       <c r="O5">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1440,15 +1440,15 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine128</v>
+        <v>AutomationTestPalatine144</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine128</v>
-      </c>
-      <c r="I6" s="3" t="str">
+        <v>AutomationTestPalatine144</v>
+      </c>
+      <c r="I6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine128@gmail.com</v>
+        <v>AutomationTestPalatine144@gmail.com</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>30</v>
@@ -1466,7 +1466,7 @@
         <v>66</v>
       </c>
       <c r="O6">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1488,15 +1488,15 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine129</v>
+        <v>AutomationTestPalatine145</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine129</v>
-      </c>
-      <c r="I7" s="3" t="str">
+        <v>AutomationTestPalatine145</v>
+      </c>
+      <c r="I7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine129@gmail.com</v>
+        <v>AutomationTestPalatine145@gmail.com</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>61</v>
@@ -1514,7 +1514,7 @@
         <v>66</v>
       </c>
       <c r="O7">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1536,15 +1536,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine130</v>
+        <v>AutomationTestPalatine146</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine130</v>
-      </c>
-      <c r="I8" s="3" t="str">
+        <v>AutomationTestPalatine146</v>
+      </c>
+      <c r="I8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine130@gmail.com</v>
+        <v>AutomationTestPalatine146@gmail.com</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
@@ -1562,7 +1562,7 @@
         <v>66</v>
       </c>
       <c r="O8">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1584,15 +1584,15 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine131</v>
+        <v>AutomationTestPalatine147</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine131</v>
-      </c>
-      <c r="I9" s="3" t="str">
+        <v>AutomationTestPalatine147</v>
+      </c>
+      <c r="I9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine131@gmail.com</v>
+        <v>AutomationTestPalatine147@gmail.com</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>61</v>
@@ -1610,7 +1610,7 @@
         <v>66</v>
       </c>
       <c r="O9">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1632,15 +1632,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine132</v>
+        <v>AutomationTestPalatine148</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine132</v>
-      </c>
-      <c r="I10" s="3" t="str">
+        <v>AutomationTestPalatine148</v>
+      </c>
+      <c r="I10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine132@gmail.com</v>
+        <v>AutomationTestPalatine148@gmail.com</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>30</v>
@@ -1658,7 +1658,7 @@
         <v>66</v>
       </c>
       <c r="O10">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1680,15 +1680,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine133</v>
+        <v>AutomationTestPalatine149</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine133</v>
-      </c>
-      <c r="I11" s="3" t="str">
+        <v>AutomationTestPalatine149</v>
+      </c>
+      <c r="I11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine133@gmail.com</v>
+        <v>AutomationTestPalatine149@gmail.com</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>61</v>
@@ -1706,7 +1706,7 @@
         <v>66</v>
       </c>
       <c r="O11">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1728,15 +1728,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine134</v>
+        <v>AutomationTestPalatine150</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine134</v>
-      </c>
-      <c r="I12" s="3" t="str">
+        <v>AutomationTestPalatine150</v>
+      </c>
+      <c r="I12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine134@gmail.com</v>
+        <v>AutomationTestPalatine150@gmail.com</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>30</v>
@@ -1754,7 +1754,7 @@
         <v>66</v>
       </c>
       <c r="O12">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1776,15 +1776,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine135</v>
+        <v>AutomationTestPalatine151</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine135</v>
-      </c>
-      <c r="I13" s="3" t="str">
+        <v>AutomationTestPalatine151</v>
+      </c>
+      <c r="I13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine135@gmail.com</v>
+        <v>AutomationTestPalatine151@gmail.com</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>61</v>
@@ -1802,7 +1802,7 @@
         <v>66</v>
       </c>
       <c r="O13">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1824,15 +1824,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine136</v>
+        <v>AutomationTestPalatine152</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine136</v>
-      </c>
-      <c r="I14" s="3" t="str">
+        <v>AutomationTestPalatine152</v>
+      </c>
+      <c r="I14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine136@gmail.com</v>
+        <v>AutomationTestPalatine152@gmail.com</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>30</v>
@@ -1850,7 +1850,7 @@
         <v>66</v>
       </c>
       <c r="O14">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1872,15 +1872,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine137</v>
+        <v>AutomationTestPalatine153</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine137</v>
-      </c>
-      <c r="I15" s="3" t="str">
+        <v>AutomationTestPalatine153</v>
+      </c>
+      <c r="I15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine137@gmail.com</v>
+        <v>AutomationTestPalatine153@gmail.com</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>61</v>
@@ -1898,7 +1898,7 @@
         <v>66</v>
       </c>
       <c r="O15">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1920,15 +1920,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine138</v>
+        <v>AutomationTestPalatine154</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine138</v>
-      </c>
-      <c r="I16" s="3" t="str">
+        <v>AutomationTestPalatine154</v>
+      </c>
+      <c r="I16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine138@gmail.com</v>
+        <v>AutomationTestPalatine154@gmail.com</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
@@ -1946,7 +1946,7 @@
         <v>66</v>
       </c>
       <c r="O16">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1968,15 +1968,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutomationTestPalatine139</v>
+        <v>AutomationTestPalatine155</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AutomationTestPalatine139</v>
-      </c>
-      <c r="I17" s="3" t="str">
+        <v>AutomationTestPalatine155</v>
+      </c>
+      <c r="I17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine139@gmail.com</v>
+        <v>AutomationTestPalatine155@gmail.com</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>61</v>
@@ -1994,7 +1994,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView topLeftCell="U7" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,15 +2223,15 @@
       </c>
       <c r="S2" s="1" t="str">
         <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity146</v>
+        <v>TestChicagoCity165</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>S2</f>
-        <v>TestChicagoCity146</v>
+        <v>TestChicagoCity165</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity146@mail.com</v>
+        <v>TestChicagoCity165@mail.com</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>128</v>
@@ -2264,7 +2264,7 @@
         <v>79</v>
       </c>
       <c r="AF2">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AG2" s="18" t="s">
         <v>114</v>
@@ -2325,15 +2325,15 @@
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity147</v>
+        <v>TestChicagoCity166</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity147</v>
+        <v>TestChicagoCity166</v>
       </c>
       <c r="U3" s="11" t="str">
         <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity147@mail.com</v>
+        <v>TestChicagoCity166@mail.com</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>128</v>
@@ -2366,7 +2366,7 @@
         <v>83</v>
       </c>
       <c r="AF3">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
@@ -2425,15 +2425,15 @@
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity148</v>
+        <v>TestChicagoCity167</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity148</v>
+        <v>TestChicagoCity167</v>
       </c>
       <c r="U4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity148@mail.com</v>
+        <v>TestChicagoCity167@mail.com</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>128</v>
@@ -2466,7 +2466,7 @@
         <v>85</v>
       </c>
       <c r="AF4">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
@@ -2525,15 +2525,15 @@
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity149</v>
+        <v>TestChicagoCity168</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity149</v>
+        <v>TestChicagoCity168</v>
       </c>
       <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity149@mail.com</v>
+        <v>TestChicagoCity168@mail.com</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>128</v>
@@ -2566,7 +2566,7 @@
         <v>86</v>
       </c>
       <c r="AF5">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
@@ -2625,15 +2625,15 @@
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity150</v>
+        <v>TestChicagoCity169</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity150</v>
+        <v>TestChicagoCity169</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity150@mail.com</v>
+        <v>TestChicagoCity169@mail.com</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>128</v>
@@ -2666,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="AF6">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
@@ -2725,15 +2725,15 @@
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity151</v>
+        <v>TestChicagoCity170</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity151</v>
+        <v>TestChicagoCity170</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity151@mail.com</v>
+        <v>TestChicagoCity170@mail.com</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>128</v>
@@ -2766,7 +2766,7 @@
         <v>88</v>
       </c>
       <c r="AF7">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
@@ -2825,15 +2825,15 @@
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="str">
         <f>CONCATENATE($R$2,AF8)</f>
-        <v>TestChicagoCity152</v>
+        <v>TestChicagoCity171</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity152</v>
+        <v>TestChicagoCity171</v>
       </c>
       <c r="U8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity152@mail.com</v>
+        <v>TestChicagoCity171@mail.com</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>128</v>
@@ -2866,7 +2866,7 @@
         <v>89</v>
       </c>
       <c r="AF8">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
@@ -2925,15 +2925,15 @@
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity153</v>
+        <v>TestChicagoCity172</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity153</v>
+        <v>TestChicagoCity172</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity153@mail.com</v>
+        <v>TestChicagoCity172@mail.com</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>128</v>
@@ -2966,7 +2966,7 @@
         <v>90</v>
       </c>
       <c r="AF9">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
@@ -3025,15 +3025,15 @@
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity154</v>
+        <v>TestChicagoCity173</v>
       </c>
       <c r="T10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity154</v>
+        <v>TestChicagoCity173</v>
       </c>
       <c r="U10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity154@mail.com</v>
+        <v>TestChicagoCity173@mail.com</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>128</v>
@@ -3066,7 +3066,7 @@
         <v>91</v>
       </c>
       <c r="AF10">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
@@ -3125,15 +3125,15 @@
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity155</v>
+        <v>TestChicagoCity174</v>
       </c>
       <c r="T11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity155</v>
+        <v>TestChicagoCity174</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity155@mail.com</v>
+        <v>TestChicagoCity174@mail.com</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>128</v>
@@ -3166,7 +3166,7 @@
         <v>92</v>
       </c>
       <c r="AF11">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
@@ -3225,15 +3225,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity156</v>
+        <v>TestChicagoCity175</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity156</v>
+        <v>TestChicagoCity175</v>
       </c>
       <c r="U12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity156@mail.com</v>
+        <v>TestChicagoCity175@mail.com</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>128</v>
@@ -3266,7 +3266,7 @@
         <v>93</v>
       </c>
       <c r="AF12">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
@@ -3325,15 +3325,15 @@
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity157</v>
+        <v>TestChicagoCity176</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity157</v>
+        <v>TestChicagoCity176</v>
       </c>
       <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity157@mail.com</v>
+        <v>TestChicagoCity176@mail.com</v>
       </c>
       <c r="V13" s="15" t="s">
         <v>128</v>
@@ -3366,7 +3366,7 @@
         <v>94</v>
       </c>
       <c r="AF13">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
@@ -3425,15 +3425,15 @@
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity158</v>
+        <v>TestChicagoCity177</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity158</v>
+        <v>TestChicagoCity177</v>
       </c>
       <c r="U14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity158@mail.com</v>
+        <v>TestChicagoCity177@mail.com</v>
       </c>
       <c r="V14" s="15" t="s">
         <v>128</v>
@@ -3466,7 +3466,7 @@
         <v>95</v>
       </c>
       <c r="AF14">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
@@ -3525,15 +3525,15 @@
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity159</v>
+        <v>TestChicagoCity178</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity159</v>
+        <v>TestChicagoCity178</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity159@mail.com</v>
+        <v>TestChicagoCity178@mail.com</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>128</v>
@@ -3566,7 +3566,7 @@
         <v>98</v>
       </c>
       <c r="AF15">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
@@ -3625,15 +3625,15 @@
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity160</v>
+        <v>TestChicagoCity179</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity160</v>
+        <v>TestChicagoCity179</v>
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity160@mail.com</v>
+        <v>TestChicagoCity179@mail.com</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>128</v>
@@ -3666,7 +3666,7 @@
         <v>101</v>
       </c>
       <c r="AF16">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
@@ -3725,15 +3725,15 @@
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity161</v>
+        <v>TestChicagoCity180</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity161</v>
+        <v>TestChicagoCity180</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity161@mail.com</v>
+        <v>TestChicagoCity180@mail.com</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>128</v>
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
       <c r="AF17">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3824,15 +3824,15 @@
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity162</v>
+        <v>TestChicagoCity181</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity162</v>
+        <v>TestChicagoCity181</v>
       </c>
       <c r="U18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity162@mail.com</v>
+        <v>TestChicagoCity181@mail.com</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>128</v>
@@ -3865,7 +3865,7 @@
         <v>107</v>
       </c>
       <c r="AF18">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3923,15 +3923,15 @@
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity163</v>
+        <v>TestChicagoCity182</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity163</v>
+        <v>TestChicagoCity182</v>
       </c>
       <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity163@mail.com</v>
+        <v>TestChicagoCity182@mail.com</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>128</v>
@@ -3964,7 +3964,7 @@
         <v>110</v>
       </c>
       <c r="AF19">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -4022,15 +4022,15 @@
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity164</v>
+        <v>TestChicagoCity183</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity164</v>
+        <v>TestChicagoCity183</v>
       </c>
       <c r="U20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity164@mail.com</v>
+        <v>TestChicagoCity183@mail.com</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>128</v>
@@ -4063,7 +4063,7 @@
         <v>113</v>
       </c>
       <c r="AF20">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9346BDA0-6218-434A-98D4-276561B0B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6BC47C-0DB9-45D7-A273-3BB9E50E8E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="198">
   <si>
     <t>run</t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>Bracelet</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>DarkBrownJeans</t>
@@ -1160,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O17"/>
     </sheetView>
   </sheetViews>
@@ -2035,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="U7" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AF20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2180,7 +2177,7 @@
         <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -2192,22 +2189,22 @@
         <v>44</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>27</v>
@@ -2223,18 +2220,18 @@
       </c>
       <c r="S2" s="1" t="str">
         <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity165</v>
+        <v>TestChicagoCity166</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>S2</f>
-        <v>TestChicagoCity165</v>
+        <v>TestChicagoCity166</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity165@mail.com</v>
+        <v>TestChicagoCity166@mail.com</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>31</v>
@@ -2243,16 +2240,16 @@
         <v>44</v>
       </c>
       <c r="Y2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="AA2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>23</v>
@@ -2264,7 +2261,7 @@
         <v>79</v>
       </c>
       <c r="AF2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG2" s="18" t="s">
         <v>114</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>80</v>
@@ -2284,7 +2281,7 @@
         <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -2296,16 +2293,16 @@
         <v>45</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
@@ -2325,18 +2322,18 @@
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity166</v>
+        <v>TestChicagoCity167</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity166</v>
+        <v>TestChicagoCity167</v>
       </c>
       <c r="U3" s="11" t="str">
         <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity166@mail.com</v>
+        <v>TestChicagoCity167@mail.com</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>32</v>
@@ -2345,16 +2342,16 @@
         <v>45</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB3" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>23</v>
@@ -2366,13 +2363,13 @@
         <v>83</v>
       </c>
       <c r="AF3">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
     <row r="4" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
@@ -2384,7 +2381,7 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2396,22 +2393,22 @@
         <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>27</v>
@@ -2425,18 +2422,18 @@
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity167</v>
+        <v>TestChicagoCity168</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity167</v>
+        <v>TestChicagoCity168</v>
       </c>
       <c r="U4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity167@mail.com</v>
+        <v>TestChicagoCity168@mail.com</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>33</v>
@@ -2445,16 +2442,16 @@
         <v>46</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB4" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>23</v>
@@ -2466,13 +2463,13 @@
         <v>85</v>
       </c>
       <c r="AF4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
     <row r="5" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>80</v>
@@ -2484,7 +2481,7 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -2496,16 +2493,16 @@
         <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>23</v>
@@ -2525,18 +2522,18 @@
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity168</v>
+        <v>TestChicagoCity169</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity168</v>
+        <v>TestChicagoCity169</v>
       </c>
       <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity168@mail.com</v>
+        <v>TestChicagoCity169@mail.com</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>34</v>
@@ -2545,16 +2542,16 @@
         <v>47</v>
       </c>
       <c r="Y5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>23</v>
@@ -2566,13 +2563,13 @@
         <v>86</v>
       </c>
       <c r="AF5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
     <row r="6" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>80</v>
@@ -2584,7 +2581,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2596,22 +2593,22 @@
         <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>27</v>
@@ -2625,18 +2622,18 @@
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity169</v>
+        <v>TestChicagoCity170</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity169</v>
+        <v>TestChicagoCity170</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity169@mail.com</v>
+        <v>TestChicagoCity170@mail.com</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>35</v>
@@ -2645,16 +2642,16 @@
         <v>48</v>
       </c>
       <c r="Y6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>23</v>
@@ -2666,13 +2663,13 @@
         <v>87</v>
       </c>
       <c r="AF6">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
     <row r="7" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>80</v>
@@ -2684,7 +2681,7 @@
         <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2696,16 +2693,16 @@
         <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>23</v>
@@ -2725,18 +2722,18 @@
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity170</v>
+        <v>TestChicagoCity171</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity170</v>
+        <v>TestChicagoCity171</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity170@mail.com</v>
+        <v>TestChicagoCity171@mail.com</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>36</v>
@@ -2745,16 +2742,16 @@
         <v>49</v>
       </c>
       <c r="Y7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA7" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>23</v>
@@ -2766,13 +2763,13 @@
         <v>88</v>
       </c>
       <c r="AF7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
     <row r="8" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>80</v>
@@ -2784,7 +2781,7 @@
         <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2796,22 +2793,22 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
@@ -2825,18 +2822,18 @@
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="str">
         <f>CONCATENATE($R$2,AF8)</f>
-        <v>TestChicagoCity171</v>
+        <v>TestChicagoCity172</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity171</v>
+        <v>TestChicagoCity172</v>
       </c>
       <c r="U8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity171@mail.com</v>
+        <v>TestChicagoCity172@mail.com</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>37</v>
@@ -2845,16 +2842,16 @@
         <v>50</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AB8" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>23</v>
@@ -2866,13 +2863,13 @@
         <v>89</v>
       </c>
       <c r="AF8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
     <row r="9" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>80</v>
@@ -2884,7 +2881,7 @@
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -2896,16 +2893,16 @@
         <v>51</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>23</v>
@@ -2925,18 +2922,18 @@
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity172</v>
+        <v>TestChicagoCity173</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity172</v>
+        <v>TestChicagoCity173</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity172@mail.com</v>
+        <v>TestChicagoCity173@mail.com</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>38</v>
@@ -2945,16 +2942,16 @@
         <v>51</v>
       </c>
       <c r="Y9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA9" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>23</v>
@@ -2966,13 +2963,13 @@
         <v>90</v>
       </c>
       <c r="AF9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
     <row r="10" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>80</v>
@@ -2984,7 +2981,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2996,22 +2993,22 @@
         <v>52</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>27</v>
@@ -3025,18 +3022,18 @@
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity173</v>
+        <v>TestChicagoCity174</v>
       </c>
       <c r="T10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity173</v>
+        <v>TestChicagoCity174</v>
       </c>
       <c r="U10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity173@mail.com</v>
+        <v>TestChicagoCity174@mail.com</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>39</v>
@@ -3045,16 +3042,16 @@
         <v>52</v>
       </c>
       <c r="Y10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA10" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="Z10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA10" s="6" t="s">
+      <c r="AB10" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>23</v>
@@ -3066,13 +3063,13 @@
         <v>91</v>
       </c>
       <c r="AF10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>80</v>
@@ -3084,7 +3081,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -3096,16 +3093,16 @@
         <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>23</v>
@@ -3125,18 +3122,18 @@
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity174</v>
+        <v>TestChicagoCity175</v>
       </c>
       <c r="T11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity174</v>
+        <v>TestChicagoCity175</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity174@mail.com</v>
+        <v>TestChicagoCity175@mail.com</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>40</v>
@@ -3145,16 +3142,16 @@
         <v>53</v>
       </c>
       <c r="Y11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="Z11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA11" s="6" t="s">
+      <c r="AB11" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>23</v>
@@ -3166,13 +3163,13 @@
         <v>92</v>
       </c>
       <c r="AF11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>80</v>
@@ -3184,7 +3181,7 @@
         <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3196,22 +3193,22 @@
         <v>54</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>27</v>
@@ -3225,18 +3222,18 @@
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity175</v>
+        <v>TestChicagoCity176</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity175</v>
+        <v>TestChicagoCity176</v>
       </c>
       <c r="U12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity175@mail.com</v>
+        <v>TestChicagoCity176@mail.com</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>41</v>
@@ -3245,16 +3242,16 @@
         <v>54</v>
       </c>
       <c r="Y12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AB12" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>23</v>
@@ -3266,13 +3263,13 @@
         <v>93</v>
       </c>
       <c r="AF12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
     <row r="13" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>80</v>
@@ -3284,7 +3281,7 @@
         <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -3296,16 +3293,16 @@
         <v>55</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>23</v>
@@ -3325,18 +3322,18 @@
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity176</v>
+        <v>TestChicagoCity177</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity176</v>
+        <v>TestChicagoCity177</v>
       </c>
       <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity176@mail.com</v>
+        <v>TestChicagoCity177@mail.com</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>42</v>
@@ -3345,16 +3342,16 @@
         <v>55</v>
       </c>
       <c r="Y13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="Z13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AB13" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>23</v>
@@ -3366,13 +3363,13 @@
         <v>94</v>
       </c>
       <c r="AF13">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
     <row r="14" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>80</v>
@@ -3384,7 +3381,7 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3396,22 +3393,22 @@
         <v>56</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>27</v>
@@ -3425,18 +3422,18 @@
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity177</v>
+        <v>TestChicagoCity178</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity177</v>
+        <v>TestChicagoCity178</v>
       </c>
       <c r="U14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity177@mail.com</v>
+        <v>TestChicagoCity178@mail.com</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>43</v>
@@ -3445,16 +3442,16 @@
         <v>56</v>
       </c>
       <c r="Y14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA14" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AB14" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>23</v>
@@ -3466,13 +3463,13 @@
         <v>95</v>
       </c>
       <c r="AF14">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>80</v>
@@ -3484,7 +3481,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3496,16 +3493,16 @@
         <v>97</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>23</v>
@@ -3525,18 +3522,18 @@
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity178</v>
+        <v>TestChicagoCity179</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity178</v>
+        <v>TestChicagoCity179</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity178@mail.com</v>
+        <v>TestChicagoCity179@mail.com</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>96</v>
@@ -3545,16 +3542,16 @@
         <v>97</v>
       </c>
       <c r="Y15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA15" s="6" t="s">
+      <c r="AB15" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>23</v>
@@ -3566,13 +3563,13 @@
         <v>98</v>
       </c>
       <c r="AF15">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
     <row r="16" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>80</v>
@@ -3584,7 +3581,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3596,22 +3593,22 @@
         <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>27</v>
@@ -3625,18 +3622,18 @@
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity179</v>
+        <v>TestChicagoCity180</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity179</v>
+        <v>TestChicagoCity180</v>
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity179@mail.com</v>
+        <v>TestChicagoCity180@mail.com</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W16" s="5" t="s">
         <v>99</v>
@@ -3645,16 +3642,16 @@
         <v>100</v>
       </c>
       <c r="Y16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>23</v>
@@ -3666,13 +3663,13 @@
         <v>101</v>
       </c>
       <c r="AF16">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
     <row r="17" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>80</v>
@@ -3684,7 +3681,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3696,16 +3693,16 @@
         <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>23</v>
@@ -3725,18 +3722,18 @@
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity180</v>
+        <v>TestChicagoCity181</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity180</v>
+        <v>TestChicagoCity181</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity180@mail.com</v>
+        <v>TestChicagoCity181@mail.com</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>102</v>
@@ -3745,16 +3742,16 @@
         <v>103</v>
       </c>
       <c r="Y17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA17" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Z17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA17" s="6" t="s">
+      <c r="AB17" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>23</v>
@@ -3766,12 +3763,12 @@
         <v>104</v>
       </c>
       <c r="AF17">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>80</v>
@@ -3783,7 +3780,7 @@
         <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3795,22 +3792,22 @@
         <v>106</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>27</v>
@@ -3824,18 +3821,18 @@
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity181</v>
+        <v>TestChicagoCity182</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity181</v>
+        <v>TestChicagoCity182</v>
       </c>
       <c r="U18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity181@mail.com</v>
+        <v>TestChicagoCity182@mail.com</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>105</v>
@@ -3844,16 +3841,16 @@
         <v>106</v>
       </c>
       <c r="Y18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA18" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="Z18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AB18" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>23</v>
@@ -3865,12 +3862,12 @@
         <v>107</v>
       </c>
       <c r="AF18">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>80</v>
@@ -3882,7 +3879,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3894,16 +3891,16 @@
         <v>109</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>23</v>
@@ -3923,18 +3920,18 @@
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity182</v>
+        <v>TestChicagoCity183</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity182</v>
+        <v>TestChicagoCity183</v>
       </c>
       <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity182@mail.com</v>
+        <v>TestChicagoCity183@mail.com</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>108</v>
@@ -3943,16 +3940,16 @@
         <v>109</v>
       </c>
       <c r="Y19" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA19" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="Z19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AB19" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>23</v>
@@ -3964,12 +3961,12 @@
         <v>110</v>
       </c>
       <c r="AF19">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>80</v>
@@ -3981,7 +3978,7 @@
         <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -3993,22 +3990,22 @@
         <v>112</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>27</v>
@@ -4022,18 +4019,18 @@
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity183</v>
+        <v>TestChicagoCity184</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity183</v>
+        <v>TestChicagoCity184</v>
       </c>
       <c r="U20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>TestChicagoCity183@mail.com</v>
+        <v>TestChicagoCity184@mail.com</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>111</v>
@@ -4042,16 +4039,16 @@
         <v>112</v>
       </c>
       <c r="Y20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="Z20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AB20" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>23</v>
@@ -4063,7 +4060,7 @@
         <v>113</v>
       </c>
       <c r="AF20">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6BC47C-0DB9-45D7-A273-3BB9E50E8E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909CA855-F02F-4052-985F-73C9F39211CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="268">
   <si>
     <t>run</t>
   </si>
@@ -631,6 +631,216 @@
   </si>
   <si>
     <t>home139</t>
+  </si>
+  <si>
+    <t>TestChicagoCity185</t>
+  </si>
+  <si>
+    <t>TestChicagoCity185@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity186</t>
+  </si>
+  <si>
+    <t>TestChicagoCity186@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity187</t>
+  </si>
+  <si>
+    <t>TestChicagoCity187@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity188</t>
+  </si>
+  <si>
+    <t>TestChicagoCity188@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity189</t>
+  </si>
+  <si>
+    <t>TestChicagoCity189@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity190</t>
+  </si>
+  <si>
+    <t>TestChicagoCity190@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity191</t>
+  </si>
+  <si>
+    <t>TestChicagoCity191@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity192</t>
+  </si>
+  <si>
+    <t>TestChicagoCity192@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity193</t>
+  </si>
+  <si>
+    <t>TestChicagoCity193@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity194</t>
+  </si>
+  <si>
+    <t>TestChicagoCity194@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity195</t>
+  </si>
+  <si>
+    <t>TestChicagoCity195@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity196</t>
+  </si>
+  <si>
+    <t>TestChicagoCity196@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity197</t>
+  </si>
+  <si>
+    <t>TestChicagoCity197@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity198</t>
+  </si>
+  <si>
+    <t>TestChicagoCity198@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity199</t>
+  </si>
+  <si>
+    <t>TestChicagoCity199@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity200</t>
+  </si>
+  <si>
+    <t>TestChicagoCity200@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity201</t>
+  </si>
+  <si>
+    <t>TestChicagoCity201@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity202</t>
+  </si>
+  <si>
+    <t>TestChicagoCity202@mail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity203</t>
+  </si>
+  <si>
+    <t>TestChicagoCity203@mail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine155</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine155@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine156</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine156@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine157</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine157@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine158</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine158@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine159</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine159@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine160</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine160@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine161</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine161@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine162</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine162@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine163</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine163@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine164</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine164@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine165</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine165@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine166</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine166@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine167</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine167@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine168</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine168@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine169</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine169@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine170</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine170@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1240,17 +1450,14 @@
       <c r="F2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>CONCATENATE($F$2,O2)</f>
-        <v>AutomationTestPalatine140</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>G2</f>
-        <v>AutomationTestPalatine140</v>
-      </c>
-      <c r="I2" s="11" t="str">
-        <f>CONCATENATE(G2,$P$2)</f>
-        <v>AutomationTestPalatine140@gmail.com</v>
+      <c r="G2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>30</v>
@@ -1268,7 +1475,7 @@
         <v>66</v>
       </c>
       <c r="O2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>116</v>
@@ -1291,17 +1498,14 @@
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G17" si="0">CONCATENATE($F$2,O3)</f>
-        <v>AutomationTestPalatine141</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H17" si="1">G3</f>
-        <v>AutomationTestPalatine141</v>
-      </c>
-      <c r="I3" s="11" t="str">
-        <f t="shared" ref="I3:I17" si="2">CONCATENATE(G3,$P$2)</f>
-        <v>AutomationTestPalatine141@gmail.com</v>
+      <c r="G3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>61</v>
@@ -1319,7 +1523,7 @@
         <v>66</v>
       </c>
       <c r="O3">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1339,17 +1543,14 @@
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine142</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine142</v>
-      </c>
-      <c r="I4" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine142@gmail.com</v>
+      <c r="G4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>30</v>
@@ -1367,7 +1568,7 @@
         <v>66</v>
       </c>
       <c r="O4">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1387,17 +1588,14 @@
         <v>8</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine143</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine143</v>
-      </c>
-      <c r="I5" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine143@gmail.com</v>
+      <c r="G5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>61</v>
@@ -1415,7 +1613,7 @@
         <v>66</v>
       </c>
       <c r="O5">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1435,17 +1633,14 @@
         <v>12</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine144</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine144</v>
-      </c>
-      <c r="I6" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine144@gmail.com</v>
+      <c r="G6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>30</v>
@@ -1463,7 +1658,7 @@
         <v>66</v>
       </c>
       <c r="O6">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1483,17 +1678,14 @@
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine145</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine145</v>
-      </c>
-      <c r="I7" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine145@gmail.com</v>
+      <c r="G7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>61</v>
@@ -1511,7 +1703,7 @@
         <v>66</v>
       </c>
       <c r="O7">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1531,17 +1723,14 @@
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine146</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine146</v>
-      </c>
-      <c r="I8" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine146@gmail.com</v>
+      <c r="G8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
@@ -1559,7 +1748,7 @@
         <v>66</v>
       </c>
       <c r="O8">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1579,17 +1768,14 @@
         <v>8</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine147</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine147</v>
-      </c>
-      <c r="I9" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine147@gmail.com</v>
+      <c r="G9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>61</v>
@@ -1607,7 +1793,7 @@
         <v>66</v>
       </c>
       <c r="O9">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1627,17 +1813,14 @@
         <v>12</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine148</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine148</v>
-      </c>
-      <c r="I10" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine148@gmail.com</v>
+      <c r="G10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>30</v>
@@ -1655,7 +1838,7 @@
         <v>66</v>
       </c>
       <c r="O10">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1675,17 +1858,14 @@
         <v>8</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine149</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine149</v>
-      </c>
-      <c r="I11" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine149@gmail.com</v>
+      <c r="G11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>61</v>
@@ -1703,7 +1883,7 @@
         <v>66</v>
       </c>
       <c r="O11">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1723,17 +1903,14 @@
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine150</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine150</v>
-      </c>
-      <c r="I12" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine150@gmail.com</v>
+      <c r="G12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>30</v>
@@ -1751,7 +1928,7 @@
         <v>66</v>
       </c>
       <c r="O12">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1771,17 +1948,14 @@
         <v>8</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine151</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine151</v>
-      </c>
-      <c r="I13" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine151@gmail.com</v>
+      <c r="G13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>61</v>
@@ -1799,7 +1973,7 @@
         <v>66</v>
       </c>
       <c r="O13">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1819,17 +1993,14 @@
         <v>12</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine152</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine152</v>
-      </c>
-      <c r="I14" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine152@gmail.com</v>
+      <c r="G14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>30</v>
@@ -1847,7 +2018,7 @@
         <v>66</v>
       </c>
       <c r="O14">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1867,17 +2038,14 @@
         <v>8</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine153</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine153</v>
-      </c>
-      <c r="I15" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine153@gmail.com</v>
+      <c r="G15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>61</v>
@@ -1895,7 +2063,7 @@
         <v>66</v>
       </c>
       <c r="O15">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1915,17 +2083,14 @@
         <v>12</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine154</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine154</v>
-      </c>
-      <c r="I16" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine154@gmail.com</v>
+      <c r="G16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
@@ -1943,7 +2108,7 @@
         <v>66</v>
       </c>
       <c r="O16">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1963,17 +2128,14 @@
         <v>8</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AutomationTestPalatine155</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AutomationTestPalatine155</v>
-      </c>
-      <c r="I17" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AutomationTestPalatine155@gmail.com</v>
+      <c r="G17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>61</v>
@@ -1991,7 +2153,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2032,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2218,17 +2380,14 @@
       <c r="R2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="1" t="str">
-        <f>CONCATENATE($R$2,AF2)</f>
-        <v>TestChicagoCity166</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <f>S2</f>
-        <v>TestChicagoCity166</v>
-      </c>
-      <c r="U2" s="11" t="str">
-        <f>CONCATENATE(S2,$AG$2)</f>
-        <v>TestChicagoCity166@mail.com</v>
+      <c r="S2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>127</v>
@@ -2261,7 +2420,7 @@
         <v>79</v>
       </c>
       <c r="AF2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG2" s="18" t="s">
         <v>114</v>
@@ -2320,17 +2479,14 @@
         <v>81</v>
       </c>
       <c r="R3" s="7"/>
-      <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S20" si="0">CONCATENATE($R$2,AF3)</f>
-        <v>TestChicagoCity167</v>
-      </c>
-      <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T20" si="1">S3</f>
-        <v>TestChicagoCity167</v>
-      </c>
-      <c r="U3" s="11" t="str">
-        <f t="shared" ref="U3:U20" si="2">CONCATENATE(S3,$AG$2)</f>
-        <v>TestChicagoCity167@mail.com</v>
+      <c r="S3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>127</v>
@@ -2363,7 +2519,7 @@
         <v>83</v>
       </c>
       <c r="AF3">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
@@ -2420,17 +2576,14 @@
         <v>81</v>
       </c>
       <c r="R4" s="7"/>
-      <c r="S4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity168</v>
-      </c>
-      <c r="T4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity168</v>
-      </c>
-      <c r="U4" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity168@mail.com</v>
+      <c r="S4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>127</v>
@@ -2463,7 +2616,7 @@
         <v>85</v>
       </c>
       <c r="AF4">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
@@ -2520,17 +2673,14 @@
         <v>81</v>
       </c>
       <c r="R5" s="7"/>
-      <c r="S5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity169</v>
-      </c>
-      <c r="T5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity169</v>
-      </c>
-      <c r="U5" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity169@mail.com</v>
+      <c r="S5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>127</v>
@@ -2563,7 +2713,7 @@
         <v>86</v>
       </c>
       <c r="AF5">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
@@ -2620,17 +2770,14 @@
         <v>81</v>
       </c>
       <c r="R6" s="7"/>
-      <c r="S6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity170</v>
-      </c>
-      <c r="T6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity170</v>
-      </c>
-      <c r="U6" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity170@mail.com</v>
+      <c r="S6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>127</v>
@@ -2663,7 +2810,7 @@
         <v>87</v>
       </c>
       <c r="AF6">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
@@ -2720,17 +2867,14 @@
         <v>81</v>
       </c>
       <c r="R7" s="7"/>
-      <c r="S7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity171</v>
-      </c>
-      <c r="T7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity171</v>
-      </c>
-      <c r="U7" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity171@mail.com</v>
+      <c r="S7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>127</v>
@@ -2763,7 +2907,7 @@
         <v>88</v>
       </c>
       <c r="AF7">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
@@ -2820,17 +2964,14 @@
         <v>81</v>
       </c>
       <c r="R8" s="7"/>
-      <c r="S8" s="1" t="str">
-        <f>CONCATENATE($R$2,AF8)</f>
-        <v>TestChicagoCity172</v>
-      </c>
-      <c r="T8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity172</v>
-      </c>
-      <c r="U8" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity172@mail.com</v>
+      <c r="S8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>127</v>
@@ -2863,7 +3004,7 @@
         <v>89</v>
       </c>
       <c r="AF8">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
@@ -2920,17 +3061,14 @@
         <v>81</v>
       </c>
       <c r="R9" s="7"/>
-      <c r="S9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity173</v>
-      </c>
-      <c r="T9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity173</v>
-      </c>
-      <c r="U9" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity173@mail.com</v>
+      <c r="S9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>127</v>
@@ -2963,7 +3101,7 @@
         <v>90</v>
       </c>
       <c r="AF9">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
@@ -3020,17 +3158,14 @@
         <v>81</v>
       </c>
       <c r="R10" s="7"/>
-      <c r="S10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity174</v>
-      </c>
-      <c r="T10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity174</v>
-      </c>
-      <c r="U10" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity174@mail.com</v>
+      <c r="S10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>127</v>
@@ -3063,7 +3198,7 @@
         <v>91</v>
       </c>
       <c r="AF10">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
@@ -3120,17 +3255,14 @@
         <v>81</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity175</v>
-      </c>
-      <c r="T11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity175</v>
-      </c>
-      <c r="U11" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity175@mail.com</v>
+      <c r="S11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>127</v>
@@ -3163,7 +3295,7 @@
         <v>92</v>
       </c>
       <c r="AF11">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
@@ -3220,17 +3352,14 @@
         <v>81</v>
       </c>
       <c r="R12" s="7"/>
-      <c r="S12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity176</v>
-      </c>
-      <c r="T12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity176</v>
-      </c>
-      <c r="U12" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity176@mail.com</v>
+      <c r="S12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>127</v>
@@ -3263,7 +3392,7 @@
         <v>93</v>
       </c>
       <c r="AF12">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
@@ -3320,17 +3449,14 @@
         <v>81</v>
       </c>
       <c r="R13" s="7"/>
-      <c r="S13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity177</v>
-      </c>
-      <c r="T13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity177</v>
-      </c>
-      <c r="U13" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity177@mail.com</v>
+      <c r="S13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="V13" s="15" t="s">
         <v>127</v>
@@ -3363,7 +3489,7 @@
         <v>94</v>
       </c>
       <c r="AF13">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
@@ -3420,17 +3546,14 @@
         <v>81</v>
       </c>
       <c r="R14" s="7"/>
-      <c r="S14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity178</v>
-      </c>
-      <c r="T14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity178</v>
-      </c>
-      <c r="U14" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity178@mail.com</v>
+      <c r="S14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="V14" s="15" t="s">
         <v>127</v>
@@ -3463,7 +3586,7 @@
         <v>95</v>
       </c>
       <c r="AF14">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
@@ -3520,17 +3643,14 @@
         <v>81</v>
       </c>
       <c r="R15" s="7"/>
-      <c r="S15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity179</v>
-      </c>
-      <c r="T15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity179</v>
-      </c>
-      <c r="U15" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity179@mail.com</v>
+      <c r="S15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>127</v>
@@ -3563,7 +3683,7 @@
         <v>98</v>
       </c>
       <c r="AF15">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
@@ -3620,17 +3740,14 @@
         <v>81</v>
       </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity180</v>
-      </c>
-      <c r="T16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity180</v>
-      </c>
-      <c r="U16" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity180@mail.com</v>
+      <c r="S16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>127</v>
@@ -3663,7 +3780,7 @@
         <v>101</v>
       </c>
       <c r="AF16">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
@@ -3720,17 +3837,14 @@
         <v>81</v>
       </c>
       <c r="R17" s="7"/>
-      <c r="S17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity181</v>
-      </c>
-      <c r="T17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity181</v>
-      </c>
-      <c r="U17" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity181@mail.com</v>
+      <c r="S17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>127</v>
@@ -3763,7 +3877,7 @@
         <v>104</v>
       </c>
       <c r="AF17">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3819,17 +3933,14 @@
         <v>81</v>
       </c>
       <c r="R18" s="7"/>
-      <c r="S18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity182</v>
-      </c>
-      <c r="T18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity182</v>
-      </c>
-      <c r="U18" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity182@mail.com</v>
+      <c r="S18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>127</v>
@@ -3862,7 +3973,7 @@
         <v>107</v>
       </c>
       <c r="AF18">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -3918,17 +4029,14 @@
         <v>81</v>
       </c>
       <c r="R19" s="7"/>
-      <c r="S19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity183</v>
-      </c>
-      <c r="T19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity183</v>
-      </c>
-      <c r="U19" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity183@mail.com</v>
+      <c r="S19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>127</v>
@@ -3961,7 +4069,7 @@
         <v>110</v>
       </c>
       <c r="AF19">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
@@ -4017,17 +4125,14 @@
         <v>81</v>
       </c>
       <c r="R20" s="7"/>
-      <c r="S20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TestChicagoCity184</v>
-      </c>
-      <c r="T20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>TestChicagoCity184</v>
-      </c>
-      <c r="U20" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>TestChicagoCity184@mail.com</v>
+      <c r="S20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>127</v>
@@ -4060,7 +4165,7 @@
         <v>113</v>
       </c>
       <c r="AF20">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909CA855-F02F-4052-985F-73C9F39211CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52733BE-9755-4EFB-BEBB-8CAB78EE701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="order" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="267">
   <si>
     <t>run</t>
   </si>
@@ -381,9 +382,6 @@
     <t>58604</t>
   </si>
   <si>
-    <t>@mail.com</t>
-  </si>
-  <si>
     <t>TestChicagoCity</t>
   </si>
   <si>
@@ -633,214 +631,214 @@
     <t>home139</t>
   </si>
   <si>
-    <t>TestChicagoCity185</t>
-  </si>
-  <si>
-    <t>TestChicagoCity185@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity186</t>
-  </si>
-  <si>
-    <t>TestChicagoCity186@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity187</t>
-  </si>
-  <si>
-    <t>TestChicagoCity187@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity188</t>
-  </si>
-  <si>
-    <t>TestChicagoCity188@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity189</t>
-  </si>
-  <si>
-    <t>TestChicagoCity189@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity190</t>
-  </si>
-  <si>
-    <t>TestChicagoCity190@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity191</t>
-  </si>
-  <si>
-    <t>TestChicagoCity191@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity192</t>
-  </si>
-  <si>
-    <t>TestChicagoCity192@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity193</t>
-  </si>
-  <si>
-    <t>TestChicagoCity193@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity194</t>
-  </si>
-  <si>
-    <t>TestChicagoCity194@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity195</t>
-  </si>
-  <si>
-    <t>TestChicagoCity195@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity196</t>
-  </si>
-  <si>
-    <t>TestChicagoCity196@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity197</t>
-  </si>
-  <si>
-    <t>TestChicagoCity197@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity198</t>
-  </si>
-  <si>
-    <t>TestChicagoCity198@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity199</t>
-  </si>
-  <si>
-    <t>TestChicagoCity199@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity200</t>
-  </si>
-  <si>
-    <t>TestChicagoCity200@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity201</t>
-  </si>
-  <si>
-    <t>TestChicagoCity201@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity202</t>
-  </si>
-  <si>
-    <t>TestChicagoCity202@mail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity203</t>
-  </si>
-  <si>
-    <t>TestChicagoCity203@mail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine155</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine155@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine156</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine156@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine157</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine157@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine158</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine158@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine159</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine159@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine160</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine160@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine161</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine161@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine162</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine162@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine163</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine163@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine164</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine164@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine165</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine165@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine166</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine166@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine167</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine167@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine168</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine168@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine169</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine169@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine170</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine170@gmail.com</t>
+    <t>TestChicagoCity204</t>
+  </si>
+  <si>
+    <t>TestChicagoCity204@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity205</t>
+  </si>
+  <si>
+    <t>TestChicagoCity205@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity206</t>
+  </si>
+  <si>
+    <t>TestChicagoCity206@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity207</t>
+  </si>
+  <si>
+    <t>TestChicagoCity207@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity208</t>
+  </si>
+  <si>
+    <t>TestChicagoCity208@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity209</t>
+  </si>
+  <si>
+    <t>TestChicagoCity209@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity210</t>
+  </si>
+  <si>
+    <t>TestChicagoCity210@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity211</t>
+  </si>
+  <si>
+    <t>TestChicagoCity211@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity212</t>
+  </si>
+  <si>
+    <t>TestChicagoCity212@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity213</t>
+  </si>
+  <si>
+    <t>TestChicagoCity213@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity214</t>
+  </si>
+  <si>
+    <t>TestChicagoCity214@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity215</t>
+  </si>
+  <si>
+    <t>TestChicagoCity215@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity216</t>
+  </si>
+  <si>
+    <t>TestChicagoCity216@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity217</t>
+  </si>
+  <si>
+    <t>TestChicagoCity217@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity218</t>
+  </si>
+  <si>
+    <t>TestChicagoCity218@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity219</t>
+  </si>
+  <si>
+    <t>TestChicagoCity219@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity220</t>
+  </si>
+  <si>
+    <t>TestChicagoCity220@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity221</t>
+  </si>
+  <si>
+    <t>TestChicagoCity221@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity222</t>
+  </si>
+  <si>
+    <t>TestChicagoCity222@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine171</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine171@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine172</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine172@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine173</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine173@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine174</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine174@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine175</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine175@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine176</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine176@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine177</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine177@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine178</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine178@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine179</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine179@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine180</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine180@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine181</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine181@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine182</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine182@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine183</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine183@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine184</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine184@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine185</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine185@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine186</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine186@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1451,13 +1449,13 @@
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>30</v>
@@ -1474,12 +1472,7 @@
       <c r="N2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O2">
-        <v>155</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1499,13 +1492,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>61</v>
@@ -1521,9 +1514,6 @@
       </c>
       <c r="N3" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O3">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1544,13 +1534,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>30</v>
@@ -1566,9 +1556,6 @@
       </c>
       <c r="N4" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O4">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1589,13 +1576,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>61</v>
@@ -1611,9 +1598,6 @@
       </c>
       <c r="N5" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O5">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1634,13 +1618,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>30</v>
@@ -1656,9 +1640,6 @@
       </c>
       <c r="N6" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O6">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1679,13 +1660,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>61</v>
@@ -1701,9 +1682,6 @@
       </c>
       <c r="N7" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O7">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1724,13 +1702,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
@@ -1746,9 +1724,6 @@
       </c>
       <c r="N8" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O8">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1769,13 +1744,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>61</v>
@@ -1791,9 +1766,6 @@
       </c>
       <c r="N9" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O9">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1814,13 +1786,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>30</v>
@@ -1836,9 +1808,6 @@
       </c>
       <c r="N10" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O10">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1859,13 +1828,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>61</v>
@@ -1881,9 +1850,6 @@
       </c>
       <c r="N11" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O11">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1904,13 +1870,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>30</v>
@@ -1926,9 +1892,6 @@
       </c>
       <c r="N12" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O12">
-        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1949,13 +1912,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>61</v>
@@ -1971,9 +1934,6 @@
       </c>
       <c r="N13" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O13">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1994,13 +1954,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>30</v>
@@ -2016,9 +1976,6 @@
       </c>
       <c r="N14" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O14">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2039,13 +1996,13 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>61</v>
@@ -2061,9 +2018,6 @@
       </c>
       <c r="N15" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O15">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2084,13 +2038,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
@@ -2107,11 +2061,8 @@
       <c r="N16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O16">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2129,13 +2080,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>61</v>
@@ -2151,9 +2102,6 @@
       </c>
       <c r="N17" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="O17">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2194,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,10 +2284,10 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -2351,22 +2299,22 @@
         <v>44</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>27</v>
@@ -2378,19 +2326,19 @@
         <v>81</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="V2" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>31</v>
@@ -2399,16 +2347,16 @@
         <v>44</v>
       </c>
       <c r="Y2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="AA2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>23</v>
@@ -2419,12 +2367,7 @@
       <c r="AE2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AF2">
-        <v>185</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>114</v>
-      </c>
+      <c r="AG2" s="18"/>
     </row>
     <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2437,10 +2380,10 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -2452,16 +2395,16 @@
         <v>45</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
@@ -2480,16 +2423,16 @@
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>201</v>
-      </c>
       <c r="V3" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>32</v>
@@ -2498,16 +2441,16 @@
         <v>45</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>23</v>
@@ -2517,9 +2460,6 @@
       </c>
       <c r="AE3" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="AF3">
-        <v>186</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
@@ -2534,10 +2474,10 @@
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2549,22 +2489,22 @@
         <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>27</v>
@@ -2577,16 +2517,16 @@
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="V4" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>33</v>
@@ -2595,16 +2535,16 @@
         <v>46</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB4" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>23</v>
@@ -2614,9 +2554,6 @@
       </c>
       <c r="AE4" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="AF4">
-        <v>187</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
@@ -2631,10 +2568,10 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -2646,16 +2583,16 @@
         <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>23</v>
@@ -2674,16 +2611,16 @@
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="U5" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="V5" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>34</v>
@@ -2692,16 +2629,16 @@
         <v>47</v>
       </c>
       <c r="Y5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>23</v>
@@ -2711,9 +2648,6 @@
       </c>
       <c r="AE5" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="AF5">
-        <v>188</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
@@ -2728,10 +2662,10 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2743,22 +2677,22 @@
         <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>27</v>
@@ -2771,16 +2705,16 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U6" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="V6" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>35</v>
@@ -2789,16 +2723,16 @@
         <v>48</v>
       </c>
       <c r="Y6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>23</v>
@@ -2808,9 +2742,6 @@
       </c>
       <c r="AE6" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AF6">
-        <v>189</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
@@ -2825,10 +2756,10 @@
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2840,16 +2771,16 @@
         <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>23</v>
@@ -2868,16 +2799,16 @@
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U7" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="V7" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>36</v>
@@ -2886,16 +2817,16 @@
         <v>49</v>
       </c>
       <c r="Y7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>23</v>
@@ -2905,9 +2836,6 @@
       </c>
       <c r="AE7" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="AF7">
-        <v>190</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
@@ -2922,10 +2850,10 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2937,22 +2865,22 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
@@ -2965,16 +2893,16 @@
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="V8" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>37</v>
@@ -2983,16 +2911,16 @@
         <v>50</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AB8" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>23</v>
@@ -3002,9 +2930,6 @@
       </c>
       <c r="AE8" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="AF8">
-        <v>191</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
@@ -3019,10 +2944,10 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -3034,16 +2959,16 @@
         <v>51</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>23</v>
@@ -3062,16 +2987,16 @@
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="V9" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>38</v>
@@ -3080,16 +3005,16 @@
         <v>51</v>
       </c>
       <c r="Y9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>23</v>
@@ -3099,9 +3024,6 @@
       </c>
       <c r="AE9" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AF9">
-        <v>192</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
@@ -3116,10 +3038,10 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3131,22 +3053,22 @@
         <v>52</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>27</v>
@@ -3159,16 +3081,16 @@
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U10" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="V10" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>39</v>
@@ -3177,16 +3099,16 @@
         <v>52</v>
       </c>
       <c r="Y10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA10" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="Z10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA10" s="6" t="s">
+      <c r="AB10" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>23</v>
@@ -3196,9 +3118,6 @@
       </c>
       <c r="AE10" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="AF10">
-        <v>193</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
@@ -3213,10 +3132,10 @@
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -3228,16 +3147,16 @@
         <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>23</v>
@@ -3256,16 +3175,16 @@
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="V11" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>40</v>
@@ -3274,16 +3193,16 @@
         <v>53</v>
       </c>
       <c r="Y11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="Z11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA11" s="6" t="s">
+      <c r="AB11" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>23</v>
@@ -3293,9 +3212,6 @@
       </c>
       <c r="AE11" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="AF11">
-        <v>194</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
@@ -3310,10 +3226,10 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3325,22 +3241,22 @@
         <v>54</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>27</v>
@@ -3353,16 +3269,16 @@
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="U12" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="V12" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>41</v>
@@ -3371,16 +3287,16 @@
         <v>54</v>
       </c>
       <c r="Y12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AB12" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>23</v>
@@ -3390,9 +3306,6 @@
       </c>
       <c r="AE12" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="AF12">
-        <v>195</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
@@ -3407,10 +3320,10 @@
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -3422,16 +3335,16 @@
         <v>55</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>23</v>
@@ -3450,16 +3363,16 @@
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="U13" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="V13" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>42</v>
@@ -3468,16 +3381,16 @@
         <v>55</v>
       </c>
       <c r="Y13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA13" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="Z13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AB13" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>23</v>
@@ -3487,9 +3400,6 @@
       </c>
       <c r="AE13" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="AF13">
-        <v>196</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
@@ -3504,10 +3414,10 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3519,22 +3429,22 @@
         <v>56</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>27</v>
@@ -3547,16 +3457,16 @@
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U14" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="V14" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>43</v>
@@ -3565,16 +3475,16 @@
         <v>56</v>
       </c>
       <c r="Y14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA14" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AB14" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>23</v>
@@ -3584,9 +3494,6 @@
       </c>
       <c r="AE14" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="AF14">
-        <v>197</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
@@ -3601,10 +3508,10 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3616,16 +3523,16 @@
         <v>97</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>23</v>
@@ -3644,16 +3551,16 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U15" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="V15" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>96</v>
@@ -3662,16 +3569,16 @@
         <v>97</v>
       </c>
       <c r="Y15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Z15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA15" s="6" t="s">
+      <c r="AB15" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>23</v>
@@ -3681,9 +3588,6 @@
       </c>
       <c r="AE15" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="AF15">
-        <v>198</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
@@ -3698,10 +3602,10 @@
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3713,22 +3617,22 @@
         <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>27</v>
@@ -3741,16 +3645,16 @@
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="V16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W16" s="5" t="s">
         <v>99</v>
@@ -3759,16 +3663,16 @@
         <v>100</v>
       </c>
       <c r="Y16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA16" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>23</v>
@@ -3779,12 +3683,9 @@
       <c r="AE16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AF16">
-        <v>199</v>
-      </c>
       <c r="AG16" s="18"/>
     </row>
-    <row r="17" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -3795,10 +3696,10 @@
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3810,16 +3711,16 @@
         <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>23</v>
@@ -3838,16 +3739,16 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="U17" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="V17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>102</v>
@@ -3856,16 +3757,16 @@
         <v>103</v>
       </c>
       <c r="Y17" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="Z17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA17" s="6" t="s">
+      <c r="AB17" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>23</v>
@@ -3876,11 +3777,8 @@
       <c r="AE17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AF17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -3891,10 +3789,10 @@
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3906,22 +3804,22 @@
         <v>106</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>27</v>
@@ -3934,16 +3832,16 @@
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U18" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="V18" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>105</v>
@@ -3952,16 +3850,16 @@
         <v>106</v>
       </c>
       <c r="Y18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA18" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="Z18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AB18" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>23</v>
@@ -3972,11 +3870,8 @@
       <c r="AE18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AF18">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
@@ -3987,10 +3882,10 @@
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -4002,16 +3897,16 @@
         <v>109</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K19" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>23</v>
@@ -4030,16 +3925,16 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U19" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="V19" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>108</v>
@@ -4048,16 +3943,16 @@
         <v>109</v>
       </c>
       <c r="Y19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA19" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="Z19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AB19" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>23</v>
@@ -4068,11 +3963,8 @@
       <c r="AE19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AF19">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>1</v>
       </c>
@@ -4083,10 +3975,10 @@
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -4098,22 +3990,22 @@
         <v>112</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>27</v>
@@ -4126,16 +4018,16 @@
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="V20" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>111</v>
@@ -4144,16 +4036,16 @@
         <v>112</v>
       </c>
       <c r="Y20" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="Z20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AB20" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>23</v>
@@ -4163,9 +4055,6 @@
       </c>
       <c r="AE20" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="AF20">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4195,4 +4084,670 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>CONCATENATE($G$1,$I1)</f>
+        <v>TestChicagoCity204</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>CONCATENATE($G$1,$I1)</f>
+        <v>TestChicagoCity204</v>
+      </c>
+      <c r="C1" s="11" t="str">
+        <f>CONCATENATE($G$1,$I1,$H$1)</f>
+        <v>TestChicagoCity204@gmail.com</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:B19" si="0">CONCATENATE($G$1,$I2)</f>
+        <v>TestChicagoCity205</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity205</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f t="shared" ref="C2:C19" si="1">CONCATENATE($G$1,$I2,$H$1)</f>
+        <v>TestChicagoCity205@gmail.com</v>
+      </c>
+      <c r="I2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity206</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity206</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity206@gmail.com</v>
+      </c>
+      <c r="I3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity207</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity207</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity207@gmail.com</v>
+      </c>
+      <c r="I4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity208</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity208</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity208@gmail.com</v>
+      </c>
+      <c r="I5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity209</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity209</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity209@gmail.com</v>
+      </c>
+      <c r="I6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity210</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity210</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity210@gmail.com</v>
+      </c>
+      <c r="I7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity211</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity211</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity211@gmail.com</v>
+      </c>
+      <c r="I8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity212</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity212</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity212@gmail.com</v>
+      </c>
+      <c r="I9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity213</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity213</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity213@gmail.com</v>
+      </c>
+      <c r="I10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity214</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity214</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity214@gmail.com</v>
+      </c>
+      <c r="I11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity215</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity215</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity215@gmail.com</v>
+      </c>
+      <c r="I12">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity216</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity216</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity216@gmail.com</v>
+      </c>
+      <c r="I13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity217</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity217</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity217@gmail.com</v>
+      </c>
+      <c r="I14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity218</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity218</v>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity218@gmail.com</v>
+      </c>
+      <c r="I15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity219</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity219</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity219@gmail.com</v>
+      </c>
+      <c r="I16">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity220</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity220</v>
+      </c>
+      <c r="C17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity220@gmail.com</v>
+      </c>
+      <c r="I17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity221</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity221</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity221@gmail.com</v>
+      </c>
+      <c r="I18">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity222</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TestChicagoCity222</v>
+      </c>
+      <c r="C19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TestChicagoCity222@gmail.com</v>
+      </c>
+      <c r="I19">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
+        <f>CONCATENATE($G$22,$I22)</f>
+        <v>AutomationTestPalatine171</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>CONCATENATE($G$22,$I22)</f>
+        <v>AutomationTestPalatine171</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f>CONCATENATE($G$22,$I22,$H$22)</f>
+        <v>AutomationTestPalatine171@gmail.com</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
+        <f t="shared" ref="A23:B37" si="2">CONCATENATE($G$22,$I23)</f>
+        <v>AutomationTestPalatine172</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine172</v>
+      </c>
+      <c r="C23" s="11" t="str">
+        <f t="shared" ref="C23:C37" si="3">CONCATENATE($G$22,$I23,$H$22)</f>
+        <v>AutomationTestPalatine172@gmail.com</v>
+      </c>
+      <c r="I23">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine173</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine173</v>
+      </c>
+      <c r="C24" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine173@gmail.com</v>
+      </c>
+      <c r="I24">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine174</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine174</v>
+      </c>
+      <c r="C25" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine174@gmail.com</v>
+      </c>
+      <c r="I25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine175</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine175</v>
+      </c>
+      <c r="C26" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine175@gmail.com</v>
+      </c>
+      <c r="I26">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine176</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine176</v>
+      </c>
+      <c r="C27" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine176@gmail.com</v>
+      </c>
+      <c r="I27">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine177</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine177</v>
+      </c>
+      <c r="C28" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine177@gmail.com</v>
+      </c>
+      <c r="I28">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine178</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine178</v>
+      </c>
+      <c r="C29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine178@gmail.com</v>
+      </c>
+      <c r="I29">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine179</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine179</v>
+      </c>
+      <c r="C30" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine179@gmail.com</v>
+      </c>
+      <c r="I30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine180</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine180</v>
+      </c>
+      <c r="C31" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine180@gmail.com</v>
+      </c>
+      <c r="I31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine181</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine181</v>
+      </c>
+      <c r="C32" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine181@gmail.com</v>
+      </c>
+      <c r="I32">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine182</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine182</v>
+      </c>
+      <c r="C33" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine182@gmail.com</v>
+      </c>
+      <c r="I33">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine183</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine183</v>
+      </c>
+      <c r="C34" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine183@gmail.com</v>
+      </c>
+      <c r="I34">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine184</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine184</v>
+      </c>
+      <c r="C35" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine184@gmail.com</v>
+      </c>
+      <c r="I35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine185</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine185</v>
+      </c>
+      <c r="C36" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine185@gmail.com</v>
+      </c>
+      <c r="I36">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine186</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AutomationTestPalatine186</v>
+      </c>
+      <c r="C37" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>AutomationTestPalatine186@gmail.com</v>
+      </c>
+      <c r="I37">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="TestChicagoCity32@gmail.com" xr:uid="{FC4C4380-D018-44C6-8680-86CBCE1CE3FD}"/>
+    <hyperlink ref="C2" r:id="rId2" display="TestChicagoCity32@gmail.com" xr:uid="{45A4E974-3337-4131-BE48-37FA2E2AE43A}"/>
+    <hyperlink ref="C3" r:id="rId3" display="TestChicagoCity32@gmail.com" xr:uid="{901959C7-6E03-43EA-A626-C7E9E11EAB62}"/>
+    <hyperlink ref="C4" r:id="rId4" display="TestChicagoCity32@gmail.com" xr:uid="{7C44DB3F-C396-4489-9BEA-E852FFBE54FA}"/>
+    <hyperlink ref="C5" r:id="rId5" display="TestChicagoCity32@gmail.com" xr:uid="{B0FAE8B7-278B-47F0-9924-9F2FF04A897B}"/>
+    <hyperlink ref="C6" r:id="rId6" display="TestChicagoCity32@gmail.com" xr:uid="{EEB58044-D0B3-4E3D-883D-DF692941E0E6}"/>
+    <hyperlink ref="C7" r:id="rId7" display="TestChicagoCity32@gmail.com" xr:uid="{70A9BAB6-F1A2-483E-8294-CA7D9DD5B28A}"/>
+    <hyperlink ref="C8" r:id="rId8" display="TestChicagoCity32@gmail.com" xr:uid="{C445C991-F19B-4624-8362-D72F36956C8A}"/>
+    <hyperlink ref="C9" r:id="rId9" display="TestChicagoCity32@gmail.com" xr:uid="{82F568CD-AD24-42AB-BA03-C5DFBC60E539}"/>
+    <hyperlink ref="C10" r:id="rId10" display="TestChicagoCity32@gmail.com" xr:uid="{E1A67F48-2876-4DB4-AA9A-5E93B23595E3}"/>
+    <hyperlink ref="C11" r:id="rId11" display="TestChicagoCity32@gmail.com" xr:uid="{749725A6-D080-4968-B2B2-79995275FD7F}"/>
+    <hyperlink ref="C12" r:id="rId12" display="TestChicagoCity32@gmail.com" xr:uid="{4FAB9072-528A-4C7D-9DBA-88541E333D85}"/>
+    <hyperlink ref="C13" r:id="rId13" display="TestChicagoCity32@gmail.com" xr:uid="{32B05F64-527B-46B7-ABF1-E3D6CB6D5545}"/>
+    <hyperlink ref="C14" r:id="rId14" display="TestChicagoCity32@gmail.com" xr:uid="{79A009C9-E1FB-46F8-B867-83503D832A5F}"/>
+    <hyperlink ref="C15" r:id="rId15" display="TestChicagoCity32@gmail.com" xr:uid="{41A9CC07-BF2E-49F5-9AE6-8583E341FA90}"/>
+    <hyperlink ref="C16" r:id="rId16" display="TestChicagoCity32@gmail.com" xr:uid="{B81DD619-166B-43BD-BF7E-16BCC748CDB4}"/>
+    <hyperlink ref="C17" r:id="rId17" display="TestChicagoCity32@gmail.com" xr:uid="{065BAE80-2ECF-4DE6-ADC8-0A3E52C91867}"/>
+    <hyperlink ref="C18" r:id="rId18" display="TestChicagoCity32@gmail.com" xr:uid="{2DEC13AE-B830-4BAD-9267-E51138A9A9ED}"/>
+    <hyperlink ref="C19" r:id="rId19" display="TestChicagoCity32@gmail.com" xr:uid="{F50C95AB-3A94-4CFC-9DE4-AAA1EC80A480}"/>
+    <hyperlink ref="C22" r:id="rId20" display="TestChicagoCity32@gmail.com" xr:uid="{1485756C-D9B4-4A31-B49B-B6CC03417D24}"/>
+    <hyperlink ref="C23" r:id="rId21" display="TestChicagoCity32@gmail.com" xr:uid="{26D9370E-2322-48F5-9A65-E129B922074B}"/>
+    <hyperlink ref="C24" r:id="rId22" display="TestChicagoCity32@gmail.com" xr:uid="{AB727918-B49E-4C6F-845F-4AFE15A9959D}"/>
+    <hyperlink ref="C25" r:id="rId23" display="TestChicagoCity32@gmail.com" xr:uid="{D843A248-DA64-406D-B8EE-BDD59E176D46}"/>
+    <hyperlink ref="C26" r:id="rId24" display="TestChicagoCity32@gmail.com" xr:uid="{2680ACB2-54A0-4BC6-9CDE-C7B5E7C78A07}"/>
+    <hyperlink ref="C27" r:id="rId25" display="TestChicagoCity32@gmail.com" xr:uid="{079EABA6-05A1-438E-A247-6FA819F88B13}"/>
+    <hyperlink ref="C28" r:id="rId26" display="TestChicagoCity32@gmail.com" xr:uid="{1B119723-3B5C-445F-9E39-18831759EF5F}"/>
+    <hyperlink ref="C29" r:id="rId27" display="TestChicagoCity32@gmail.com" xr:uid="{9A082C71-8274-47C1-B111-E683E89A6C79}"/>
+    <hyperlink ref="C30" r:id="rId28" display="TestChicagoCity32@gmail.com" xr:uid="{25CE969B-2FDB-41E8-BBCB-3D079CE6B040}"/>
+    <hyperlink ref="C31" r:id="rId29" display="TestChicagoCity32@gmail.com" xr:uid="{810134B7-2EE9-428C-92B4-17A9BE608F31}"/>
+    <hyperlink ref="C32" r:id="rId30" display="TestChicagoCity32@gmail.com" xr:uid="{4454DFC2-2A11-4DFF-9E1D-DA0F2B116130}"/>
+    <hyperlink ref="C33" r:id="rId31" display="TestChicagoCity32@gmail.com" xr:uid="{66E2E80E-F87C-4564-B943-FC32D8493F2C}"/>
+    <hyperlink ref="C34" r:id="rId32" display="TestChicagoCity32@gmail.com" xr:uid="{2D26ADFB-749D-41D6-BC4C-53F63C6C959F}"/>
+    <hyperlink ref="C35" r:id="rId33" display="TestChicagoCity32@gmail.com" xr:uid="{AB781A60-FAF3-4BDC-80BF-61F84F0FA8A3}"/>
+    <hyperlink ref="C36" r:id="rId34" display="TestChicagoCity32@gmail.com" xr:uid="{F6137712-9F9A-491B-8AFE-3708A26E793E}"/>
+    <hyperlink ref="C37" r:id="rId35" display="TestChicagoCity32@gmail.com" xr:uid="{40D3AB2D-1824-495D-8503-9DE16777AB4F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52733BE-9755-4EFB-BEBB-8CAB78EE701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8CDFE-6C1C-499F-858D-0C8A3F776AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -400,9 +400,6 @@
     <t>Bracelet</t>
   </si>
   <si>
-    <t>DarkBrownJeans</t>
-  </si>
-  <si>
     <t>DavidInc6</t>
   </si>
   <si>
@@ -427,9 +424,6 @@
     <t>home121</t>
   </si>
   <si>
-    <t>BlueShoes</t>
-  </si>
-  <si>
     <t>DavidInc7</t>
   </si>
   <si>
@@ -445,9 +439,6 @@
     <t>home122</t>
   </si>
   <si>
-    <t>BlueTshirt</t>
-  </si>
-  <si>
     <t>DavidInc8</t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t>home123</t>
   </si>
   <si>
-    <t>DenimBlueJeans</t>
-  </si>
-  <si>
     <t>DavidInc9</t>
   </si>
   <si>
@@ -475,9 +463,6 @@
     <t>home124</t>
   </si>
   <si>
-    <t>RedShoes</t>
-  </si>
-  <si>
     <t>DavidInc10</t>
   </si>
   <si>
@@ -487,9 +472,6 @@
     <t>home125</t>
   </si>
   <si>
-    <t>GreenTshirt</t>
-  </si>
-  <si>
     <t>DavidInc11</t>
   </si>
   <si>
@@ -499,9 +481,6 @@
     <t>home126</t>
   </si>
   <si>
-    <t>DarkGreyJeans</t>
-  </si>
-  <si>
     <t>DavidInc12</t>
   </si>
   <si>
@@ -511,9 +490,6 @@
     <t>home127</t>
   </si>
   <si>
-    <t>AnchorBracelet</t>
-  </si>
-  <si>
     <t>DavidInc13</t>
   </si>
   <si>
@@ -523,9 +499,6 @@
     <t>home128</t>
   </si>
   <si>
-    <t>FaintBlueJeans</t>
-  </si>
-  <si>
     <t>DavidInc14</t>
   </si>
   <si>
@@ -535,9 +508,6 @@
     <t>home129</t>
   </si>
   <si>
-    <t>BohoBangleBracelet</t>
-  </si>
-  <si>
     <t>DavidInc15</t>
   </si>
   <si>
@@ -547,9 +517,6 @@
     <t>home130</t>
   </si>
   <si>
-    <t>BasicBlueJeans</t>
-  </si>
-  <si>
     <t>DavidInc16</t>
   </si>
   <si>
@@ -631,214 +598,247 @@
     <t>home139</t>
   </si>
   <si>
-    <t>TestChicagoCity204</t>
-  </si>
-  <si>
-    <t>TestChicagoCity204@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity205</t>
-  </si>
-  <si>
-    <t>TestChicagoCity205@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity206</t>
-  </si>
-  <si>
-    <t>TestChicagoCity206@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity207</t>
-  </si>
-  <si>
-    <t>TestChicagoCity207@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity208</t>
-  </si>
-  <si>
-    <t>TestChicagoCity208@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity209</t>
-  </si>
-  <si>
-    <t>TestChicagoCity209@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity210</t>
-  </si>
-  <si>
-    <t>TestChicagoCity210@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity211</t>
-  </si>
-  <si>
-    <t>TestChicagoCity211@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity212</t>
-  </si>
-  <si>
-    <t>TestChicagoCity212@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity213</t>
-  </si>
-  <si>
-    <t>TestChicagoCity213@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity214</t>
-  </si>
-  <si>
-    <t>TestChicagoCity214@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity215</t>
-  </si>
-  <si>
-    <t>TestChicagoCity215@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity216</t>
-  </si>
-  <si>
-    <t>TestChicagoCity216@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity217</t>
-  </si>
-  <si>
-    <t>TestChicagoCity217@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity218</t>
-  </si>
-  <si>
-    <t>TestChicagoCity218@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity219</t>
-  </si>
-  <si>
-    <t>TestChicagoCity219@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity220</t>
-  </si>
-  <si>
-    <t>TestChicagoCity220@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity221</t>
-  </si>
-  <si>
-    <t>TestChicagoCity221@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity222</t>
-  </si>
-  <si>
-    <t>TestChicagoCity222@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine171</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine171@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine172</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine172@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine173</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine173@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine174</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine174@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine175</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine175@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine176</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine176@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine177</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine177@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine178</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine178@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine179</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine179@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine180</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine180@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine181</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine181@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine182</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine182@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine183</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine183@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine184</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine184@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine185</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine185@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine186</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine186@gmail.com</t>
+    <t>Dark Brown Jeans</t>
+  </si>
+  <si>
+    <t>Blue Shoes</t>
+  </si>
+  <si>
+    <t>Blue Tshirt</t>
+  </si>
+  <si>
+    <t>Denim Blue Jeans</t>
+  </si>
+  <si>
+    <t>Red Shoes</t>
+  </si>
+  <si>
+    <t>Green Tshirt</t>
+  </si>
+  <si>
+    <t>Dark Grey Jeans</t>
+  </si>
+  <si>
+    <t>Anchor Bracelet</t>
+  </si>
+  <si>
+    <t>Faint Blue Jeans</t>
+  </si>
+  <si>
+    <t>Boho Bangle Bracelet</t>
+  </si>
+  <si>
+    <t>Basic Blue Jeans</t>
+  </si>
+  <si>
+    <t>TestChicagoCity223</t>
+  </si>
+  <si>
+    <t>TestChicagoCity223@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity224</t>
+  </si>
+  <si>
+    <t>TestChicagoCity224@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity225</t>
+  </si>
+  <si>
+    <t>TestChicagoCity225@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity226</t>
+  </si>
+  <si>
+    <t>TestChicagoCity226@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity227</t>
+  </si>
+  <si>
+    <t>TestChicagoCity227@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity228</t>
+  </si>
+  <si>
+    <t>TestChicagoCity228@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity229</t>
+  </si>
+  <si>
+    <t>TestChicagoCity229@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity230</t>
+  </si>
+  <si>
+    <t>TestChicagoCity230@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity231</t>
+  </si>
+  <si>
+    <t>TestChicagoCity231@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity232</t>
+  </si>
+  <si>
+    <t>TestChicagoCity232@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity233</t>
+  </si>
+  <si>
+    <t>TestChicagoCity233@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity234</t>
+  </si>
+  <si>
+    <t>TestChicagoCity234@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity235</t>
+  </si>
+  <si>
+    <t>TestChicagoCity235@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity236</t>
+  </si>
+  <si>
+    <t>TestChicagoCity236@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity237</t>
+  </si>
+  <si>
+    <t>TestChicagoCity237@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity238</t>
+  </si>
+  <si>
+    <t>TestChicagoCity238@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity239</t>
+  </si>
+  <si>
+    <t>TestChicagoCity239@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity240</t>
+  </si>
+  <si>
+    <t>TestChicagoCity240@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity241</t>
+  </si>
+  <si>
+    <t>TestChicagoCity241@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine187</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine187@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine188</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine188@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine189</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine189@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine190</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine190@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine191</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine191@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine192</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine192@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine193</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine193@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine194</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine194@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine195</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine195@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine196</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine196@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine197</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine197@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine198</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine198@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine199</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine199@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine200</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine200@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine201</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine201@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine202</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine202@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AH25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2287,7 +2287,7 @@
         <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -2299,22 +2299,22 @@
         <v>44</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>27</v>
@@ -2338,7 +2338,7 @@
         <v>198</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>31</v>
@@ -2347,16 +2347,16 @@
         <v>44</v>
       </c>
       <c r="Y2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="AA2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>23</v>
@@ -2383,7 +2383,7 @@
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -2395,16 +2395,16 @@
         <v>45</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
@@ -2432,7 +2432,7 @@
         <v>200</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>32</v>
@@ -2441,16 +2441,16 @@
         <v>45</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>23</v>
@@ -2477,7 +2477,7 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>27</v>
@@ -2526,7 +2526,7 @@
         <v>202</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>33</v>
@@ -2535,16 +2535,16 @@
         <v>46</v>
       </c>
       <c r="Y4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="AB4" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>23</v>
@@ -2571,7 +2571,7 @@
         <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -2583,16 +2583,16 @@
         <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>23</v>
@@ -2620,7 +2620,7 @@
         <v>204</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>34</v>
@@ -2629,16 +2629,16 @@
         <v>47</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>23</v>
@@ -2665,7 +2665,7 @@
         <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2677,22 +2677,22 @@
         <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>27</v>
@@ -2714,7 +2714,7 @@
         <v>206</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>35</v>
@@ -2723,16 +2723,16 @@
         <v>48</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>23</v>
@@ -2759,7 +2759,7 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2771,16 +2771,16 @@
         <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>23</v>
@@ -2808,7 +2808,7 @@
         <v>208</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>36</v>
@@ -2817,16 +2817,16 @@
         <v>49</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>23</v>
@@ -2853,7 +2853,7 @@
         <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2865,22 +2865,22 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
@@ -2902,7 +2902,7 @@
         <v>210</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>37</v>
@@ -2911,16 +2911,16 @@
         <v>50</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>23</v>
@@ -2947,7 +2947,7 @@
         <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -2959,16 +2959,16 @@
         <v>51</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>23</v>
@@ -2996,7 +2996,7 @@
         <v>212</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>38</v>
@@ -3005,16 +3005,16 @@
         <v>51</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>23</v>
@@ -3041,7 +3041,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3053,22 +3053,22 @@
         <v>52</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>27</v>
@@ -3090,7 +3090,7 @@
         <v>214</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>39</v>
@@ -3099,16 +3099,16 @@
         <v>52</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>23</v>
@@ -3135,7 +3135,7 @@
         <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -3147,16 +3147,16 @@
         <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>23</v>
@@ -3184,7 +3184,7 @@
         <v>216</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>40</v>
@@ -3193,16 +3193,16 @@
         <v>53</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>23</v>
@@ -3229,7 +3229,7 @@
         <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3241,22 +3241,22 @@
         <v>54</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>27</v>
@@ -3278,7 +3278,7 @@
         <v>218</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>41</v>
@@ -3287,16 +3287,16 @@
         <v>54</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>23</v>
@@ -3323,7 +3323,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -3335,16 +3335,16 @@
         <v>55</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>23</v>
@@ -3372,7 +3372,7 @@
         <v>220</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>42</v>
@@ -3381,16 +3381,16 @@
         <v>55</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>23</v>
@@ -3417,7 +3417,7 @@
         <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3429,22 +3429,22 @@
         <v>56</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>27</v>
@@ -3466,7 +3466,7 @@
         <v>222</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>43</v>
@@ -3475,16 +3475,16 @@
         <v>56</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>23</v>
@@ -3511,7 +3511,7 @@
         <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3523,16 +3523,16 @@
         <v>97</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>23</v>
@@ -3560,7 +3560,7 @@
         <v>224</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>96</v>
@@ -3569,16 +3569,16 @@
         <v>97</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>23</v>
@@ -3605,7 +3605,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3617,22 +3617,22 @@
         <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>27</v>
@@ -3654,7 +3654,7 @@
         <v>226</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W16" s="5" t="s">
         <v>99</v>
@@ -3663,16 +3663,16 @@
         <v>100</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>23</v>
@@ -3699,7 +3699,7 @@
         <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3711,16 +3711,16 @@
         <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>23</v>
@@ -3748,7 +3748,7 @@
         <v>228</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>102</v>
@@ -3757,16 +3757,16 @@
         <v>103</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>23</v>
@@ -3792,7 +3792,7 @@
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3804,22 +3804,22 @@
         <v>106</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>27</v>
@@ -3841,7 +3841,7 @@
         <v>230</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>105</v>
@@ -3850,16 +3850,16 @@
         <v>106</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>23</v>
@@ -3885,7 +3885,7 @@
         <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3897,16 +3897,16 @@
         <v>109</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>23</v>
@@ -3934,7 +3934,7 @@
         <v>232</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>108</v>
@@ -3943,16 +3943,16 @@
         <v>109</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>23</v>
@@ -3978,7 +3978,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -3990,22 +3990,22 @@
         <v>112</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>27</v>
@@ -4027,7 +4027,7 @@
         <v>234</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>111</v>
@@ -4036,16 +4036,16 @@
         <v>112</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>23</v>
@@ -4061,25 +4061,25 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{351EB7D8-82E1-436C-860F-1D5CA443C67F}"/>
-    <hyperlink ref="U2" r:id="rId2" display="TestChicagoCity32@gmail.com" xr:uid="{2B7B6198-44E5-477D-9A1A-30CD23CAECCC}"/>
-    <hyperlink ref="Q3" r:id="rId3" xr:uid="{D16B7B07-84E8-4639-A53C-9E620AE1AA98}"/>
-    <hyperlink ref="Q4" r:id="rId4" xr:uid="{52404E07-04E7-441C-9603-036A3C1BD321}"/>
-    <hyperlink ref="Q6" r:id="rId5" xr:uid="{2D365E08-AE0E-4909-9F48-CFA409AAA4F9}"/>
-    <hyperlink ref="Q8" r:id="rId6" xr:uid="{7FD886B9-1C06-4BE1-B65C-93F19F595638}"/>
-    <hyperlink ref="Q10" r:id="rId7" xr:uid="{B9732A51-5EC8-4ADE-9B0B-7FADFD560067}"/>
-    <hyperlink ref="Q12" r:id="rId8" xr:uid="{02A88560-0698-454D-ABB6-446E63BEA669}"/>
-    <hyperlink ref="Q14" r:id="rId9" xr:uid="{339F9882-8D00-4CAF-8900-735961C5911E}"/>
-    <hyperlink ref="Q16" r:id="rId10" xr:uid="{EB21183B-C477-4609-88B8-C3CFB8678CD6}"/>
-    <hyperlink ref="Q18" r:id="rId11" xr:uid="{8828821F-07DD-454B-B4E9-ADFE384C6A20}"/>
-    <hyperlink ref="Q20" r:id="rId12" xr:uid="{05283449-8150-4407-9238-832ACAC031B9}"/>
-    <hyperlink ref="Q5" r:id="rId13" xr:uid="{3C680E6F-23EB-45C1-B3CD-7E019CF4A64C}"/>
-    <hyperlink ref="Q7" r:id="rId14" xr:uid="{84FDBF05-0AF8-44CA-B438-470431C73615}"/>
-    <hyperlink ref="Q9" r:id="rId15" xr:uid="{46DD84F6-C13C-46B0-951F-6D79C05CBD1D}"/>
-    <hyperlink ref="Q11" r:id="rId16" xr:uid="{64C65812-AABB-431F-AAEC-CE565156B32E}"/>
-    <hyperlink ref="Q13" r:id="rId17" xr:uid="{E5B7402A-7BCE-49EA-A1D9-6254518B98A5}"/>
-    <hyperlink ref="Q15" r:id="rId18" xr:uid="{BF8B9E50-D5D0-4CEE-BF35-53BCE6780839}"/>
-    <hyperlink ref="Q17" r:id="rId19" xr:uid="{89DB1F82-ED86-4ED4-8DF3-FACD814A2A2D}"/>
-    <hyperlink ref="Q19" r:id="rId20" xr:uid="{7AC0AAFA-1B43-4D89-8BC6-165533773A6C}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{D16B7B07-84E8-4639-A53C-9E620AE1AA98}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{52404E07-04E7-441C-9603-036A3C1BD321}"/>
+    <hyperlink ref="Q6" r:id="rId4" xr:uid="{2D365E08-AE0E-4909-9F48-CFA409AAA4F9}"/>
+    <hyperlink ref="Q8" r:id="rId5" xr:uid="{7FD886B9-1C06-4BE1-B65C-93F19F595638}"/>
+    <hyperlink ref="Q10" r:id="rId6" xr:uid="{B9732A51-5EC8-4ADE-9B0B-7FADFD560067}"/>
+    <hyperlink ref="Q12" r:id="rId7" xr:uid="{02A88560-0698-454D-ABB6-446E63BEA669}"/>
+    <hyperlink ref="Q14" r:id="rId8" xr:uid="{339F9882-8D00-4CAF-8900-735961C5911E}"/>
+    <hyperlink ref="Q16" r:id="rId9" xr:uid="{EB21183B-C477-4609-88B8-C3CFB8678CD6}"/>
+    <hyperlink ref="Q18" r:id="rId10" xr:uid="{8828821F-07DD-454B-B4E9-ADFE384C6A20}"/>
+    <hyperlink ref="Q20" r:id="rId11" xr:uid="{05283449-8150-4407-9238-832ACAC031B9}"/>
+    <hyperlink ref="Q5" r:id="rId12" xr:uid="{3C680E6F-23EB-45C1-B3CD-7E019CF4A64C}"/>
+    <hyperlink ref="Q7" r:id="rId13" xr:uid="{84FDBF05-0AF8-44CA-B438-470431C73615}"/>
+    <hyperlink ref="Q9" r:id="rId14" xr:uid="{46DD84F6-C13C-46B0-951F-6D79C05CBD1D}"/>
+    <hyperlink ref="Q11" r:id="rId15" xr:uid="{64C65812-AABB-431F-AAEC-CE565156B32E}"/>
+    <hyperlink ref="Q13" r:id="rId16" xr:uid="{E5B7402A-7BCE-49EA-A1D9-6254518B98A5}"/>
+    <hyperlink ref="Q15" r:id="rId17" xr:uid="{BF8B9E50-D5D0-4CEE-BF35-53BCE6780839}"/>
+    <hyperlink ref="Q17" r:id="rId18" xr:uid="{89DB1F82-ED86-4ED4-8DF3-FACD814A2A2D}"/>
+    <hyperlink ref="Q19" r:id="rId19" xr:uid="{7AC0AAFA-1B43-4D89-8BC6-165533773A6C}"/>
+    <hyperlink ref="U2" r:id="rId20" display="TestChicagoCity32@gmail.com" xr:uid="{2B7B6198-44E5-477D-9A1A-30CD23CAECCC}"/>
     <hyperlink ref="U3:U20" r:id="rId21" display="TestChicagoCity32@gmail.com" xr:uid="{0266958A-8D9B-434C-A7AB-780D430438ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4090,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,15 +4106,15 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity204</v>
+        <v>TestChicagoCity223</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity204</v>
+        <v>TestChicagoCity223</v>
       </c>
       <c r="C1" s="11" t="str">
         <f>CONCATENATE($G$1,$I1,$H$1)</f>
-        <v>TestChicagoCity204@gmail.com</v>
+        <v>TestChicagoCity223@gmail.com</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
@@ -4123,327 +4123,327 @@
         <v>115</v>
       </c>
       <c r="I1">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:B19" si="0">CONCATENATE($G$1,$I2)</f>
-        <v>TestChicagoCity205</v>
+        <v>TestChicagoCity224</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity205</v>
+        <v>TestChicagoCity224</v>
       </c>
       <c r="C2" s="11" t="str">
         <f t="shared" ref="C2:C19" si="1">CONCATENATE($G$1,$I2,$H$1)</f>
-        <v>TestChicagoCity205@gmail.com</v>
+        <v>TestChicagoCity224@gmail.com</v>
       </c>
       <c r="I2">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity206</v>
+        <v>TestChicagoCity225</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity206</v>
+        <v>TestChicagoCity225</v>
       </c>
       <c r="C3" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity206@gmail.com</v>
+        <v>TestChicagoCity225@gmail.com</v>
       </c>
       <c r="I3">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity207</v>
+        <v>TestChicagoCity226</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity207</v>
+        <v>TestChicagoCity226</v>
       </c>
       <c r="C4" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity207@gmail.com</v>
+        <v>TestChicagoCity226@gmail.com</v>
       </c>
       <c r="I4">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity208</v>
+        <v>TestChicagoCity227</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity208</v>
+        <v>TestChicagoCity227</v>
       </c>
       <c r="C5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity208@gmail.com</v>
+        <v>TestChicagoCity227@gmail.com</v>
       </c>
       <c r="I5">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity209</v>
+        <v>TestChicagoCity228</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity209</v>
+        <v>TestChicagoCity228</v>
       </c>
       <c r="C6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity209@gmail.com</v>
+        <v>TestChicagoCity228@gmail.com</v>
       </c>
       <c r="I6">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity210</v>
+        <v>TestChicagoCity229</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity210</v>
+        <v>TestChicagoCity229</v>
       </c>
       <c r="C7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity210@gmail.com</v>
+        <v>TestChicagoCity229@gmail.com</v>
       </c>
       <c r="I7">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity211</v>
+        <v>TestChicagoCity230</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity211</v>
+        <v>TestChicagoCity230</v>
       </c>
       <c r="C8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity211@gmail.com</v>
+        <v>TestChicagoCity230@gmail.com</v>
       </c>
       <c r="I8">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity212</v>
+        <v>TestChicagoCity231</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity212</v>
+        <v>TestChicagoCity231</v>
       </c>
       <c r="C9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity212@gmail.com</v>
+        <v>TestChicagoCity231@gmail.com</v>
       </c>
       <c r="I9">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity213</v>
+        <v>TestChicagoCity232</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity213</v>
+        <v>TestChicagoCity232</v>
       </c>
       <c r="C10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity213@gmail.com</v>
+        <v>TestChicagoCity232@gmail.com</v>
       </c>
       <c r="I10">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity214</v>
+        <v>TestChicagoCity233</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity214</v>
+        <v>TestChicagoCity233</v>
       </c>
       <c r="C11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity214@gmail.com</v>
+        <v>TestChicagoCity233@gmail.com</v>
       </c>
       <c r="I11">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity215</v>
+        <v>TestChicagoCity234</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity215</v>
+        <v>TestChicagoCity234</v>
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity215@gmail.com</v>
+        <v>TestChicagoCity234@gmail.com</v>
       </c>
       <c r="I12">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity216</v>
+        <v>TestChicagoCity235</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity216</v>
+        <v>TestChicagoCity235</v>
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity216@gmail.com</v>
+        <v>TestChicagoCity235@gmail.com</v>
       </c>
       <c r="I13">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity217</v>
+        <v>TestChicagoCity236</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity217</v>
+        <v>TestChicagoCity236</v>
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity217@gmail.com</v>
+        <v>TestChicagoCity236@gmail.com</v>
       </c>
       <c r="I14">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity218</v>
+        <v>TestChicagoCity237</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity218</v>
+        <v>TestChicagoCity237</v>
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity218@gmail.com</v>
+        <v>TestChicagoCity237@gmail.com</v>
       </c>
       <c r="I15">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity219</v>
+        <v>TestChicagoCity238</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity219</v>
+        <v>TestChicagoCity238</v>
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity219@gmail.com</v>
+        <v>TestChicagoCity238@gmail.com</v>
       </c>
       <c r="I16">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity220</v>
+        <v>TestChicagoCity239</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity220</v>
+        <v>TestChicagoCity239</v>
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity220@gmail.com</v>
+        <v>TestChicagoCity239@gmail.com</v>
       </c>
       <c r="I17">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity221</v>
+        <v>TestChicagoCity240</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity221</v>
+        <v>TestChicagoCity240</v>
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity221@gmail.com</v>
+        <v>TestChicagoCity240@gmail.com</v>
       </c>
       <c r="I18">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity222</v>
+        <v>TestChicagoCity241</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity222</v>
+        <v>TestChicagoCity241</v>
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity222@gmail.com</v>
+        <v>TestChicagoCity241@gmail.com</v>
       </c>
       <c r="I19">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine171</v>
+        <v>AutomationTestPalatine187</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine171</v>
+        <v>AutomationTestPalatine187</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>CONCATENATE($G$22,$I22,$H$22)</f>
-        <v>AutomationTestPalatine171@gmail.com</v>
+        <v>AutomationTestPalatine187@gmail.com</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>82</v>
@@ -4452,262 +4452,262 @@
         <v>115</v>
       </c>
       <c r="I22">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f t="shared" ref="A23:B37" si="2">CONCATENATE($G$22,$I23)</f>
-        <v>AutomationTestPalatine172</v>
+        <v>AutomationTestPalatine188</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine172</v>
+        <v>AutomationTestPalatine188</v>
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" ref="C23:C37" si="3">CONCATENATE($G$22,$I23,$H$22)</f>
-        <v>AutomationTestPalatine172@gmail.com</v>
+        <v>AutomationTestPalatine188@gmail.com</v>
       </c>
       <c r="I23">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine173</v>
+        <v>AutomationTestPalatine189</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine173</v>
+        <v>AutomationTestPalatine189</v>
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine173@gmail.com</v>
+        <v>AutomationTestPalatine189@gmail.com</v>
       </c>
       <c r="I24">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine174</v>
+        <v>AutomationTestPalatine190</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine174</v>
+        <v>AutomationTestPalatine190</v>
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine174@gmail.com</v>
+        <v>AutomationTestPalatine190@gmail.com</v>
       </c>
       <c r="I25">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine175</v>
+        <v>AutomationTestPalatine191</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine175</v>
+        <v>AutomationTestPalatine191</v>
       </c>
       <c r="C26" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine175@gmail.com</v>
+        <v>AutomationTestPalatine191@gmail.com</v>
       </c>
       <c r="I26">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine176</v>
+        <v>AutomationTestPalatine192</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine176</v>
+        <v>AutomationTestPalatine192</v>
       </c>
       <c r="C27" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine176@gmail.com</v>
+        <v>AutomationTestPalatine192@gmail.com</v>
       </c>
       <c r="I27">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine177</v>
+        <v>AutomationTestPalatine193</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine177</v>
+        <v>AutomationTestPalatine193</v>
       </c>
       <c r="C28" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine177@gmail.com</v>
+        <v>AutomationTestPalatine193@gmail.com</v>
       </c>
       <c r="I28">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine178</v>
+        <v>AutomationTestPalatine194</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine178</v>
+        <v>AutomationTestPalatine194</v>
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine178@gmail.com</v>
+        <v>AutomationTestPalatine194@gmail.com</v>
       </c>
       <c r="I29">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine179</v>
+        <v>AutomationTestPalatine195</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine179</v>
+        <v>AutomationTestPalatine195</v>
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine179@gmail.com</v>
+        <v>AutomationTestPalatine195@gmail.com</v>
       </c>
       <c r="I30">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine180</v>
+        <v>AutomationTestPalatine196</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine180</v>
+        <v>AutomationTestPalatine196</v>
       </c>
       <c r="C31" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine180@gmail.com</v>
+        <v>AutomationTestPalatine196@gmail.com</v>
       </c>
       <c r="I31">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine181</v>
+        <v>AutomationTestPalatine197</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine181</v>
+        <v>AutomationTestPalatine197</v>
       </c>
       <c r="C32" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine181@gmail.com</v>
+        <v>AutomationTestPalatine197@gmail.com</v>
       </c>
       <c r="I32">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine182</v>
+        <v>AutomationTestPalatine198</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine182</v>
+        <v>AutomationTestPalatine198</v>
       </c>
       <c r="C33" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine182@gmail.com</v>
+        <v>AutomationTestPalatine198@gmail.com</v>
       </c>
       <c r="I33">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine183</v>
+        <v>AutomationTestPalatine199</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine183</v>
+        <v>AutomationTestPalatine199</v>
       </c>
       <c r="C34" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine183@gmail.com</v>
+        <v>AutomationTestPalatine199@gmail.com</v>
       </c>
       <c r="I34">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine184</v>
+        <v>AutomationTestPalatine200</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine184</v>
+        <v>AutomationTestPalatine200</v>
       </c>
       <c r="C35" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine184@gmail.com</v>
+        <v>AutomationTestPalatine200@gmail.com</v>
       </c>
       <c r="I35">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine185</v>
+        <v>AutomationTestPalatine201</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine185</v>
+        <v>AutomationTestPalatine201</v>
       </c>
       <c r="C36" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine185@gmail.com</v>
+        <v>AutomationTestPalatine201@gmail.com</v>
       </c>
       <c r="I36">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine186</v>
+        <v>AutomationTestPalatine202</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine186</v>
+        <v>AutomationTestPalatine202</v>
       </c>
       <c r="C37" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine186@gmail.com</v>
+        <v>AutomationTestPalatine202@gmail.com</v>
       </c>
       <c r="I37">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8CDFE-6C1C-499F-858D-0C8A3F776AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53FF85-0BB8-4880-BE91-4666CA932246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -631,214 +631,214 @@
     <t>Basic Blue Jeans</t>
   </si>
   <si>
-    <t>TestChicagoCity223</t>
-  </si>
-  <si>
-    <t>TestChicagoCity223@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity224</t>
-  </si>
-  <si>
-    <t>TestChicagoCity224@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity225</t>
-  </si>
-  <si>
-    <t>TestChicagoCity225@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity226</t>
-  </si>
-  <si>
-    <t>TestChicagoCity226@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity227</t>
-  </si>
-  <si>
-    <t>TestChicagoCity227@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity228</t>
-  </si>
-  <si>
-    <t>TestChicagoCity228@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity229</t>
-  </si>
-  <si>
-    <t>TestChicagoCity229@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity230</t>
-  </si>
-  <si>
-    <t>TestChicagoCity230@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity231</t>
-  </si>
-  <si>
-    <t>TestChicagoCity231@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity232</t>
-  </si>
-  <si>
-    <t>TestChicagoCity232@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity233</t>
-  </si>
-  <si>
-    <t>TestChicagoCity233@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity234</t>
-  </si>
-  <si>
-    <t>TestChicagoCity234@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity235</t>
-  </si>
-  <si>
-    <t>TestChicagoCity235@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity236</t>
-  </si>
-  <si>
-    <t>TestChicagoCity236@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity237</t>
-  </si>
-  <si>
-    <t>TestChicagoCity237@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity238</t>
-  </si>
-  <si>
-    <t>TestChicagoCity238@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity239</t>
-  </si>
-  <si>
-    <t>TestChicagoCity239@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity240</t>
-  </si>
-  <si>
-    <t>TestChicagoCity240@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity241</t>
-  </si>
-  <si>
-    <t>TestChicagoCity241@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine187</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine187@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine188</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine188@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine189</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine189@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine190</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine190@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine191</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine191@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine192</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine192@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine193</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine193@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine194</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine194@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine195</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine195@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine196</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine196@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine197</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine197@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine198</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine198@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine199</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine199@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine200</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine200@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine201</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine201@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine202</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine202@gmail.com</t>
+    <t>TestChicagoCity242</t>
+  </si>
+  <si>
+    <t>TestChicagoCity242@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity243</t>
+  </si>
+  <si>
+    <t>TestChicagoCity243@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity244</t>
+  </si>
+  <si>
+    <t>TestChicagoCity244@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity245</t>
+  </si>
+  <si>
+    <t>TestChicagoCity245@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity246</t>
+  </si>
+  <si>
+    <t>TestChicagoCity246@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity247</t>
+  </si>
+  <si>
+    <t>TestChicagoCity247@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity248</t>
+  </si>
+  <si>
+    <t>TestChicagoCity248@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity249</t>
+  </si>
+  <si>
+    <t>TestChicagoCity249@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity250</t>
+  </si>
+  <si>
+    <t>TestChicagoCity250@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity251</t>
+  </si>
+  <si>
+    <t>TestChicagoCity251@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity252</t>
+  </si>
+  <si>
+    <t>TestChicagoCity252@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity253</t>
+  </si>
+  <si>
+    <t>TestChicagoCity253@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity254</t>
+  </si>
+  <si>
+    <t>TestChicagoCity254@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity255</t>
+  </si>
+  <si>
+    <t>TestChicagoCity255@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity256</t>
+  </si>
+  <si>
+    <t>TestChicagoCity256@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity257</t>
+  </si>
+  <si>
+    <t>TestChicagoCity257@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity258</t>
+  </si>
+  <si>
+    <t>TestChicagoCity258@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity259</t>
+  </si>
+  <si>
+    <t>TestChicagoCity259@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity260</t>
+  </si>
+  <si>
+    <t>TestChicagoCity260@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine203</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine203@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine204</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine204@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine205</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine205@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine206</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine206@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine207</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine207@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine208</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine208@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine209</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine209@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine210</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine210@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine211</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine211@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine212</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine212@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine213</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine213@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine214</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine214@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine215</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine215@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine216</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine216@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine217</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine217@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine218</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine218@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,15 +4106,15 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity223</v>
+        <v>TestChicagoCity242</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity223</v>
+        <v>TestChicagoCity242</v>
       </c>
       <c r="C1" s="11" t="str">
         <f>CONCATENATE($G$1,$I1,$H$1)</f>
-        <v>TestChicagoCity223@gmail.com</v>
+        <v>TestChicagoCity242@gmail.com</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
@@ -4123,327 +4123,327 @@
         <v>115</v>
       </c>
       <c r="I1">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:B19" si="0">CONCATENATE($G$1,$I2)</f>
-        <v>TestChicagoCity224</v>
+        <v>TestChicagoCity243</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity224</v>
+        <v>TestChicagoCity243</v>
       </c>
       <c r="C2" s="11" t="str">
         <f t="shared" ref="C2:C19" si="1">CONCATENATE($G$1,$I2,$H$1)</f>
-        <v>TestChicagoCity224@gmail.com</v>
+        <v>TestChicagoCity243@gmail.com</v>
       </c>
       <c r="I2">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity225</v>
+        <v>TestChicagoCity244</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity225</v>
+        <v>TestChicagoCity244</v>
       </c>
       <c r="C3" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity225@gmail.com</v>
+        <v>TestChicagoCity244@gmail.com</v>
       </c>
       <c r="I3">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity226</v>
+        <v>TestChicagoCity245</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity226</v>
+        <v>TestChicagoCity245</v>
       </c>
       <c r="C4" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity226@gmail.com</v>
+        <v>TestChicagoCity245@gmail.com</v>
       </c>
       <c r="I4">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity227</v>
+        <v>TestChicagoCity246</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity227</v>
+        <v>TestChicagoCity246</v>
       </c>
       <c r="C5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity227@gmail.com</v>
+        <v>TestChicagoCity246@gmail.com</v>
       </c>
       <c r="I5">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity228</v>
+        <v>TestChicagoCity247</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity228</v>
+        <v>TestChicagoCity247</v>
       </c>
       <c r="C6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity228@gmail.com</v>
+        <v>TestChicagoCity247@gmail.com</v>
       </c>
       <c r="I6">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity229</v>
+        <v>TestChicagoCity248</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity229</v>
+        <v>TestChicagoCity248</v>
       </c>
       <c r="C7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity229@gmail.com</v>
+        <v>TestChicagoCity248@gmail.com</v>
       </c>
       <c r="I7">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity230</v>
+        <v>TestChicagoCity249</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity230</v>
+        <v>TestChicagoCity249</v>
       </c>
       <c r="C8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity230@gmail.com</v>
+        <v>TestChicagoCity249@gmail.com</v>
       </c>
       <c r="I8">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity231</v>
+        <v>TestChicagoCity250</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity231</v>
+        <v>TestChicagoCity250</v>
       </c>
       <c r="C9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity231@gmail.com</v>
+        <v>TestChicagoCity250@gmail.com</v>
       </c>
       <c r="I9">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity232</v>
+        <v>TestChicagoCity251</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity232</v>
+        <v>TestChicagoCity251</v>
       </c>
       <c r="C10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity232@gmail.com</v>
+        <v>TestChicagoCity251@gmail.com</v>
       </c>
       <c r="I10">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity233</v>
+        <v>TestChicagoCity252</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity233</v>
+        <v>TestChicagoCity252</v>
       </c>
       <c r="C11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity233@gmail.com</v>
+        <v>TestChicagoCity252@gmail.com</v>
       </c>
       <c r="I11">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity234</v>
+        <v>TestChicagoCity253</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity234</v>
+        <v>TestChicagoCity253</v>
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity234@gmail.com</v>
+        <v>TestChicagoCity253@gmail.com</v>
       </c>
       <c r="I12">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity235</v>
+        <v>TestChicagoCity254</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity235</v>
+        <v>TestChicagoCity254</v>
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity235@gmail.com</v>
+        <v>TestChicagoCity254@gmail.com</v>
       </c>
       <c r="I13">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity236</v>
+        <v>TestChicagoCity255</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity236</v>
+        <v>TestChicagoCity255</v>
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity236@gmail.com</v>
+        <v>TestChicagoCity255@gmail.com</v>
       </c>
       <c r="I14">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity237</v>
+        <v>TestChicagoCity256</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity237</v>
+        <v>TestChicagoCity256</v>
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity237@gmail.com</v>
+        <v>TestChicagoCity256@gmail.com</v>
       </c>
       <c r="I15">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity238</v>
+        <v>TestChicagoCity257</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity238</v>
+        <v>TestChicagoCity257</v>
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity238@gmail.com</v>
+        <v>TestChicagoCity257@gmail.com</v>
       </c>
       <c r="I16">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity239</v>
+        <v>TestChicagoCity258</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity239</v>
+        <v>TestChicagoCity258</v>
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity239@gmail.com</v>
+        <v>TestChicagoCity258@gmail.com</v>
       </c>
       <c r="I17">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity240</v>
+        <v>TestChicagoCity259</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity240</v>
+        <v>TestChicagoCity259</v>
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity240@gmail.com</v>
+        <v>TestChicagoCity259@gmail.com</v>
       </c>
       <c r="I18">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity241</v>
+        <v>TestChicagoCity260</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity241</v>
+        <v>TestChicagoCity260</v>
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity241@gmail.com</v>
+        <v>TestChicagoCity260@gmail.com</v>
       </c>
       <c r="I19">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine187</v>
+        <v>AutomationTestPalatine203</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine187</v>
+        <v>AutomationTestPalatine203</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>CONCATENATE($G$22,$I22,$H$22)</f>
-        <v>AutomationTestPalatine187@gmail.com</v>
+        <v>AutomationTestPalatine203@gmail.com</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>82</v>
@@ -4452,262 +4452,262 @@
         <v>115</v>
       </c>
       <c r="I22">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f t="shared" ref="A23:B37" si="2">CONCATENATE($G$22,$I23)</f>
-        <v>AutomationTestPalatine188</v>
+        <v>AutomationTestPalatine204</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine188</v>
+        <v>AutomationTestPalatine204</v>
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" ref="C23:C37" si="3">CONCATENATE($G$22,$I23,$H$22)</f>
-        <v>AutomationTestPalatine188@gmail.com</v>
+        <v>AutomationTestPalatine204@gmail.com</v>
       </c>
       <c r="I23">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine189</v>
+        <v>AutomationTestPalatine205</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine189</v>
+        <v>AutomationTestPalatine205</v>
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine189@gmail.com</v>
+        <v>AutomationTestPalatine205@gmail.com</v>
       </c>
       <c r="I24">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine190</v>
+        <v>AutomationTestPalatine206</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine190</v>
+        <v>AutomationTestPalatine206</v>
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine190@gmail.com</v>
+        <v>AutomationTestPalatine206@gmail.com</v>
       </c>
       <c r="I25">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine191</v>
+        <v>AutomationTestPalatine207</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine191</v>
+        <v>AutomationTestPalatine207</v>
       </c>
       <c r="C26" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine191@gmail.com</v>
+        <v>AutomationTestPalatine207@gmail.com</v>
       </c>
       <c r="I26">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine192</v>
+        <v>AutomationTestPalatine208</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine192</v>
+        <v>AutomationTestPalatine208</v>
       </c>
       <c r="C27" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine192@gmail.com</v>
+        <v>AutomationTestPalatine208@gmail.com</v>
       </c>
       <c r="I27">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine193</v>
+        <v>AutomationTestPalatine209</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine193</v>
+        <v>AutomationTestPalatine209</v>
       </c>
       <c r="C28" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine193@gmail.com</v>
+        <v>AutomationTestPalatine209@gmail.com</v>
       </c>
       <c r="I28">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine194</v>
+        <v>AutomationTestPalatine210</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine194</v>
+        <v>AutomationTestPalatine210</v>
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine194@gmail.com</v>
+        <v>AutomationTestPalatine210@gmail.com</v>
       </c>
       <c r="I29">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine195</v>
+        <v>AutomationTestPalatine211</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine195</v>
+        <v>AutomationTestPalatine211</v>
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine195@gmail.com</v>
+        <v>AutomationTestPalatine211@gmail.com</v>
       </c>
       <c r="I30">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine196</v>
+        <v>AutomationTestPalatine212</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine196</v>
+        <v>AutomationTestPalatine212</v>
       </c>
       <c r="C31" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine196@gmail.com</v>
+        <v>AutomationTestPalatine212@gmail.com</v>
       </c>
       <c r="I31">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine197</v>
+        <v>AutomationTestPalatine213</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine197</v>
+        <v>AutomationTestPalatine213</v>
       </c>
       <c r="C32" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine197@gmail.com</v>
+        <v>AutomationTestPalatine213@gmail.com</v>
       </c>
       <c r="I32">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine198</v>
+        <v>AutomationTestPalatine214</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine198</v>
+        <v>AutomationTestPalatine214</v>
       </c>
       <c r="C33" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine198@gmail.com</v>
+        <v>AutomationTestPalatine214@gmail.com</v>
       </c>
       <c r="I33">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine199</v>
+        <v>AutomationTestPalatine215</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine199</v>
+        <v>AutomationTestPalatine215</v>
       </c>
       <c r="C34" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine199@gmail.com</v>
+        <v>AutomationTestPalatine215@gmail.com</v>
       </c>
       <c r="I34">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine200</v>
+        <v>AutomationTestPalatine216</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine200</v>
+        <v>AutomationTestPalatine216</v>
       </c>
       <c r="C35" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine200@gmail.com</v>
+        <v>AutomationTestPalatine216@gmail.com</v>
       </c>
       <c r="I35">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine201</v>
+        <v>AutomationTestPalatine217</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine201</v>
+        <v>AutomationTestPalatine217</v>
       </c>
       <c r="C36" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine201@gmail.com</v>
+        <v>AutomationTestPalatine217@gmail.com</v>
       </c>
       <c r="I36">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine202</v>
+        <v>AutomationTestPalatine218</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine202</v>
+        <v>AutomationTestPalatine218</v>
       </c>
       <c r="C37" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine202@gmail.com</v>
+        <v>AutomationTestPalatine218@gmail.com</v>
       </c>
       <c r="I37">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53FF85-0BB8-4880-BE91-4666CA932246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A0CB9B-BC7C-41A8-BFDA-008679464AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -403,201 +403,60 @@
     <t>DavidInc6</t>
   </si>
   <si>
-    <t>UnitedStates(US)</t>
-  </si>
-  <si>
-    <t>130KevinDr</t>
-  </si>
-  <si>
-    <t>home118</t>
-  </si>
-  <si>
-    <t>DistrictOfColumbia</t>
-  </si>
-  <si>
-    <t>Thankyou.Yourorderhasbeenreceived.</t>
-  </si>
-  <si>
-    <t>133KevinDr</t>
-  </si>
-  <si>
-    <t>home121</t>
-  </si>
-  <si>
     <t>DavidInc7</t>
   </si>
   <si>
-    <t>131KevinDr</t>
-  </si>
-  <si>
-    <t>home119</t>
-  </si>
-  <si>
-    <t>134KevinDr</t>
-  </si>
-  <si>
-    <t>home122</t>
-  </si>
-  <si>
     <t>DavidInc8</t>
   </si>
   <si>
-    <t>132KevinDr</t>
-  </si>
-  <si>
-    <t>home120</t>
-  </si>
-  <si>
-    <t>135KevinDr</t>
-  </si>
-  <si>
-    <t>home123</t>
-  </si>
-  <si>
     <t>DavidInc9</t>
   </si>
   <si>
-    <t>136KevinDr</t>
-  </si>
-  <si>
-    <t>home124</t>
-  </si>
-  <si>
     <t>DavidInc10</t>
   </si>
   <si>
-    <t>137KevinDr</t>
-  </si>
-  <si>
-    <t>home125</t>
-  </si>
-  <si>
     <t>DavidInc11</t>
   </si>
   <si>
-    <t>138KevinDr</t>
-  </si>
-  <si>
-    <t>home126</t>
-  </si>
-  <si>
     <t>DavidInc12</t>
   </si>
   <si>
-    <t>139KevinDr</t>
-  </si>
-  <si>
-    <t>home127</t>
-  </si>
-  <si>
     <t>DavidInc13</t>
   </si>
   <si>
-    <t>140KevinDr</t>
-  </si>
-  <si>
-    <t>home128</t>
-  </si>
-  <si>
     <t>DavidInc14</t>
   </si>
   <si>
-    <t>141KevinDr</t>
-  </si>
-  <si>
-    <t>home129</t>
-  </si>
-  <si>
     <t>DavidInc15</t>
   </si>
   <si>
-    <t>142KevinDr</t>
-  </si>
-  <si>
-    <t>home130</t>
-  </si>
-  <si>
     <t>DavidInc16</t>
   </si>
   <si>
-    <t>143KevinDr</t>
-  </si>
-  <si>
-    <t>home131</t>
-  </si>
-  <si>
     <t>DavidInc17</t>
   </si>
   <si>
-    <t>144KevinDr</t>
-  </si>
-  <si>
-    <t>home132</t>
-  </si>
-  <si>
     <t>DavidInc18</t>
   </si>
   <si>
-    <t>145KevinDr</t>
-  </si>
-  <si>
-    <t>home133</t>
-  </si>
-  <si>
     <t>DavidInc19</t>
   </si>
   <si>
-    <t>146KevinDr</t>
-  </si>
-  <si>
-    <t>home134</t>
-  </si>
-  <si>
     <t>DavidInc20</t>
   </si>
   <si>
-    <t>147KevinDr</t>
-  </si>
-  <si>
-    <t>home135</t>
-  </si>
-  <si>
     <t>DavidInc21</t>
   </si>
   <si>
-    <t>148KevinDr</t>
-  </si>
-  <si>
-    <t>home136</t>
-  </si>
-  <si>
     <t>DavidInc22</t>
   </si>
   <si>
-    <t>149KevinDr</t>
-  </si>
-  <si>
-    <t>home137</t>
-  </si>
-  <si>
     <t>DavidInc23</t>
   </si>
   <si>
-    <t>150KevinDr</t>
-  </si>
-  <si>
-    <t>home138</t>
-  </si>
-  <si>
     <t>DavidInc24</t>
   </si>
   <si>
-    <t>151KevinDr</t>
-  </si>
-  <si>
-    <t>home139</t>
-  </si>
-  <si>
     <t>Dark Brown Jeans</t>
   </si>
   <si>
@@ -631,214 +490,355 @@
     <t>Basic Blue Jeans</t>
   </si>
   <si>
-    <t>TestChicagoCity242</t>
-  </si>
-  <si>
-    <t>TestChicagoCity242@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity243</t>
-  </si>
-  <si>
-    <t>TestChicagoCity243@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity244</t>
-  </si>
-  <si>
-    <t>TestChicagoCity244@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity245</t>
-  </si>
-  <si>
-    <t>TestChicagoCity245@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity246</t>
-  </si>
-  <si>
-    <t>TestChicagoCity246@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity247</t>
-  </si>
-  <si>
-    <t>TestChicagoCity247@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity248</t>
-  </si>
-  <si>
-    <t>TestChicagoCity248@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity249</t>
-  </si>
-  <si>
-    <t>TestChicagoCity249@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity250</t>
-  </si>
-  <si>
-    <t>TestChicagoCity250@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity251</t>
-  </si>
-  <si>
-    <t>TestChicagoCity251@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity252</t>
-  </si>
-  <si>
-    <t>TestChicagoCity252@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity253</t>
-  </si>
-  <si>
-    <t>TestChicagoCity253@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity254</t>
-  </si>
-  <si>
-    <t>TestChicagoCity254@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity255</t>
-  </si>
-  <si>
-    <t>TestChicagoCity255@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity256</t>
-  </si>
-  <si>
-    <t>TestChicagoCity256@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity257</t>
-  </si>
-  <si>
-    <t>TestChicagoCity257@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity258</t>
-  </si>
-  <si>
-    <t>TestChicagoCity258@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity259</t>
-  </si>
-  <si>
-    <t>TestChicagoCity259@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity260</t>
-  </si>
-  <si>
-    <t>TestChicagoCity260@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine203</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine203@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine204</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine204@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine205</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine205@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine206</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine206@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine207</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine207@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine208</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine208@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine209</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine209@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine210</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine210@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine211</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine211@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine212</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine212@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine213</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine213@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine214</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine214@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine215</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine215@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine216</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine216@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine217</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine217@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine218</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine218@gmail.com</t>
+    <t>United States (US)</t>
+  </si>
+  <si>
+    <t>District Of Columbia</t>
+  </si>
+  <si>
+    <t>Thankyou. Your order has been received.</t>
+  </si>
+  <si>
+    <t>130 Kevin Dr</t>
+  </si>
+  <si>
+    <t>131 Kevin Dr</t>
+  </si>
+  <si>
+    <t>132 Kevin Dr</t>
+  </si>
+  <si>
+    <t>133 Kevin Dr</t>
+  </si>
+  <si>
+    <t>134 Kevin Dr</t>
+  </si>
+  <si>
+    <t>135 Kevin Dr</t>
+  </si>
+  <si>
+    <t>136 Kevin Dr</t>
+  </si>
+  <si>
+    <t>137 Kevin Dr</t>
+  </si>
+  <si>
+    <t>138 Kevin Dr</t>
+  </si>
+  <si>
+    <t>139 Kevin Dr</t>
+  </si>
+  <si>
+    <t>140 Kevin Dr</t>
+  </si>
+  <si>
+    <t>141 Kevin Dr</t>
+  </si>
+  <si>
+    <t>142 Kevin Dr</t>
+  </si>
+  <si>
+    <t>143 Kevin Dr</t>
+  </si>
+  <si>
+    <t>144 Kevin Dr</t>
+  </si>
+  <si>
+    <t>145 Kevin Dr</t>
+  </si>
+  <si>
+    <t>146 Kevin Dr</t>
+  </si>
+  <si>
+    <t>147 Kevin Dr</t>
+  </si>
+  <si>
+    <t>148 Kevin Dr</t>
+  </si>
+  <si>
+    <t>home 118</t>
+  </si>
+  <si>
+    <t>home 119</t>
+  </si>
+  <si>
+    <t>home 120</t>
+  </si>
+  <si>
+    <t>home 121</t>
+  </si>
+  <si>
+    <t>home 122</t>
+  </si>
+  <si>
+    <t>home 123</t>
+  </si>
+  <si>
+    <t>home 124</t>
+  </si>
+  <si>
+    <t>home 125</t>
+  </si>
+  <si>
+    <t>home 126</t>
+  </si>
+  <si>
+    <t>home 127</t>
+  </si>
+  <si>
+    <t>home 128</t>
+  </si>
+  <si>
+    <t>home 129</t>
+  </si>
+  <si>
+    <t>home 130</t>
+  </si>
+  <si>
+    <t>home 131</t>
+  </si>
+  <si>
+    <t>home 132</t>
+  </si>
+  <si>
+    <t>home 133</t>
+  </si>
+  <si>
+    <t>home 134</t>
+  </si>
+  <si>
+    <t>home 135</t>
+  </si>
+  <si>
+    <t>home 136</t>
+  </si>
+  <si>
+    <t>149 Kevin Dr</t>
+  </si>
+  <si>
+    <t>150 Kevin Dr</t>
+  </si>
+  <si>
+    <t>151 Kevin Dr</t>
+  </si>
+  <si>
+    <t>home 137</t>
+  </si>
+  <si>
+    <t>home 138</t>
+  </si>
+  <si>
+    <t>home 139</t>
+  </si>
+  <si>
+    <t>TestChicagoCity261</t>
+  </si>
+  <si>
+    <t>TestChicagoCity261@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity262</t>
+  </si>
+  <si>
+    <t>TestChicagoCity262@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity263</t>
+  </si>
+  <si>
+    <t>TestChicagoCity263@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity264</t>
+  </si>
+  <si>
+    <t>TestChicagoCity264@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity265</t>
+  </si>
+  <si>
+    <t>TestChicagoCity265@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity266</t>
+  </si>
+  <si>
+    <t>TestChicagoCity266@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity267</t>
+  </si>
+  <si>
+    <t>TestChicagoCity267@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity268</t>
+  </si>
+  <si>
+    <t>TestChicagoCity268@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity269</t>
+  </si>
+  <si>
+    <t>TestChicagoCity269@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity270</t>
+  </si>
+  <si>
+    <t>TestChicagoCity270@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity271</t>
+  </si>
+  <si>
+    <t>TestChicagoCity271@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity272</t>
+  </si>
+  <si>
+    <t>TestChicagoCity272@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity273</t>
+  </si>
+  <si>
+    <t>TestChicagoCity273@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity274</t>
+  </si>
+  <si>
+    <t>TestChicagoCity274@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity275</t>
+  </si>
+  <si>
+    <t>TestChicagoCity275@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity276</t>
+  </si>
+  <si>
+    <t>TestChicagoCity276@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity277</t>
+  </si>
+  <si>
+    <t>TestChicagoCity277@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity278</t>
+  </si>
+  <si>
+    <t>TestChicagoCity278@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity279</t>
+  </si>
+  <si>
+    <t>TestChicagoCity279@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine219</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine219@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine220</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine220@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine221</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine221@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine222</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine222@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine223</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine223@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine224</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine224@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine225</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine225@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine226</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine226@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine227</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine227@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine228</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine228@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine229</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine229@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine230</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine230@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine231</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine231@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine232</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine232@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine233</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine233@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine234</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:U20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,7 +2167,7 @@
     <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.88671875" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -2287,7 +2287,7 @@
         <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -2302,19 +2302,19 @@
         <v>120</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>27</v>
@@ -2338,7 +2338,7 @@
         <v>198</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>31</v>
@@ -2350,13 +2350,13 @@
         <v>120</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>23</v>
@@ -2383,7 +2383,7 @@
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -2395,16 +2395,16 @@
         <v>45</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
@@ -2432,7 +2432,7 @@
         <v>200</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>32</v>
@@ -2441,16 +2441,16 @@
         <v>45</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>23</v>
@@ -2477,7 +2477,7 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>27</v>
@@ -2526,7 +2526,7 @@
         <v>202</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>33</v>
@@ -2535,16 +2535,16 @@
         <v>46</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>23</v>
@@ -2571,7 +2571,7 @@
         <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -2583,16 +2583,16 @@
         <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>23</v>
@@ -2620,7 +2620,7 @@
         <v>204</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>34</v>
@@ -2629,16 +2629,16 @@
         <v>47</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>23</v>
@@ -2665,7 +2665,7 @@
         <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2677,22 +2677,22 @@
         <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>27</v>
@@ -2714,7 +2714,7 @@
         <v>206</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>35</v>
@@ -2723,16 +2723,16 @@
         <v>48</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>23</v>
@@ -2759,7 +2759,7 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2771,16 +2771,16 @@
         <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>23</v>
@@ -2808,7 +2808,7 @@
         <v>208</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>36</v>
@@ -2817,16 +2817,16 @@
         <v>49</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>23</v>
@@ -2853,7 +2853,7 @@
         <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2865,22 +2865,22 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
@@ -2902,7 +2902,7 @@
         <v>210</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>37</v>
@@ -2911,16 +2911,16 @@
         <v>50</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>23</v>
@@ -2947,7 +2947,7 @@
         <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -2959,16 +2959,16 @@
         <v>51</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="K9" s="6" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>23</v>
@@ -2996,7 +2996,7 @@
         <v>212</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>38</v>
@@ -3005,16 +3005,16 @@
         <v>51</v>
       </c>
       <c r="Y9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="AA9" s="6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>23</v>
@@ -3041,7 +3041,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3053,22 +3053,22 @@
         <v>52</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>27</v>
@@ -3090,7 +3090,7 @@
         <v>214</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>39</v>
@@ -3099,16 +3099,16 @@
         <v>52</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>23</v>
@@ -3135,7 +3135,7 @@
         <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -3147,16 +3147,16 @@
         <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>23</v>
@@ -3184,7 +3184,7 @@
         <v>216</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>40</v>
@@ -3193,16 +3193,16 @@
         <v>53</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>23</v>
@@ -3229,7 +3229,7 @@
         <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3241,22 +3241,22 @@
         <v>54</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>27</v>
@@ -3278,7 +3278,7 @@
         <v>218</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>41</v>
@@ -3287,16 +3287,16 @@
         <v>54</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>23</v>
@@ -3323,7 +3323,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -3335,16 +3335,16 @@
         <v>55</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>23</v>
@@ -3372,7 +3372,7 @@
         <v>220</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>42</v>
@@ -3381,16 +3381,16 @@
         <v>55</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>23</v>
@@ -3417,7 +3417,7 @@
         <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3429,22 +3429,22 @@
         <v>56</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="L14" s="6" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>27</v>
@@ -3466,7 +3466,7 @@
         <v>222</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>43</v>
@@ -3475,16 +3475,16 @@
         <v>56</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>23</v>
@@ -3511,7 +3511,7 @@
         <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3523,16 +3523,16 @@
         <v>97</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>23</v>
@@ -3560,7 +3560,7 @@
         <v>224</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>96</v>
@@ -3569,16 +3569,16 @@
         <v>97</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA15" s="6" t="s">
         <v>169</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>23</v>
@@ -3605,7 +3605,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3617,22 +3617,22 @@
         <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>27</v>
@@ -3654,7 +3654,7 @@
         <v>226</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W16" s="5" t="s">
         <v>99</v>
@@ -3663,16 +3663,16 @@
         <v>100</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>23</v>
@@ -3699,7 +3699,7 @@
         <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3711,16 +3711,16 @@
         <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>23</v>
@@ -3748,7 +3748,7 @@
         <v>228</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>102</v>
@@ -3757,16 +3757,16 @@
         <v>103</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>23</v>
@@ -3792,7 +3792,7 @@
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3804,22 +3804,22 @@
         <v>106</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>169</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>27</v>
@@ -3841,7 +3841,7 @@
         <v>230</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>105</v>
@@ -3850,16 +3850,16 @@
         <v>106</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>23</v>
@@ -3885,7 +3885,7 @@
         <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3897,16 +3897,16 @@
         <v>109</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>23</v>
@@ -3934,7 +3934,7 @@
         <v>232</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>108</v>
@@ -3943,16 +3943,16 @@
         <v>109</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>23</v>
@@ -3978,7 +3978,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -3990,22 +3990,22 @@
         <v>112</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>27</v>
@@ -4027,7 +4027,7 @@
         <v>234</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>111</v>
@@ -4036,16 +4036,16 @@
         <v>112</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>23</v>
@@ -4090,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:C37"/>
     </sheetView>
   </sheetViews>
@@ -4106,15 +4106,15 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity242</v>
+        <v>TestChicagoCity261</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity242</v>
+        <v>TestChicagoCity261</v>
       </c>
       <c r="C1" s="11" t="str">
         <f>CONCATENATE($G$1,$I1,$H$1)</f>
-        <v>TestChicagoCity242@gmail.com</v>
+        <v>TestChicagoCity261@gmail.com</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
@@ -4123,327 +4123,327 @@
         <v>115</v>
       </c>
       <c r="I1">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:B19" si="0">CONCATENATE($G$1,$I2)</f>
-        <v>TestChicagoCity243</v>
+        <v>TestChicagoCity262</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity243</v>
+        <v>TestChicagoCity262</v>
       </c>
       <c r="C2" s="11" t="str">
         <f t="shared" ref="C2:C19" si="1">CONCATENATE($G$1,$I2,$H$1)</f>
-        <v>TestChicagoCity243@gmail.com</v>
+        <v>TestChicagoCity262@gmail.com</v>
       </c>
       <c r="I2">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity244</v>
+        <v>TestChicagoCity263</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity244</v>
+        <v>TestChicagoCity263</v>
       </c>
       <c r="C3" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity244@gmail.com</v>
+        <v>TestChicagoCity263@gmail.com</v>
       </c>
       <c r="I3">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity245</v>
+        <v>TestChicagoCity264</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity245</v>
+        <v>TestChicagoCity264</v>
       </c>
       <c r="C4" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity245@gmail.com</v>
+        <v>TestChicagoCity264@gmail.com</v>
       </c>
       <c r="I4">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity246</v>
+        <v>TestChicagoCity265</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity246</v>
+        <v>TestChicagoCity265</v>
       </c>
       <c r="C5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity246@gmail.com</v>
+        <v>TestChicagoCity265@gmail.com</v>
       </c>
       <c r="I5">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity247</v>
+        <v>TestChicagoCity266</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity247</v>
+        <v>TestChicagoCity266</v>
       </c>
       <c r="C6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity247@gmail.com</v>
+        <v>TestChicagoCity266@gmail.com</v>
       </c>
       <c r="I6">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity248</v>
+        <v>TestChicagoCity267</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity248</v>
+        <v>TestChicagoCity267</v>
       </c>
       <c r="C7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity248@gmail.com</v>
+        <v>TestChicagoCity267@gmail.com</v>
       </c>
       <c r="I7">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity249</v>
+        <v>TestChicagoCity268</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity249</v>
+        <v>TestChicagoCity268</v>
       </c>
       <c r="C8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity249@gmail.com</v>
+        <v>TestChicagoCity268@gmail.com</v>
       </c>
       <c r="I8">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity250</v>
+        <v>TestChicagoCity269</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity250</v>
+        <v>TestChicagoCity269</v>
       </c>
       <c r="C9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity250@gmail.com</v>
+        <v>TestChicagoCity269@gmail.com</v>
       </c>
       <c r="I9">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity251</v>
+        <v>TestChicagoCity270</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity251</v>
+        <v>TestChicagoCity270</v>
       </c>
       <c r="C10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity251@gmail.com</v>
+        <v>TestChicagoCity270@gmail.com</v>
       </c>
       <c r="I10">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity252</v>
+        <v>TestChicagoCity271</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity252</v>
+        <v>TestChicagoCity271</v>
       </c>
       <c r="C11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity252@gmail.com</v>
+        <v>TestChicagoCity271@gmail.com</v>
       </c>
       <c r="I11">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity253</v>
+        <v>TestChicagoCity272</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity253</v>
+        <v>TestChicagoCity272</v>
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity253@gmail.com</v>
+        <v>TestChicagoCity272@gmail.com</v>
       </c>
       <c r="I12">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity254</v>
+        <v>TestChicagoCity273</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity254</v>
+        <v>TestChicagoCity273</v>
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity254@gmail.com</v>
+        <v>TestChicagoCity273@gmail.com</v>
       </c>
       <c r="I13">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity255</v>
+        <v>TestChicagoCity274</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity255</v>
+        <v>TestChicagoCity274</v>
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity255@gmail.com</v>
+        <v>TestChicagoCity274@gmail.com</v>
       </c>
       <c r="I14">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity256</v>
+        <v>TestChicagoCity275</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity256</v>
+        <v>TestChicagoCity275</v>
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity256@gmail.com</v>
+        <v>TestChicagoCity275@gmail.com</v>
       </c>
       <c r="I15">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity257</v>
+        <v>TestChicagoCity276</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity257</v>
+        <v>TestChicagoCity276</v>
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity257@gmail.com</v>
+        <v>TestChicagoCity276@gmail.com</v>
       </c>
       <c r="I16">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity258</v>
+        <v>TestChicagoCity277</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity258</v>
+        <v>TestChicagoCity277</v>
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity258@gmail.com</v>
+        <v>TestChicagoCity277@gmail.com</v>
       </c>
       <c r="I17">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity259</v>
+        <v>TestChicagoCity278</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity259</v>
+        <v>TestChicagoCity278</v>
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity259@gmail.com</v>
+        <v>TestChicagoCity278@gmail.com</v>
       </c>
       <c r="I18">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity260</v>
+        <v>TestChicagoCity279</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity260</v>
+        <v>TestChicagoCity279</v>
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity260@gmail.com</v>
+        <v>TestChicagoCity279@gmail.com</v>
       </c>
       <c r="I19">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine203</v>
+        <v>AutomationTestPalatine219</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine203</v>
+        <v>AutomationTestPalatine219</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>CONCATENATE($G$22,$I22,$H$22)</f>
-        <v>AutomationTestPalatine203@gmail.com</v>
+        <v>AutomationTestPalatine219@gmail.com</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>82</v>
@@ -4452,262 +4452,262 @@
         <v>115</v>
       </c>
       <c r="I22">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f t="shared" ref="A23:B37" si="2">CONCATENATE($G$22,$I23)</f>
-        <v>AutomationTestPalatine204</v>
+        <v>AutomationTestPalatine220</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine204</v>
+        <v>AutomationTestPalatine220</v>
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" ref="C23:C37" si="3">CONCATENATE($G$22,$I23,$H$22)</f>
-        <v>AutomationTestPalatine204@gmail.com</v>
+        <v>AutomationTestPalatine220@gmail.com</v>
       </c>
       <c r="I23">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine205</v>
+        <v>AutomationTestPalatine221</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine205</v>
+        <v>AutomationTestPalatine221</v>
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine205@gmail.com</v>
+        <v>AutomationTestPalatine221@gmail.com</v>
       </c>
       <c r="I24">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine206</v>
+        <v>AutomationTestPalatine222</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine206</v>
+        <v>AutomationTestPalatine222</v>
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine206@gmail.com</v>
+        <v>AutomationTestPalatine222@gmail.com</v>
       </c>
       <c r="I25">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine207</v>
+        <v>AutomationTestPalatine223</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine207</v>
+        <v>AutomationTestPalatine223</v>
       </c>
       <c r="C26" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine207@gmail.com</v>
+        <v>AutomationTestPalatine223@gmail.com</v>
       </c>
       <c r="I26">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine208</v>
+        <v>AutomationTestPalatine224</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine208</v>
+        <v>AutomationTestPalatine224</v>
       </c>
       <c r="C27" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine208@gmail.com</v>
+        <v>AutomationTestPalatine224@gmail.com</v>
       </c>
       <c r="I27">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine209</v>
+        <v>AutomationTestPalatine225</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine209</v>
+        <v>AutomationTestPalatine225</v>
       </c>
       <c r="C28" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine209@gmail.com</v>
+        <v>AutomationTestPalatine225@gmail.com</v>
       </c>
       <c r="I28">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine210</v>
+        <v>AutomationTestPalatine226</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine210</v>
+        <v>AutomationTestPalatine226</v>
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine210@gmail.com</v>
+        <v>AutomationTestPalatine226@gmail.com</v>
       </c>
       <c r="I29">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine211</v>
+        <v>AutomationTestPalatine227</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine211</v>
+        <v>AutomationTestPalatine227</v>
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine211@gmail.com</v>
+        <v>AutomationTestPalatine227@gmail.com</v>
       </c>
       <c r="I30">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine212</v>
+        <v>AutomationTestPalatine228</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine212</v>
+        <v>AutomationTestPalatine228</v>
       </c>
       <c r="C31" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine212@gmail.com</v>
+        <v>AutomationTestPalatine228@gmail.com</v>
       </c>
       <c r="I31">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine213</v>
+        <v>AutomationTestPalatine229</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine213</v>
+        <v>AutomationTestPalatine229</v>
       </c>
       <c r="C32" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine213@gmail.com</v>
+        <v>AutomationTestPalatine229@gmail.com</v>
       </c>
       <c r="I32">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine214</v>
+        <v>AutomationTestPalatine230</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine214</v>
+        <v>AutomationTestPalatine230</v>
       </c>
       <c r="C33" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine214@gmail.com</v>
+        <v>AutomationTestPalatine230@gmail.com</v>
       </c>
       <c r="I33">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine215</v>
+        <v>AutomationTestPalatine231</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine215</v>
+        <v>AutomationTestPalatine231</v>
       </c>
       <c r="C34" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine215@gmail.com</v>
+        <v>AutomationTestPalatine231@gmail.com</v>
       </c>
       <c r="I34">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine216</v>
+        <v>AutomationTestPalatine232</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine216</v>
+        <v>AutomationTestPalatine232</v>
       </c>
       <c r="C35" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine216@gmail.com</v>
+        <v>AutomationTestPalatine232@gmail.com</v>
       </c>
       <c r="I35">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine217</v>
+        <v>AutomationTestPalatine233</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine217</v>
+        <v>AutomationTestPalatine233</v>
       </c>
       <c r="C36" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine217@gmail.com</v>
+        <v>AutomationTestPalatine233@gmail.com</v>
       </c>
       <c r="I36">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine218</v>
+        <v>AutomationTestPalatine234</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine218</v>
+        <v>AutomationTestPalatine234</v>
       </c>
       <c r="C37" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine218@gmail.com</v>
+        <v>AutomationTestPalatine234@gmail.com</v>
       </c>
       <c r="I37">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A0CB9B-BC7C-41A8-BFDA-008679464AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B63A814-9777-41C5-B259-7E43C848A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="286">
   <si>
     <t>run</t>
   </si>
@@ -172,45 +172,6 @@
     <t>David18</t>
   </si>
   <si>
-    <t>Jackson6</t>
-  </si>
-  <si>
-    <t>Jackson7</t>
-  </si>
-  <si>
-    <t>Jackson8</t>
-  </si>
-  <si>
-    <t>Jackson9</t>
-  </si>
-  <si>
-    <t>Jackson10</t>
-  </si>
-  <si>
-    <t>Jackson11</t>
-  </si>
-  <si>
-    <t>Jackson12</t>
-  </si>
-  <si>
-    <t>Jackson13</t>
-  </si>
-  <si>
-    <t>Jackson14</t>
-  </si>
-  <si>
-    <t>Jackson15</t>
-  </si>
-  <si>
-    <t>Jackson16</t>
-  </si>
-  <si>
-    <t>Jackson17</t>
-  </si>
-  <si>
-    <t>Jackson18</t>
-  </si>
-  <si>
     <t>team_members</t>
   </si>
   <si>
@@ -331,54 +292,36 @@
     <t>David19</t>
   </si>
   <si>
-    <t>Jackson19</t>
-  </si>
-  <si>
     <t>58599</t>
   </si>
   <si>
     <t>David20</t>
   </si>
   <si>
-    <t>Jackson20</t>
-  </si>
-  <si>
     <t>58600</t>
   </si>
   <si>
     <t>David21</t>
   </si>
   <si>
-    <t>Jackson21</t>
-  </si>
-  <si>
     <t>58601</t>
   </si>
   <si>
     <t>David22</t>
   </si>
   <si>
-    <t>Jackson22</t>
-  </si>
-  <si>
     <t>58602</t>
   </si>
   <si>
     <t>David23</t>
   </si>
   <si>
-    <t>Jackson23</t>
-  </si>
-  <si>
     <t>58603</t>
   </si>
   <si>
     <t>David24</t>
   </si>
   <si>
-    <t>Jackson24</t>
-  </si>
-  <si>
     <t>58604</t>
   </si>
   <si>
@@ -400,63 +343,6 @@
     <t>Bracelet</t>
   </si>
   <si>
-    <t>DavidInc6</t>
-  </si>
-  <si>
-    <t>DavidInc7</t>
-  </si>
-  <si>
-    <t>DavidInc8</t>
-  </si>
-  <si>
-    <t>DavidInc9</t>
-  </si>
-  <si>
-    <t>DavidInc10</t>
-  </si>
-  <si>
-    <t>DavidInc11</t>
-  </si>
-  <si>
-    <t>DavidInc12</t>
-  </si>
-  <si>
-    <t>DavidInc13</t>
-  </si>
-  <si>
-    <t>DavidInc14</t>
-  </si>
-  <si>
-    <t>DavidInc15</t>
-  </si>
-  <si>
-    <t>DavidInc16</t>
-  </si>
-  <si>
-    <t>DavidInc17</t>
-  </si>
-  <si>
-    <t>DavidInc18</t>
-  </si>
-  <si>
-    <t>DavidInc19</t>
-  </si>
-  <si>
-    <t>DavidInc20</t>
-  </si>
-  <si>
-    <t>DavidInc21</t>
-  </si>
-  <si>
-    <t>DavidInc22</t>
-  </si>
-  <si>
-    <t>DavidInc23</t>
-  </si>
-  <si>
-    <t>DavidInc24</t>
-  </si>
-  <si>
     <t>Dark Brown Jeans</t>
   </si>
   <si>
@@ -496,9 +382,6 @@
     <t>District Of Columbia</t>
   </si>
   <si>
-    <t>Thankyou. Your order has been received.</t>
-  </si>
-  <si>
     <t>130 Kevin Dr</t>
   </si>
   <si>
@@ -631,214 +514,388 @@
     <t>home 139</t>
   </si>
   <si>
-    <t>TestChicagoCity261</t>
-  </si>
-  <si>
-    <t>TestChicagoCity261@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity262</t>
-  </si>
-  <si>
-    <t>TestChicagoCity262@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity263</t>
-  </si>
-  <si>
-    <t>TestChicagoCity263@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity264</t>
-  </si>
-  <si>
-    <t>TestChicagoCity264@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity265</t>
-  </si>
-  <si>
-    <t>TestChicagoCity265@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity266</t>
-  </si>
-  <si>
-    <t>TestChicagoCity266@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity267</t>
-  </si>
-  <si>
-    <t>TestChicagoCity267@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity268</t>
-  </si>
-  <si>
-    <t>TestChicagoCity268@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity269</t>
-  </si>
-  <si>
-    <t>TestChicagoCity269@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity270</t>
-  </si>
-  <si>
-    <t>TestChicagoCity270@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity271</t>
-  </si>
-  <si>
-    <t>TestChicagoCity271@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity272</t>
-  </si>
-  <si>
-    <t>TestChicagoCity272@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity273</t>
-  </si>
-  <si>
-    <t>TestChicagoCity273@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity274</t>
-  </si>
-  <si>
-    <t>TestChicagoCity274@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity275</t>
-  </si>
-  <si>
-    <t>TestChicagoCity275@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity276</t>
-  </si>
-  <si>
-    <t>TestChicagoCity276@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity277</t>
-  </si>
-  <si>
-    <t>TestChicagoCity277@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity278</t>
-  </si>
-  <si>
-    <t>TestChicagoCity278@gmail.com</t>
-  </si>
-  <si>
-    <t>TestChicagoCity279</t>
-  </si>
-  <si>
-    <t>TestChicagoCity279@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine219</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine219@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine220</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine220@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine221</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine221@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine222</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine222@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine223</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine223@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine224</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine224@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine225</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine225@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine226</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine226@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine227</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine227@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine228</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine228@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine229</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine229@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine230</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine230@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine231</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine231@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine232</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine232@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine233</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine233@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine234</t>
-  </si>
-  <si>
-    <t>AutomationTestPalatine234@gmail.com</t>
+    <t>AutomationTestPalatine235</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine235@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine236</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine236@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine237</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine237@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine238</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine238@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine239</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine239@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine240</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine240@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine241</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine241@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine242</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine242@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine243</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine243@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine244</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine244@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine245</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine245@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine246</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine246@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine247</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine247@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine248</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine248@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine249</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine249@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine250</t>
+  </si>
+  <si>
+    <t>AutomationTestPalatine250@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity280</t>
+  </si>
+  <si>
+    <t>TestChicagoCity280@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity281</t>
+  </si>
+  <si>
+    <t>TestChicagoCity281@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity282</t>
+  </si>
+  <si>
+    <t>TestChicagoCity282@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity283</t>
+  </si>
+  <si>
+    <t>TestChicagoCity283@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity284</t>
+  </si>
+  <si>
+    <t>TestChicagoCity284@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity285</t>
+  </si>
+  <si>
+    <t>TestChicagoCity285@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity286</t>
+  </si>
+  <si>
+    <t>TestChicagoCity286@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity287</t>
+  </si>
+  <si>
+    <t>TestChicagoCity287@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity288</t>
+  </si>
+  <si>
+    <t>TestChicagoCity288@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity289</t>
+  </si>
+  <si>
+    <t>TestChicagoCity289@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity290</t>
+  </si>
+  <si>
+    <t>TestChicagoCity290@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity291</t>
+  </si>
+  <si>
+    <t>TestChicagoCity291@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity292</t>
+  </si>
+  <si>
+    <t>TestChicagoCity292@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity293</t>
+  </si>
+  <si>
+    <t>TestChicagoCity293@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity294</t>
+  </si>
+  <si>
+    <t>TestChicagoCity294@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity295</t>
+  </si>
+  <si>
+    <t>TestChicagoCity295@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity296</t>
+  </si>
+  <si>
+    <t>TestChicagoCity296@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity297</t>
+  </si>
+  <si>
+    <t>TestChicagoCity297@gmail.com</t>
+  </si>
+  <si>
+    <t>TestChicagoCity298</t>
+  </si>
+  <si>
+    <t>TestChicagoCity298@gmail.com</t>
+  </si>
+  <si>
+    <t>Thank you. Your order has been received.</t>
+  </si>
+  <si>
+    <t>David Inc 6</t>
+  </si>
+  <si>
+    <t>David Inc 7</t>
+  </si>
+  <si>
+    <t>David Inc 8</t>
+  </si>
+  <si>
+    <t>David Inc 9</t>
+  </si>
+  <si>
+    <t>David Inc 10</t>
+  </si>
+  <si>
+    <t>David Inc 11</t>
+  </si>
+  <si>
+    <t>David Inc 12</t>
+  </si>
+  <si>
+    <t>David Inc 13</t>
+  </si>
+  <si>
+    <t>David Inc 14</t>
+  </si>
+  <si>
+    <t>David Inc 15</t>
+  </si>
+  <si>
+    <t>David Inc 16</t>
+  </si>
+  <si>
+    <t>David Inc 17</t>
+  </si>
+  <si>
+    <t>David Inc 18</t>
+  </si>
+  <si>
+    <t>David Inc 19</t>
+  </si>
+  <si>
+    <t>David Inc 20</t>
+  </si>
+  <si>
+    <t>David Inc 21</t>
+  </si>
+  <si>
+    <t>David Inc 22</t>
+  </si>
+  <si>
+    <t>David Inc 23</t>
+  </si>
+  <si>
+    <t>David Inc 24</t>
+  </si>
+  <si>
+    <t>Jackson 6</t>
+  </si>
+  <si>
+    <t>Jackson 7</t>
+  </si>
+  <si>
+    <t>Jackson 8</t>
+  </si>
+  <si>
+    <t>Jackson 9</t>
+  </si>
+  <si>
+    <t>Jackson 10</t>
+  </si>
+  <si>
+    <t>Jackson 11</t>
+  </si>
+  <si>
+    <t>Jackson 12</t>
+  </si>
+  <si>
+    <t>Jackson 13</t>
+  </si>
+  <si>
+    <t>Jackson 14</t>
+  </si>
+  <si>
+    <t>Jackson 15</t>
+  </si>
+  <si>
+    <t>Jackson 16</t>
+  </si>
+  <si>
+    <t>Jackson 17</t>
+  </si>
+  <si>
+    <t>Jackson 18</t>
+  </si>
+  <si>
+    <t>Jackson 19</t>
+  </si>
+  <si>
+    <t>Jackson 20</t>
+  </si>
+  <si>
+    <t>Jackson 21</t>
+  </si>
+  <si>
+    <t>Jackson 22</t>
+  </si>
+  <si>
+    <t>Jackson 23</t>
+  </si>
+  <si>
+    <t>Jackson 24</t>
+  </si>
+  <si>
+    <t>David 6</t>
+  </si>
+  <si>
+    <t>David 7</t>
+  </si>
+  <si>
+    <t>David 8</t>
+  </si>
+  <si>
+    <t>David 9</t>
+  </si>
+  <si>
+    <t>David 10</t>
+  </si>
+  <si>
+    <t>David 11</t>
+  </si>
+  <si>
+    <t>David 12</t>
+  </si>
+  <si>
+    <t>David 13</t>
+  </si>
+  <si>
+    <t>David 14</t>
+  </si>
+  <si>
+    <t>David 15</t>
+  </si>
+  <si>
+    <t>David 16</t>
+  </si>
+  <si>
+    <t>David 17</t>
+  </si>
+  <si>
+    <t>David 18</t>
+  </si>
+  <si>
+    <t>David 19</t>
+  </si>
+  <si>
+    <t>David 20</t>
+  </si>
+  <si>
+    <t>David 21</t>
+  </si>
+  <si>
+    <t>David 22</t>
+  </si>
+  <si>
+    <t>David 23</t>
+  </si>
+  <si>
+    <t>David 24</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1417,16 +1474,16 @@
         <v>29</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1434,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1446,31 +1503,31 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P2" s="19"/>
     </row>
@@ -1479,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1492,28 +1549,28 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1521,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1534,28 +1591,28 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1563,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1576,28 +1633,28 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1605,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1618,28 +1675,28 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1647,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -1660,28 +1717,28 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1689,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1702,28 +1759,28 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1731,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1744,28 +1801,28 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1773,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1786,28 +1843,28 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1815,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -1828,28 +1885,28 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1857,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1870,28 +1927,28 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1899,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1912,28 +1969,28 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1941,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1954,28 +2011,28 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1983,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -1996,28 +2053,28 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2025,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -2038,28 +2095,28 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -2067,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2080,28 +2137,28 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2142,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2243,34 +2300,34 @@
         <v>11</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2278,43 +2335,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>27</v>
@@ -2323,40 +2380,40 @@
         <v>26</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>23</v>
@@ -2365,7 +2422,7 @@
         <v>24</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AG2" s="18"/>
     </row>
@@ -2374,43 +2431,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>27</v>
@@ -2419,38 +2476,38 @@
         <v>26</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>23</v>
@@ -2459,7 +2516,7 @@
         <v>24</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AG3" s="18"/>
     </row>
@@ -2468,43 +2525,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>27</v>
@@ -2513,38 +2570,38 @@
         <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>23</v>
@@ -2553,7 +2610,7 @@
         <v>24</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="18"/>
     </row>
@@ -2562,43 +2619,43 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>27</v>
@@ -2607,38 +2664,38 @@
         <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>23</v>
@@ -2647,7 +2704,7 @@
         <v>24</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG5" s="18"/>
     </row>
@@ -2656,43 +2713,43 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>27</v>
@@ -2701,38 +2758,38 @@
         <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>23</v>
@@ -2741,7 +2798,7 @@
         <v>24</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
@@ -2750,43 +2807,43 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>27</v>
@@ -2795,38 +2852,38 @@
         <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>23</v>
@@ -2835,7 +2892,7 @@
         <v>24</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AG7" s="18"/>
     </row>
@@ -2844,43 +2901,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
@@ -2889,38 +2946,38 @@
         <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>23</v>
@@ -2929,7 +2986,7 @@
         <v>24</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="18"/>
     </row>
@@ -2938,43 +2995,43 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>27</v>
@@ -2983,38 +3040,38 @@
         <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>23</v>
@@ -3023,7 +3080,7 @@
         <v>24</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="18"/>
     </row>
@@ -3032,43 +3089,43 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>27</v>
@@ -3077,38 +3134,38 @@
         <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>23</v>
@@ -3117,7 +3174,7 @@
         <v>24</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AG10" s="18"/>
     </row>
@@ -3126,43 +3183,43 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>27</v>
@@ -3171,38 +3228,38 @@
         <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>23</v>
@@ -3211,7 +3268,7 @@
         <v>24</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AG11" s="18"/>
     </row>
@@ -3220,43 +3277,43 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="N12" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>27</v>
@@ -3265,38 +3322,38 @@
         <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>23</v>
@@ -3305,7 +3362,7 @@
         <v>24</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
@@ -3314,43 +3371,43 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>27</v>
@@ -3359,38 +3416,38 @@
         <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>23</v>
@@ -3399,7 +3456,7 @@
         <v>24</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AG13" s="18"/>
     </row>
@@ -3408,43 +3465,43 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>27</v>
@@ -3453,38 +3510,38 @@
         <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>23</v>
@@ -3493,7 +3550,7 @@
         <v>24</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AG14" s="18"/>
     </row>
@@ -3502,43 +3559,43 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>27</v>
@@ -3547,38 +3604,38 @@
         <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>23</v>
@@ -3587,7 +3644,7 @@
         <v>24</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AG15" s="18"/>
     </row>
@@ -3596,43 +3653,43 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>27</v>
@@ -3641,38 +3698,38 @@
         <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="Z16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB16" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="AA16" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>23</v>
@@ -3681,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AG16" s="18"/>
     </row>
@@ -3690,43 +3747,43 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>27</v>
@@ -3735,38 +3792,38 @@
         <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="U17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="V17" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="V17" s="15" t="s">
-        <v>152</v>
-      </c>
       <c r="W17" s="5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>23</v>
@@ -3775,7 +3832,7 @@
         <v>24</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
@@ -3783,43 +3840,43 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>27</v>
@@ -3828,38 +3885,38 @@
         <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="V18" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="W18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="AB18" s="6" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>23</v>
@@ -3868,7 +3925,7 @@
         <v>24</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
@@ -3876,43 +3933,43 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="J19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>27</v>
@@ -3921,38 +3978,38 @@
         <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>23</v>
@@ -3961,7 +4018,7 @@
         <v>24</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
@@ -3969,43 +4026,43 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="K20" s="6" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>27</v>
@@ -4014,38 +4071,38 @@
         <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="X20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Y20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="AA20" s="6" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>23</v>
@@ -4054,7 +4111,7 @@
         <v>24</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4090,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,608 +4163,608 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity261</v>
+        <v>TestChicagoCity280</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>CONCATENATE($G$1,$I1)</f>
-        <v>TestChicagoCity261</v>
+        <v>TestChicagoCity280</v>
       </c>
       <c r="C1" s="11" t="str">
         <f>CONCATENATE($G$1,$I1,$H$1)</f>
-        <v>TestChicagoCity261@gmail.com</v>
+        <v>TestChicagoCity280@gmail.com</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I1">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:B19" si="0">CONCATENATE($G$1,$I2)</f>
-        <v>TestChicagoCity262</v>
+        <v>TestChicagoCity281</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity262</v>
+        <v>TestChicagoCity281</v>
       </c>
       <c r="C2" s="11" t="str">
         <f t="shared" ref="C2:C19" si="1">CONCATENATE($G$1,$I2,$H$1)</f>
-        <v>TestChicagoCity262@gmail.com</v>
+        <v>TestChicagoCity281@gmail.com</v>
       </c>
       <c r="I2">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity263</v>
+        <v>TestChicagoCity282</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity263</v>
+        <v>TestChicagoCity282</v>
       </c>
       <c r="C3" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity263@gmail.com</v>
+        <v>TestChicagoCity282@gmail.com</v>
       </c>
       <c r="I3">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity264</v>
+        <v>TestChicagoCity283</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity264</v>
+        <v>TestChicagoCity283</v>
       </c>
       <c r="C4" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity264@gmail.com</v>
+        <v>TestChicagoCity283@gmail.com</v>
       </c>
       <c r="I4">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity265</v>
+        <v>TestChicagoCity284</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity265</v>
+        <v>TestChicagoCity284</v>
       </c>
       <c r="C5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity265@gmail.com</v>
+        <v>TestChicagoCity284@gmail.com</v>
       </c>
       <c r="I5">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity266</v>
+        <v>TestChicagoCity285</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity266</v>
+        <v>TestChicagoCity285</v>
       </c>
       <c r="C6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity266@gmail.com</v>
+        <v>TestChicagoCity285@gmail.com</v>
       </c>
       <c r="I6">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity267</v>
+        <v>TestChicagoCity286</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity267</v>
+        <v>TestChicagoCity286</v>
       </c>
       <c r="C7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity267@gmail.com</v>
+        <v>TestChicagoCity286@gmail.com</v>
       </c>
       <c r="I7">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity268</v>
+        <v>TestChicagoCity287</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity268</v>
+        <v>TestChicagoCity287</v>
       </c>
       <c r="C8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity268@gmail.com</v>
+        <v>TestChicagoCity287@gmail.com</v>
       </c>
       <c r="I8">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity269</v>
+        <v>TestChicagoCity288</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity269</v>
+        <v>TestChicagoCity288</v>
       </c>
       <c r="C9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity269@gmail.com</v>
+        <v>TestChicagoCity288@gmail.com</v>
       </c>
       <c r="I9">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity270</v>
+        <v>TestChicagoCity289</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity270</v>
+        <v>TestChicagoCity289</v>
       </c>
       <c r="C10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity270@gmail.com</v>
+        <v>TestChicagoCity289@gmail.com</v>
       </c>
       <c r="I10">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity271</v>
+        <v>TestChicagoCity290</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity271</v>
+        <v>TestChicagoCity290</v>
       </c>
       <c r="C11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity271@gmail.com</v>
+        <v>TestChicagoCity290@gmail.com</v>
       </c>
       <c r="I11">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity272</v>
+        <v>TestChicagoCity291</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity272</v>
+        <v>TestChicagoCity291</v>
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity272@gmail.com</v>
+        <v>TestChicagoCity291@gmail.com</v>
       </c>
       <c r="I12">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity273</v>
+        <v>TestChicagoCity292</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity273</v>
+        <v>TestChicagoCity292</v>
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity273@gmail.com</v>
+        <v>TestChicagoCity292@gmail.com</v>
       </c>
       <c r="I13">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity274</v>
+        <v>TestChicagoCity293</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity274</v>
+        <v>TestChicagoCity293</v>
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity274@gmail.com</v>
+        <v>TestChicagoCity293@gmail.com</v>
       </c>
       <c r="I14">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity275</v>
+        <v>TestChicagoCity294</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity275</v>
+        <v>TestChicagoCity294</v>
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity275@gmail.com</v>
+        <v>TestChicagoCity294@gmail.com</v>
       </c>
       <c r="I15">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity276</v>
+        <v>TestChicagoCity295</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity276</v>
+        <v>TestChicagoCity295</v>
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity276@gmail.com</v>
+        <v>TestChicagoCity295@gmail.com</v>
       </c>
       <c r="I16">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity277</v>
+        <v>TestChicagoCity296</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity277</v>
+        <v>TestChicagoCity296</v>
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity277@gmail.com</v>
+        <v>TestChicagoCity296@gmail.com</v>
       </c>
       <c r="I17">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity278</v>
+        <v>TestChicagoCity297</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity278</v>
+        <v>TestChicagoCity297</v>
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity278@gmail.com</v>
+        <v>TestChicagoCity297@gmail.com</v>
       </c>
       <c r="I18">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity279</v>
+        <v>TestChicagoCity298</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TestChicagoCity279</v>
+        <v>TestChicagoCity298</v>
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>TestChicagoCity279@gmail.com</v>
+        <v>TestChicagoCity298@gmail.com</v>
       </c>
       <c r="I19">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine219</v>
+        <v>AutomationTestPalatine235</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>CONCATENATE($G$22,$I22)</f>
-        <v>AutomationTestPalatine219</v>
+        <v>AutomationTestPalatine235</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>CONCATENATE($G$22,$I22,$H$22)</f>
-        <v>AutomationTestPalatine219@gmail.com</v>
+        <v>AutomationTestPalatine235@gmail.com</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I22">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f t="shared" ref="A23:B37" si="2">CONCATENATE($G$22,$I23)</f>
-        <v>AutomationTestPalatine220</v>
+        <v>AutomationTestPalatine236</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine220</v>
+        <v>AutomationTestPalatine236</v>
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" ref="C23:C37" si="3">CONCATENATE($G$22,$I23,$H$22)</f>
-        <v>AutomationTestPalatine220@gmail.com</v>
+        <v>AutomationTestPalatine236@gmail.com</v>
       </c>
       <c r="I23">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine221</v>
+        <v>AutomationTestPalatine237</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine221</v>
+        <v>AutomationTestPalatine237</v>
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine221@gmail.com</v>
+        <v>AutomationTestPalatine237@gmail.com</v>
       </c>
       <c r="I24">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine222</v>
+        <v>AutomationTestPalatine238</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine222</v>
+        <v>AutomationTestPalatine238</v>
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine222@gmail.com</v>
+        <v>AutomationTestPalatine238@gmail.com</v>
       </c>
       <c r="I25">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine223</v>
+        <v>AutomationTestPalatine239</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine223</v>
+        <v>AutomationTestPalatine239</v>
       </c>
       <c r="C26" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine223@gmail.com</v>
+        <v>AutomationTestPalatine239@gmail.com</v>
       </c>
       <c r="I26">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine224</v>
+        <v>AutomationTestPalatine240</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine224</v>
+        <v>AutomationTestPalatine240</v>
       </c>
       <c r="C27" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine224@gmail.com</v>
+        <v>AutomationTestPalatine240@gmail.com</v>
       </c>
       <c r="I27">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine225</v>
+        <v>AutomationTestPalatine241</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine225</v>
+        <v>AutomationTestPalatine241</v>
       </c>
       <c r="C28" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine225@gmail.com</v>
+        <v>AutomationTestPalatine241@gmail.com</v>
       </c>
       <c r="I28">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine226</v>
+        <v>AutomationTestPalatine242</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine226</v>
+        <v>AutomationTestPalatine242</v>
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine226@gmail.com</v>
+        <v>AutomationTestPalatine242@gmail.com</v>
       </c>
       <c r="I29">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine227</v>
+        <v>AutomationTestPalatine243</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine227</v>
+        <v>AutomationTestPalatine243</v>
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine227@gmail.com</v>
+        <v>AutomationTestPalatine243@gmail.com</v>
       </c>
       <c r="I30">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine228</v>
+        <v>AutomationTestPalatine244</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine228</v>
+        <v>AutomationTestPalatine244</v>
       </c>
       <c r="C31" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine228@gmail.com</v>
+        <v>AutomationTestPalatine244@gmail.com</v>
       </c>
       <c r="I31">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine229</v>
+        <v>AutomationTestPalatine245</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine229</v>
+        <v>AutomationTestPalatine245</v>
       </c>
       <c r="C32" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine229@gmail.com</v>
+        <v>AutomationTestPalatine245@gmail.com</v>
       </c>
       <c r="I32">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine230</v>
+        <v>AutomationTestPalatine246</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine230</v>
+        <v>AutomationTestPalatine246</v>
       </c>
       <c r="C33" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine230@gmail.com</v>
+        <v>AutomationTestPalatine246@gmail.com</v>
       </c>
       <c r="I33">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine231</v>
+        <v>AutomationTestPalatine247</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine231</v>
+        <v>AutomationTestPalatine247</v>
       </c>
       <c r="C34" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine231@gmail.com</v>
+        <v>AutomationTestPalatine247@gmail.com</v>
       </c>
       <c r="I34">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine232</v>
+        <v>AutomationTestPalatine248</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine232</v>
+        <v>AutomationTestPalatine248</v>
       </c>
       <c r="C35" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine232@gmail.com</v>
+        <v>AutomationTestPalatine248@gmail.com</v>
       </c>
       <c r="I35">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine233</v>
+        <v>AutomationTestPalatine249</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine233</v>
+        <v>AutomationTestPalatine249</v>
       </c>
       <c r="C36" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine233@gmail.com</v>
+        <v>AutomationTestPalatine249@gmail.com</v>
       </c>
       <c r="I36">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine234</v>
+        <v>AutomationTestPalatine250</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AutomationTestPalatine234</v>
+        <v>AutomationTestPalatine250</v>
       </c>
       <c r="C37" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>AutomationTestPalatine234@gmail.com</v>
+        <v>AutomationTestPalatine250@gmail.com</v>
       </c>
       <c r="I37">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4415A22-0BDB-48B8-ADB6-CEFB1EA24930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64CCA4-CD01-43FF-A409-19BC5854CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="418">
   <si>
     <t>run</t>
   </si>
@@ -739,186 +739,6 @@
     <t>BrandiSouthard</t>
   </si>
   <si>
-    <t>EthanBaker1</t>
-  </si>
-  <si>
-    <t>EthanBaker1@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman1</t>
-  </si>
-  <si>
-    <t>DelanieCarman1@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew1</t>
-  </si>
-  <si>
-    <t>BretAgnew1@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor1</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor1@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis1</t>
-  </si>
-  <si>
-    <t>TyrekReis1@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow1</t>
-  </si>
-  <si>
-    <t>LeannaChow1@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson1</t>
-  </si>
-  <si>
-    <t>TuckerCarlson1@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor1</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor1@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte1</t>
-  </si>
-  <si>
-    <t>MoniqueWitte1@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock1</t>
-  </si>
-  <si>
-    <t>MikelWhitlock1@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya1</t>
-  </si>
-  <si>
-    <t>VincentAmaya1@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz1</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz1@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech1</t>
-  </si>
-  <si>
-    <t>EllisCreech1@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel1</t>
-  </si>
-  <si>
-    <t>DionteCreel1@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust1</t>
-  </si>
-  <si>
-    <t>NicholeFoust1@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell1</t>
-  </si>
-  <si>
-    <t>ManuelConnell1@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam1</t>
-  </si>
-  <si>
-    <t>LourdesElam1@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick1</t>
-  </si>
-  <si>
-    <t>LincolnFrederick1@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash1</t>
-  </si>
-  <si>
-    <t>AlisaCash1@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths1</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths1@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan1</t>
-  </si>
-  <si>
-    <t>MalikOtoole1</t>
-  </si>
-  <si>
-    <t>AlanCaudill1</t>
-  </si>
-  <si>
-    <t>AdanApplegate1</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth1</t>
-  </si>
-  <si>
-    <t>MercedezBrien1</t>
-  </si>
-  <si>
-    <t>DuaneHager1</t>
-  </si>
-  <si>
-    <t>LorenBell1</t>
-  </si>
-  <si>
-    <t>GeraldHiller1</t>
-  </si>
-  <si>
-    <t>DeionBranch1</t>
-  </si>
-  <si>
-    <t>DakotaHalstead1</t>
-  </si>
-  <si>
-    <t>ElliottFurman1</t>
-  </si>
-  <si>
-    <t>MiltonCamp1</t>
-  </si>
-  <si>
-    <t>DawnChester1</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie1</t>
-  </si>
-  <si>
-    <t>EstebanAngel1</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship1</t>
-  </si>
-  <si>
-    <t>AllysaGrice1</t>
-  </si>
-  <si>
-    <t>AugustineYoo1</t>
-  </si>
-  <si>
-    <t>BrandiSouthard1</t>
-  </si>
-  <si>
     <t>DonnellJernigan INC</t>
   </si>
   <si>
@@ -1099,66 +919,6 @@
     <t>Southard</t>
   </si>
   <si>
-    <t>DonnellJernigan1@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole1@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill1@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate1@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth1@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien1@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager1@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell1@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller1@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch1@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead1@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman1@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp1@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester1@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie1@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel1@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship1@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice1@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo1@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard1@gmail.com</t>
-  </si>
-  <si>
     <t>Manor Avenue</t>
   </si>
   <si>
@@ -1286,13 +1046,259 @@
   </si>
   <si>
     <t>58605</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Order Page</t>
+  </si>
+  <si>
+    <t>EthanBaker2</t>
+  </si>
+  <si>
+    <t>EthanBaker2@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman2</t>
+  </si>
+  <si>
+    <t>DelanieCarman2@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew2</t>
+  </si>
+  <si>
+    <t>BretAgnew2@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor2</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor2@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis2</t>
+  </si>
+  <si>
+    <t>TyrekReis2@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow2</t>
+  </si>
+  <si>
+    <t>LeannaChow2@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson2</t>
+  </si>
+  <si>
+    <t>TuckerCarlson2@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor2</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor2@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte2</t>
+  </si>
+  <si>
+    <t>MoniqueWitte2@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock2</t>
+  </si>
+  <si>
+    <t>MikelWhitlock2@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya2</t>
+  </si>
+  <si>
+    <t>VincentAmaya2@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz2</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz2@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech2</t>
+  </si>
+  <si>
+    <t>EllisCreech2@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel2</t>
+  </si>
+  <si>
+    <t>DionteCreel2@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust2</t>
+  </si>
+  <si>
+    <t>NicholeFoust2@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell2</t>
+  </si>
+  <si>
+    <t>ManuelConnell2@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam2</t>
+  </si>
+  <si>
+    <t>LourdesElam2@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick2</t>
+  </si>
+  <si>
+    <t>LincolnFrederick2@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash2</t>
+  </si>
+  <si>
+    <t>AlisaCash2@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths2</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths2@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan2</t>
+  </si>
+  <si>
+    <t>DonnellJernigan2@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole2</t>
+  </si>
+  <si>
+    <t>MalikOtoole2@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill2</t>
+  </si>
+  <si>
+    <t>AlanCaudill2@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate2</t>
+  </si>
+  <si>
+    <t>AdanApplegate2@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth2</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth2@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien2</t>
+  </si>
+  <si>
+    <t>MercedezBrien2@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager2</t>
+  </si>
+  <si>
+    <t>DuaneHager2@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell2</t>
+  </si>
+  <si>
+    <t>LorenBell2@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller2</t>
+  </si>
+  <si>
+    <t>GeraldHiller2@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch2</t>
+  </si>
+  <si>
+    <t>DeionBranch2@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead2</t>
+  </si>
+  <si>
+    <t>DakotaHalstead2@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman2</t>
+  </si>
+  <si>
+    <t>ElliottFurman2@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp2</t>
+  </si>
+  <si>
+    <t>MiltonCamp2@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester2</t>
+  </si>
+  <si>
+    <t>DawnChester2@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie2</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie2@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel2</t>
+  </si>
+  <si>
+    <t>EstebanAngel2@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship2</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship2@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice2</t>
+  </si>
+  <si>
+    <t>AllysaGrice2@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo2</t>
+  </si>
+  <si>
+    <t>AugustineYoo2@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard2</t>
+  </si>
+  <si>
+    <t>BrandiSouthard2@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,8 +1348,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,8 +1379,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1413,6 +1454,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1421,7 +1528,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1433,9 +1540,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,7 +1549,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1459,16 +1562,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,17 +1580,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1827,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1850,44 +1981,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1911,30 +2042,30 @@
         <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1954,27 +2085,27 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>236</v>
+        <v>341</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1996,27 +2127,27 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2038,27 +2169,27 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2080,27 +2211,27 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2122,27 +2253,27 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2164,27 +2295,27 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2206,27 +2337,27 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2248,27 +2379,27 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2290,27 +2421,27 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2332,27 +2463,27 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2374,27 +2505,27 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>256</v>
+        <v>361</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2416,27 +2547,27 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2458,27 +2589,27 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>260</v>
+        <v>365</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2500,27 +2631,27 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>261</v>
+        <v>366</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>261</v>
+        <v>366</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2542,27 +2673,27 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2582,29 +2713,29 @@
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>266</v>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2624,29 +2755,29 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>268</v>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2666,29 +2797,29 @@
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>270</v>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2708,29 +2839,29 @@
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>272</v>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2767,7 +2898,7 @@
     <hyperlink ref="J19" r:id="rId28" xr:uid="{6BE2C065-FD88-4D05-B5D0-B9DFEC45BF70}"/>
     <hyperlink ref="J20" r:id="rId29" xr:uid="{B6C39211-3B67-4FB9-91FE-3C5E634FD290}"/>
     <hyperlink ref="J21" r:id="rId30" xr:uid="{6172F02A-A3F1-442A-BE36-22F91AE04D47}"/>
-    <hyperlink ref="I12" r:id="rId31" xr:uid="{6D467585-22DC-4BE4-A44E-4F64ABA50F76}"/>
+    <hyperlink ref="I12" r:id="rId31" display="VincentAmaya1@gmail.com" xr:uid="{6D467585-22DC-4BE4-A44E-4F64ABA50F76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2777,58 +2908,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AE21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="6" style="15"/>
+    <col min="1" max="1" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="6" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -2868,16 +2999,16 @@
         <v>28</v>
       </c>
       <c r="R1" s="4"/>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="17" t="s">
         <v>55</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -2909,1880 +3040,1880 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="16"/>
+    </row>
+    <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="20">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="21"/>
+      <c r="S3" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="16"/>
+    </row>
+    <row r="4" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="16"/>
+    </row>
+    <row r="5" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="16"/>
+    </row>
+    <row r="6" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="21"/>
+      <c r="S6" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" s="16"/>
+    </row>
+    <row r="7" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="16"/>
+    </row>
+    <row r="8" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="16"/>
+    </row>
+    <row r="9" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="U9" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG9" s="16"/>
+    </row>
+    <row r="10" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="21"/>
+      <c r="S10" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="U10" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" s="16"/>
+    </row>
+    <row r="11" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG11" s="16"/>
+    </row>
+    <row r="12" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="21"/>
+      <c r="S12" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG12" s="16"/>
+    </row>
+    <row r="13" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="20">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG13" s="16"/>
+    </row>
+    <row r="14" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="N14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG14" s="16"/>
+    </row>
+    <row r="15" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="N15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="21"/>
+      <c r="S15" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="N2" s="16" t="s">
+      <c r="AA15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG15" s="16"/>
+    </row>
+    <row r="16" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="N16" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="V2" s="17" t="s">
+      <c r="R16" s="21"/>
+      <c r="S16" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="V16" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z2" s="16" t="s">
+      <c r="W16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z16" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AA2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AA16" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="18"/>
-    </row>
-    <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="AE16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG16" s="16"/>
+    </row>
+    <row r="17" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="22">
+      <c r="E17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="20">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="G17" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="N17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="N3" s="16" t="s">
+      <c r="AA17" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="20">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="21"/>
+      <c r="S18" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="20">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="V3" s="17" t="s">
+      <c r="R19" s="21"/>
+      <c r="S19" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="V19" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="W3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z3" s="16" t="s">
+      <c r="W19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z19" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AA3" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AA19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB19" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AD19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="18"/>
-    </row>
-    <row r="4" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="AE19" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="D20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="G20" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="N4" s="16" t="s">
+      <c r="K20" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="N20" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="V4" s="17" t="s">
+      <c r="R20" s="21"/>
+      <c r="S20" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="V20" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z4" s="16" t="s">
+      <c r="W20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z20" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC4" s="16" t="s">
+      <c r="AA20" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AD20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG4" s="18"/>
-    </row>
-    <row r="5" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="AE20" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="22">
+      <c r="D21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="20">
         <v>2</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="G21" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="N21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z21" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AA21" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD5" s="16" t="s">
+      <c r="AD21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG5" s="18"/>
-    </row>
-    <row r="6" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="18"/>
-    </row>
-    <row r="7" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="U8" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG8" s="18"/>
-    </row>
-    <row r="9" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG9" s="18"/>
-    </row>
-    <row r="10" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG10" s="18"/>
-    </row>
-    <row r="11" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="22">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG11" s="18"/>
-    </row>
-    <row r="12" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" s="18"/>
-    </row>
-    <row r="13" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="22">
-        <v>2</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="AE21" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="U13" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB13" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE13" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG13" s="18"/>
-    </row>
-    <row r="14" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB14" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE14" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG14" s="18"/>
-    </row>
-    <row r="15" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="22">
-        <v>2</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" s="23"/>
-      <c r="S15" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE15" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG15" s="18"/>
-    </row>
-    <row r="16" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE16" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG16" s="18"/>
-    </row>
-    <row r="17" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="22">
-        <v>2</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="U17" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE17" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="U18" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE18" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="22">
-        <v>2</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="U19" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA19" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB19" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE19" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R20" s="23"/>
-      <c r="S20" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA20" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB20" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE20" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="T21" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="U21" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="X21" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y21" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z21" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA21" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB21" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE21" s="22" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4817,10 +4948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C41"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4832,741 +4963,770 @@
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>CONCATENATE($G1,$I$1)</f>
-        <v>EthanBaker1</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <f>CONCATENATE($G1,$I$1)</f>
-        <v>EthanBaker1</v>
-      </c>
-      <c r="C1" s="5" t="str">
-        <f>CONCATENATE($G1,$I$1,$H$1)</f>
-        <v>EthanBaker1@gmail.com</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>CONCATENATE($G2,$I$2)</f>
+        <v>EthanBaker2</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE($G2,$I$2)</f>
+        <v>EthanBaker2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>CONCATENATE($G2,$I$2,$H$2)</f>
+        <v>EthanBaker2@gmail.com</v>
+      </c>
+      <c r="G2" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:B20" si="0">CONCATENATE($G2,$I$1)</f>
-        <v>DelanieCarman1</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DelanieCarman1</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f t="shared" ref="C2:C20" si="1">CONCATENATE($G2,$I$1,$H$1)</f>
-        <v>DelanieCarman1@gmail.com</v>
-      </c>
-      <c r="G2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BretAgnew1</v>
+        <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
+        <v>DelanieCarman2</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew1</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>BretAgnew1@gmail.com</v>
+        <v>DelanieCarman2</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
+        <v>DelanieCarman2@gmail.com</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor1</v>
+        <v>BretAgnew2</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor1</v>
-      </c>
-      <c r="C4" s="5" t="str">
+        <v>BretAgnew2</v>
+      </c>
+      <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor1@gmail.com</v>
+        <v>BretAgnew2@gmail.com</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis1</v>
+        <v>EdgardoTaylor2</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis1</v>
-      </c>
-      <c r="C5" s="5" t="str">
+        <v>EdgardoTaylor2</v>
+      </c>
+      <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis1@gmail.com</v>
+        <v>EdgardoTaylor2@gmail.com</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow1</v>
+        <v>TyrekReis2</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow1</v>
-      </c>
-      <c r="C6" s="5" t="str">
+        <v>TyrekReis2</v>
+      </c>
+      <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow1@gmail.com</v>
+        <v>TyrekReis2@gmail.com</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson1</v>
+        <v>LeannaChow2</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson1</v>
-      </c>
-      <c r="C7" s="5" t="str">
+        <v>LeannaChow2</v>
+      </c>
+      <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson1@gmail.com</v>
+        <v>LeannaChow2@gmail.com</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor1</v>
+        <v>TuckerCarlson2</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor1</v>
-      </c>
-      <c r="C8" s="5" t="str">
+        <v>TuckerCarlson2</v>
+      </c>
+      <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor1@gmail.com</v>
+        <v>TuckerCarlson2@gmail.com</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte1</v>
+        <v>AnnmarieConnor2</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte1</v>
-      </c>
-      <c r="C9" s="5" t="str">
+        <v>AnnmarieConnor2</v>
+      </c>
+      <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte1@gmail.com</v>
+        <v>AnnmarieConnor2@gmail.com</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock1</v>
+        <v>MoniqueWitte2</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock1</v>
-      </c>
-      <c r="C10" s="5" t="str">
+        <v>MoniqueWitte2</v>
+      </c>
+      <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock1@gmail.com</v>
+        <v>MoniqueWitte2@gmail.com</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya1</v>
+        <v>MikelWhitlock2</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya1</v>
-      </c>
-      <c r="C11" s="5" t="str">
+        <v>MikelWhitlock2</v>
+      </c>
+      <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya1@gmail.com</v>
+        <v>MikelWhitlock2@gmail.com</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz1</v>
+        <v>VincentAmaya2</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz1</v>
-      </c>
-      <c r="C12" s="5" t="str">
+        <v>VincentAmaya2</v>
+      </c>
+      <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz1@gmail.com</v>
+        <v>VincentAmaya2@gmail.com</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech1</v>
+        <v>KeiraQuiroz2</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech1</v>
-      </c>
-      <c r="C13" s="5" t="str">
+        <v>KeiraQuiroz2</v>
+      </c>
+      <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech1@gmail.com</v>
+        <v>KeiraQuiroz2@gmail.com</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel1</v>
+        <v>EllisCreech2</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel1</v>
-      </c>
-      <c r="C14" s="5" t="str">
+        <v>EllisCreech2</v>
+      </c>
+      <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel1@gmail.com</v>
+        <v>EllisCreech2@gmail.com</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust1</v>
+        <v>DionteCreel2</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust1</v>
-      </c>
-      <c r="C15" s="5" t="str">
+        <v>DionteCreel2</v>
+      </c>
+      <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust1@gmail.com</v>
+        <v>DionteCreel2@gmail.com</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell1</v>
+        <v>NicholeFoust2</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell1</v>
-      </c>
-      <c r="C16" s="5" t="str">
+        <v>NicholeFoust2</v>
+      </c>
+      <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell1@gmail.com</v>
+        <v>NicholeFoust2@gmail.com</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam1</v>
+        <v>ManuelConnell2</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam1</v>
-      </c>
-      <c r="C17" s="5" t="str">
+        <v>ManuelConnell2</v>
+      </c>
+      <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam1@gmail.com</v>
+        <v>ManuelConnell2@gmail.com</v>
       </c>
       <c r="G17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick1</v>
+        <v>LourdesElam2</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick1</v>
-      </c>
-      <c r="C18" s="5" t="str">
+        <v>LourdesElam2</v>
+      </c>
+      <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick1@gmail.com</v>
+        <v>LourdesElam2@gmail.com</v>
       </c>
       <c r="G18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash1</v>
+        <v>LincolnFrederick2</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash1</v>
-      </c>
-      <c r="C19" s="5" t="str">
+        <v>LincolnFrederick2</v>
+      </c>
+      <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash1@gmail.com</v>
+        <v>LincolnFrederick2@gmail.com</v>
       </c>
       <c r="G19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths1</v>
+        <v>AlisaCash2</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths1</v>
-      </c>
-      <c r="C20" s="5" t="str">
+        <v>AlisaCash2</v>
+      </c>
+      <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths1@gmail.com</v>
+        <v>AlisaCash2@gmail.com</v>
       </c>
       <c r="G20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LucilleGriffiths2</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LucilleGriffiths2</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LucilleGriffiths2@gmail.com</v>
+      </c>
+      <c r="G21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="str">
-        <f>CONCATENATE($G22,$I$22)</f>
-        <v>DonnellJernigan1</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f>CONCATENATE($G22,$I$22)</f>
-        <v>DonnellJernigan1</v>
-      </c>
-      <c r="C22" s="5" t="str">
-        <f>CONCATENATE($G22,$I$22,$H$22)</f>
-        <v>DonnellJernigan1@gmail.com</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
-        <f t="shared" ref="A23:B41" si="2">CONCATENATE($G23,$I$22)</f>
-        <v>MalikOtoole1</v>
+        <f>CONCATENATE($G23,$I$23)</f>
+        <v>DonnellJernigan2</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MalikOtoole1</v>
-      </c>
-      <c r="C23" s="5" t="str">
-        <f t="shared" ref="C23:C41" si="3">CONCATENATE($G23,$I$22,$H$22)</f>
-        <v>MalikOtoole1@gmail.com</v>
-      </c>
-      <c r="G23" t="s">
-        <v>214</v>
+        <f>CONCATENATE($G23,$I$23)</f>
+        <v>DonnellJernigan2</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f>CONCATENATE($G23,$I$23,$H$23)</f>
+        <v>DonnellJernigan2@gmail.com</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>AlanCaudill1</v>
+        <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
+        <v>MalikOtoole2</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill1</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>AlanCaudill1@gmail.com</v>
+        <v>MalikOtoole2</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
+        <v>MalikOtoole2@gmail.com</v>
       </c>
       <c r="G24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate1</v>
+        <v>AlanCaudill2</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate1</v>
-      </c>
-      <c r="C25" s="5" t="str">
+        <v>AlanCaudill2</v>
+      </c>
+      <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate1@gmail.com</v>
+        <v>AlanCaudill2@gmail.com</v>
       </c>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth1</v>
+        <v>AdanApplegate2</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth1</v>
-      </c>
-      <c r="C26" s="5" t="str">
+        <v>AdanApplegate2</v>
+      </c>
+      <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth1@gmail.com</v>
+        <v>AdanApplegate2@gmail.com</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien1</v>
+        <v>AiyanaWhitworth2</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien1</v>
-      </c>
-      <c r="C27" s="5" t="str">
+        <v>AiyanaWhitworth2</v>
+      </c>
+      <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien1@gmail.com</v>
+        <v>AiyanaWhitworth2@gmail.com</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager1</v>
+        <v>MercedezBrien2</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager1</v>
-      </c>
-      <c r="C28" s="5" t="str">
+        <v>MercedezBrien2</v>
+      </c>
+      <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager1@gmail.com</v>
+        <v>MercedezBrien2@gmail.com</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell1</v>
+        <v>DuaneHager2</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell1</v>
-      </c>
-      <c r="C29" s="5" t="str">
+        <v>DuaneHager2</v>
+      </c>
+      <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell1@gmail.com</v>
+        <v>DuaneHager2@gmail.com</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller1</v>
+        <v>LorenBell2</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller1</v>
-      </c>
-      <c r="C30" s="5" t="str">
+        <v>LorenBell2</v>
+      </c>
+      <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller1@gmail.com</v>
+        <v>LorenBell2@gmail.com</v>
       </c>
       <c r="G30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch1</v>
+        <v>GeraldHiller2</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch1</v>
-      </c>
-      <c r="C31" s="5" t="str">
+        <v>GeraldHiller2</v>
+      </c>
+      <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch1@gmail.com</v>
+        <v>GeraldHiller2@gmail.com</v>
       </c>
       <c r="G31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead1</v>
+        <v>DeionBranch2</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead1</v>
-      </c>
-      <c r="C32" s="5" t="str">
+        <v>DeionBranch2</v>
+      </c>
+      <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead1@gmail.com</v>
+        <v>DeionBranch2@gmail.com</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman1</v>
+        <v>DakotaHalstead2</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman1</v>
-      </c>
-      <c r="C33" s="5" t="str">
+        <v>DakotaHalstead2</v>
+      </c>
+      <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman1@gmail.com</v>
+        <v>DakotaHalstead2@gmail.com</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp1</v>
+        <v>ElliottFurman2</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp1</v>
-      </c>
-      <c r="C34" s="5" t="str">
+        <v>ElliottFurman2</v>
+      </c>
+      <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp1@gmail.com</v>
+        <v>ElliottFurman2@gmail.com</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester1</v>
+        <v>MiltonCamp2</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester1</v>
-      </c>
-      <c r="C35" s="5" t="str">
+        <v>MiltonCamp2</v>
+      </c>
+      <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester1@gmail.com</v>
+        <v>MiltonCamp2@gmail.com</v>
       </c>
       <c r="G35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie1</v>
+        <v>DawnChester2</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie1</v>
-      </c>
-      <c r="C36" s="5" t="str">
+        <v>DawnChester2</v>
+      </c>
+      <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie1@gmail.com</v>
+        <v>DawnChester2@gmail.com</v>
       </c>
       <c r="G36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel1</v>
+        <v>ZacheryPetrie2</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel1</v>
-      </c>
-      <c r="C37" s="5" t="str">
+        <v>ZacheryPetrie2</v>
+      </c>
+      <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel1@gmail.com</v>
+        <v>ZacheryPetrie2@gmail.com</v>
       </c>
       <c r="G37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship1</v>
+        <v>EstebanAngel2</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship1</v>
-      </c>
-      <c r="C38" s="5" t="str">
+        <v>EstebanAngel2</v>
+      </c>
+      <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship1@gmail.com</v>
+        <v>EstebanAngel2@gmail.com</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice1</v>
+        <v>JimmyBlankenship2</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice1</v>
-      </c>
-      <c r="C39" s="5" t="str">
+        <v>JimmyBlankenship2</v>
+      </c>
+      <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice1@gmail.com</v>
+        <v>JimmyBlankenship2@gmail.com</v>
       </c>
       <c r="G39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo1</v>
+        <v>AllysaGrice2</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo1</v>
-      </c>
-      <c r="C40" s="5" t="str">
+        <v>AllysaGrice2</v>
+      </c>
+      <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo1@gmail.com</v>
+        <v>AllysaGrice2@gmail.com</v>
       </c>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard1</v>
+        <v>AugustineYoo2</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard1</v>
-      </c>
-      <c r="C41" s="5" t="str">
+        <v>AugustineYoo2</v>
+      </c>
+      <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard1@gmail.com</v>
+        <v>AugustineYoo2@gmail.com</v>
       </c>
       <c r="G41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BrandiSouthard2</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BrandiSouthard2</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>BrandiSouthard2@gmail.com</v>
+      </c>
+      <c r="G42" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A22:I22"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="TestChicagoCity32@gmail.com" xr:uid="{FC4C4380-D018-44C6-8680-86CBCE1CE3FD}"/>
-    <hyperlink ref="C22" r:id="rId2" display="TestChicagoCity32@gmail.com" xr:uid="{1485756C-D9B4-4A31-B49B-B6CC03417D24}"/>
-    <hyperlink ref="C2" r:id="rId3" display="TestChicagoCity32@gmail.com" xr:uid="{D0584259-0D05-4451-8803-3C5533939C59}"/>
-    <hyperlink ref="C3" r:id="rId4" display="TestChicagoCity32@gmail.com" xr:uid="{0C05C56A-0BF9-4375-B1E2-4DEC4B2DF34E}"/>
-    <hyperlink ref="C4" r:id="rId5" display="TestChicagoCity32@gmail.com" xr:uid="{611E85CD-03ED-4E28-84F1-94B5FB1816FD}"/>
-    <hyperlink ref="C5" r:id="rId6" display="TestChicagoCity32@gmail.com" xr:uid="{EBFC0D8E-55D7-4A6A-8AAE-48DF53052E64}"/>
-    <hyperlink ref="C6" r:id="rId7" display="TestChicagoCity32@gmail.com" xr:uid="{C3E122B9-71A4-4EFE-B0E6-B786F54826DE}"/>
-    <hyperlink ref="C7" r:id="rId8" display="TestChicagoCity32@gmail.com" xr:uid="{79C847B5-33DF-4D04-B6E3-94CFA47E6B26}"/>
-    <hyperlink ref="C8" r:id="rId9" display="TestChicagoCity32@gmail.com" xr:uid="{53DEE794-F994-4FDA-803A-99B8F869FDE0}"/>
-    <hyperlink ref="C9" r:id="rId10" display="TestChicagoCity32@gmail.com" xr:uid="{816D7F44-FD49-4413-8F5C-4C01132A3128}"/>
-    <hyperlink ref="C10" r:id="rId11" display="TestChicagoCity32@gmail.com" xr:uid="{96BD57BC-852C-4747-AA80-96E68AAE9F45}"/>
-    <hyperlink ref="C11" r:id="rId12" display="TestChicagoCity32@gmail.com" xr:uid="{C5F6342A-02B8-4FDF-AFF5-1B1B1EC6AB56}"/>
-    <hyperlink ref="C12" r:id="rId13" display="TestChicagoCity32@gmail.com" xr:uid="{A64705EC-6BF7-4033-B109-29E37836CAC4}"/>
-    <hyperlink ref="C13" r:id="rId14" display="TestChicagoCity32@gmail.com" xr:uid="{2719BAF3-513F-472E-B1FC-632267F01059}"/>
-    <hyperlink ref="C14" r:id="rId15" display="TestChicagoCity32@gmail.com" xr:uid="{A3435DB6-498A-42F3-B06C-B24521E470FB}"/>
-    <hyperlink ref="C15" r:id="rId16" display="TestChicagoCity32@gmail.com" xr:uid="{D5FA0BDD-744D-4872-9B90-EE261CE1EA05}"/>
-    <hyperlink ref="C16" r:id="rId17" display="TestChicagoCity32@gmail.com" xr:uid="{879F8453-291A-4C2F-BF72-2BEC70BF0278}"/>
-    <hyperlink ref="C17" r:id="rId18" display="TestChicagoCity32@gmail.com" xr:uid="{E155CC72-D4DA-4A8A-BCAF-A1F9415488CD}"/>
-    <hyperlink ref="C18" r:id="rId19" display="TestChicagoCity32@gmail.com" xr:uid="{DD29C55A-B88B-4AB9-9763-2B37EA664DBE}"/>
-    <hyperlink ref="C19" r:id="rId20" display="TestChicagoCity32@gmail.com" xr:uid="{F2F8EDF9-1555-45F7-B84A-6AAC23A2563A}"/>
-    <hyperlink ref="C20" r:id="rId21" display="TestChicagoCity32@gmail.com" xr:uid="{284AC0A7-7962-478E-93AF-3DFA7C71005F}"/>
-    <hyperlink ref="C23" r:id="rId22" display="TestChicagoCity32@gmail.com" xr:uid="{EB6024B2-5528-4E48-A495-AF707E40BA09}"/>
-    <hyperlink ref="C24" r:id="rId23" display="TestChicagoCity32@gmail.com" xr:uid="{B232FB0B-DF1D-47EA-8D37-0F3BDCB23769}"/>
-    <hyperlink ref="C25" r:id="rId24" display="TestChicagoCity32@gmail.com" xr:uid="{6B90EE22-4196-4232-BCEE-B5AA436A7F28}"/>
-    <hyperlink ref="C26" r:id="rId25" display="TestChicagoCity32@gmail.com" xr:uid="{F109DF02-5947-46F3-95A7-6BBA5BD1627F}"/>
-    <hyperlink ref="C27" r:id="rId26" display="TestChicagoCity32@gmail.com" xr:uid="{A5BFAE94-C9E7-4802-88D7-DA57C733B65D}"/>
-    <hyperlink ref="C28" r:id="rId27" display="TestChicagoCity32@gmail.com" xr:uid="{93822C5F-CC7A-41E7-84D4-83FEF8AA458B}"/>
-    <hyperlink ref="C29" r:id="rId28" display="TestChicagoCity32@gmail.com" xr:uid="{C2FE96A4-5183-458F-A66C-60732057F705}"/>
-    <hyperlink ref="C30" r:id="rId29" display="TestChicagoCity32@gmail.com" xr:uid="{A5364DD3-8157-4F7B-AC01-4333E24B2355}"/>
-    <hyperlink ref="C31" r:id="rId30" display="TestChicagoCity32@gmail.com" xr:uid="{D4F1AE3E-E01D-464D-B45F-7C920B3D19BE}"/>
-    <hyperlink ref="C32" r:id="rId31" display="TestChicagoCity32@gmail.com" xr:uid="{FCDA5CE8-84B4-4E21-BBA7-D97E998CE268}"/>
-    <hyperlink ref="C33" r:id="rId32" display="TestChicagoCity32@gmail.com" xr:uid="{DED82332-31F4-40D3-B08C-439F3DA5AD0D}"/>
-    <hyperlink ref="C34" r:id="rId33" display="TestChicagoCity32@gmail.com" xr:uid="{CF1569F9-26CD-440B-BC65-FB9B4A2AF6C4}"/>
-    <hyperlink ref="C35" r:id="rId34" display="TestChicagoCity32@gmail.com" xr:uid="{8EAB34B6-F102-46C8-9364-B019B76D9582}"/>
-    <hyperlink ref="C36" r:id="rId35" display="TestChicagoCity32@gmail.com" xr:uid="{38113B39-8B75-4C75-8445-4A3297118D3A}"/>
-    <hyperlink ref="C37" r:id="rId36" display="TestChicagoCity32@gmail.com" xr:uid="{19A434F5-AE5E-483F-B22A-8E08B4057161}"/>
-    <hyperlink ref="C38" r:id="rId37" display="TestChicagoCity32@gmail.com" xr:uid="{A1D14283-4BD7-4206-ADC2-1AC4423BD1A4}"/>
-    <hyperlink ref="C39" r:id="rId38" display="TestChicagoCity32@gmail.com" xr:uid="{7125D7A0-AE58-450D-99EC-087292F2C602}"/>
-    <hyperlink ref="C40" r:id="rId39" display="TestChicagoCity32@gmail.com" xr:uid="{E25AE049-37B5-4673-A787-B76661EF2E4A}"/>
-    <hyperlink ref="C41" r:id="rId40" display="TestChicagoCity32@gmail.com" xr:uid="{1CDBC7A4-2994-42DA-BBF4-1F52FC566FFE}"/>
+    <hyperlink ref="C2" r:id="rId1" display="TestChicagoCity32@gmail.com" xr:uid="{FC4C4380-D018-44C6-8680-86CBCE1CE3FD}"/>
+    <hyperlink ref="C23" r:id="rId2" display="TestChicagoCity32@gmail.com" xr:uid="{1485756C-D9B4-4A31-B49B-B6CC03417D24}"/>
+    <hyperlink ref="C3" r:id="rId3" display="TestChicagoCity32@gmail.com" xr:uid="{D0584259-0D05-4451-8803-3C5533939C59}"/>
+    <hyperlink ref="C4" r:id="rId4" display="TestChicagoCity32@gmail.com" xr:uid="{0C05C56A-0BF9-4375-B1E2-4DEC4B2DF34E}"/>
+    <hyperlink ref="C5" r:id="rId5" display="TestChicagoCity32@gmail.com" xr:uid="{611E85CD-03ED-4E28-84F1-94B5FB1816FD}"/>
+    <hyperlink ref="C6" r:id="rId6" display="TestChicagoCity32@gmail.com" xr:uid="{EBFC0D8E-55D7-4A6A-8AAE-48DF53052E64}"/>
+    <hyperlink ref="C7" r:id="rId7" display="TestChicagoCity32@gmail.com" xr:uid="{C3E122B9-71A4-4EFE-B0E6-B786F54826DE}"/>
+    <hyperlink ref="C8" r:id="rId8" display="TestChicagoCity32@gmail.com" xr:uid="{79C847B5-33DF-4D04-B6E3-94CFA47E6B26}"/>
+    <hyperlink ref="C9" r:id="rId9" display="TestChicagoCity32@gmail.com" xr:uid="{53DEE794-F994-4FDA-803A-99B8F869FDE0}"/>
+    <hyperlink ref="C10" r:id="rId10" display="TestChicagoCity32@gmail.com" xr:uid="{816D7F44-FD49-4413-8F5C-4C01132A3128}"/>
+    <hyperlink ref="C11" r:id="rId11" display="TestChicagoCity32@gmail.com" xr:uid="{96BD57BC-852C-4747-AA80-96E68AAE9F45}"/>
+    <hyperlink ref="C12" r:id="rId12" display="TestChicagoCity32@gmail.com" xr:uid="{C5F6342A-02B8-4FDF-AFF5-1B1B1EC6AB56}"/>
+    <hyperlink ref="C13" r:id="rId13" display="TestChicagoCity32@gmail.com" xr:uid="{A64705EC-6BF7-4033-B109-29E37836CAC4}"/>
+    <hyperlink ref="C14" r:id="rId14" display="TestChicagoCity32@gmail.com" xr:uid="{2719BAF3-513F-472E-B1FC-632267F01059}"/>
+    <hyperlink ref="C15" r:id="rId15" display="TestChicagoCity32@gmail.com" xr:uid="{A3435DB6-498A-42F3-B06C-B24521E470FB}"/>
+    <hyperlink ref="C16" r:id="rId16" display="TestChicagoCity32@gmail.com" xr:uid="{D5FA0BDD-744D-4872-9B90-EE261CE1EA05}"/>
+    <hyperlink ref="C17" r:id="rId17" display="TestChicagoCity32@gmail.com" xr:uid="{879F8453-291A-4C2F-BF72-2BEC70BF0278}"/>
+    <hyperlink ref="C18" r:id="rId18" display="TestChicagoCity32@gmail.com" xr:uid="{E155CC72-D4DA-4A8A-BCAF-A1F9415488CD}"/>
+    <hyperlink ref="C19" r:id="rId19" display="TestChicagoCity32@gmail.com" xr:uid="{DD29C55A-B88B-4AB9-9763-2B37EA664DBE}"/>
+    <hyperlink ref="C20" r:id="rId20" display="TestChicagoCity32@gmail.com" xr:uid="{F2F8EDF9-1555-45F7-B84A-6AAC23A2563A}"/>
+    <hyperlink ref="C21" r:id="rId21" display="TestChicagoCity32@gmail.com" xr:uid="{284AC0A7-7962-478E-93AF-3DFA7C71005F}"/>
+    <hyperlink ref="C24" r:id="rId22" display="TestChicagoCity32@gmail.com" xr:uid="{EB6024B2-5528-4E48-A495-AF707E40BA09}"/>
+    <hyperlink ref="C25" r:id="rId23" display="TestChicagoCity32@gmail.com" xr:uid="{B232FB0B-DF1D-47EA-8D37-0F3BDCB23769}"/>
+    <hyperlink ref="C26" r:id="rId24" display="TestChicagoCity32@gmail.com" xr:uid="{6B90EE22-4196-4232-BCEE-B5AA436A7F28}"/>
+    <hyperlink ref="C27" r:id="rId25" display="TestChicagoCity32@gmail.com" xr:uid="{F109DF02-5947-46F3-95A7-6BBA5BD1627F}"/>
+    <hyperlink ref="C28" r:id="rId26" display="TestChicagoCity32@gmail.com" xr:uid="{A5BFAE94-C9E7-4802-88D7-DA57C733B65D}"/>
+    <hyperlink ref="C29" r:id="rId27" display="TestChicagoCity32@gmail.com" xr:uid="{93822C5F-CC7A-41E7-84D4-83FEF8AA458B}"/>
+    <hyperlink ref="C30" r:id="rId28" display="TestChicagoCity32@gmail.com" xr:uid="{C2FE96A4-5183-458F-A66C-60732057F705}"/>
+    <hyperlink ref="C31" r:id="rId29" display="TestChicagoCity32@gmail.com" xr:uid="{A5364DD3-8157-4F7B-AC01-4333E24B2355}"/>
+    <hyperlink ref="C32" r:id="rId30" display="TestChicagoCity32@gmail.com" xr:uid="{D4F1AE3E-E01D-464D-B45F-7C920B3D19BE}"/>
+    <hyperlink ref="C33" r:id="rId31" display="TestChicagoCity32@gmail.com" xr:uid="{FCDA5CE8-84B4-4E21-BBA7-D97E998CE268}"/>
+    <hyperlink ref="C34" r:id="rId32" display="TestChicagoCity32@gmail.com" xr:uid="{DED82332-31F4-40D3-B08C-439F3DA5AD0D}"/>
+    <hyperlink ref="C35" r:id="rId33" display="TestChicagoCity32@gmail.com" xr:uid="{CF1569F9-26CD-440B-BC65-FB9B4A2AF6C4}"/>
+    <hyperlink ref="C36" r:id="rId34" display="TestChicagoCity32@gmail.com" xr:uid="{8EAB34B6-F102-46C8-9364-B019B76D9582}"/>
+    <hyperlink ref="C37" r:id="rId35" display="TestChicagoCity32@gmail.com" xr:uid="{38113B39-8B75-4C75-8445-4A3297118D3A}"/>
+    <hyperlink ref="C38" r:id="rId36" display="TestChicagoCity32@gmail.com" xr:uid="{19A434F5-AE5E-483F-B22A-8E08B4057161}"/>
+    <hyperlink ref="C39" r:id="rId37" display="TestChicagoCity32@gmail.com" xr:uid="{A1D14283-4BD7-4206-ADC2-1AC4423BD1A4}"/>
+    <hyperlink ref="C40" r:id="rId38" display="TestChicagoCity32@gmail.com" xr:uid="{7125D7A0-AE58-450D-99EC-087292F2C602}"/>
+    <hyperlink ref="C41" r:id="rId39" display="TestChicagoCity32@gmail.com" xr:uid="{E25AE049-37B5-4673-A787-B76661EF2E4A}"/>
+    <hyperlink ref="C42" r:id="rId40" display="TestChicagoCity32@gmail.com" xr:uid="{1CDBC7A4-2994-42DA-BBF4-1F52FC566FFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64CCA4-CD01-43FF-A409-19BC5854CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07816E0A-C3D7-4292-BDD8-B2955B1D9772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="417">
   <si>
     <t>run</t>
   </si>
@@ -322,9 +322,6 @@
     <t>58604</t>
   </si>
   <si>
-    <t>TestChicagoCity</t>
-  </si>
-  <si>
     <t>@gmail.com</t>
   </si>
   <si>
@@ -1054,244 +1051,244 @@
     <t>Order Page</t>
   </si>
   <si>
-    <t>EthanBaker2</t>
-  </si>
-  <si>
-    <t>EthanBaker2@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman2</t>
-  </si>
-  <si>
-    <t>DelanieCarman2@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew2</t>
-  </si>
-  <si>
-    <t>BretAgnew2@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor2</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor2@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis2</t>
-  </si>
-  <si>
-    <t>TyrekReis2@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow2</t>
-  </si>
-  <si>
-    <t>LeannaChow2@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson2</t>
-  </si>
-  <si>
-    <t>TuckerCarlson2@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor2</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor2@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte2</t>
-  </si>
-  <si>
-    <t>MoniqueWitte2@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock2</t>
-  </si>
-  <si>
-    <t>MikelWhitlock2@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya2</t>
-  </si>
-  <si>
-    <t>VincentAmaya2@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz2</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz2@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech2</t>
-  </si>
-  <si>
-    <t>EllisCreech2@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel2</t>
-  </si>
-  <si>
-    <t>DionteCreel2@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust2</t>
-  </si>
-  <si>
-    <t>NicholeFoust2@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell2</t>
-  </si>
-  <si>
-    <t>ManuelConnell2@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam2</t>
-  </si>
-  <si>
-    <t>LourdesElam2@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick2</t>
-  </si>
-  <si>
-    <t>LincolnFrederick2@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash2</t>
-  </si>
-  <si>
-    <t>AlisaCash2@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths2</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths2@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan2</t>
-  </si>
-  <si>
-    <t>DonnellJernigan2@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole2</t>
-  </si>
-  <si>
-    <t>MalikOtoole2@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill2</t>
-  </si>
-  <si>
-    <t>AlanCaudill2@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate2</t>
-  </si>
-  <si>
-    <t>AdanApplegate2@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth2</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth2@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien2</t>
-  </si>
-  <si>
-    <t>MercedezBrien2@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager2</t>
-  </si>
-  <si>
-    <t>DuaneHager2@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell2</t>
-  </si>
-  <si>
-    <t>LorenBell2@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller2</t>
-  </si>
-  <si>
-    <t>GeraldHiller2@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch2</t>
-  </si>
-  <si>
-    <t>DeionBranch2@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead2</t>
-  </si>
-  <si>
-    <t>DakotaHalstead2@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman2</t>
-  </si>
-  <si>
-    <t>ElliottFurman2@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp2</t>
-  </si>
-  <si>
-    <t>MiltonCamp2@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester2</t>
-  </si>
-  <si>
-    <t>DawnChester2@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie2</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie2@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel2</t>
-  </si>
-  <si>
-    <t>EstebanAngel2@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship2</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship2@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice2</t>
-  </si>
-  <si>
-    <t>AllysaGrice2@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo2</t>
-  </si>
-  <si>
-    <t>AugustineYoo2@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard2</t>
-  </si>
-  <si>
-    <t>BrandiSouthard2@gmail.com</t>
+    <t>EthanBaker3</t>
+  </si>
+  <si>
+    <t>EthanBaker3@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman3</t>
+  </si>
+  <si>
+    <t>DelanieCarman3@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew3</t>
+  </si>
+  <si>
+    <t>BretAgnew3@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor3</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor3@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis3</t>
+  </si>
+  <si>
+    <t>TyrekReis3@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow3</t>
+  </si>
+  <si>
+    <t>LeannaChow3@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson3</t>
+  </si>
+  <si>
+    <t>TuckerCarlson3@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor3</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor3@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte3</t>
+  </si>
+  <si>
+    <t>MoniqueWitte3@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock3</t>
+  </si>
+  <si>
+    <t>MikelWhitlock3@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya3</t>
+  </si>
+  <si>
+    <t>VincentAmaya3@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz3</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz3@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech3</t>
+  </si>
+  <si>
+    <t>EllisCreech3@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel3</t>
+  </si>
+  <si>
+    <t>DionteCreel3@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust3</t>
+  </si>
+  <si>
+    <t>NicholeFoust3@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell3</t>
+  </si>
+  <si>
+    <t>ManuelConnell3@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam3</t>
+  </si>
+  <si>
+    <t>LourdesElam3@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick3</t>
+  </si>
+  <si>
+    <t>LincolnFrederick3@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash3</t>
+  </si>
+  <si>
+    <t>AlisaCash3@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths3</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths3@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan3</t>
+  </si>
+  <si>
+    <t>DonnellJernigan3@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole3</t>
+  </si>
+  <si>
+    <t>MalikOtoole3@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill3</t>
+  </si>
+  <si>
+    <t>AlanCaudill3@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate3</t>
+  </si>
+  <si>
+    <t>AdanApplegate3@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth3</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth3@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien3</t>
+  </si>
+  <si>
+    <t>MercedezBrien3@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager3</t>
+  </si>
+  <si>
+    <t>DuaneHager3@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell3</t>
+  </si>
+  <si>
+    <t>LorenBell3@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller3</t>
+  </si>
+  <si>
+    <t>GeraldHiller3@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch3</t>
+  </si>
+  <si>
+    <t>DeionBranch3@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead3</t>
+  </si>
+  <si>
+    <t>DakotaHalstead3@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman3</t>
+  </si>
+  <si>
+    <t>ElliottFurman3@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp3</t>
+  </si>
+  <si>
+    <t>MiltonCamp3@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester3</t>
+  </si>
+  <si>
+    <t>DawnChester3@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie3</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie3@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel3</t>
+  </si>
+  <si>
+    <t>EstebanAngel3@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship3</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship3@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice3</t>
+  </si>
+  <si>
+    <t>AllysaGrice3@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo3</t>
+  </si>
+  <si>
+    <t>AugustineYoo3@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard3</t>
+  </si>
+  <si>
+    <t>BrandiSouthard3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1525,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1618,6 +1615,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2042,13 +2042,13 @@
         <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -2085,13 +2085,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>48</v>
@@ -2127,13 +2127,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -2169,13 +2169,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>48</v>
@@ -2211,13 +2211,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
@@ -2253,13 +2253,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>48</v>
@@ -2295,13 +2295,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
@@ -2337,13 +2337,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>48</v>
@@ -2379,13 +2379,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
@@ -2421,13 +2421,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>48</v>
@@ -2463,13 +2463,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
@@ -2505,13 +2505,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>48</v>
@@ -2547,13 +2547,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
@@ -2589,13 +2589,13 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>48</v>
@@ -2631,13 +2631,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>30</v>
@@ -2673,13 +2673,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>48</v>
@@ -2715,13 +2715,13 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>48</v>
@@ -2757,13 +2757,13 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>48</v>
@@ -2799,13 +2799,13 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>48</v>
@@ -2841,13 +2841,13 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>377</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>48</v>
@@ -2906,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2930,23 +2930,22 @@
     <col min="15" max="15" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="6" style="13"/>
+    <col min="18" max="19" width="16.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="6" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2998,48 +2997,47 @@
       <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="S1" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="W1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3050,37 +3048,37 @@
         <v>66</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="20">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>27</v>
@@ -3092,50 +3090,47 @@
         <v>67</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>94</v>
+        <v>377</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="T2" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="Y2" s="14" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="16"/>
-    </row>
-    <row r="3" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF2" s="16"/>
+    </row>
+    <row r="3" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -3146,34 +3141,34 @@
         <v>66</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="20">
         <v>2</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>54</v>
@@ -3187,49 +3182,48 @@
       <c r="Q3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="14" t="s">
+        <v>379</v>
+      </c>
       <c r="S3" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>154</v>
+      <c r="U3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="14" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AD3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AG3" s="16"/>
-    </row>
-    <row r="4" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF3" s="16"/>
+    </row>
+    <row r="4" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3240,37 +3234,37 @@
         <v>66</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="20">
         <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>258</v>
-      </c>
       <c r="I4" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O4" s="20" t="s">
         <v>27</v>
@@ -3281,49 +3275,48 @@
       <c r="Q4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="21"/>
+      <c r="R4" s="14" t="s">
+        <v>381</v>
+      </c>
       <c r="S4" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T4" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>154</v>
+      <c r="U4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AD4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AG4" s="16"/>
-    </row>
-    <row r="5" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF4" s="16"/>
+    </row>
+    <row r="5" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
@@ -3334,34 +3327,34 @@
         <v>66</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="20">
         <v>2</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>54</v>
@@ -3375,49 +3368,48 @@
       <c r="Q5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="21"/>
+      <c r="R5" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="S5" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="T5" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>154</v>
+      <c r="U5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AD5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AG5" s="16"/>
-    </row>
-    <row r="6" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF5" s="16"/>
+    </row>
+    <row r="6" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -3428,37 +3420,37 @@
         <v>66</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="20">
         <v>1</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O6" s="20" t="s">
         <v>27</v>
@@ -3469,49 +3461,48 @@
       <c r="Q6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="14" t="s">
+        <v>385</v>
+      </c>
       <c r="S6" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="T6" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>154</v>
+      <c r="U6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AD6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AG6" s="16"/>
-    </row>
-    <row r="7" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF6" s="16"/>
+    </row>
+    <row r="7" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3522,34 +3513,34 @@
         <v>66</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="20">
         <v>2</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="I7" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>54</v>
@@ -3563,49 +3554,48 @@
       <c r="Q7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="21"/>
+      <c r="R7" s="14" t="s">
+        <v>387</v>
+      </c>
       <c r="S7" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="T7" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="U7" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="V7" s="15" t="s">
-        <v>154</v>
+      <c r="U7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AD7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AG7" s="16"/>
-    </row>
-    <row r="8" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3616,37 +3606,37 @@
         <v>66</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>266</v>
-      </c>
       <c r="I8" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O8" s="20" t="s">
         <v>27</v>
@@ -3657,49 +3647,48 @@
       <c r="Q8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="21"/>
+      <c r="R8" s="14" t="s">
+        <v>389</v>
+      </c>
       <c r="S8" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="T8" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="T8" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="U8" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>154</v>
+      <c r="U8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AD8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="16"/>
-    </row>
-    <row r="9" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF8" s="16"/>
+    </row>
+    <row r="9" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
@@ -3710,34 +3699,34 @@
         <v>66</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20">
         <v>2</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>268</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>54</v>
@@ -3751,49 +3740,48 @@
       <c r="Q9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="21"/>
+      <c r="R9" s="14" t="s">
+        <v>391</v>
+      </c>
       <c r="S9" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="T9" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="U9" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>154</v>
+      <c r="U9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="16"/>
-    </row>
-    <row r="10" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
@@ -3804,37 +3792,37 @@
         <v>66</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>270</v>
-      </c>
       <c r="I10" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O10" s="20" t="s">
         <v>27</v>
@@ -3845,49 +3833,48 @@
       <c r="Q10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="21"/>
+      <c r="R10" s="14" t="s">
+        <v>393</v>
+      </c>
       <c r="S10" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="T10" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="T10" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>154</v>
+      <c r="U10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AG10" s="16"/>
-    </row>
-    <row r="11" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF10" s="16"/>
+    </row>
+    <row r="11" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>1</v>
       </c>
@@ -3898,34 +3885,34 @@
         <v>66</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="20">
         <v>2</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="I11" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>54</v>
@@ -3939,49 +3926,48 @@
       <c r="Q11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="21"/>
+      <c r="R11" s="14" t="s">
+        <v>395</v>
+      </c>
       <c r="S11" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="T11" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="T11" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="U11" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>154</v>
+      <c r="U11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AA11" s="14" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AB11" s="14" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AD11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AG11" s="16"/>
-    </row>
-    <row r="12" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF11" s="16"/>
+    </row>
+    <row r="12" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>1</v>
       </c>
@@ -3992,37 +3978,37 @@
         <v>66</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="20">
         <v>1</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O12" s="20" t="s">
         <v>27</v>
@@ -4033,49 +4019,48 @@
       <c r="Q12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="21"/>
+      <c r="R12" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="S12" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="T12" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>154</v>
+      <c r="U12" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AB12" s="14" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AD12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AG12" s="16"/>
-    </row>
-    <row r="13" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF12" s="16"/>
+    </row>
+    <row r="13" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>1</v>
       </c>
@@ -4086,34 +4071,34 @@
         <v>66</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="20">
         <v>2</v>
       </c>
       <c r="G13" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>276</v>
-      </c>
       <c r="I13" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>54</v>
@@ -4127,49 +4112,48 @@
       <c r="Q13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="21"/>
+      <c r="R13" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="S13" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="T13" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="V13" s="15" t="s">
-        <v>154</v>
+      <c r="U13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="X13" s="14" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="AB13" s="14" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE13" s="20" t="s">
+      <c r="AD13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AG13" s="16"/>
-    </row>
-    <row r="14" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF13" s="16"/>
+    </row>
+    <row r="14" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
@@ -4180,37 +4164,37 @@
         <v>66</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="20">
         <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>278</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J14" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="N14" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O14" s="20" t="s">
         <v>27</v>
@@ -4221,49 +4205,48 @@
       <c r="Q14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="21"/>
+      <c r="R14" s="14" t="s">
+        <v>401</v>
+      </c>
       <c r="S14" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="T14" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="U14" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="V14" s="15" t="s">
-        <v>154</v>
+      <c r="U14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="X14" s="14" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="Z14" s="14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AA14" s="14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AD14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AG14" s="16"/>
-    </row>
-    <row r="15" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF14" s="16"/>
+    </row>
+    <row r="15" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4274,34 +4257,34 @@
         <v>66</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="20">
         <v>2</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="I15" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>54</v>
@@ -4315,49 +4298,48 @@
       <c r="Q15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="21"/>
+      <c r="R15" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="S15" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="T15" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="T15" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="U15" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="V15" s="15" t="s">
-        <v>154</v>
+      <c r="U15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE15" s="20" t="s">
+      <c r="AD15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AG15" s="16"/>
-    </row>
-    <row r="16" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF15" s="16"/>
+    </row>
+    <row r="16" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>1</v>
       </c>
@@ -4368,37 +4350,37 @@
         <v>66</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>282</v>
-      </c>
       <c r="I16" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J16" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="N16" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O16" s="20" t="s">
         <v>27</v>
@@ -4409,49 +4391,48 @@
       <c r="Q16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R16" s="21"/>
+      <c r="R16" s="14" t="s">
+        <v>405</v>
+      </c>
       <c r="S16" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="T16" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="T16" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="V16" s="15" t="s">
-        <v>154</v>
+      <c r="U16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AD16" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AG16" s="16"/>
-    </row>
-    <row r="17" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF16" s="16"/>
+    </row>
+    <row r="17" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>1</v>
       </c>
@@ -4462,34 +4443,34 @@
         <v>66</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="20">
         <v>2</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>54</v>
@@ -4503,48 +4484,47 @@
       <c r="Q17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R17" s="21"/>
+      <c r="R17" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="S17" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="T17" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="U17" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="V17" s="15" t="s">
-        <v>154</v>
+      <c r="U17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE17" s="20" t="s">
+      <c r="AD17" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -4555,37 +4535,37 @@
         <v>66</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="I18" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O18" s="20" t="s">
         <v>27</v>
@@ -4596,48 +4576,47 @@
       <c r="Q18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R18" s="21"/>
+      <c r="R18" s="14" t="s">
+        <v>409</v>
+      </c>
       <c r="S18" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="T18" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="T18" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="U18" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="V18" s="15" t="s">
-        <v>154</v>
+      <c r="U18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="X18" s="14" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="AA18" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="20" t="s">
+      <c r="AD18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>1</v>
       </c>
@@ -4648,34 +4627,34 @@
         <v>66</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="20">
         <v>2</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>288</v>
-      </c>
       <c r="I19" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>54</v>
@@ -4689,48 +4668,47 @@
       <c r="Q19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="21"/>
+      <c r="R19" s="14" t="s">
+        <v>411</v>
+      </c>
       <c r="S19" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="T19" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="T19" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="U19" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>154</v>
+      <c r="U19" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB19" s="14" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE19" s="20" t="s">
+      <c r="AD19" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>1</v>
       </c>
@@ -4741,37 +4719,37 @@
         <v>66</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="20">
         <v>1</v>
       </c>
       <c r="G20" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="I20" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="N20" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O20" s="20" t="s">
         <v>27</v>
@@ -4782,48 +4760,47 @@
       <c r="Q20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R20" s="21"/>
+      <c r="R20" s="14" t="s">
+        <v>413</v>
+      </c>
       <c r="S20" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="T20" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="T20" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>154</v>
+      <c r="U20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE20" s="20" t="s">
+      <c r="AD20" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>1</v>
       </c>
@@ -4834,37 +4811,37 @@
         <v>66</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="20">
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>292</v>
-      </c>
       <c r="I21" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="N21" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O21" s="20" t="s">
         <v>27</v>
@@ -4875,18 +4852,20 @@
       <c r="Q21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="19"/>
+      <c r="R21" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="S21" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="T21" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="T21" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="V21" s="15" t="s">
-        <v>154</v>
+      <c r="U21" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="W21" s="14" t="s">
         <v>330</v>
@@ -4895,25 +4874,22 @@
         <v>331</v>
       </c>
       <c r="Y21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z21" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="Z21" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="AA21" s="14" t="s">
         <v>333</v>
       </c>
       <c r="AB21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD21" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="AC21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE21" s="20" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4938,9 +4914,10 @@
     <hyperlink ref="Q15" r:id="rId17" xr:uid="{BF8B9E50-D5D0-4CEE-BF35-53BCE6780839}"/>
     <hyperlink ref="Q17" r:id="rId18" xr:uid="{89DB1F82-ED86-4ED4-8DF3-FACD814A2A2D}"/>
     <hyperlink ref="Q19" r:id="rId19" xr:uid="{7AC0AAFA-1B43-4D89-8BC6-165533773A6C}"/>
-    <hyperlink ref="U2" r:id="rId20" display="TestChicagoCity32@gmail.com" xr:uid="{2B7B6198-44E5-477D-9A1A-30CD23CAECCC}"/>
-    <hyperlink ref="U3:U20" r:id="rId21" display="TestChicagoCity32@gmail.com" xr:uid="{0266958A-8D9B-434C-A7AB-780D430438ED}"/>
+    <hyperlink ref="T2" r:id="rId20" display="TestChicagoCity32@gmail.com" xr:uid="{2B7B6198-44E5-477D-9A1A-30CD23CAECCC}"/>
+    <hyperlink ref="T3:T20" r:id="rId21" display="TestChicagoCity32@gmail.com" xr:uid="{0266958A-8D9B-434C-A7AB-780D430438ED}"/>
     <hyperlink ref="Q21" r:id="rId22" xr:uid="{D66F94BC-AAB9-4A49-B96C-10099890CB07}"/>
+    <hyperlink ref="T21" r:id="rId23" xr:uid="{26E8F16F-6008-4850-88E4-700D1B44B60C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4950,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C42"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4965,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -4979,352 +4956,352 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker2</v>
+        <v>EthanBaker3</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker2</v>
+        <v>EthanBaker3</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker2@gmail.com</v>
+        <v>EthanBaker3@gmail.com</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman2</v>
+        <v>DelanieCarman3</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman2</v>
+        <v>DelanieCarman3</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman2@gmail.com</v>
+        <v>DelanieCarman3@gmail.com</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew2</v>
+        <v>BretAgnew3</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew2</v>
+        <v>BretAgnew3</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew2@gmail.com</v>
+        <v>BretAgnew3@gmail.com</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor2</v>
+        <v>EdgardoTaylor3</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor2</v>
+        <v>EdgardoTaylor3</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor2@gmail.com</v>
+        <v>EdgardoTaylor3@gmail.com</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis2</v>
+        <v>TyrekReis3</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis2</v>
+        <v>TyrekReis3</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis2@gmail.com</v>
+        <v>TyrekReis3@gmail.com</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow2</v>
+        <v>LeannaChow3</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow2</v>
+        <v>LeannaChow3</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow2@gmail.com</v>
+        <v>LeannaChow3@gmail.com</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson2</v>
+        <v>TuckerCarlson3</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson2</v>
+        <v>TuckerCarlson3</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson2@gmail.com</v>
+        <v>TuckerCarlson3@gmail.com</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor2</v>
+        <v>AnnmarieConnor3</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor2</v>
+        <v>AnnmarieConnor3</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor2@gmail.com</v>
+        <v>AnnmarieConnor3@gmail.com</v>
       </c>
       <c r="G9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte2</v>
+        <v>MoniqueWitte3</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte2</v>
+        <v>MoniqueWitte3</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte2@gmail.com</v>
+        <v>MoniqueWitte3@gmail.com</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock2</v>
+        <v>MikelWhitlock3</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock2</v>
+        <v>MikelWhitlock3</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock2@gmail.com</v>
+        <v>MikelWhitlock3@gmail.com</v>
       </c>
       <c r="G11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya2</v>
+        <v>VincentAmaya3</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya2</v>
+        <v>VincentAmaya3</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya2@gmail.com</v>
+        <v>VincentAmaya3@gmail.com</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz2</v>
+        <v>KeiraQuiroz3</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz2</v>
+        <v>KeiraQuiroz3</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz2@gmail.com</v>
+        <v>KeiraQuiroz3@gmail.com</v>
       </c>
       <c r="G13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech2</v>
+        <v>EllisCreech3</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech2</v>
+        <v>EllisCreech3</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech2@gmail.com</v>
+        <v>EllisCreech3@gmail.com</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel2</v>
+        <v>DionteCreel3</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel2</v>
+        <v>DionteCreel3</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel2@gmail.com</v>
+        <v>DionteCreel3@gmail.com</v>
       </c>
       <c r="G15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust2</v>
+        <v>NicholeFoust3</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust2</v>
+        <v>NicholeFoust3</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust2@gmail.com</v>
+        <v>NicholeFoust3@gmail.com</v>
       </c>
       <c r="G16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell2</v>
+        <v>ManuelConnell3</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell2</v>
+        <v>ManuelConnell3</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell2@gmail.com</v>
+        <v>ManuelConnell3@gmail.com</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam2</v>
+        <v>LourdesElam3</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam2</v>
+        <v>LourdesElam3</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam2@gmail.com</v>
+        <v>LourdesElam3@gmail.com</v>
       </c>
       <c r="G18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick2</v>
+        <v>LincolnFrederick3</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick2</v>
+        <v>LincolnFrederick3</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick2@gmail.com</v>
+        <v>LincolnFrederick3@gmail.com</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash2</v>
+        <v>AlisaCash3</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash2</v>
+        <v>AlisaCash3</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash2@gmail.com</v>
+        <v>AlisaCash3@gmail.com</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths2</v>
+        <v>LucilleGriffiths3</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths2</v>
+        <v>LucilleGriffiths3</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths2@gmail.com</v>
+        <v>LucilleGriffiths3@gmail.com</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -5338,347 +5315,347 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan2</v>
+        <v>DonnellJernigan3</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan2</v>
+        <v>DonnellJernigan3</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan2@gmail.com</v>
+        <v>DonnellJernigan3@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole2</v>
+        <v>MalikOtoole3</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole2</v>
+        <v>MalikOtoole3</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole2@gmail.com</v>
+        <v>MalikOtoole3@gmail.com</v>
       </c>
       <c r="G24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill2</v>
+        <v>AlanCaudill3</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill2</v>
+        <v>AlanCaudill3</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill2@gmail.com</v>
+        <v>AlanCaudill3@gmail.com</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate2</v>
+        <v>AdanApplegate3</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate2</v>
+        <v>AdanApplegate3</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate2@gmail.com</v>
+        <v>AdanApplegate3@gmail.com</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth2</v>
+        <v>AiyanaWhitworth3</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth2</v>
+        <v>AiyanaWhitworth3</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth2@gmail.com</v>
+        <v>AiyanaWhitworth3@gmail.com</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien2</v>
+        <v>MercedezBrien3</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien2</v>
+        <v>MercedezBrien3</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien2@gmail.com</v>
+        <v>MercedezBrien3@gmail.com</v>
       </c>
       <c r="G28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager2</v>
+        <v>DuaneHager3</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager2</v>
+        <v>DuaneHager3</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager2@gmail.com</v>
+        <v>DuaneHager3@gmail.com</v>
       </c>
       <c r="G29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell2</v>
+        <v>LorenBell3</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell2</v>
+        <v>LorenBell3</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell2@gmail.com</v>
+        <v>LorenBell3@gmail.com</v>
       </c>
       <c r="G30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller2</v>
+        <v>GeraldHiller3</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller2</v>
+        <v>GeraldHiller3</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller2@gmail.com</v>
+        <v>GeraldHiller3@gmail.com</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch2</v>
+        <v>DeionBranch3</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch2</v>
+        <v>DeionBranch3</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch2@gmail.com</v>
+        <v>DeionBranch3@gmail.com</v>
       </c>
       <c r="G32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead2</v>
+        <v>DakotaHalstead3</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead2</v>
+        <v>DakotaHalstead3</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead2@gmail.com</v>
+        <v>DakotaHalstead3@gmail.com</v>
       </c>
       <c r="G33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman2</v>
+        <v>ElliottFurman3</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman2</v>
+        <v>ElliottFurman3</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman2@gmail.com</v>
+        <v>ElliottFurman3@gmail.com</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp2</v>
+        <v>MiltonCamp3</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp2</v>
+        <v>MiltonCamp3</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp2@gmail.com</v>
+        <v>MiltonCamp3@gmail.com</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester2</v>
+        <v>DawnChester3</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester2</v>
+        <v>DawnChester3</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester2@gmail.com</v>
+        <v>DawnChester3@gmail.com</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie2</v>
+        <v>ZacheryPetrie3</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie2</v>
+        <v>ZacheryPetrie3</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie2@gmail.com</v>
+        <v>ZacheryPetrie3@gmail.com</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel2</v>
+        <v>EstebanAngel3</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel2</v>
+        <v>EstebanAngel3</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel2@gmail.com</v>
+        <v>EstebanAngel3@gmail.com</v>
       </c>
       <c r="G38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship2</v>
+        <v>JimmyBlankenship3</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship2</v>
+        <v>JimmyBlankenship3</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship2@gmail.com</v>
+        <v>JimmyBlankenship3@gmail.com</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice2</v>
+        <v>AllysaGrice3</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice2</v>
+        <v>AllysaGrice3</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice2@gmail.com</v>
+        <v>AllysaGrice3@gmail.com</v>
       </c>
       <c r="G40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo2</v>
+        <v>AugustineYoo3</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo2</v>
+        <v>AugustineYoo3</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo2@gmail.com</v>
+        <v>AugustineYoo3@gmail.com</v>
       </c>
       <c r="G41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard2</v>
+        <v>BrandiSouthard3</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard2</v>
+        <v>BrandiSouthard3</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard2@gmail.com</v>
+        <v>BrandiSouthard3@gmail.com</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07816E0A-C3D7-4292-BDD8-B2955B1D9772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BE905-F765-4618-9CED-FB123BA8D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1051,244 +1051,244 @@
     <t>Order Page</t>
   </si>
   <si>
-    <t>EthanBaker3</t>
-  </si>
-  <si>
-    <t>EthanBaker3@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman3</t>
-  </si>
-  <si>
-    <t>DelanieCarman3@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew3</t>
-  </si>
-  <si>
-    <t>BretAgnew3@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor3</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor3@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis3</t>
-  </si>
-  <si>
-    <t>TyrekReis3@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow3</t>
-  </si>
-  <si>
-    <t>LeannaChow3@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson3</t>
-  </si>
-  <si>
-    <t>TuckerCarlson3@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor3</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor3@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte3</t>
-  </si>
-  <si>
-    <t>MoniqueWitte3@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock3</t>
-  </si>
-  <si>
-    <t>MikelWhitlock3@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya3</t>
-  </si>
-  <si>
-    <t>VincentAmaya3@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz3</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz3@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech3</t>
-  </si>
-  <si>
-    <t>EllisCreech3@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel3</t>
-  </si>
-  <si>
-    <t>DionteCreel3@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust3</t>
-  </si>
-  <si>
-    <t>NicholeFoust3@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell3</t>
-  </si>
-  <si>
-    <t>ManuelConnell3@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam3</t>
-  </si>
-  <si>
-    <t>LourdesElam3@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick3</t>
-  </si>
-  <si>
-    <t>LincolnFrederick3@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash3</t>
-  </si>
-  <si>
-    <t>AlisaCash3@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths3</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths3@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan3</t>
-  </si>
-  <si>
-    <t>DonnellJernigan3@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole3</t>
-  </si>
-  <si>
-    <t>MalikOtoole3@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill3</t>
-  </si>
-  <si>
-    <t>AlanCaudill3@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate3</t>
-  </si>
-  <si>
-    <t>AdanApplegate3@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth3</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth3@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien3</t>
-  </si>
-  <si>
-    <t>MercedezBrien3@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager3</t>
-  </si>
-  <si>
-    <t>DuaneHager3@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell3</t>
-  </si>
-  <si>
-    <t>LorenBell3@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller3</t>
-  </si>
-  <si>
-    <t>GeraldHiller3@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch3</t>
-  </si>
-  <si>
-    <t>DeionBranch3@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead3</t>
-  </si>
-  <si>
-    <t>DakotaHalstead3@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman3</t>
-  </si>
-  <si>
-    <t>ElliottFurman3@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp3</t>
-  </si>
-  <si>
-    <t>MiltonCamp3@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester3</t>
-  </si>
-  <si>
-    <t>DawnChester3@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie3</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie3@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel3</t>
-  </si>
-  <si>
-    <t>EstebanAngel3@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship3</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship3@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice3</t>
-  </si>
-  <si>
-    <t>AllysaGrice3@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo3</t>
-  </si>
-  <si>
-    <t>AugustineYoo3@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard3</t>
-  </si>
-  <si>
-    <t>BrandiSouthard3@gmail.com</t>
+    <t>EthanBaker4</t>
+  </si>
+  <si>
+    <t>EthanBaker4@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman4</t>
+  </si>
+  <si>
+    <t>DelanieCarman4@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew4</t>
+  </si>
+  <si>
+    <t>BretAgnew4@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor4</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor4@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis4</t>
+  </si>
+  <si>
+    <t>TyrekReis4@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow4</t>
+  </si>
+  <si>
+    <t>LeannaChow4@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson4</t>
+  </si>
+  <si>
+    <t>TuckerCarlson4@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor4</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor4@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte4</t>
+  </si>
+  <si>
+    <t>MoniqueWitte4@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock4</t>
+  </si>
+  <si>
+    <t>MikelWhitlock4@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya4</t>
+  </si>
+  <si>
+    <t>VincentAmaya4@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz4</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz4@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech4</t>
+  </si>
+  <si>
+    <t>EllisCreech4@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel4</t>
+  </si>
+  <si>
+    <t>DionteCreel4@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust4</t>
+  </si>
+  <si>
+    <t>NicholeFoust4@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell4</t>
+  </si>
+  <si>
+    <t>ManuelConnell4@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam4</t>
+  </si>
+  <si>
+    <t>LourdesElam4@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick4</t>
+  </si>
+  <si>
+    <t>LincolnFrederick4@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash4</t>
+  </si>
+  <si>
+    <t>AlisaCash4@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths4</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths4@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan4</t>
+  </si>
+  <si>
+    <t>DonnellJernigan4@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole4</t>
+  </si>
+  <si>
+    <t>MalikOtoole4@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill4</t>
+  </si>
+  <si>
+    <t>AlanCaudill4@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate4</t>
+  </si>
+  <si>
+    <t>AdanApplegate4@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth4</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth4@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien4</t>
+  </si>
+  <si>
+    <t>MercedezBrien4@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager4</t>
+  </si>
+  <si>
+    <t>DuaneHager4@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell4</t>
+  </si>
+  <si>
+    <t>LorenBell4@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller4</t>
+  </si>
+  <si>
+    <t>GeraldHiller4@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch4</t>
+  </si>
+  <si>
+    <t>DeionBranch4@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead4</t>
+  </si>
+  <si>
+    <t>DakotaHalstead4@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman4</t>
+  </si>
+  <si>
+    <t>ElliottFurman4@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp4</t>
+  </si>
+  <si>
+    <t>MiltonCamp4@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester4</t>
+  </si>
+  <si>
+    <t>DawnChester4@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie4</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie4@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel4</t>
+  </si>
+  <si>
+    <t>EstebanAngel4@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship4</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship4@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice4</t>
+  </si>
+  <si>
+    <t>AllysaGrice4@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo4</t>
+  </si>
+  <si>
+    <t>AugustineYoo4@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard4</t>
+  </si>
+  <si>
+    <t>BrandiSouthard4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1593,6 +1593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1615,9 +1618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1959,7 +1959,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2908,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4858,7 +4858,7 @@
       <c r="S21" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="T21" s="33" t="s">
+      <c r="T21" s="25" t="s">
         <v>416</v>
       </c>
       <c r="U21" s="15" t="s">
@@ -4917,7 +4917,7 @@
     <hyperlink ref="T2" r:id="rId20" display="TestChicagoCity32@gmail.com" xr:uid="{2B7B6198-44E5-477D-9A1A-30CD23CAECCC}"/>
     <hyperlink ref="T3:T20" r:id="rId21" display="TestChicagoCity32@gmail.com" xr:uid="{0266958A-8D9B-434C-A7AB-780D430438ED}"/>
     <hyperlink ref="Q21" r:id="rId22" xr:uid="{D66F94BC-AAB9-4A49-B96C-10099890CB07}"/>
-    <hyperlink ref="T21" r:id="rId23" xr:uid="{26E8F16F-6008-4850-88E4-700D1B44B60C}"/>
+    <hyperlink ref="T21" r:id="rId23" display="BrandiSouthard3@gmail.com" xr:uid="{26E8F16F-6008-4850-88E4-700D1B44B60C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4927,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4941,30 +4941,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker3</v>
+        <v>EthanBaker4</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker3</v>
+        <v>EthanBaker4</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker3@gmail.com</v>
+        <v>EthanBaker4@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>192</v>
@@ -4973,21 +4973,21 @@
         <v>94</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman3</v>
+        <v>DelanieCarman4</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman3</v>
+        <v>DelanieCarman4</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman3@gmail.com</v>
+        <v>DelanieCarman4@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>193</v>
@@ -4996,15 +4996,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew3</v>
+        <v>BretAgnew4</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew3</v>
+        <v>BretAgnew4</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew3@gmail.com</v>
+        <v>BretAgnew4@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>194</v>
@@ -5013,15 +5013,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor3</v>
+        <v>EdgardoTaylor4</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor3</v>
+        <v>EdgardoTaylor4</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor3@gmail.com</v>
+        <v>EdgardoTaylor4@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>195</v>
@@ -5030,15 +5030,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis3</v>
+        <v>TyrekReis4</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis3</v>
+        <v>TyrekReis4</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis3@gmail.com</v>
+        <v>TyrekReis4@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>196</v>
@@ -5047,15 +5047,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow3</v>
+        <v>LeannaChow4</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow3</v>
+        <v>LeannaChow4</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow3@gmail.com</v>
+        <v>LeannaChow4@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>197</v>
@@ -5064,15 +5064,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson3</v>
+        <v>TuckerCarlson4</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson3</v>
+        <v>TuckerCarlson4</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson3@gmail.com</v>
+        <v>TuckerCarlson4@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>198</v>
@@ -5081,15 +5081,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor3</v>
+        <v>AnnmarieConnor4</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor3</v>
+        <v>AnnmarieConnor4</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor3@gmail.com</v>
+        <v>AnnmarieConnor4@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>199</v>
@@ -5098,15 +5098,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte3</v>
+        <v>MoniqueWitte4</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte3</v>
+        <v>MoniqueWitte4</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte3@gmail.com</v>
+        <v>MoniqueWitte4@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>200</v>
@@ -5115,15 +5115,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock3</v>
+        <v>MikelWhitlock4</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock3</v>
+        <v>MikelWhitlock4</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock3@gmail.com</v>
+        <v>MikelWhitlock4@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>201</v>
@@ -5132,15 +5132,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya3</v>
+        <v>VincentAmaya4</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya3</v>
+        <v>VincentAmaya4</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya3@gmail.com</v>
+        <v>VincentAmaya4@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>202</v>
@@ -5149,15 +5149,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz3</v>
+        <v>KeiraQuiroz4</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz3</v>
+        <v>KeiraQuiroz4</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz3@gmail.com</v>
+        <v>KeiraQuiroz4@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>203</v>
@@ -5166,15 +5166,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech3</v>
+        <v>EllisCreech4</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech3</v>
+        <v>EllisCreech4</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech3@gmail.com</v>
+        <v>EllisCreech4@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>204</v>
@@ -5183,15 +5183,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel3</v>
+        <v>DionteCreel4</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel3</v>
+        <v>DionteCreel4</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel3@gmail.com</v>
+        <v>DionteCreel4@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>205</v>
@@ -5200,15 +5200,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust3</v>
+        <v>NicholeFoust4</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust3</v>
+        <v>NicholeFoust4</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust3@gmail.com</v>
+        <v>NicholeFoust4@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>206</v>
@@ -5217,15 +5217,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell3</v>
+        <v>ManuelConnell4</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell3</v>
+        <v>ManuelConnell4</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell3@gmail.com</v>
+        <v>ManuelConnell4@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>207</v>
@@ -5234,15 +5234,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam3</v>
+        <v>LourdesElam4</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam3</v>
+        <v>LourdesElam4</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam3@gmail.com</v>
+        <v>LourdesElam4@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>208</v>
@@ -5251,15 +5251,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick3</v>
+        <v>LincolnFrederick4</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick3</v>
+        <v>LincolnFrederick4</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick3@gmail.com</v>
+        <v>LincolnFrederick4@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>209</v>
@@ -5268,15 +5268,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash3</v>
+        <v>AlisaCash4</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash3</v>
+        <v>AlisaCash4</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash3@gmail.com</v>
+        <v>AlisaCash4@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>210</v>
@@ -5285,45 +5285,45 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths3</v>
+        <v>LucilleGriffiths4</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths3</v>
+        <v>LucilleGriffiths4</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths3@gmail.com</v>
+        <v>LucilleGriffiths4@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan3</v>
+        <v>DonnellJernigan4</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan3</v>
+        <v>DonnellJernigan4</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan3@gmail.com</v>
+        <v>DonnellJernigan4@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>212</v>
@@ -5332,21 +5332,21 @@
         <v>94</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole3</v>
+        <v>MalikOtoole4</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole3</v>
+        <v>MalikOtoole4</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole3@gmail.com</v>
+        <v>MalikOtoole4@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>213</v>
@@ -5355,15 +5355,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill3</v>
+        <v>AlanCaudill4</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill3</v>
+        <v>AlanCaudill4</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill3@gmail.com</v>
+        <v>AlanCaudill4@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>214</v>
@@ -5372,15 +5372,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate3</v>
+        <v>AdanApplegate4</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate3</v>
+        <v>AdanApplegate4</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate3@gmail.com</v>
+        <v>AdanApplegate4@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>215</v>
@@ -5389,15 +5389,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth3</v>
+        <v>AiyanaWhitworth4</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth3</v>
+        <v>AiyanaWhitworth4</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth3@gmail.com</v>
+        <v>AiyanaWhitworth4@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>216</v>
@@ -5406,15 +5406,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien3</v>
+        <v>MercedezBrien4</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien3</v>
+        <v>MercedezBrien4</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien3@gmail.com</v>
+        <v>MercedezBrien4@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>217</v>
@@ -5423,15 +5423,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager3</v>
+        <v>DuaneHager4</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager3</v>
+        <v>DuaneHager4</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager3@gmail.com</v>
+        <v>DuaneHager4@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>218</v>
@@ -5440,15 +5440,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell3</v>
+        <v>LorenBell4</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell3</v>
+        <v>LorenBell4</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell3@gmail.com</v>
+        <v>LorenBell4@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>219</v>
@@ -5457,15 +5457,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller3</v>
+        <v>GeraldHiller4</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller3</v>
+        <v>GeraldHiller4</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller3@gmail.com</v>
+        <v>GeraldHiller4@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>220</v>
@@ -5474,15 +5474,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch3</v>
+        <v>DeionBranch4</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch3</v>
+        <v>DeionBranch4</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch3@gmail.com</v>
+        <v>DeionBranch4@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>221</v>
@@ -5491,15 +5491,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead3</v>
+        <v>DakotaHalstead4</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead3</v>
+        <v>DakotaHalstead4</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead3@gmail.com</v>
+        <v>DakotaHalstead4@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>222</v>
@@ -5508,15 +5508,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman3</v>
+        <v>ElliottFurman4</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman3</v>
+        <v>ElliottFurman4</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman3@gmail.com</v>
+        <v>ElliottFurman4@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>223</v>
@@ -5525,15 +5525,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp3</v>
+        <v>MiltonCamp4</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp3</v>
+        <v>MiltonCamp4</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp3@gmail.com</v>
+        <v>MiltonCamp4@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>224</v>
@@ -5542,15 +5542,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester3</v>
+        <v>DawnChester4</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester3</v>
+        <v>DawnChester4</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester3@gmail.com</v>
+        <v>DawnChester4@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>225</v>
@@ -5559,15 +5559,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie3</v>
+        <v>ZacheryPetrie4</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie3</v>
+        <v>ZacheryPetrie4</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie3@gmail.com</v>
+        <v>ZacheryPetrie4@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>226</v>
@@ -5576,15 +5576,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel3</v>
+        <v>EstebanAngel4</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel3</v>
+        <v>EstebanAngel4</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel3@gmail.com</v>
+        <v>EstebanAngel4@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>227</v>
@@ -5593,15 +5593,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship3</v>
+        <v>JimmyBlankenship4</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship3</v>
+        <v>JimmyBlankenship4</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship3@gmail.com</v>
+        <v>JimmyBlankenship4@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>228</v>
@@ -5610,15 +5610,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice3</v>
+        <v>AllysaGrice4</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice3</v>
+        <v>AllysaGrice4</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice3@gmail.com</v>
+        <v>AllysaGrice4@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>229</v>
@@ -5627,15 +5627,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo3</v>
+        <v>AugustineYoo4</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo3</v>
+        <v>AugustineYoo4</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo3@gmail.com</v>
+        <v>AugustineYoo4@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>230</v>
@@ -5644,15 +5644,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard3</v>
+        <v>BrandiSouthard4</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard3</v>
+        <v>BrandiSouthard4</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard3@gmail.com</v>
+        <v>BrandiSouthard4@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>231</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BE905-F765-4618-9CED-FB123BA8D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8E61B6-83BE-446A-8D52-E7C409B2CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1171,124 +1171,124 @@
     <t>LucilleGriffiths4@gmail.com</t>
   </si>
   <si>
-    <t>DonnellJernigan4</t>
-  </si>
-  <si>
-    <t>DonnellJernigan4@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole4</t>
-  </si>
-  <si>
-    <t>MalikOtoole4@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill4</t>
-  </si>
-  <si>
-    <t>AlanCaudill4@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate4</t>
-  </si>
-  <si>
-    <t>AdanApplegate4@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth4</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth4@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien4</t>
-  </si>
-  <si>
-    <t>MercedezBrien4@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager4</t>
-  </si>
-  <si>
-    <t>DuaneHager4@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell4</t>
-  </si>
-  <si>
-    <t>LorenBell4@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller4</t>
-  </si>
-  <si>
-    <t>GeraldHiller4@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch4</t>
-  </si>
-  <si>
-    <t>DeionBranch4@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead4</t>
-  </si>
-  <si>
-    <t>DakotaHalstead4@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman4</t>
-  </si>
-  <si>
-    <t>ElliottFurman4@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp4</t>
-  </si>
-  <si>
-    <t>MiltonCamp4@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester4</t>
-  </si>
-  <si>
-    <t>DawnChester4@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie4</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie4@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel4</t>
-  </si>
-  <si>
-    <t>EstebanAngel4@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship4</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship4@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice4</t>
-  </si>
-  <si>
-    <t>AllysaGrice4@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo4</t>
-  </si>
-  <si>
-    <t>AugustineYoo4@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard4</t>
-  </si>
-  <si>
-    <t>BrandiSouthard4@gmail.com</t>
+    <t>DonnellJernigan5</t>
+  </si>
+  <si>
+    <t>DonnellJernigan5@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole5</t>
+  </si>
+  <si>
+    <t>MalikOtoole5@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill5</t>
+  </si>
+  <si>
+    <t>AlanCaudill5@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate5</t>
+  </si>
+  <si>
+    <t>AdanApplegate5@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth5</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth5@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien5</t>
+  </si>
+  <si>
+    <t>MercedezBrien5@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager5</t>
+  </si>
+  <si>
+    <t>DuaneHager5@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell5</t>
+  </si>
+  <si>
+    <t>LorenBell5@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller5</t>
+  </si>
+  <si>
+    <t>GeraldHiller5@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch5</t>
+  </si>
+  <si>
+    <t>DeionBranch5@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead5</t>
+  </si>
+  <si>
+    <t>DakotaHalstead5@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman5</t>
+  </si>
+  <si>
+    <t>ElliottFurman5@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp5</t>
+  </si>
+  <si>
+    <t>MiltonCamp5@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester5</t>
+  </si>
+  <si>
+    <t>DawnChester5@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie5</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie5@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel5</t>
+  </si>
+  <si>
+    <t>EstebanAngel5@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship5</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship5@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice5</t>
+  </si>
+  <si>
+    <t>AllysaGrice5@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo5</t>
+  </si>
+  <si>
+    <t>AugustineYoo5@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard5</t>
+  </si>
+  <si>
+    <t>BrandiSouthard5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2909,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4927,7 +4927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
@@ -5315,15 +5315,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan4</v>
+        <v>DonnellJernigan5</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan4</v>
+        <v>DonnellJernigan5</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan4@gmail.com</v>
+        <v>DonnellJernigan5@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>212</v>
@@ -5332,21 +5332,21 @@
         <v>94</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole4</v>
+        <v>MalikOtoole5</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole4</v>
+        <v>MalikOtoole5</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole4@gmail.com</v>
+        <v>MalikOtoole5@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>213</v>
@@ -5355,15 +5355,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill4</v>
+        <v>AlanCaudill5</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill4</v>
+        <v>AlanCaudill5</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill4@gmail.com</v>
+        <v>AlanCaudill5@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>214</v>
@@ -5372,15 +5372,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate4</v>
+        <v>AdanApplegate5</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate4</v>
+        <v>AdanApplegate5</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate4@gmail.com</v>
+        <v>AdanApplegate5@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>215</v>
@@ -5389,15 +5389,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth4</v>
+        <v>AiyanaWhitworth5</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth4</v>
+        <v>AiyanaWhitworth5</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth4@gmail.com</v>
+        <v>AiyanaWhitworth5@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>216</v>
@@ -5406,15 +5406,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien4</v>
+        <v>MercedezBrien5</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien4</v>
+        <v>MercedezBrien5</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien4@gmail.com</v>
+        <v>MercedezBrien5@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>217</v>
@@ -5423,15 +5423,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager4</v>
+        <v>DuaneHager5</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager4</v>
+        <v>DuaneHager5</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager4@gmail.com</v>
+        <v>DuaneHager5@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>218</v>
@@ -5440,15 +5440,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell4</v>
+        <v>LorenBell5</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell4</v>
+        <v>LorenBell5</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell4@gmail.com</v>
+        <v>LorenBell5@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>219</v>
@@ -5457,15 +5457,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller4</v>
+        <v>GeraldHiller5</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller4</v>
+        <v>GeraldHiller5</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller4@gmail.com</v>
+        <v>GeraldHiller5@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>220</v>
@@ -5474,15 +5474,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch4</v>
+        <v>DeionBranch5</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch4</v>
+        <v>DeionBranch5</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch4@gmail.com</v>
+        <v>DeionBranch5@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>221</v>
@@ -5491,15 +5491,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead4</v>
+        <v>DakotaHalstead5</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead4</v>
+        <v>DakotaHalstead5</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead4@gmail.com</v>
+        <v>DakotaHalstead5@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>222</v>
@@ -5508,15 +5508,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman4</v>
+        <v>ElliottFurman5</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman4</v>
+        <v>ElliottFurman5</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman4@gmail.com</v>
+        <v>ElliottFurman5@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>223</v>
@@ -5525,15 +5525,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp4</v>
+        <v>MiltonCamp5</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp4</v>
+        <v>MiltonCamp5</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp4@gmail.com</v>
+        <v>MiltonCamp5@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>224</v>
@@ -5542,15 +5542,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester4</v>
+        <v>DawnChester5</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester4</v>
+        <v>DawnChester5</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester4@gmail.com</v>
+        <v>DawnChester5@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>225</v>
@@ -5559,15 +5559,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie4</v>
+        <v>ZacheryPetrie5</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie4</v>
+        <v>ZacheryPetrie5</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie4@gmail.com</v>
+        <v>ZacheryPetrie5@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>226</v>
@@ -5576,15 +5576,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel4</v>
+        <v>EstebanAngel5</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel4</v>
+        <v>EstebanAngel5</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel4@gmail.com</v>
+        <v>EstebanAngel5@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>227</v>
@@ -5593,15 +5593,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship4</v>
+        <v>JimmyBlankenship5</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship4</v>
+        <v>JimmyBlankenship5</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship4@gmail.com</v>
+        <v>JimmyBlankenship5@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>228</v>
@@ -5610,15 +5610,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice4</v>
+        <v>AllysaGrice5</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice4</v>
+        <v>AllysaGrice5</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice4@gmail.com</v>
+        <v>AllysaGrice5@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>229</v>
@@ -5627,15 +5627,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo4</v>
+        <v>AugustineYoo5</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo4</v>
+        <v>AugustineYoo5</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo4@gmail.com</v>
+        <v>AugustineYoo5@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>230</v>
@@ -5644,15 +5644,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard4</v>
+        <v>BrandiSouthard5</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard4</v>
+        <v>BrandiSouthard5</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard4@gmail.com</v>
+        <v>BrandiSouthard5@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>231</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8E61B6-83BE-446A-8D52-E7C409B2CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8620BB-958A-48F0-8A0C-1040CD0E26F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1171,124 +1171,124 @@
     <t>LucilleGriffiths4@gmail.com</t>
   </si>
   <si>
-    <t>DonnellJernigan5</t>
-  </si>
-  <si>
-    <t>DonnellJernigan5@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole5</t>
-  </si>
-  <si>
-    <t>MalikOtoole5@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill5</t>
-  </si>
-  <si>
-    <t>AlanCaudill5@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate5</t>
-  </si>
-  <si>
-    <t>AdanApplegate5@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth5</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth5@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien5</t>
-  </si>
-  <si>
-    <t>MercedezBrien5@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager5</t>
-  </si>
-  <si>
-    <t>DuaneHager5@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell5</t>
-  </si>
-  <si>
-    <t>LorenBell5@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller5</t>
-  </si>
-  <si>
-    <t>GeraldHiller5@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch5</t>
-  </si>
-  <si>
-    <t>DeionBranch5@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead5</t>
-  </si>
-  <si>
-    <t>DakotaHalstead5@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman5</t>
-  </si>
-  <si>
-    <t>ElliottFurman5@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp5</t>
-  </si>
-  <si>
-    <t>MiltonCamp5@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester5</t>
-  </si>
-  <si>
-    <t>DawnChester5@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie5</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie5@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel5</t>
-  </si>
-  <si>
-    <t>EstebanAngel5@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship5</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship5@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice5</t>
-  </si>
-  <si>
-    <t>AllysaGrice5@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo5</t>
-  </si>
-  <si>
-    <t>AugustineYoo5@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard5</t>
-  </si>
-  <si>
-    <t>BrandiSouthard5@gmail.com</t>
+    <t>DonnellJernigan6</t>
+  </si>
+  <si>
+    <t>DonnellJernigan6@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole6</t>
+  </si>
+  <si>
+    <t>MalikOtoole6@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill6</t>
+  </si>
+  <si>
+    <t>AlanCaudill6@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate6</t>
+  </si>
+  <si>
+    <t>AdanApplegate6@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth6</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth6@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien6</t>
+  </si>
+  <si>
+    <t>MercedezBrien6@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager6</t>
+  </si>
+  <si>
+    <t>DuaneHager6@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell6</t>
+  </si>
+  <si>
+    <t>LorenBell6@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller6</t>
+  </si>
+  <si>
+    <t>GeraldHiller6@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch6</t>
+  </si>
+  <si>
+    <t>DeionBranch6@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead6</t>
+  </si>
+  <si>
+    <t>DakotaHalstead6@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman6</t>
+  </si>
+  <si>
+    <t>ElliottFurman6@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp6</t>
+  </si>
+  <si>
+    <t>MiltonCamp6@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester6</t>
+  </si>
+  <si>
+    <t>DawnChester6@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie6</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie6@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel6</t>
+  </si>
+  <si>
+    <t>EstebanAngel6@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship6</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship6@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice6</t>
+  </si>
+  <si>
+    <t>AllysaGrice6@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo6</t>
+  </si>
+  <si>
+    <t>AugustineYoo6@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard6</t>
+  </si>
+  <si>
+    <t>BrandiSouthard6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2909,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="R2" sqref="R2:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5315,15 +5315,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan5</v>
+        <v>DonnellJernigan6</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan5</v>
+        <v>DonnellJernigan6</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan5@gmail.com</v>
+        <v>DonnellJernigan6@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>212</v>
@@ -5332,21 +5332,21 @@
         <v>94</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole5</v>
+        <v>MalikOtoole6</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole5</v>
+        <v>MalikOtoole6</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole5@gmail.com</v>
+        <v>MalikOtoole6@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>213</v>
@@ -5355,15 +5355,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill5</v>
+        <v>AlanCaudill6</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill5</v>
+        <v>AlanCaudill6</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill5@gmail.com</v>
+        <v>AlanCaudill6@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>214</v>
@@ -5372,15 +5372,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate5</v>
+        <v>AdanApplegate6</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate5</v>
+        <v>AdanApplegate6</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate5@gmail.com</v>
+        <v>AdanApplegate6@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>215</v>
@@ -5389,15 +5389,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth5</v>
+        <v>AiyanaWhitworth6</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth5</v>
+        <v>AiyanaWhitworth6</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth5@gmail.com</v>
+        <v>AiyanaWhitworth6@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>216</v>
@@ -5406,15 +5406,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien5</v>
+        <v>MercedezBrien6</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien5</v>
+        <v>MercedezBrien6</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien5@gmail.com</v>
+        <v>MercedezBrien6@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>217</v>
@@ -5423,15 +5423,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager5</v>
+        <v>DuaneHager6</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager5</v>
+        <v>DuaneHager6</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager5@gmail.com</v>
+        <v>DuaneHager6@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>218</v>
@@ -5440,15 +5440,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell5</v>
+        <v>LorenBell6</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell5</v>
+        <v>LorenBell6</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell5@gmail.com</v>
+        <v>LorenBell6@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>219</v>
@@ -5457,15 +5457,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller5</v>
+        <v>GeraldHiller6</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller5</v>
+        <v>GeraldHiller6</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller5@gmail.com</v>
+        <v>GeraldHiller6@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>220</v>
@@ -5474,15 +5474,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch5</v>
+        <v>DeionBranch6</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch5</v>
+        <v>DeionBranch6</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch5@gmail.com</v>
+        <v>DeionBranch6@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>221</v>
@@ -5491,15 +5491,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead5</v>
+        <v>DakotaHalstead6</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead5</v>
+        <v>DakotaHalstead6</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead5@gmail.com</v>
+        <v>DakotaHalstead6@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>222</v>
@@ -5508,15 +5508,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman5</v>
+        <v>ElliottFurman6</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman5</v>
+        <v>ElliottFurman6</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman5@gmail.com</v>
+        <v>ElliottFurman6@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>223</v>
@@ -5525,15 +5525,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp5</v>
+        <v>MiltonCamp6</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp5</v>
+        <v>MiltonCamp6</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp5@gmail.com</v>
+        <v>MiltonCamp6@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>224</v>
@@ -5542,15 +5542,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester5</v>
+        <v>DawnChester6</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester5</v>
+        <v>DawnChester6</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester5@gmail.com</v>
+        <v>DawnChester6@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>225</v>
@@ -5559,15 +5559,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie5</v>
+        <v>ZacheryPetrie6</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie5</v>
+        <v>ZacheryPetrie6</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie5@gmail.com</v>
+        <v>ZacheryPetrie6@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>226</v>
@@ -5576,15 +5576,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel5</v>
+        <v>EstebanAngel6</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel5</v>
+        <v>EstebanAngel6</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel5@gmail.com</v>
+        <v>EstebanAngel6@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>227</v>
@@ -5593,15 +5593,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship5</v>
+        <v>JimmyBlankenship6</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship5</v>
+        <v>JimmyBlankenship6</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship5@gmail.com</v>
+        <v>JimmyBlankenship6@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>228</v>
@@ -5610,15 +5610,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice5</v>
+        <v>AllysaGrice6</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice5</v>
+        <v>AllysaGrice6</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice5@gmail.com</v>
+        <v>AllysaGrice6@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>229</v>
@@ -5627,15 +5627,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo5</v>
+        <v>AugustineYoo6</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo5</v>
+        <v>AugustineYoo6</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo5@gmail.com</v>
+        <v>AugustineYoo6@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>230</v>
@@ -5644,15 +5644,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard5</v>
+        <v>BrandiSouthard6</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard5</v>
+        <v>BrandiSouthard6</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard5@gmail.com</v>
+        <v>BrandiSouthard6@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>231</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8620BB-958A-48F0-8A0C-1040CD0E26F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA650496-19F7-4795-97B3-5A9850CED6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1171,124 +1171,124 @@
     <t>LucilleGriffiths4@gmail.com</t>
   </si>
   <si>
-    <t>DonnellJernigan6</t>
-  </si>
-  <si>
-    <t>DonnellJernigan6@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole6</t>
-  </si>
-  <si>
-    <t>MalikOtoole6@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill6</t>
-  </si>
-  <si>
-    <t>AlanCaudill6@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate6</t>
-  </si>
-  <si>
-    <t>AdanApplegate6@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth6</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth6@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien6</t>
-  </si>
-  <si>
-    <t>MercedezBrien6@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager6</t>
-  </si>
-  <si>
-    <t>DuaneHager6@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell6</t>
-  </si>
-  <si>
-    <t>LorenBell6@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller6</t>
-  </si>
-  <si>
-    <t>GeraldHiller6@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch6</t>
-  </si>
-  <si>
-    <t>DeionBranch6@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead6</t>
-  </si>
-  <si>
-    <t>DakotaHalstead6@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman6</t>
-  </si>
-  <si>
-    <t>ElliottFurman6@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp6</t>
-  </si>
-  <si>
-    <t>MiltonCamp6@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester6</t>
-  </si>
-  <si>
-    <t>DawnChester6@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie6</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie6@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel6</t>
-  </si>
-  <si>
-    <t>EstebanAngel6@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship6</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship6@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice6</t>
-  </si>
-  <si>
-    <t>AllysaGrice6@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo6</t>
-  </si>
-  <si>
-    <t>AugustineYoo6@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard6</t>
-  </si>
-  <si>
-    <t>BrandiSouthard6@gmail.com</t>
+    <t>DonnellJernigan7</t>
+  </si>
+  <si>
+    <t>DonnellJernigan7@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole7</t>
+  </si>
+  <si>
+    <t>MalikOtoole7@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill7</t>
+  </si>
+  <si>
+    <t>AlanCaudill7@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate7</t>
+  </si>
+  <si>
+    <t>AdanApplegate7@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth7</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth7@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien7</t>
+  </si>
+  <si>
+    <t>MercedezBrien7@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager7</t>
+  </si>
+  <si>
+    <t>DuaneHager7@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell7</t>
+  </si>
+  <si>
+    <t>LorenBell7@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller7</t>
+  </si>
+  <si>
+    <t>GeraldHiller7@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch7</t>
+  </si>
+  <si>
+    <t>DeionBranch7@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead7</t>
+  </si>
+  <si>
+    <t>DakotaHalstead7@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman7</t>
+  </si>
+  <si>
+    <t>ElliottFurman7@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp7</t>
+  </si>
+  <si>
+    <t>MiltonCamp7@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester7</t>
+  </si>
+  <si>
+    <t>DawnChester7@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie7</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie7@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel7</t>
+  </si>
+  <si>
+    <t>EstebanAngel7@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship7</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship7@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice7</t>
+  </si>
+  <si>
+    <t>AllysaGrice7@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo7</t>
+  </si>
+  <si>
+    <t>AugustineYoo7@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard7</t>
+  </si>
+  <si>
+    <t>BrandiSouthard7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5315,15 +5315,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan6</v>
+        <v>DonnellJernigan7</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan6</v>
+        <v>DonnellJernigan7</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan6@gmail.com</v>
+        <v>DonnellJernigan7@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>212</v>
@@ -5332,21 +5332,21 @@
         <v>94</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole6</v>
+        <v>MalikOtoole7</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole6</v>
+        <v>MalikOtoole7</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole6@gmail.com</v>
+        <v>MalikOtoole7@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>213</v>
@@ -5355,15 +5355,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill6</v>
+        <v>AlanCaudill7</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill6</v>
+        <v>AlanCaudill7</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill6@gmail.com</v>
+        <v>AlanCaudill7@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>214</v>
@@ -5372,15 +5372,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate6</v>
+        <v>AdanApplegate7</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate6</v>
+        <v>AdanApplegate7</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate6@gmail.com</v>
+        <v>AdanApplegate7@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>215</v>
@@ -5389,15 +5389,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth6</v>
+        <v>AiyanaWhitworth7</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth6</v>
+        <v>AiyanaWhitworth7</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth6@gmail.com</v>
+        <v>AiyanaWhitworth7@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>216</v>
@@ -5406,15 +5406,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien6</v>
+        <v>MercedezBrien7</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien6</v>
+        <v>MercedezBrien7</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien6@gmail.com</v>
+        <v>MercedezBrien7@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>217</v>
@@ -5423,15 +5423,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager6</v>
+        <v>DuaneHager7</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager6</v>
+        <v>DuaneHager7</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager6@gmail.com</v>
+        <v>DuaneHager7@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>218</v>
@@ -5440,15 +5440,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell6</v>
+        <v>LorenBell7</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell6</v>
+        <v>LorenBell7</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell6@gmail.com</v>
+        <v>LorenBell7@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>219</v>
@@ -5457,15 +5457,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller6</v>
+        <v>GeraldHiller7</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller6</v>
+        <v>GeraldHiller7</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller6@gmail.com</v>
+        <v>GeraldHiller7@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>220</v>
@@ -5474,15 +5474,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch6</v>
+        <v>DeionBranch7</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch6</v>
+        <v>DeionBranch7</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch6@gmail.com</v>
+        <v>DeionBranch7@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>221</v>
@@ -5491,15 +5491,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead6</v>
+        <v>DakotaHalstead7</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead6</v>
+        <v>DakotaHalstead7</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead6@gmail.com</v>
+        <v>DakotaHalstead7@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>222</v>
@@ -5508,15 +5508,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman6</v>
+        <v>ElliottFurman7</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman6</v>
+        <v>ElliottFurman7</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman6@gmail.com</v>
+        <v>ElliottFurman7@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>223</v>
@@ -5525,15 +5525,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp6</v>
+        <v>MiltonCamp7</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp6</v>
+        <v>MiltonCamp7</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp6@gmail.com</v>
+        <v>MiltonCamp7@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>224</v>
@@ -5542,15 +5542,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester6</v>
+        <v>DawnChester7</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester6</v>
+        <v>DawnChester7</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester6@gmail.com</v>
+        <v>DawnChester7@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>225</v>
@@ -5559,15 +5559,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie6</v>
+        <v>ZacheryPetrie7</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie6</v>
+        <v>ZacheryPetrie7</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie6@gmail.com</v>
+        <v>ZacheryPetrie7@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>226</v>
@@ -5576,15 +5576,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel6</v>
+        <v>EstebanAngel7</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel6</v>
+        <v>EstebanAngel7</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel6@gmail.com</v>
+        <v>EstebanAngel7@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>227</v>
@@ -5593,15 +5593,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship6</v>
+        <v>JimmyBlankenship7</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship6</v>
+        <v>JimmyBlankenship7</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship6@gmail.com</v>
+        <v>JimmyBlankenship7@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>228</v>
@@ -5610,15 +5610,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice6</v>
+        <v>AllysaGrice7</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice6</v>
+        <v>AllysaGrice7</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice6@gmail.com</v>
+        <v>AllysaGrice7@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>229</v>
@@ -5627,15 +5627,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo6</v>
+        <v>AugustineYoo7</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo6</v>
+        <v>AugustineYoo7</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo6@gmail.com</v>
+        <v>AugustineYoo7@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>230</v>
@@ -5644,15 +5644,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard6</v>
+        <v>BrandiSouthard7</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard6</v>
+        <v>BrandiSouthard7</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard6@gmail.com</v>
+        <v>BrandiSouthard7@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>231</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA650496-19F7-4795-97B3-5A9850CED6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4504B-164E-4482-A7BF-B059D363A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="419">
   <si>
     <t>run</t>
   </si>
@@ -133,45 +133,6 @@
     <t>AutoTestChicago2@gmail.com</t>
   </si>
   <si>
-    <t>David6</t>
-  </si>
-  <si>
-    <t>David7</t>
-  </si>
-  <si>
-    <t>David8</t>
-  </si>
-  <si>
-    <t>David9</t>
-  </si>
-  <si>
-    <t>David10</t>
-  </si>
-  <si>
-    <t>David11</t>
-  </si>
-  <si>
-    <t>David12</t>
-  </si>
-  <si>
-    <t>David13</t>
-  </si>
-  <si>
-    <t>David14</t>
-  </si>
-  <si>
-    <t>David15</t>
-  </si>
-  <si>
-    <t>David16</t>
-  </si>
-  <si>
-    <t>David17</t>
-  </si>
-  <si>
-    <t>David18</t>
-  </si>
-  <si>
     <t>team_members</t>
   </si>
   <si>
@@ -286,39 +247,21 @@
     <t>58598</t>
   </si>
   <si>
-    <t>David19</t>
-  </si>
-  <si>
     <t>58599</t>
   </si>
   <si>
-    <t>David20</t>
-  </si>
-  <si>
     <t>58600</t>
   </si>
   <si>
-    <t>David21</t>
-  </si>
-  <si>
     <t>58601</t>
   </si>
   <si>
-    <t>David22</t>
-  </si>
-  <si>
     <t>58602</t>
   </si>
   <si>
-    <t>David23</t>
-  </si>
-  <si>
     <t>58603</t>
   </si>
   <si>
-    <t>David24</t>
-  </si>
-  <si>
     <t>58604</t>
   </si>
   <si>
@@ -502,120 +445,6 @@
     <t>Thank you. Your order has been received.</t>
   </si>
   <si>
-    <t>David Inc 6</t>
-  </si>
-  <si>
-    <t>David Inc 7</t>
-  </si>
-  <si>
-    <t>David Inc 8</t>
-  </si>
-  <si>
-    <t>David Inc 9</t>
-  </si>
-  <si>
-    <t>David Inc 10</t>
-  </si>
-  <si>
-    <t>David Inc 11</t>
-  </si>
-  <si>
-    <t>David Inc 12</t>
-  </si>
-  <si>
-    <t>David Inc 13</t>
-  </si>
-  <si>
-    <t>David Inc 14</t>
-  </si>
-  <si>
-    <t>David Inc 15</t>
-  </si>
-  <si>
-    <t>David Inc 16</t>
-  </si>
-  <si>
-    <t>David Inc 17</t>
-  </si>
-  <si>
-    <t>David Inc 18</t>
-  </si>
-  <si>
-    <t>David Inc 19</t>
-  </si>
-  <si>
-    <t>David Inc 20</t>
-  </si>
-  <si>
-    <t>David Inc 21</t>
-  </si>
-  <si>
-    <t>David Inc 22</t>
-  </si>
-  <si>
-    <t>David Inc 23</t>
-  </si>
-  <si>
-    <t>David Inc 24</t>
-  </si>
-  <si>
-    <t>Jackson 6</t>
-  </si>
-  <si>
-    <t>Jackson 7</t>
-  </si>
-  <si>
-    <t>Jackson 8</t>
-  </si>
-  <si>
-    <t>Jackson 9</t>
-  </si>
-  <si>
-    <t>Jackson 10</t>
-  </si>
-  <si>
-    <t>Jackson 11</t>
-  </si>
-  <si>
-    <t>Jackson 12</t>
-  </si>
-  <si>
-    <t>Jackson 13</t>
-  </si>
-  <si>
-    <t>Jackson 14</t>
-  </si>
-  <si>
-    <t>Jackson 15</t>
-  </si>
-  <si>
-    <t>Jackson 16</t>
-  </si>
-  <si>
-    <t>Jackson 17</t>
-  </si>
-  <si>
-    <t>Jackson 18</t>
-  </si>
-  <si>
-    <t>Jackson 19</t>
-  </si>
-  <si>
-    <t>Jackson 20</t>
-  </si>
-  <si>
-    <t>Jackson 21</t>
-  </si>
-  <si>
-    <t>Jackson 22</t>
-  </si>
-  <si>
-    <t>Jackson 23</t>
-  </si>
-  <si>
-    <t>Jackson 24</t>
-  </si>
-  <si>
     <t>EthanBaker</t>
   </si>
   <si>
@@ -1027,15 +856,6 @@
     <t>Angel Row</t>
   </si>
   <si>
-    <t>David25</t>
-  </si>
-  <si>
-    <t>Jackson 25</t>
-  </si>
-  <si>
-    <t>David Inc 25</t>
-  </si>
-  <si>
     <t>152 Kevin Dr</t>
   </si>
   <si>
@@ -1171,124 +991,310 @@
     <t>LucilleGriffiths4@gmail.com</t>
   </si>
   <si>
-    <t>DonnellJernigan7</t>
-  </si>
-  <si>
-    <t>DonnellJernigan7@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole7</t>
-  </si>
-  <si>
-    <t>MalikOtoole7@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill7</t>
-  </si>
-  <si>
-    <t>AlanCaudill7@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate7</t>
-  </si>
-  <si>
-    <t>AdanApplegate7@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth7</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth7@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien7</t>
-  </si>
-  <si>
-    <t>MercedezBrien7@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager7</t>
-  </si>
-  <si>
-    <t>DuaneHager7@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell7</t>
-  </si>
-  <si>
-    <t>LorenBell7@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller7</t>
-  </si>
-  <si>
-    <t>GeraldHiller7@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch7</t>
-  </si>
-  <si>
-    <t>DeionBranch7@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead7</t>
-  </si>
-  <si>
-    <t>DakotaHalstead7@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman7</t>
-  </si>
-  <si>
-    <t>ElliottFurman7@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp7</t>
-  </si>
-  <si>
-    <t>MiltonCamp7@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester7</t>
-  </si>
-  <si>
-    <t>DawnChester7@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie7</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie7@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel7</t>
-  </si>
-  <si>
-    <t>EstebanAngel7@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship7</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship7@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice7</t>
-  </si>
-  <si>
-    <t>AllysaGrice7@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo7</t>
-  </si>
-  <si>
-    <t>AugustineYoo7@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard7</t>
-  </si>
-  <si>
-    <t>BrandiSouthard7@gmail.com</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Trenton</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t>Dawson</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>Madalynn</t>
+  </si>
+  <si>
+    <t>Joana</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Darcy</t>
+  </si>
+  <si>
+    <t>Lindsay</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Trista</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Jena</t>
+  </si>
+  <si>
+    <t>Kimberlee</t>
+  </si>
+  <si>
+    <t>Hollie</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Bartley</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Lanning</t>
+  </si>
+  <si>
+    <t>Goode</t>
+  </si>
+  <si>
+    <t>Nielson</t>
+  </si>
+  <si>
+    <t>Poore</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>Reinhart</t>
+  </si>
+  <si>
+    <t>Montez</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Gardiner</t>
+  </si>
+  <si>
+    <t>Paulson</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Ledesma</t>
+  </si>
+  <si>
+    <t>Ralston</t>
+  </si>
+  <si>
+    <t>Abrams</t>
+  </si>
+  <si>
+    <t>Mr. Venegas</t>
+  </si>
+  <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Ms. Fitzgerald</t>
+  </si>
+  <si>
+    <t>Stroud</t>
+  </si>
+  <si>
+    <t>Conroy</t>
+  </si>
+  <si>
+    <t>Ms. Schulte</t>
+  </si>
+  <si>
+    <t>Ms. Chatman</t>
+  </si>
+  <si>
+    <t>Mr. Bray</t>
+  </si>
+  <si>
+    <t>Ngo</t>
+  </si>
+  <si>
+    <t>Hoff</t>
+  </si>
+  <si>
+    <t>Mr. Zeller</t>
+  </si>
+  <si>
+    <t>Mr. Hood</t>
+  </si>
+  <si>
+    <t>Ms. Vail</t>
+  </si>
+  <si>
+    <t>Mr. Hurt</t>
+  </si>
+  <si>
+    <t>Mr. Healey</t>
+  </si>
+  <si>
+    <t>Ms. Gaffney</t>
+  </si>
+  <si>
+    <t>Montero</t>
+  </si>
+  <si>
+    <t>Mr. Pool</t>
+  </si>
+  <si>
+    <t>Ms. Jacobsen</t>
+  </si>
+  <si>
+    <t>DonnellJernigan8</t>
+  </si>
+  <si>
+    <t>DonnellJernigan8@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole8</t>
+  </si>
+  <si>
+    <t>MalikOtoole8@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill8</t>
+  </si>
+  <si>
+    <t>AlanCaudill8@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate8</t>
+  </si>
+  <si>
+    <t>AdanApplegate8@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth8</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth8@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien8</t>
+  </si>
+  <si>
+    <t>MercedezBrien8@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager8</t>
+  </si>
+  <si>
+    <t>DuaneHager8@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell8</t>
+  </si>
+  <si>
+    <t>LorenBell8@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller8</t>
+  </si>
+  <si>
+    <t>GeraldHiller8@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch8</t>
+  </si>
+  <si>
+    <t>DeionBranch8@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead8</t>
+  </si>
+  <si>
+    <t>DakotaHalstead8@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman8</t>
+  </si>
+  <si>
+    <t>ElliottFurman8@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp8</t>
+  </si>
+  <si>
+    <t>MiltonCamp8@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester8</t>
+  </si>
+  <si>
+    <t>DawnChester8@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie8</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie8@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel8</t>
+  </si>
+  <si>
+    <t>EstebanAngel8@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship8</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship8@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice8</t>
+  </si>
+  <si>
+    <t>AllysaGrice8@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo8</t>
+  </si>
+  <si>
+    <t>AugustineYoo8@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard8</t>
+  </si>
+  <si>
+    <t>BrandiSouthard8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2010,16 +2016,16 @@
         <v>29</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2027,10 +2033,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -2039,31 +2045,31 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -2072,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -2085,28 +2091,28 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2114,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -2127,28 +2133,28 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2156,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2169,28 +2175,28 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2198,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -2211,28 +2217,28 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2240,10 +2246,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -2253,28 +2259,28 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2282,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -2295,28 +2301,28 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2324,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -2337,28 +2343,28 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2366,10 +2372,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -2379,28 +2385,28 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2408,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -2421,28 +2427,28 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2450,10 +2456,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -2463,28 +2469,28 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2492,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -2505,28 +2511,28 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2534,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -2547,28 +2553,28 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2576,10 +2582,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -2589,28 +2595,28 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2618,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -2631,28 +2637,28 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2660,10 +2666,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2673,28 +2679,28 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2702,10 +2708,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -2715,28 +2721,28 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2744,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -2757,28 +2763,28 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2786,10 +2792,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
@@ -2799,28 +2805,28 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -2841,28 +2847,28 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2908,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T21"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3007,34 +3013,34 @@
         <v>11</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3042,43 +3048,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="20">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>27</v>
@@ -3087,37 +3093,37 @@
         <v>26</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>154</v>
+        <v>359</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="AB2" s="14" t="s">
         <v>23</v>
@@ -3126,7 +3132,7 @@
         <v>24</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AF2" s="16"/>
     </row>
@@ -3135,43 +3141,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="20">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="M3" s="14" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>27</v>
@@ -3180,37 +3186,37 @@
         <v>26</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="AB3" s="14" t="s">
         <v>23</v>
@@ -3219,7 +3225,7 @@
         <v>24</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AF3" s="16"/>
     </row>
@@ -3228,43 +3234,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O4" s="20" t="s">
         <v>27</v>
@@ -3273,37 +3279,37 @@
         <v>26</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>156</v>
+        <v>361</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="AB4" s="14" t="s">
         <v>23</v>
@@ -3312,7 +3318,7 @@
         <v>24</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="16"/>
     </row>
@@ -3321,43 +3327,43 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="20">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>27</v>
@@ -3366,37 +3372,37 @@
         <v>26</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA5" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>23</v>
@@ -3405,7 +3411,7 @@
         <v>24</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="16"/>
     </row>
@@ -3414,43 +3420,43 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O6" s="20" t="s">
         <v>27</v>
@@ -3459,37 +3465,37 @@
         <v>26</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>158</v>
+        <v>363</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>23</v>
@@ -3498,7 +3504,7 @@
         <v>24</v>
       </c>
       <c r="AD6" s="20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="16"/>
     </row>
@@ -3507,43 +3513,43 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="20">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O7" s="20" t="s">
         <v>27</v>
@@ -3552,37 +3558,37 @@
         <v>26</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>23</v>
@@ -3591,7 +3597,7 @@
         <v>24</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AF7" s="16"/>
     </row>
@@ -3600,43 +3606,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O8" s="20" t="s">
         <v>27</v>
@@ -3645,37 +3651,37 @@
         <v>26</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA8" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="AB8" s="14" t="s">
         <v>23</v>
@@ -3684,7 +3690,7 @@
         <v>24</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="16"/>
     </row>
@@ -3693,43 +3699,43 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="20">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O9" s="20" t="s">
         <v>27</v>
@@ -3738,37 +3744,37 @@
         <v>26</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="AB9" s="14" t="s">
         <v>23</v>
@@ -3777,7 +3783,7 @@
         <v>24</v>
       </c>
       <c r="AD9" s="20" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AF9" s="16"/>
     </row>
@@ -3786,43 +3792,43 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O10" s="20" t="s">
         <v>27</v>
@@ -3831,37 +3837,37 @@
         <v>26</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="AA10" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="AB10" s="14" t="s">
         <v>23</v>
@@ -3870,7 +3876,7 @@
         <v>24</v>
       </c>
       <c r="AD10" s="20" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AF10" s="16"/>
     </row>
@@ -3879,43 +3885,43 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="20">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O11" s="20" t="s">
         <v>27</v>
@@ -3924,37 +3930,37 @@
         <v>26</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="AB11" s="14" t="s">
         <v>23</v>
@@ -3963,7 +3969,7 @@
         <v>24</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="16"/>
     </row>
@@ -3972,43 +3978,43 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O12" s="20" t="s">
         <v>27</v>
@@ -4017,37 +4023,37 @@
         <v>26</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>164</v>
+        <v>369</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="AA12" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="AB12" s="14" t="s">
         <v>23</v>
@@ -4056,7 +4062,7 @@
         <v>24</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AF12" s="16"/>
     </row>
@@ -4065,43 +4071,43 @@
         <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="20">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O13" s="20" t="s">
         <v>27</v>
@@ -4110,37 +4116,37 @@
         <v>26</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="X13" s="14" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="AB13" s="14" t="s">
         <v>23</v>
@@ -4149,7 +4155,7 @@
         <v>24</v>
       </c>
       <c r="AD13" s="20" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AF13" s="16"/>
     </row>
@@ -4158,43 +4164,43 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="20">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O14" s="20" t="s">
         <v>27</v>
@@ -4203,37 +4209,37 @@
         <v>26</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="X14" s="14" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA14" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="AA14" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="AB14" s="14" t="s">
         <v>23</v>
@@ -4242,7 +4248,7 @@
         <v>24</v>
       </c>
       <c r="AD14" s="20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AF14" s="16"/>
     </row>
@@ -4251,43 +4257,43 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="20">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O15" s="20" t="s">
         <v>27</v>
@@ -4296,37 +4302,37 @@
         <v>26</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA15" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="AB15" s="14" t="s">
         <v>23</v>
@@ -4335,7 +4341,7 @@
         <v>24</v>
       </c>
       <c r="AD15" s="20" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="AF15" s="16"/>
     </row>
@@ -4344,43 +4350,43 @@
         <v>1</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="20">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O16" s="20" t="s">
         <v>27</v>
@@ -4389,37 +4395,37 @@
         <v>26</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>84</v>
+        <v>333</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>187</v>
+        <v>353</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="AA16" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="AB16" s="14" t="s">
         <v>23</v>
@@ -4428,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="AD16" s="20" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF16" s="16"/>
     </row>
@@ -4437,43 +4443,43 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="20">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O17" s="20" t="s">
         <v>27</v>
@@ -4482,37 +4488,37 @@
         <v>26</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA17" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="AB17" s="14" t="s">
         <v>23</v>
@@ -4521,7 +4527,7 @@
         <v>24</v>
       </c>
       <c r="AD17" s="20" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4529,43 +4535,43 @@
         <v>1</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="20">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O18" s="20" t="s">
         <v>27</v>
@@ -4574,37 +4580,37 @@
         <v>26</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>189</v>
+        <v>355</v>
       </c>
       <c r="X18" s="14" t="s">
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AA18" s="14" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AB18" s="14" t="s">
         <v>23</v>
@@ -4613,7 +4619,7 @@
         <v>24</v>
       </c>
       <c r="AD18" s="20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4621,43 +4627,43 @@
         <v>1</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="20">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O19" s="20" t="s">
         <v>27</v>
@@ -4666,37 +4672,37 @@
         <v>26</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="AB19" s="14" t="s">
         <v>23</v>
@@ -4705,7 +4711,7 @@
         <v>24</v>
       </c>
       <c r="AD19" s="20" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4713,43 +4719,43 @@
         <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O20" s="20" t="s">
         <v>27</v>
@@ -4758,37 +4764,37 @@
         <v>26</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>92</v>
+        <v>337</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="AB20" s="14" t="s">
         <v>23</v>
@@ -4797,7 +4803,7 @@
         <v>24</v>
       </c>
       <c r="AD20" s="20" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4805,43 +4811,43 @@
         <v>1</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="20">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O21" s="20" t="s">
         <v>27</v>
@@ -4850,37 +4856,37 @@
         <v>26</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="AB21" s="14" t="s">
         <v>23</v>
@@ -4889,7 +4895,7 @@
         <v>24</v>
       </c>
       <c r="AD21" s="20" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +4948,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -4967,10 +4973,10 @@
         <v>EthanBaker4@gmail.com</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -4990,7 +4996,7 @@
         <v>DelanieCarman4@gmail.com</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5007,7 +5013,7 @@
         <v>BretAgnew4@gmail.com</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5024,7 +5030,7 @@
         <v>EdgardoTaylor4@gmail.com</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5041,7 +5047,7 @@
         <v>TyrekReis4@gmail.com</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5058,7 +5064,7 @@
         <v>LeannaChow4@gmail.com</v>
       </c>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5075,7 +5081,7 @@
         <v>TuckerCarlson4@gmail.com</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -5092,7 +5098,7 @@
         <v>AnnmarieConnor4@gmail.com</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -5109,7 +5115,7 @@
         <v>MoniqueWitte4@gmail.com</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -5126,7 +5132,7 @@
         <v>MikelWhitlock4@gmail.com</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -5143,7 +5149,7 @@
         <v>VincentAmaya4@gmail.com</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -5160,7 +5166,7 @@
         <v>KeiraQuiroz4@gmail.com</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5177,7 +5183,7 @@
         <v>EllisCreech4@gmail.com</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -5194,7 +5200,7 @@
         <v>DionteCreel4@gmail.com</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5211,7 +5217,7 @@
         <v>NicholeFoust4@gmail.com</v>
       </c>
       <c r="G16" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5228,7 +5234,7 @@
         <v>ManuelConnell4@gmail.com</v>
       </c>
       <c r="G17" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5245,7 +5251,7 @@
         <v>LourdesElam4@gmail.com</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5262,7 +5268,7 @@
         <v>LincolnFrederick4@gmail.com</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5279,7 +5285,7 @@
         <v>AlisaCash4@gmail.com</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5296,12 +5302,12 @@
         <v>LucilleGriffiths4@gmail.com</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="30" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -5315,347 +5321,347 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan7</v>
+        <v>DonnellJernigan8</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan7</v>
+        <v>DonnellJernigan8</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan7@gmail.com</v>
+        <v>DonnellJernigan8@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole7</v>
+        <v>MalikOtoole8</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole7</v>
+        <v>MalikOtoole8</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole7@gmail.com</v>
+        <v>MalikOtoole8@gmail.com</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill7</v>
+        <v>AlanCaudill8</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill7</v>
+        <v>AlanCaudill8</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill7@gmail.com</v>
+        <v>AlanCaudill8@gmail.com</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate7</v>
+        <v>AdanApplegate8</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate7</v>
+        <v>AdanApplegate8</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate7@gmail.com</v>
+        <v>AdanApplegate8@gmail.com</v>
       </c>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth7</v>
+        <v>AiyanaWhitworth8</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth7</v>
+        <v>AiyanaWhitworth8</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth7@gmail.com</v>
+        <v>AiyanaWhitworth8@gmail.com</v>
       </c>
       <c r="G27" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien7</v>
+        <v>MercedezBrien8</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien7</v>
+        <v>MercedezBrien8</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien7@gmail.com</v>
+        <v>MercedezBrien8@gmail.com</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager7</v>
+        <v>DuaneHager8</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager7</v>
+        <v>DuaneHager8</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager7@gmail.com</v>
+        <v>DuaneHager8@gmail.com</v>
       </c>
       <c r="G29" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell7</v>
+        <v>LorenBell8</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell7</v>
+        <v>LorenBell8</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell7@gmail.com</v>
+        <v>LorenBell8@gmail.com</v>
       </c>
       <c r="G30" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller7</v>
+        <v>GeraldHiller8</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller7</v>
+        <v>GeraldHiller8</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller7@gmail.com</v>
+        <v>GeraldHiller8@gmail.com</v>
       </c>
       <c r="G31" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch7</v>
+        <v>DeionBranch8</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch7</v>
+        <v>DeionBranch8</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch7@gmail.com</v>
+        <v>DeionBranch8@gmail.com</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead7</v>
+        <v>DakotaHalstead8</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead7</v>
+        <v>DakotaHalstead8</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead7@gmail.com</v>
+        <v>DakotaHalstead8@gmail.com</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman7</v>
+        <v>ElliottFurman8</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman7</v>
+        <v>ElliottFurman8</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman7@gmail.com</v>
+        <v>ElliottFurman8@gmail.com</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp7</v>
+        <v>MiltonCamp8</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp7</v>
+        <v>MiltonCamp8</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp7@gmail.com</v>
+        <v>MiltonCamp8@gmail.com</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester7</v>
+        <v>DawnChester8</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester7</v>
+        <v>DawnChester8</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester7@gmail.com</v>
+        <v>DawnChester8@gmail.com</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie7</v>
+        <v>ZacheryPetrie8</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie7</v>
+        <v>ZacheryPetrie8</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie7@gmail.com</v>
+        <v>ZacheryPetrie8@gmail.com</v>
       </c>
       <c r="G37" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel7</v>
+        <v>EstebanAngel8</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel7</v>
+        <v>EstebanAngel8</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel7@gmail.com</v>
+        <v>EstebanAngel8@gmail.com</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship7</v>
+        <v>JimmyBlankenship8</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship7</v>
+        <v>JimmyBlankenship8</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship7@gmail.com</v>
+        <v>JimmyBlankenship8@gmail.com</v>
       </c>
       <c r="G39" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice7</v>
+        <v>AllysaGrice8</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice7</v>
+        <v>AllysaGrice8</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice7@gmail.com</v>
+        <v>AllysaGrice8@gmail.com</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo7</v>
+        <v>AugustineYoo8</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo7</v>
+        <v>AugustineYoo8</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo7@gmail.com</v>
+        <v>AugustineYoo8@gmail.com</v>
       </c>
       <c r="G41" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard7</v>
+        <v>BrandiSouthard8</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard7</v>
+        <v>BrandiSouthard8</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard7@gmail.com</v>
+        <v>BrandiSouthard8@gmail.com</v>
       </c>
       <c r="G42" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4504B-164E-4482-A7BF-B059D363A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C072F1D-8599-47CA-9ADD-DE22E5BD04CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1030,9 +1030,6 @@
     <t>Lindsay</t>
   </si>
   <si>
-    <t>Ty</t>
-  </si>
-  <si>
     <t>Trista</t>
   </si>
   <si>
@@ -1177,124 +1174,127 @@
     <t>Ms. Jacobsen</t>
   </si>
   <si>
-    <t>DonnellJernigan8</t>
-  </si>
-  <si>
-    <t>DonnellJernigan8@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole8</t>
-  </si>
-  <si>
-    <t>MalikOtoole8@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill8</t>
-  </si>
-  <si>
-    <t>AlanCaudill8@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate8</t>
-  </si>
-  <si>
-    <t>AdanApplegate8@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth8</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth8@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien8</t>
-  </si>
-  <si>
-    <t>MercedezBrien8@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager8</t>
-  </si>
-  <si>
-    <t>DuaneHager8@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell8</t>
-  </si>
-  <si>
-    <t>LorenBell8@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller8</t>
-  </si>
-  <si>
-    <t>GeraldHiller8@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch8</t>
-  </si>
-  <si>
-    <t>DeionBranch8@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead8</t>
-  </si>
-  <si>
-    <t>DakotaHalstead8@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman8</t>
-  </si>
-  <si>
-    <t>ElliottFurman8@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp8</t>
-  </si>
-  <si>
-    <t>MiltonCamp8@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester8</t>
-  </si>
-  <si>
-    <t>DawnChester8@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie8</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie8@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel8</t>
-  </si>
-  <si>
-    <t>EstebanAngel8@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship8</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship8@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice8</t>
-  </si>
-  <si>
-    <t>AllysaGrice8@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo8</t>
-  </si>
-  <si>
-    <t>AugustineYoo8@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard8</t>
-  </si>
-  <si>
-    <t>BrandiSouthard8@gmail.com</t>
+    <t>DonnellJernigan9</t>
+  </si>
+  <si>
+    <t>DonnellJernigan9@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole9</t>
+  </si>
+  <si>
+    <t>MalikOtoole9@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill9</t>
+  </si>
+  <si>
+    <t>AlanCaudill9@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate9</t>
+  </si>
+  <si>
+    <t>AdanApplegate9@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth9</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth9@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien9</t>
+  </si>
+  <si>
+    <t>MercedezBrien9@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager9</t>
+  </si>
+  <si>
+    <t>DuaneHager9@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell9</t>
+  </si>
+  <si>
+    <t>LorenBell9@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller9</t>
+  </si>
+  <si>
+    <t>GeraldHiller9@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch9</t>
+  </si>
+  <si>
+    <t>DeionBranch9@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead9</t>
+  </si>
+  <si>
+    <t>DakotaHalstead9@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman9</t>
+  </si>
+  <si>
+    <t>ElliottFurman9@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp9</t>
+  </si>
+  <si>
+    <t>MiltonCamp9@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester9</t>
+  </si>
+  <si>
+    <t>DawnChester9@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie9</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie9@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel9</t>
+  </si>
+  <si>
+    <t>EstebanAngel9@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship9</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship9@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice9</t>
+  </si>
+  <si>
+    <t>AllysaGrice9@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo9</t>
+  </si>
+  <si>
+    <t>AugustineYoo9@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard9</t>
+  </si>
+  <si>
+    <t>BrandiSouthard9@gmail.com</t>
+  </si>
+  <si>
+    <t>Tyth</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1531,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1625,6 +1625,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2914,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="S5" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3096,13 +3099,13 @@
         <v>54</v>
       </c>
       <c r="R2" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>379</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>380</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>134</v>
@@ -3111,10 +3114,10 @@
         <v>319</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y2" s="14" t="s">
         <v>91</v>
@@ -3189,13 +3192,13 @@
         <v>54</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>382</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>134</v>
@@ -3204,10 +3207,10 @@
         <v>320</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>91</v>
@@ -3282,13 +3285,13 @@
         <v>54</v>
       </c>
       <c r="R4" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T4" s="22" t="s">
         <v>383</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>384</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>134</v>
@@ -3297,10 +3300,10 @@
         <v>321</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="14" t="s">
         <v>91</v>
@@ -3375,13 +3378,13 @@
         <v>54</v>
       </c>
       <c r="R5" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="T5" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>134</v>
@@ -3390,10 +3393,10 @@
         <v>322</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y5" s="14" t="s">
         <v>91</v>
@@ -3468,13 +3471,13 @@
         <v>54</v>
       </c>
       <c r="R6" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="T6" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>388</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>134</v>
@@ -3483,10 +3486,10 @@
         <v>323</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y6" s="14" t="s">
         <v>91</v>
@@ -3561,13 +3564,13 @@
         <v>54</v>
       </c>
       <c r="R7" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="T7" s="22" t="s">
         <v>389</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="T7" s="22" t="s">
-        <v>390</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>134</v>
@@ -3576,10 +3579,10 @@
         <v>324</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>91</v>
@@ -3654,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="R8" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="T8" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="T8" s="22" t="s">
-        <v>392</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="34" t="s">
         <v>325</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y8" s="14" t="s">
         <v>91</v>
@@ -3747,13 +3750,13 @@
         <v>54</v>
       </c>
       <c r="R9" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>394</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>134</v>
@@ -3762,10 +3765,10 @@
         <v>326</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Y9" s="14" t="s">
         <v>91</v>
@@ -3840,25 +3843,25 @@
         <v>54</v>
       </c>
       <c r="R10" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="T10" s="22" t="s">
         <v>395</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="U10" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="34" t="s">
         <v>327</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y10" s="14" t="s">
         <v>91</v>
@@ -3933,13 +3936,13 @@
         <v>54</v>
       </c>
       <c r="R11" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="T11" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>134</v>
@@ -3948,10 +3951,10 @@
         <v>328</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y11" s="14" t="s">
         <v>91</v>
@@ -4026,13 +4029,13 @@
         <v>54</v>
       </c>
       <c r="R12" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="T12" s="22" t="s">
         <v>399</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>400</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>134</v>
@@ -4041,10 +4044,10 @@
         <v>329</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y12" s="14" t="s">
         <v>91</v>
@@ -4119,25 +4122,25 @@
         <v>54</v>
       </c>
       <c r="R13" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="T13" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>402</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V13" s="14" t="s">
-        <v>330</v>
+      <c r="V13" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="X13" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y13" s="14" t="s">
         <v>91</v>
@@ -4212,25 +4215,25 @@
         <v>54</v>
       </c>
       <c r="R14" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="T14" s="22" t="s">
         <v>403</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="T14" s="22" t="s">
-        <v>404</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X14" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y14" s="14" t="s">
         <v>91</v>
@@ -4305,25 +4308,25 @@
         <v>54</v>
       </c>
       <c r="R15" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="T15" s="22" t="s">
         <v>405</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="T15" s="22" t="s">
-        <v>406</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Y15" s="14" t="s">
         <v>91</v>
@@ -4398,25 +4401,25 @@
         <v>54</v>
       </c>
       <c r="R16" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="T16" s="22" t="s">
         <v>407</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="T16" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y16" s="14" t="s">
         <v>91</v>
@@ -4491,25 +4494,25 @@
         <v>54</v>
       </c>
       <c r="R17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="T17" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="T17" s="22" t="s">
-        <v>410</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y17" s="14" t="s">
         <v>91</v>
@@ -4583,25 +4586,25 @@
         <v>54</v>
       </c>
       <c r="R18" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="T18" s="22" t="s">
         <v>411</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="T18" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X18" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Y18" s="14" t="s">
         <v>91</v>
@@ -4675,25 +4678,25 @@
         <v>54</v>
       </c>
       <c r="R19" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="T19" s="22" t="s">
         <v>413</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="T19" s="22" t="s">
-        <v>414</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V19" s="14" t="s">
-        <v>336</v>
+      <c r="V19" s="34" t="s">
+        <v>335</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y19" s="14" t="s">
         <v>91</v>
@@ -4767,25 +4770,25 @@
         <v>54</v>
       </c>
       <c r="R20" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="T20" s="22" t="s">
         <v>415</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="T20" s="22" t="s">
-        <v>416</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Y20" s="14" t="s">
         <v>91</v>
@@ -4859,25 +4862,25 @@
         <v>54</v>
       </c>
       <c r="R21" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="T21" s="25" t="s">
         <v>417</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="T21" s="25" t="s">
-        <v>418</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y21" s="14" t="s">
         <v>91</v>
@@ -5321,15 +5324,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan8</v>
+        <v>DonnellJernigan9</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan8</v>
+        <v>DonnellJernigan9</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan8@gmail.com</v>
+        <v>DonnellJernigan9@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5338,21 +5341,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole8</v>
+        <v>MalikOtoole9</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole8</v>
+        <v>MalikOtoole9</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole8@gmail.com</v>
+        <v>MalikOtoole9@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5361,15 +5364,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill8</v>
+        <v>AlanCaudill9</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill8</v>
+        <v>AlanCaudill9</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill8@gmail.com</v>
+        <v>AlanCaudill9@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5378,15 +5381,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate8</v>
+        <v>AdanApplegate9</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate8</v>
+        <v>AdanApplegate9</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate8@gmail.com</v>
+        <v>AdanApplegate9@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5395,15 +5398,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth8</v>
+        <v>AiyanaWhitworth9</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth8</v>
+        <v>AiyanaWhitworth9</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth8@gmail.com</v>
+        <v>AiyanaWhitworth9@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5412,15 +5415,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien8</v>
+        <v>MercedezBrien9</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien8</v>
+        <v>MercedezBrien9</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien8@gmail.com</v>
+        <v>MercedezBrien9@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5429,15 +5432,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager8</v>
+        <v>DuaneHager9</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager8</v>
+        <v>DuaneHager9</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager8@gmail.com</v>
+        <v>DuaneHager9@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5446,15 +5449,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell8</v>
+        <v>LorenBell9</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell8</v>
+        <v>LorenBell9</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell8@gmail.com</v>
+        <v>LorenBell9@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5463,15 +5466,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller8</v>
+        <v>GeraldHiller9</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller8</v>
+        <v>GeraldHiller9</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller8@gmail.com</v>
+        <v>GeraldHiller9@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5480,15 +5483,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch8</v>
+        <v>DeionBranch9</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch8</v>
+        <v>DeionBranch9</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch8@gmail.com</v>
+        <v>DeionBranch9@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5497,15 +5500,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead8</v>
+        <v>DakotaHalstead9</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead8</v>
+        <v>DakotaHalstead9</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead8@gmail.com</v>
+        <v>DakotaHalstead9@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5514,15 +5517,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman8</v>
+        <v>ElliottFurman9</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman8</v>
+        <v>ElliottFurman9</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman8@gmail.com</v>
+        <v>ElliottFurman9@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5531,15 +5534,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp8</v>
+        <v>MiltonCamp9</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp8</v>
+        <v>MiltonCamp9</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp8@gmail.com</v>
+        <v>MiltonCamp9@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5548,15 +5551,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester8</v>
+        <v>DawnChester9</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester8</v>
+        <v>DawnChester9</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester8@gmail.com</v>
+        <v>DawnChester9@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5565,15 +5568,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie8</v>
+        <v>ZacheryPetrie9</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie8</v>
+        <v>ZacheryPetrie9</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie8@gmail.com</v>
+        <v>ZacheryPetrie9@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5582,15 +5585,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel8</v>
+        <v>EstebanAngel9</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel8</v>
+        <v>EstebanAngel9</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel8@gmail.com</v>
+        <v>EstebanAngel9@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5599,15 +5602,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship8</v>
+        <v>JimmyBlankenship9</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship8</v>
+        <v>JimmyBlankenship9</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship8@gmail.com</v>
+        <v>JimmyBlankenship9@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5616,15 +5619,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice8</v>
+        <v>AllysaGrice9</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice8</v>
+        <v>AllysaGrice9</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice8@gmail.com</v>
+        <v>AllysaGrice9@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5633,15 +5636,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo8</v>
+        <v>AugustineYoo9</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo8</v>
+        <v>AugustineYoo9</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo8@gmail.com</v>
+        <v>AugustineYoo9@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5650,15 +5653,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard8</v>
+        <v>BrandiSouthard9</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard8</v>
+        <v>BrandiSouthard9</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard8@gmail.com</v>
+        <v>BrandiSouthard9@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C072F1D-8599-47CA-9ADD-DE22E5BD04CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65643223-7420-48C0-A71E-6C9D05C153CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -871,126 +871,6 @@
     <t>Order Page</t>
   </si>
   <si>
-    <t>EthanBaker4</t>
-  </si>
-  <si>
-    <t>EthanBaker4@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman4</t>
-  </si>
-  <si>
-    <t>DelanieCarman4@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew4</t>
-  </si>
-  <si>
-    <t>BretAgnew4@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor4</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor4@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis4</t>
-  </si>
-  <si>
-    <t>TyrekReis4@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow4</t>
-  </si>
-  <si>
-    <t>LeannaChow4@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson4</t>
-  </si>
-  <si>
-    <t>TuckerCarlson4@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor4</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor4@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte4</t>
-  </si>
-  <si>
-    <t>MoniqueWitte4@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock4</t>
-  </si>
-  <si>
-    <t>MikelWhitlock4@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya4</t>
-  </si>
-  <si>
-    <t>VincentAmaya4@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz4</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz4@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech4</t>
-  </si>
-  <si>
-    <t>EllisCreech4@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel4</t>
-  </si>
-  <si>
-    <t>DionteCreel4@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust4</t>
-  </si>
-  <si>
-    <t>NicholeFoust4@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell4</t>
-  </si>
-  <si>
-    <t>ManuelConnell4@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam4</t>
-  </si>
-  <si>
-    <t>LourdesElam4@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick4</t>
-  </si>
-  <si>
-    <t>LincolnFrederick4@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash4</t>
-  </si>
-  <si>
-    <t>AlisaCash4@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths4</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths4@gmail.com</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -1174,127 +1054,247 @@
     <t>Ms. Jacobsen</t>
   </si>
   <si>
-    <t>DonnellJernigan9</t>
-  </si>
-  <si>
-    <t>DonnellJernigan9@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole9</t>
-  </si>
-  <si>
-    <t>MalikOtoole9@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill9</t>
-  </si>
-  <si>
-    <t>AlanCaudill9@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate9</t>
-  </si>
-  <si>
-    <t>AdanApplegate9@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth9</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth9@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien9</t>
-  </si>
-  <si>
-    <t>MercedezBrien9@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager9</t>
-  </si>
-  <si>
-    <t>DuaneHager9@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell9</t>
-  </si>
-  <si>
-    <t>LorenBell9@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller9</t>
-  </si>
-  <si>
-    <t>GeraldHiller9@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch9</t>
-  </si>
-  <si>
-    <t>DeionBranch9@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead9</t>
-  </si>
-  <si>
-    <t>DakotaHalstead9@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman9</t>
-  </si>
-  <si>
-    <t>ElliottFurman9@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp9</t>
-  </si>
-  <si>
-    <t>MiltonCamp9@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester9</t>
-  </si>
-  <si>
-    <t>DawnChester9@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie9</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie9@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel9</t>
-  </si>
-  <si>
-    <t>EstebanAngel9@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship9</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship9@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice9</t>
-  </si>
-  <si>
-    <t>AllysaGrice9@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo9</t>
-  </si>
-  <si>
-    <t>AugustineYoo9@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard9</t>
-  </si>
-  <si>
-    <t>BrandiSouthard9@gmail.com</t>
-  </si>
-  <si>
     <t>Tyth</t>
+  </si>
+  <si>
+    <t>DonnellJernigan10</t>
+  </si>
+  <si>
+    <t>DonnellJernigan10@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole10</t>
+  </si>
+  <si>
+    <t>MalikOtoole10@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill10</t>
+  </si>
+  <si>
+    <t>AlanCaudill10@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate10</t>
+  </si>
+  <si>
+    <t>AdanApplegate10@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth10</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth10@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien10</t>
+  </si>
+  <si>
+    <t>MercedezBrien10@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager10</t>
+  </si>
+  <si>
+    <t>DuaneHager10@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell10</t>
+  </si>
+  <si>
+    <t>LorenBell10@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller10</t>
+  </si>
+  <si>
+    <t>GeraldHiller10@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch10</t>
+  </si>
+  <si>
+    <t>DeionBranch10@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead10</t>
+  </si>
+  <si>
+    <t>DakotaHalstead10@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman10</t>
+  </si>
+  <si>
+    <t>ElliottFurman10@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp10</t>
+  </si>
+  <si>
+    <t>MiltonCamp10@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester10</t>
+  </si>
+  <si>
+    <t>DawnChester10@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie10</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie10@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel10</t>
+  </si>
+  <si>
+    <t>EstebanAngel10@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship10</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship10@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice10</t>
+  </si>
+  <si>
+    <t>AllysaGrice10@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo10</t>
+  </si>
+  <si>
+    <t>AugustineYoo10@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard10</t>
+  </si>
+  <si>
+    <t>BrandiSouthard10@gmail.com</t>
+  </si>
+  <si>
+    <t>EthanBaker5</t>
+  </si>
+  <si>
+    <t>EthanBaker5@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman5</t>
+  </si>
+  <si>
+    <t>DelanieCarman5@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew5</t>
+  </si>
+  <si>
+    <t>BretAgnew5@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor5</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor5@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis5</t>
+  </si>
+  <si>
+    <t>TyrekReis5@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow5</t>
+  </si>
+  <si>
+    <t>LeannaChow5@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson5</t>
+  </si>
+  <si>
+    <t>TuckerCarlson5@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor5</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor5@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte5</t>
+  </si>
+  <si>
+    <t>MoniqueWitte5@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock5</t>
+  </si>
+  <si>
+    <t>MikelWhitlock5@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya5</t>
+  </si>
+  <si>
+    <t>VincentAmaya5@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz5</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz5@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech5</t>
+  </si>
+  <si>
+    <t>EllisCreech5@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel5</t>
+  </si>
+  <si>
+    <t>DionteCreel5@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust5</t>
+  </si>
+  <si>
+    <t>NicholeFoust5@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell5</t>
+  </si>
+  <si>
+    <t>ManuelConnell5@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam5</t>
+  </si>
+  <si>
+    <t>LourdesElam5@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick5</t>
+  </si>
+  <si>
+    <t>LincolnFrederick5@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash5</t>
+  </si>
+  <si>
+    <t>AlisaCash5@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths5</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,6 +1397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,7 +1537,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1602,6 +1608,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1626,7 +1635,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1967,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2051,13 +2060,13 @@
         <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -2094,13 +2103,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -2136,13 +2145,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -2178,13 +2187,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -2220,13 +2229,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
@@ -2262,13 +2271,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -2304,13 +2313,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
@@ -2346,13 +2355,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>35</v>
@@ -2388,13 +2397,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
@@ -2430,13 +2439,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>35</v>
@@ -2472,13 +2481,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>297</v>
+        <v>399</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>297</v>
+        <v>399</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
@@ -2514,13 +2523,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>35</v>
@@ -2556,13 +2565,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
@@ -2598,13 +2607,13 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>35</v>
@@ -2640,13 +2649,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>30</v>
@@ -2682,13 +2691,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>35</v>
@@ -2724,13 +2733,13 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>35</v>
@@ -2766,13 +2775,13 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>35</v>
@@ -2808,13 +2817,13 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>314</v>
+        <v>416</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>35</v>
@@ -2850,13 +2859,13 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>316</v>
+        <v>418</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>35</v>
@@ -2917,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S5" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3063,7 +3072,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>195</v>
@@ -3099,25 +3108,25 @@
         <v>54</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="Y2" s="14" t="s">
         <v>91</v>
@@ -3156,7 +3165,7 @@
         <v>81</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>197</v>
@@ -3192,25 +3201,25 @@
         <v>54</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>91</v>
@@ -3249,7 +3258,7 @@
         <v>82</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>199</v>
@@ -3285,25 +3294,25 @@
         <v>54</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Y4" s="14" t="s">
         <v>91</v>
@@ -3342,7 +3351,7 @@
         <v>83</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>201</v>
@@ -3378,25 +3387,25 @@
         <v>54</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="Y5" s="14" t="s">
         <v>91</v>
@@ -3435,7 +3444,7 @@
         <v>84</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>203</v>
@@ -3471,25 +3480,25 @@
         <v>54</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="Y6" s="14" t="s">
         <v>91</v>
@@ -3528,7 +3537,7 @@
         <v>85</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>205</v>
@@ -3564,25 +3573,25 @@
         <v>54</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>91</v>
@@ -3621,7 +3630,7 @@
         <v>86</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>207</v>
@@ -3657,25 +3666,25 @@
         <v>54</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V8" s="34" t="s">
-        <v>325</v>
+      <c r="V8" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="Y8" s="14" t="s">
         <v>91</v>
@@ -3714,7 +3723,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>209</v>
@@ -3750,25 +3759,25 @@
         <v>54</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V9" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>345</v>
+      <c r="V9" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="Y9" s="14" t="s">
         <v>91</v>
@@ -3807,7 +3816,7 @@
         <v>88</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>211</v>
@@ -3843,25 +3852,25 @@
         <v>54</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="U10" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="34" t="s">
-        <v>327</v>
+      <c r="V10" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="Y10" s="14" t="s">
         <v>91</v>
@@ -3900,7 +3909,7 @@
         <v>89</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>213</v>
@@ -3936,25 +3945,25 @@
         <v>54</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V11" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>347</v>
+      <c r="V11" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="W11" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="Y11" s="14" t="s">
         <v>91</v>
@@ -3993,7 +4002,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>215</v>
@@ -4029,25 +4038,25 @@
         <v>54</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="Y12" s="14" t="s">
         <v>91</v>
@@ -4086,7 +4095,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>217</v>
@@ -4122,25 +4131,25 @@
         <v>54</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V13" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>349</v>
+      <c r="V13" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="X13" s="14" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="Y13" s="14" t="s">
         <v>91</v>
@@ -4179,7 +4188,7 @@
         <v>81</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>219</v>
@@ -4215,25 +4224,25 @@
         <v>54</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V14" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="X14" s="14" t="s">
         <v>330</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>370</v>
       </c>
       <c r="Y14" s="14" t="s">
         <v>91</v>
@@ -4272,7 +4281,7 @@
         <v>82</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>221</v>
@@ -4308,25 +4317,25 @@
         <v>54</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V15" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="X15" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>371</v>
       </c>
       <c r="Y15" s="14" t="s">
         <v>91</v>
@@ -4365,7 +4374,7 @@
         <v>83</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>223</v>
@@ -4401,25 +4410,25 @@
         <v>54</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V16" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="X16" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>372</v>
       </c>
       <c r="Y16" s="14" t="s">
         <v>91</v>
@@ -4458,7 +4467,7 @@
         <v>84</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>225</v>
@@ -4494,25 +4503,25 @@
         <v>54</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V17" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="X17" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>373</v>
       </c>
       <c r="Y17" s="14" t="s">
         <v>91</v>
@@ -4550,7 +4559,7 @@
         <v>85</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>227</v>
@@ -4586,25 +4595,25 @@
         <v>54</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V18" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="X18" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="X18" s="14" t="s">
-        <v>374</v>
       </c>
       <c r="Y18" s="14" t="s">
         <v>91</v>
@@ -4642,7 +4651,7 @@
         <v>86</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>229</v>
@@ -4678,25 +4687,25 @@
         <v>54</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V19" s="34" t="s">
+      <c r="V19" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="X19" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="Y19" s="14" t="s">
         <v>91</v>
@@ -4734,7 +4743,7 @@
         <v>87</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>231</v>
@@ -4770,25 +4779,25 @@
         <v>54</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V20" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="X20" s="14" t="s">
         <v>336</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="Y20" s="14" t="s">
         <v>91</v>
@@ -4826,7 +4835,7 @@
         <v>84</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>233</v>
@@ -4862,25 +4871,25 @@
         <v>54</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>134</v>
       </c>
       <c r="V21" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="X21" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>377</v>
       </c>
       <c r="Y21" s="14" t="s">
         <v>91</v>
@@ -4936,8 +4945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4950,30 +4959,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker4</v>
+        <v>EthanBaker5</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker4</v>
+        <v>EthanBaker5</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker4@gmail.com</v>
+        <v>EthanBaker5@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -4982,21 +4991,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman4</v>
+        <v>DelanieCarman5</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman4</v>
+        <v>DelanieCarman5</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman4@gmail.com</v>
+        <v>DelanieCarman5@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5005,15 +5014,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew4</v>
+        <v>BretAgnew5</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew4</v>
+        <v>BretAgnew5</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew4@gmail.com</v>
+        <v>BretAgnew5@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5022,15 +5031,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor4</v>
+        <v>EdgardoTaylor5</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor4</v>
+        <v>EdgardoTaylor5</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor4@gmail.com</v>
+        <v>EdgardoTaylor5@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5039,15 +5048,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis4</v>
+        <v>TyrekReis5</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis4</v>
+        <v>TyrekReis5</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis4@gmail.com</v>
+        <v>TyrekReis5@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5056,15 +5065,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow4</v>
+        <v>LeannaChow5</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow4</v>
+        <v>LeannaChow5</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow4@gmail.com</v>
+        <v>LeannaChow5@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5073,15 +5082,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson4</v>
+        <v>TuckerCarlson5</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson4</v>
+        <v>TuckerCarlson5</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson4@gmail.com</v>
+        <v>TuckerCarlson5@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5090,15 +5099,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor4</v>
+        <v>AnnmarieConnor5</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor4</v>
+        <v>AnnmarieConnor5</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor4@gmail.com</v>
+        <v>AnnmarieConnor5@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5107,15 +5116,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte4</v>
+        <v>MoniqueWitte5</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte4</v>
+        <v>MoniqueWitte5</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte4@gmail.com</v>
+        <v>MoniqueWitte5@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5124,15 +5133,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock4</v>
+        <v>MikelWhitlock5</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock4</v>
+        <v>MikelWhitlock5</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock4@gmail.com</v>
+        <v>MikelWhitlock5@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5141,15 +5150,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya4</v>
+        <v>VincentAmaya5</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya4</v>
+        <v>VincentAmaya5</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya4@gmail.com</v>
+        <v>VincentAmaya5@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5158,15 +5167,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz4</v>
+        <v>KeiraQuiroz5</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz4</v>
+        <v>KeiraQuiroz5</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz4@gmail.com</v>
+        <v>KeiraQuiroz5@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5175,15 +5184,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech4</v>
+        <v>EllisCreech5</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech4</v>
+        <v>EllisCreech5</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech4@gmail.com</v>
+        <v>EllisCreech5@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5192,15 +5201,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel4</v>
+        <v>DionteCreel5</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel4</v>
+        <v>DionteCreel5</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel4@gmail.com</v>
+        <v>DionteCreel5@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5209,15 +5218,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust4</v>
+        <v>NicholeFoust5</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust4</v>
+        <v>NicholeFoust5</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust4@gmail.com</v>
+        <v>NicholeFoust5@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5226,15 +5235,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell4</v>
+        <v>ManuelConnell5</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell4</v>
+        <v>ManuelConnell5</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell4@gmail.com</v>
+        <v>ManuelConnell5@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5243,15 +5252,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam4</v>
+        <v>LourdesElam5</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam4</v>
+        <v>LourdesElam5</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam4@gmail.com</v>
+        <v>LourdesElam5@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5260,15 +5269,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick4</v>
+        <v>LincolnFrederick5</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick4</v>
+        <v>LincolnFrederick5</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick4@gmail.com</v>
+        <v>LincolnFrederick5@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5277,15 +5286,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash4</v>
+        <v>AlisaCash5</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash4</v>
+        <v>AlisaCash5</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash4@gmail.com</v>
+        <v>AlisaCash5@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5294,45 +5303,45 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths4</v>
+        <v>LucilleGriffiths5</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths4</v>
+        <v>LucilleGriffiths5</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths4@gmail.com</v>
+        <v>LucilleGriffiths5@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan9</v>
+        <v>DonnellJernigan10</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan9</v>
+        <v>DonnellJernigan10</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan9@gmail.com</v>
+        <v>DonnellJernigan10@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5341,21 +5350,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole9</v>
+        <v>MalikOtoole10</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole9</v>
+        <v>MalikOtoole10</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole9@gmail.com</v>
+        <v>MalikOtoole10@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5364,15 +5373,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill9</v>
+        <v>AlanCaudill10</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill9</v>
+        <v>AlanCaudill10</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill9@gmail.com</v>
+        <v>AlanCaudill10@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5381,15 +5390,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate9</v>
+        <v>AdanApplegate10</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate9</v>
+        <v>AdanApplegate10</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate9@gmail.com</v>
+        <v>AdanApplegate10@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5398,15 +5407,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth9</v>
+        <v>AiyanaWhitworth10</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth9</v>
+        <v>AiyanaWhitworth10</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth9@gmail.com</v>
+        <v>AiyanaWhitworth10@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5415,15 +5424,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien9</v>
+        <v>MercedezBrien10</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien9</v>
+        <v>MercedezBrien10</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien9@gmail.com</v>
+        <v>MercedezBrien10@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5432,15 +5441,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager9</v>
+        <v>DuaneHager10</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager9</v>
+        <v>DuaneHager10</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager9@gmail.com</v>
+        <v>DuaneHager10@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5449,15 +5458,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell9</v>
+        <v>LorenBell10</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell9</v>
+        <v>LorenBell10</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell9@gmail.com</v>
+        <v>LorenBell10@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5466,15 +5475,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller9</v>
+        <v>GeraldHiller10</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller9</v>
+        <v>GeraldHiller10</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller9@gmail.com</v>
+        <v>GeraldHiller10@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5483,15 +5492,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch9</v>
+        <v>DeionBranch10</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch9</v>
+        <v>DeionBranch10</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch9@gmail.com</v>
+        <v>DeionBranch10@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5500,15 +5509,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead9</v>
+        <v>DakotaHalstead10</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead9</v>
+        <v>DakotaHalstead10</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead9@gmail.com</v>
+        <v>DakotaHalstead10@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5517,15 +5526,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman9</v>
+        <v>ElliottFurman10</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman9</v>
+        <v>ElliottFurman10</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman9@gmail.com</v>
+        <v>ElliottFurman10@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5534,15 +5543,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp9</v>
+        <v>MiltonCamp10</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp9</v>
+        <v>MiltonCamp10</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp9@gmail.com</v>
+        <v>MiltonCamp10@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5551,15 +5560,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester9</v>
+        <v>DawnChester10</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester9</v>
+        <v>DawnChester10</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester9@gmail.com</v>
+        <v>DawnChester10@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5568,15 +5577,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie9</v>
+        <v>ZacheryPetrie10</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie9</v>
+        <v>ZacheryPetrie10</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie9@gmail.com</v>
+        <v>ZacheryPetrie10@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5585,15 +5594,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel9</v>
+        <v>EstebanAngel10</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel9</v>
+        <v>EstebanAngel10</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel9@gmail.com</v>
+        <v>EstebanAngel10@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5602,15 +5611,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship9</v>
+        <v>JimmyBlankenship10</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship9</v>
+        <v>JimmyBlankenship10</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship9@gmail.com</v>
+        <v>JimmyBlankenship10@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5619,15 +5628,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice9</v>
+        <v>AllysaGrice10</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice9</v>
+        <v>AllysaGrice10</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice9@gmail.com</v>
+        <v>AllysaGrice10@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5636,15 +5645,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo9</v>
+        <v>AugustineYoo10</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo9</v>
+        <v>AugustineYoo10</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo9@gmail.com</v>
+        <v>AugustineYoo10@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5653,15 +5662,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard9</v>
+        <v>BrandiSouthard10</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard9</v>
+        <v>BrandiSouthard10</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard9@gmail.com</v>
+        <v>BrandiSouthard10@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65643223-7420-48C0-A71E-6C9D05C153CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC4278F-A065-4370-8802-865FE7941070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="420">
   <si>
     <t>run</t>
   </si>
@@ -1057,244 +1057,247 @@
     <t>Tyth</t>
   </si>
   <si>
-    <t>DonnellJernigan10</t>
-  </si>
-  <si>
-    <t>DonnellJernigan10@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole10</t>
-  </si>
-  <si>
-    <t>MalikOtoole10@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill10</t>
-  </si>
-  <si>
-    <t>AlanCaudill10@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate10</t>
-  </si>
-  <si>
-    <t>AdanApplegate10@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth10</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth10@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien10</t>
-  </si>
-  <si>
-    <t>MercedezBrien10@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager10</t>
-  </si>
-  <si>
-    <t>DuaneHager10@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell10</t>
-  </si>
-  <si>
-    <t>LorenBell10@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller10</t>
-  </si>
-  <si>
-    <t>GeraldHiller10@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch10</t>
-  </si>
-  <si>
-    <t>DeionBranch10@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead10</t>
-  </si>
-  <si>
-    <t>DakotaHalstead10@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman10</t>
-  </si>
-  <si>
-    <t>ElliottFurman10@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp10</t>
-  </si>
-  <si>
-    <t>MiltonCamp10@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester10</t>
-  </si>
-  <si>
-    <t>DawnChester10@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie10</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie10@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel10</t>
-  </si>
-  <si>
-    <t>EstebanAngel10@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship10</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship10@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice10</t>
-  </si>
-  <si>
-    <t>AllysaGrice10@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo10</t>
-  </si>
-  <si>
-    <t>AugustineYoo10@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard10</t>
-  </si>
-  <si>
-    <t>BrandiSouthard10@gmail.com</t>
-  </si>
-  <si>
-    <t>EthanBaker5</t>
-  </si>
-  <si>
-    <t>EthanBaker5@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman5</t>
-  </si>
-  <si>
-    <t>DelanieCarman5@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew5</t>
-  </si>
-  <si>
-    <t>BretAgnew5@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor5</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor5@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis5</t>
-  </si>
-  <si>
-    <t>TyrekReis5@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow5</t>
-  </si>
-  <si>
-    <t>LeannaChow5@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson5</t>
-  </si>
-  <si>
-    <t>TuckerCarlson5@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor5</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor5@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte5</t>
-  </si>
-  <si>
-    <t>MoniqueWitte5@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock5</t>
-  </si>
-  <si>
-    <t>MikelWhitlock5@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya5</t>
-  </si>
-  <si>
-    <t>VincentAmaya5@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz5</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz5@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech5</t>
-  </si>
-  <si>
-    <t>EllisCreech5@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel5</t>
-  </si>
-  <si>
-    <t>DionteCreel5@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust5</t>
-  </si>
-  <si>
-    <t>NicholeFoust5@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell5</t>
-  </si>
-  <si>
-    <t>ManuelConnell5@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam5</t>
-  </si>
-  <si>
-    <t>LourdesElam5@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick5</t>
-  </si>
-  <si>
-    <t>LincolnFrederick5@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash5</t>
-  </si>
-  <si>
-    <t>AlisaCash5@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths5</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths5@gmail.com</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>EthanBaker6</t>
+  </si>
+  <si>
+    <t>EthanBaker6@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman6</t>
+  </si>
+  <si>
+    <t>DelanieCarman6@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew6</t>
+  </si>
+  <si>
+    <t>BretAgnew6@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor6</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor6@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis6</t>
+  </si>
+  <si>
+    <t>TyrekReis6@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow6</t>
+  </si>
+  <si>
+    <t>LeannaChow6@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson6</t>
+  </si>
+  <si>
+    <t>TuckerCarlson6@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor6</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor6@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte6</t>
+  </si>
+  <si>
+    <t>MoniqueWitte6@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock6</t>
+  </si>
+  <si>
+    <t>MikelWhitlock6@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya6</t>
+  </si>
+  <si>
+    <t>VincentAmaya6@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz6</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz6@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech6</t>
+  </si>
+  <si>
+    <t>EllisCreech6@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel6</t>
+  </si>
+  <si>
+    <t>DionteCreel6@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust6</t>
+  </si>
+  <si>
+    <t>NicholeFoust6@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell6</t>
+  </si>
+  <si>
+    <t>ManuelConnell6@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam6</t>
+  </si>
+  <si>
+    <t>LourdesElam6@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick6</t>
+  </si>
+  <si>
+    <t>LincolnFrederick6@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash6</t>
+  </si>
+  <si>
+    <t>AlisaCash6@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths6</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths6@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan11</t>
+  </si>
+  <si>
+    <t>DonnellJernigan11@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole11</t>
+  </si>
+  <si>
+    <t>MalikOtoole11@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill11</t>
+  </si>
+  <si>
+    <t>AlanCaudill11@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate11</t>
+  </si>
+  <si>
+    <t>AdanApplegate11@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth11</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth11@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien11</t>
+  </si>
+  <si>
+    <t>MercedezBrien11@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager11</t>
+  </si>
+  <si>
+    <t>DuaneHager11@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell11</t>
+  </si>
+  <si>
+    <t>LorenBell11@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller11</t>
+  </si>
+  <si>
+    <t>GeraldHiller11@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch11</t>
+  </si>
+  <si>
+    <t>DeionBranch11@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead11</t>
+  </si>
+  <si>
+    <t>DakotaHalstead11@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman11</t>
+  </si>
+  <si>
+    <t>ElliottFurman11@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp11</t>
+  </si>
+  <si>
+    <t>MiltonCamp11@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester11</t>
+  </si>
+  <si>
+    <t>DawnChester11@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie11</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie11@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel11</t>
+  </si>
+  <si>
+    <t>EstebanAngel11@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship11</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship11@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice11</t>
+  </si>
+  <si>
+    <t>AllysaGrice11@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo11</t>
+  </si>
+  <si>
+    <t>AugustineYoo11@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard11</t>
+  </si>
+  <si>
+    <t>BrandiSouthard11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,7 +1546,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1611,6 +1620,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1635,7 +1647,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1976,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I21"/>
     </sheetView>
   </sheetViews>
@@ -2060,13 +2072,13 @@
         <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -2103,13 +2115,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -2145,13 +2157,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -2187,13 +2199,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -2229,13 +2241,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
@@ -2271,13 +2283,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -2313,13 +2325,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
@@ -2355,13 +2367,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>35</v>
@@ -2397,13 +2409,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
@@ -2439,13 +2451,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>35</v>
@@ -2481,13 +2493,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
@@ -2523,13 +2535,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>35</v>
@@ -2565,13 +2577,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
@@ -2607,13 +2619,13 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>35</v>
@@ -2649,13 +2661,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>30</v>
@@ -2691,13 +2703,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>35</v>
@@ -2733,13 +2745,13 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>35</v>
@@ -2775,13 +2787,13 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>35</v>
@@ -2817,13 +2829,13 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>35</v>
@@ -2859,13 +2871,13 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>35</v>
@@ -2926,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3108,13 +3120,13 @@
         <v>54</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>134</v>
@@ -3201,13 +3213,13 @@
         <v>54</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>134</v>
@@ -3294,13 +3306,13 @@
         <v>54</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>134</v>
@@ -3387,13 +3399,13 @@
         <v>54</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>134</v>
@@ -3480,13 +3492,13 @@
         <v>54</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>134</v>
@@ -3573,13 +3585,13 @@
         <v>54</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>134</v>
@@ -3666,13 +3678,13 @@
         <v>54</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>134</v>
@@ -3759,21 +3771,21 @@
         <v>54</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="V9" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="27" t="s">
         <v>305</v>
       </c>
       <c r="X9" s="14" t="s">
@@ -3852,13 +3864,13 @@
         <v>54</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="U10" s="15" t="s">
         <v>134</v>
@@ -3945,21 +3957,21 @@
         <v>54</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="V11" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="W11" s="35" t="s">
+      <c r="W11" s="27" t="s">
         <v>307</v>
       </c>
       <c r="X11" s="14" t="s">
@@ -4038,13 +4050,13 @@
         <v>54</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>134</v>
@@ -4131,13 +4143,13 @@
         <v>54</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>134</v>
@@ -4145,7 +4157,7 @@
       <c r="V13" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="W13" s="35" t="s">
+      <c r="W13" s="27" t="s">
         <v>309</v>
       </c>
       <c r="X13" s="14" t="s">
@@ -4224,13 +4236,13 @@
         <v>54</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>134</v>
@@ -4317,13 +4329,13 @@
         <v>54</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>134</v>
@@ -4410,13 +4422,13 @@
         <v>54</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>134</v>
@@ -4503,13 +4515,13 @@
         <v>54</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>134</v>
@@ -4559,7 +4571,7 @@
         <v>85</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>227</v>
@@ -4595,13 +4607,13 @@
         <v>54</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>134</v>
@@ -4687,13 +4699,13 @@
         <v>54</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>134</v>
@@ -4779,13 +4791,13 @@
         <v>54</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>134</v>
@@ -4793,7 +4805,7 @@
       <c r="V20" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="W20" s="14" t="s">
+      <c r="W20" s="36" t="s">
         <v>316</v>
       </c>
       <c r="X20" s="14" t="s">
@@ -4871,13 +4883,13 @@
         <v>54</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>134</v>
@@ -4945,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C21"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4959,30 +4971,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker5</v>
+        <v>EthanBaker6</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker5</v>
+        <v>EthanBaker6</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker5@gmail.com</v>
+        <v>EthanBaker6@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -4991,21 +5003,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman5</v>
+        <v>DelanieCarman6</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman5</v>
+        <v>DelanieCarman6</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman5@gmail.com</v>
+        <v>DelanieCarman6@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5014,15 +5026,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew5</v>
+        <v>BretAgnew6</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew5</v>
+        <v>BretAgnew6</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew5@gmail.com</v>
+        <v>BretAgnew6@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5031,15 +5043,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor5</v>
+        <v>EdgardoTaylor6</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor5</v>
+        <v>EdgardoTaylor6</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor5@gmail.com</v>
+        <v>EdgardoTaylor6@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5048,15 +5060,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis5</v>
+        <v>TyrekReis6</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis5</v>
+        <v>TyrekReis6</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis5@gmail.com</v>
+        <v>TyrekReis6@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5065,15 +5077,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow5</v>
+        <v>LeannaChow6</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow5</v>
+        <v>LeannaChow6</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow5@gmail.com</v>
+        <v>LeannaChow6@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5082,15 +5094,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson5</v>
+        <v>TuckerCarlson6</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson5</v>
+        <v>TuckerCarlson6</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson5@gmail.com</v>
+        <v>TuckerCarlson6@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5099,15 +5111,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor5</v>
+        <v>AnnmarieConnor6</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor5</v>
+        <v>AnnmarieConnor6</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor5@gmail.com</v>
+        <v>AnnmarieConnor6@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5116,15 +5128,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte5</v>
+        <v>MoniqueWitte6</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte5</v>
+        <v>MoniqueWitte6</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte5@gmail.com</v>
+        <v>MoniqueWitte6@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5133,15 +5145,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock5</v>
+        <v>MikelWhitlock6</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock5</v>
+        <v>MikelWhitlock6</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock5@gmail.com</v>
+        <v>MikelWhitlock6@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5150,15 +5162,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya5</v>
+        <v>VincentAmaya6</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya5</v>
+        <v>VincentAmaya6</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya5@gmail.com</v>
+        <v>VincentAmaya6@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5167,15 +5179,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz5</v>
+        <v>KeiraQuiroz6</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz5</v>
+        <v>KeiraQuiroz6</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz5@gmail.com</v>
+        <v>KeiraQuiroz6@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5184,15 +5196,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech5</v>
+        <v>EllisCreech6</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech5</v>
+        <v>EllisCreech6</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech5@gmail.com</v>
+        <v>EllisCreech6@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5201,15 +5213,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel5</v>
+        <v>DionteCreel6</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel5</v>
+        <v>DionteCreel6</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel5@gmail.com</v>
+        <v>DionteCreel6@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5218,15 +5230,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust5</v>
+        <v>NicholeFoust6</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust5</v>
+        <v>NicholeFoust6</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust5@gmail.com</v>
+        <v>NicholeFoust6@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5235,15 +5247,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell5</v>
+        <v>ManuelConnell6</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell5</v>
+        <v>ManuelConnell6</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell5@gmail.com</v>
+        <v>ManuelConnell6@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5252,15 +5264,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam5</v>
+        <v>LourdesElam6</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam5</v>
+        <v>LourdesElam6</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam5@gmail.com</v>
+        <v>LourdesElam6@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5269,15 +5281,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick5</v>
+        <v>LincolnFrederick6</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick5</v>
+        <v>LincolnFrederick6</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick5@gmail.com</v>
+        <v>LincolnFrederick6@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5286,15 +5298,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash5</v>
+        <v>AlisaCash6</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash5</v>
+        <v>AlisaCash6</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash5@gmail.com</v>
+        <v>AlisaCash6@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5303,45 +5315,45 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths5</v>
+        <v>LucilleGriffiths6</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths5</v>
+        <v>LucilleGriffiths6</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths5@gmail.com</v>
+        <v>LucilleGriffiths6@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan10</v>
+        <v>DonnellJernigan11</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan10</v>
+        <v>DonnellJernigan11</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan10@gmail.com</v>
+        <v>DonnellJernigan11@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5350,21 +5362,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole10</v>
+        <v>MalikOtoole11</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole10</v>
+        <v>MalikOtoole11</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole10@gmail.com</v>
+        <v>MalikOtoole11@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5373,15 +5385,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill10</v>
+        <v>AlanCaudill11</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill10</v>
+        <v>AlanCaudill11</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill10@gmail.com</v>
+        <v>AlanCaudill11@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5390,15 +5402,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate10</v>
+        <v>AdanApplegate11</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate10</v>
+        <v>AdanApplegate11</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate10@gmail.com</v>
+        <v>AdanApplegate11@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5407,15 +5419,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth10</v>
+        <v>AiyanaWhitworth11</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth10</v>
+        <v>AiyanaWhitworth11</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth10@gmail.com</v>
+        <v>AiyanaWhitworth11@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5424,15 +5436,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien10</v>
+        <v>MercedezBrien11</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien10</v>
+        <v>MercedezBrien11</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien10@gmail.com</v>
+        <v>MercedezBrien11@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5441,15 +5453,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager10</v>
+        <v>DuaneHager11</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager10</v>
+        <v>DuaneHager11</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager10@gmail.com</v>
+        <v>DuaneHager11@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5458,15 +5470,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell10</v>
+        <v>LorenBell11</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell10</v>
+        <v>LorenBell11</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell10@gmail.com</v>
+        <v>LorenBell11@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5475,15 +5487,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller10</v>
+        <v>GeraldHiller11</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller10</v>
+        <v>GeraldHiller11</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller10@gmail.com</v>
+        <v>GeraldHiller11@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5492,15 +5504,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch10</v>
+        <v>DeionBranch11</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch10</v>
+        <v>DeionBranch11</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch10@gmail.com</v>
+        <v>DeionBranch11@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5509,15 +5521,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead10</v>
+        <v>DakotaHalstead11</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead10</v>
+        <v>DakotaHalstead11</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead10@gmail.com</v>
+        <v>DakotaHalstead11@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5526,15 +5538,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman10</v>
+        <v>ElliottFurman11</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman10</v>
+        <v>ElliottFurman11</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman10@gmail.com</v>
+        <v>ElliottFurman11@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5543,15 +5555,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp10</v>
+        <v>MiltonCamp11</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp10</v>
+        <v>MiltonCamp11</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp10@gmail.com</v>
+        <v>MiltonCamp11@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5560,15 +5572,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester10</v>
+        <v>DawnChester11</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester10</v>
+        <v>DawnChester11</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester10@gmail.com</v>
+        <v>DawnChester11@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5577,15 +5589,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie10</v>
+        <v>ZacheryPetrie11</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie10</v>
+        <v>ZacheryPetrie11</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie10@gmail.com</v>
+        <v>ZacheryPetrie11@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5594,15 +5606,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel10</v>
+        <v>EstebanAngel11</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel10</v>
+        <v>EstebanAngel11</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel10@gmail.com</v>
+        <v>EstebanAngel11@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5611,15 +5623,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship10</v>
+        <v>JimmyBlankenship11</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship10</v>
+        <v>JimmyBlankenship11</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship10@gmail.com</v>
+        <v>JimmyBlankenship11@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5628,15 +5640,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice10</v>
+        <v>AllysaGrice11</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice10</v>
+        <v>AllysaGrice11</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice10@gmail.com</v>
+        <v>AllysaGrice11@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5645,15 +5657,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo10</v>
+        <v>AugustineYoo11</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo10</v>
+        <v>AugustineYoo11</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo10@gmail.com</v>
+        <v>AugustineYoo11@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5662,15 +5674,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard10</v>
+        <v>BrandiSouthard11</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard10</v>
+        <v>BrandiSouthard11</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard10@gmail.com</v>
+        <v>BrandiSouthard11@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC4278F-A065-4370-8802-865FE7941070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFB2CC-024B-48F6-9191-9BD75DCAD1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1060,244 +1060,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker6</t>
-  </si>
-  <si>
-    <t>EthanBaker6@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman6</t>
-  </si>
-  <si>
-    <t>DelanieCarman6@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew6</t>
-  </si>
-  <si>
-    <t>BretAgnew6@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor6</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor6@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis6</t>
-  </si>
-  <si>
-    <t>TyrekReis6@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow6</t>
-  </si>
-  <si>
-    <t>LeannaChow6@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson6</t>
-  </si>
-  <si>
-    <t>TuckerCarlson6@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor6</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor6@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte6</t>
-  </si>
-  <si>
-    <t>MoniqueWitte6@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock6</t>
-  </si>
-  <si>
-    <t>MikelWhitlock6@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya6</t>
-  </si>
-  <si>
-    <t>VincentAmaya6@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz6</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz6@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech6</t>
-  </si>
-  <si>
-    <t>EllisCreech6@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel6</t>
-  </si>
-  <si>
-    <t>DionteCreel6@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust6</t>
-  </si>
-  <si>
-    <t>NicholeFoust6@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell6</t>
-  </si>
-  <si>
-    <t>ManuelConnell6@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam6</t>
-  </si>
-  <si>
-    <t>LourdesElam6@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick6</t>
-  </si>
-  <si>
-    <t>LincolnFrederick6@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash6</t>
-  </si>
-  <si>
-    <t>AlisaCash6@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths6</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths6@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan11</t>
-  </si>
-  <si>
-    <t>DonnellJernigan11@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole11</t>
-  </si>
-  <si>
-    <t>MalikOtoole11@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill11</t>
-  </si>
-  <si>
-    <t>AlanCaudill11@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate11</t>
-  </si>
-  <si>
-    <t>AdanApplegate11@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth11</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth11@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien11</t>
-  </si>
-  <si>
-    <t>MercedezBrien11@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager11</t>
-  </si>
-  <si>
-    <t>DuaneHager11@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell11</t>
-  </si>
-  <si>
-    <t>LorenBell11@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller11</t>
-  </si>
-  <si>
-    <t>GeraldHiller11@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch11</t>
-  </si>
-  <si>
-    <t>DeionBranch11@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead11</t>
-  </si>
-  <si>
-    <t>DakotaHalstead11@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman11</t>
-  </si>
-  <si>
-    <t>ElliottFurman11@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp11</t>
-  </si>
-  <si>
-    <t>MiltonCamp11@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester11</t>
-  </si>
-  <si>
-    <t>DawnChester11@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie11</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie11@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel11</t>
-  </si>
-  <si>
-    <t>EstebanAngel11@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship11</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship11@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice11</t>
-  </si>
-  <si>
-    <t>AllysaGrice11@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo11</t>
-  </si>
-  <si>
-    <t>AugustineYoo11@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard11</t>
-  </si>
-  <si>
-    <t>BrandiSouthard11@gmail.com</t>
+    <t>DonnellJernigan12</t>
+  </si>
+  <si>
+    <t>DonnellJernigan12@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole12</t>
+  </si>
+  <si>
+    <t>MalikOtoole12@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill12</t>
+  </si>
+  <si>
+    <t>AlanCaudill12@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate12</t>
+  </si>
+  <si>
+    <t>AdanApplegate12@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth12</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth12@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien12</t>
+  </si>
+  <si>
+    <t>MercedezBrien12@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager12</t>
+  </si>
+  <si>
+    <t>DuaneHager12@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell12</t>
+  </si>
+  <si>
+    <t>LorenBell12@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller12</t>
+  </si>
+  <si>
+    <t>GeraldHiller12@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch12</t>
+  </si>
+  <si>
+    <t>DeionBranch12@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead12</t>
+  </si>
+  <si>
+    <t>DakotaHalstead12@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman12</t>
+  </si>
+  <si>
+    <t>ElliottFurman12@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp12</t>
+  </si>
+  <si>
+    <t>MiltonCamp12@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester12</t>
+  </si>
+  <si>
+    <t>DawnChester12@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie12</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie12@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel12</t>
+  </si>
+  <si>
+    <t>EstebanAngel12@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship12</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship12@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice12</t>
+  </si>
+  <si>
+    <t>AllysaGrice12@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo12</t>
+  </si>
+  <si>
+    <t>AugustineYoo12@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard12</t>
+  </si>
+  <si>
+    <t>BrandiSouthard12@gmail.com</t>
+  </si>
+  <si>
+    <t>EthanBaker7</t>
+  </si>
+  <si>
+    <t>EthanBaker7@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman7</t>
+  </si>
+  <si>
+    <t>DelanieCarman7@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew7</t>
+  </si>
+  <si>
+    <t>BretAgnew7@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor7</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor7@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis7</t>
+  </si>
+  <si>
+    <t>TyrekReis7@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow7</t>
+  </si>
+  <si>
+    <t>LeannaChow7@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson7</t>
+  </si>
+  <si>
+    <t>TuckerCarlson7@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor7</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor7@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte7</t>
+  </si>
+  <si>
+    <t>MoniqueWitte7@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock7</t>
+  </si>
+  <si>
+    <t>MikelWhitlock7@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya7</t>
+  </si>
+  <si>
+    <t>VincentAmaya7@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz7</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz7@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech7</t>
+  </si>
+  <si>
+    <t>EllisCreech7@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel7</t>
+  </si>
+  <si>
+    <t>DionteCreel7@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust7</t>
+  </si>
+  <si>
+    <t>NicholeFoust7@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell7</t>
+  </si>
+  <si>
+    <t>ManuelConnell7@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam7</t>
+  </si>
+  <si>
+    <t>LourdesElam7@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick7</t>
+  </si>
+  <si>
+    <t>LincolnFrederick7@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash7</t>
+  </si>
+  <si>
+    <t>AlisaCash7@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths7</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1623,6 +1623,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1646,9 +1649,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1988,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I21"/>
     </sheetView>
   </sheetViews>
@@ -2072,13 +2072,13 @@
         <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -2115,13 +2115,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -2157,13 +2157,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -2199,13 +2199,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -2241,13 +2241,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
@@ -2283,13 +2283,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -2325,13 +2325,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
@@ -2367,13 +2367,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>35</v>
@@ -2409,13 +2409,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
@@ -2451,13 +2451,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>35</v>
@@ -2493,13 +2493,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
@@ -2535,13 +2535,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>35</v>
@@ -2577,13 +2577,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
@@ -2619,13 +2619,13 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>35</v>
@@ -2661,13 +2661,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>30</v>
@@ -2703,13 +2703,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>35</v>
@@ -2745,13 +2745,13 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>35</v>
@@ -2787,13 +2787,13 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>35</v>
@@ -2829,13 +2829,13 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>35</v>
@@ -2871,13 +2871,13 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>35</v>
@@ -2938,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3120,13 +3120,13 @@
         <v>54</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>134</v>
@@ -3213,13 +3213,13 @@
         <v>54</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>134</v>
@@ -3306,13 +3306,13 @@
         <v>54</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>134</v>
@@ -3399,13 +3399,13 @@
         <v>54</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>134</v>
@@ -3492,13 +3492,13 @@
         <v>54</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>134</v>
@@ -3585,13 +3585,13 @@
         <v>54</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>134</v>
@@ -3678,13 +3678,13 @@
         <v>54</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>134</v>
@@ -3771,13 +3771,13 @@
         <v>54</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>134</v>
@@ -3864,13 +3864,13 @@
         <v>54</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="U10" s="15" t="s">
         <v>134</v>
@@ -3957,13 +3957,13 @@
         <v>54</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>134</v>
@@ -4050,13 +4050,13 @@
         <v>54</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>134</v>
@@ -4143,13 +4143,13 @@
         <v>54</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>134</v>
@@ -4236,13 +4236,13 @@
         <v>54</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>134</v>
@@ -4329,13 +4329,13 @@
         <v>54</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>134</v>
@@ -4422,13 +4422,13 @@
         <v>54</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>134</v>
@@ -4515,13 +4515,13 @@
         <v>54</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>134</v>
@@ -4607,13 +4607,13 @@
         <v>54</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>134</v>
@@ -4699,13 +4699,13 @@
         <v>54</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>134</v>
@@ -4791,13 +4791,13 @@
         <v>54</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>134</v>
@@ -4805,7 +4805,7 @@
       <c r="V20" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="W20" s="36" t="s">
+      <c r="W20" s="28" t="s">
         <v>316</v>
       </c>
       <c r="X20" s="14" t="s">
@@ -4883,13 +4883,13 @@
         <v>54</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>134</v>
@@ -4957,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4971,30 +4971,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker6</v>
+        <v>EthanBaker7</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker6</v>
+        <v>EthanBaker7</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker6@gmail.com</v>
+        <v>EthanBaker7@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -5003,21 +5003,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman6</v>
+        <v>DelanieCarman7</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman6</v>
+        <v>DelanieCarman7</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman6@gmail.com</v>
+        <v>DelanieCarman7@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5026,15 +5026,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew6</v>
+        <v>BretAgnew7</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew6</v>
+        <v>BretAgnew7</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew6@gmail.com</v>
+        <v>BretAgnew7@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5043,15 +5043,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor6</v>
+        <v>EdgardoTaylor7</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor6</v>
+        <v>EdgardoTaylor7</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor6@gmail.com</v>
+        <v>EdgardoTaylor7@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5060,15 +5060,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis6</v>
+        <v>TyrekReis7</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis6</v>
+        <v>TyrekReis7</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis6@gmail.com</v>
+        <v>TyrekReis7@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5077,15 +5077,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow6</v>
+        <v>LeannaChow7</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow6</v>
+        <v>LeannaChow7</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow6@gmail.com</v>
+        <v>LeannaChow7@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5094,15 +5094,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson6</v>
+        <v>TuckerCarlson7</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson6</v>
+        <v>TuckerCarlson7</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson6@gmail.com</v>
+        <v>TuckerCarlson7@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5111,15 +5111,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor6</v>
+        <v>AnnmarieConnor7</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor6</v>
+        <v>AnnmarieConnor7</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor6@gmail.com</v>
+        <v>AnnmarieConnor7@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5128,15 +5128,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte6</v>
+        <v>MoniqueWitte7</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte6</v>
+        <v>MoniqueWitte7</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte6@gmail.com</v>
+        <v>MoniqueWitte7@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5145,15 +5145,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock6</v>
+        <v>MikelWhitlock7</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock6</v>
+        <v>MikelWhitlock7</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock6@gmail.com</v>
+        <v>MikelWhitlock7@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5162,15 +5162,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya6</v>
+        <v>VincentAmaya7</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya6</v>
+        <v>VincentAmaya7</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya6@gmail.com</v>
+        <v>VincentAmaya7@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5179,15 +5179,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz6</v>
+        <v>KeiraQuiroz7</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz6</v>
+        <v>KeiraQuiroz7</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz6@gmail.com</v>
+        <v>KeiraQuiroz7@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5196,15 +5196,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech6</v>
+        <v>EllisCreech7</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech6</v>
+        <v>EllisCreech7</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech6@gmail.com</v>
+        <v>EllisCreech7@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5213,15 +5213,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel6</v>
+        <v>DionteCreel7</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel6</v>
+        <v>DionteCreel7</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel6@gmail.com</v>
+        <v>DionteCreel7@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5230,15 +5230,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust6</v>
+        <v>NicholeFoust7</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust6</v>
+        <v>NicholeFoust7</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust6@gmail.com</v>
+        <v>NicholeFoust7@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5247,15 +5247,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell6</v>
+        <v>ManuelConnell7</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell6</v>
+        <v>ManuelConnell7</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell6@gmail.com</v>
+        <v>ManuelConnell7@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5264,15 +5264,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam6</v>
+        <v>LourdesElam7</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam6</v>
+        <v>LourdesElam7</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam6@gmail.com</v>
+        <v>LourdesElam7@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5281,15 +5281,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick6</v>
+        <v>LincolnFrederick7</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick6</v>
+        <v>LincolnFrederick7</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick6@gmail.com</v>
+        <v>LincolnFrederick7@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5298,15 +5298,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash6</v>
+        <v>AlisaCash7</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash6</v>
+        <v>AlisaCash7</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash6@gmail.com</v>
+        <v>AlisaCash7@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5315,45 +5315,45 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths6</v>
+        <v>LucilleGriffiths7</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths6</v>
+        <v>LucilleGriffiths7</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths6@gmail.com</v>
+        <v>LucilleGriffiths7@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan11</v>
+        <v>DonnellJernigan12</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan11</v>
+        <v>DonnellJernigan12</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan11@gmail.com</v>
+        <v>DonnellJernigan12@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5362,21 +5362,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole11</v>
+        <v>MalikOtoole12</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole11</v>
+        <v>MalikOtoole12</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole11@gmail.com</v>
+        <v>MalikOtoole12@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5385,15 +5385,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill11</v>
+        <v>AlanCaudill12</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill11</v>
+        <v>AlanCaudill12</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill11@gmail.com</v>
+        <v>AlanCaudill12@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5402,15 +5402,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate11</v>
+        <v>AdanApplegate12</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate11</v>
+        <v>AdanApplegate12</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate11@gmail.com</v>
+        <v>AdanApplegate12@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5419,15 +5419,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth11</v>
+        <v>AiyanaWhitworth12</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth11</v>
+        <v>AiyanaWhitworth12</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth11@gmail.com</v>
+        <v>AiyanaWhitworth12@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5436,15 +5436,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien11</v>
+        <v>MercedezBrien12</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien11</v>
+        <v>MercedezBrien12</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien11@gmail.com</v>
+        <v>MercedezBrien12@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5453,15 +5453,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager11</v>
+        <v>DuaneHager12</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager11</v>
+        <v>DuaneHager12</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager11@gmail.com</v>
+        <v>DuaneHager12@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5470,15 +5470,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell11</v>
+        <v>LorenBell12</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell11</v>
+        <v>LorenBell12</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell11@gmail.com</v>
+        <v>LorenBell12@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5487,15 +5487,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller11</v>
+        <v>GeraldHiller12</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller11</v>
+        <v>GeraldHiller12</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller11@gmail.com</v>
+        <v>GeraldHiller12@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5504,15 +5504,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch11</v>
+        <v>DeionBranch12</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch11</v>
+        <v>DeionBranch12</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch11@gmail.com</v>
+        <v>DeionBranch12@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5521,15 +5521,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead11</v>
+        <v>DakotaHalstead12</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead11</v>
+        <v>DakotaHalstead12</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead11@gmail.com</v>
+        <v>DakotaHalstead12@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5538,15 +5538,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman11</v>
+        <v>ElliottFurman12</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman11</v>
+        <v>ElliottFurman12</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman11@gmail.com</v>
+        <v>ElliottFurman12@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5555,15 +5555,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp11</v>
+        <v>MiltonCamp12</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp11</v>
+        <v>MiltonCamp12</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp11@gmail.com</v>
+        <v>MiltonCamp12@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5572,15 +5572,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester11</v>
+        <v>DawnChester12</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester11</v>
+        <v>DawnChester12</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester11@gmail.com</v>
+        <v>DawnChester12@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5589,15 +5589,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie11</v>
+        <v>ZacheryPetrie12</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie11</v>
+        <v>ZacheryPetrie12</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie11@gmail.com</v>
+        <v>ZacheryPetrie12@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5606,15 +5606,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel11</v>
+        <v>EstebanAngel12</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel11</v>
+        <v>EstebanAngel12</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel11@gmail.com</v>
+        <v>EstebanAngel12@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5623,15 +5623,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship11</v>
+        <v>JimmyBlankenship12</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship11</v>
+        <v>JimmyBlankenship12</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship11@gmail.com</v>
+        <v>JimmyBlankenship12@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5640,15 +5640,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice11</v>
+        <v>AllysaGrice12</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice11</v>
+        <v>AllysaGrice12</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice11@gmail.com</v>
+        <v>AllysaGrice12@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5657,15 +5657,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo11</v>
+        <v>AugustineYoo12</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo11</v>
+        <v>AugustineYoo12</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo11@gmail.com</v>
+        <v>AugustineYoo12@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5674,15 +5674,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard11</v>
+        <v>BrandiSouthard12</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard11</v>
+        <v>BrandiSouthard12</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard11@gmail.com</v>
+        <v>BrandiSouthard12@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFB2CC-024B-48F6-9191-9BD75DCAD1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8E219-7337-4D7E-99A5-96FA9CE38C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1060,244 +1060,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>DonnellJernigan12</t>
-  </si>
-  <si>
-    <t>DonnellJernigan12@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole12</t>
-  </si>
-  <si>
-    <t>MalikOtoole12@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill12</t>
-  </si>
-  <si>
-    <t>AlanCaudill12@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate12</t>
-  </si>
-  <si>
-    <t>AdanApplegate12@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth12</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth12@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien12</t>
-  </si>
-  <si>
-    <t>MercedezBrien12@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager12</t>
-  </si>
-  <si>
-    <t>DuaneHager12@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell12</t>
-  </si>
-  <si>
-    <t>LorenBell12@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller12</t>
-  </si>
-  <si>
-    <t>GeraldHiller12@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch12</t>
-  </si>
-  <si>
-    <t>DeionBranch12@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead12</t>
-  </si>
-  <si>
-    <t>DakotaHalstead12@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman12</t>
-  </si>
-  <si>
-    <t>ElliottFurman12@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp12</t>
-  </si>
-  <si>
-    <t>MiltonCamp12@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester12</t>
-  </si>
-  <si>
-    <t>DawnChester12@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie12</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie12@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel12</t>
-  </si>
-  <si>
-    <t>EstebanAngel12@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship12</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship12@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice12</t>
-  </si>
-  <si>
-    <t>AllysaGrice12@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo12</t>
-  </si>
-  <si>
-    <t>AugustineYoo12@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard12</t>
-  </si>
-  <si>
-    <t>BrandiSouthard12@gmail.com</t>
-  </si>
-  <si>
-    <t>EthanBaker7</t>
-  </si>
-  <si>
-    <t>EthanBaker7@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman7</t>
-  </si>
-  <si>
-    <t>DelanieCarman7@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew7</t>
-  </si>
-  <si>
-    <t>BretAgnew7@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor7</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor7@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis7</t>
-  </si>
-  <si>
-    <t>TyrekReis7@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow7</t>
-  </si>
-  <si>
-    <t>LeannaChow7@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson7</t>
-  </si>
-  <si>
-    <t>TuckerCarlson7@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor7</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor7@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte7</t>
-  </si>
-  <si>
-    <t>MoniqueWitte7@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock7</t>
-  </si>
-  <si>
-    <t>MikelWhitlock7@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya7</t>
-  </si>
-  <si>
-    <t>VincentAmaya7@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz7</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz7@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech7</t>
-  </si>
-  <si>
-    <t>EllisCreech7@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel7</t>
-  </si>
-  <si>
-    <t>DionteCreel7@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust7</t>
-  </si>
-  <si>
-    <t>NicholeFoust7@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell7</t>
-  </si>
-  <si>
-    <t>ManuelConnell7@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam7</t>
-  </si>
-  <si>
-    <t>LourdesElam7@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick7</t>
-  </si>
-  <si>
-    <t>LincolnFrederick7@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash7</t>
-  </si>
-  <si>
-    <t>AlisaCash7@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths7</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths7@gmail.com</t>
+    <t>EthanBaker8</t>
+  </si>
+  <si>
+    <t>EthanBaker8@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman8</t>
+  </si>
+  <si>
+    <t>DelanieCarman8@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew8</t>
+  </si>
+  <si>
+    <t>BretAgnew8@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor8</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor8@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis8</t>
+  </si>
+  <si>
+    <t>TyrekReis8@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow8</t>
+  </si>
+  <si>
+    <t>LeannaChow8@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson8</t>
+  </si>
+  <si>
+    <t>TuckerCarlson8@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor8</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor8@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte8</t>
+  </si>
+  <si>
+    <t>MoniqueWitte8@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock8</t>
+  </si>
+  <si>
+    <t>MikelWhitlock8@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya8</t>
+  </si>
+  <si>
+    <t>VincentAmaya8@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz8</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz8@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech8</t>
+  </si>
+  <si>
+    <t>EllisCreech8@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel8</t>
+  </si>
+  <si>
+    <t>DionteCreel8@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust8</t>
+  </si>
+  <si>
+    <t>NicholeFoust8@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell8</t>
+  </si>
+  <si>
+    <t>ManuelConnell8@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam8</t>
+  </si>
+  <si>
+    <t>LourdesElam8@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick8</t>
+  </si>
+  <si>
+    <t>LincolnFrederick8@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash8</t>
+  </si>
+  <si>
+    <t>AlisaCash8@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths8</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths8@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan13</t>
+  </si>
+  <si>
+    <t>DonnellJernigan13@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole13</t>
+  </si>
+  <si>
+    <t>MalikOtoole13@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill13</t>
+  </si>
+  <si>
+    <t>AlanCaudill13@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate13</t>
+  </si>
+  <si>
+    <t>AdanApplegate13@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth13</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth13@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien13</t>
+  </si>
+  <si>
+    <t>MercedezBrien13@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager13</t>
+  </si>
+  <si>
+    <t>DuaneHager13@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell13</t>
+  </si>
+  <si>
+    <t>LorenBell13@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller13</t>
+  </si>
+  <si>
+    <t>GeraldHiller13@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch13</t>
+  </si>
+  <si>
+    <t>DeionBranch13@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead13</t>
+  </si>
+  <si>
+    <t>DakotaHalstead13@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman13</t>
+  </si>
+  <si>
+    <t>ElliottFurman13@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp13</t>
+  </si>
+  <si>
+    <t>MiltonCamp13@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester13</t>
+  </si>
+  <si>
+    <t>DawnChester13@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie13</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie13@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel13</t>
+  </si>
+  <si>
+    <t>EstebanAngel13@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship13</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship13@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice13</t>
+  </si>
+  <si>
+    <t>AllysaGrice13@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo13</t>
+  </si>
+  <si>
+    <t>AugustineYoo13@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard13</t>
+  </si>
+  <si>
+    <t>BrandiSouthard13@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D89E2-A883-499B-AA82-70224D6F8F96}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I21"/>
     </sheetView>
   </sheetViews>
@@ -2072,13 +2072,13 @@
         <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -2115,13 +2115,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -2157,13 +2157,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -2199,13 +2199,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -2241,13 +2241,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
@@ -2283,13 +2283,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -2325,13 +2325,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
@@ -2367,13 +2367,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>35</v>
@@ -2409,13 +2409,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
@@ -2451,13 +2451,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>35</v>
@@ -2493,13 +2493,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
@@ -2535,13 +2535,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>35</v>
@@ -2577,13 +2577,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
@@ -2619,13 +2619,13 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>35</v>
@@ -2661,13 +2661,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>30</v>
@@ -2703,13 +2703,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>35</v>
@@ -2745,13 +2745,13 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>35</v>
@@ -2787,13 +2787,13 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>35</v>
@@ -2829,13 +2829,13 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>35</v>
@@ -2871,13 +2871,13 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>35</v>
@@ -2938,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:T21"/>
     </sheetView>
   </sheetViews>
@@ -3120,13 +3120,13 @@
         <v>54</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>134</v>
@@ -3213,13 +3213,13 @@
         <v>54</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>134</v>
@@ -3306,13 +3306,13 @@
         <v>54</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>134</v>
@@ -3399,13 +3399,13 @@
         <v>54</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>134</v>
@@ -3492,13 +3492,13 @@
         <v>54</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>134</v>
@@ -3585,13 +3585,13 @@
         <v>54</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>134</v>
@@ -3678,13 +3678,13 @@
         <v>54</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>134</v>
@@ -3771,13 +3771,13 @@
         <v>54</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>134</v>
@@ -3864,13 +3864,13 @@
         <v>54</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="U10" s="15" t="s">
         <v>134</v>
@@ -3957,13 +3957,13 @@
         <v>54</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>134</v>
@@ -4050,13 +4050,13 @@
         <v>54</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>134</v>
@@ -4143,13 +4143,13 @@
         <v>54</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>134</v>
@@ -4236,13 +4236,13 @@
         <v>54</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>134</v>
@@ -4329,13 +4329,13 @@
         <v>54</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>134</v>
@@ -4422,13 +4422,13 @@
         <v>54</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>134</v>
@@ -4515,13 +4515,13 @@
         <v>54</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>134</v>
@@ -4607,13 +4607,13 @@
         <v>54</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>134</v>
@@ -4699,13 +4699,13 @@
         <v>54</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>134</v>
@@ -4791,13 +4791,13 @@
         <v>54</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>134</v>
@@ -4883,13 +4883,13 @@
         <v>54</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>134</v>
@@ -4957,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C21"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4986,15 +4986,15 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker7</v>
+        <v>EthanBaker8</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker7</v>
+        <v>EthanBaker8</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker7@gmail.com</v>
+        <v>EthanBaker8@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -5003,21 +5003,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman7</v>
+        <v>DelanieCarman8</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman7</v>
+        <v>DelanieCarman8</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman7@gmail.com</v>
+        <v>DelanieCarman8@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5026,15 +5026,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew7</v>
+        <v>BretAgnew8</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew7</v>
+        <v>BretAgnew8</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew7@gmail.com</v>
+        <v>BretAgnew8@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5043,15 +5043,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor7</v>
+        <v>EdgardoTaylor8</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor7</v>
+        <v>EdgardoTaylor8</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor7@gmail.com</v>
+        <v>EdgardoTaylor8@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5060,15 +5060,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis7</v>
+        <v>TyrekReis8</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis7</v>
+        <v>TyrekReis8</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis7@gmail.com</v>
+        <v>TyrekReis8@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5077,15 +5077,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow7</v>
+        <v>LeannaChow8</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow7</v>
+        <v>LeannaChow8</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow7@gmail.com</v>
+        <v>LeannaChow8@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5094,15 +5094,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson7</v>
+        <v>TuckerCarlson8</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson7</v>
+        <v>TuckerCarlson8</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson7@gmail.com</v>
+        <v>TuckerCarlson8@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5111,15 +5111,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor7</v>
+        <v>AnnmarieConnor8</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor7</v>
+        <v>AnnmarieConnor8</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor7@gmail.com</v>
+        <v>AnnmarieConnor8@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5128,15 +5128,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte7</v>
+        <v>MoniqueWitte8</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte7</v>
+        <v>MoniqueWitte8</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte7@gmail.com</v>
+        <v>MoniqueWitte8@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5145,15 +5145,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock7</v>
+        <v>MikelWhitlock8</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock7</v>
+        <v>MikelWhitlock8</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock7@gmail.com</v>
+        <v>MikelWhitlock8@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5162,15 +5162,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya7</v>
+        <v>VincentAmaya8</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya7</v>
+        <v>VincentAmaya8</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya7@gmail.com</v>
+        <v>VincentAmaya8@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5179,15 +5179,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz7</v>
+        <v>KeiraQuiroz8</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz7</v>
+        <v>KeiraQuiroz8</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz7@gmail.com</v>
+        <v>KeiraQuiroz8@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5196,15 +5196,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech7</v>
+        <v>EllisCreech8</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech7</v>
+        <v>EllisCreech8</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech7@gmail.com</v>
+        <v>EllisCreech8@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5213,15 +5213,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel7</v>
+        <v>DionteCreel8</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel7</v>
+        <v>DionteCreel8</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel7@gmail.com</v>
+        <v>DionteCreel8@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5230,15 +5230,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust7</v>
+        <v>NicholeFoust8</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust7</v>
+        <v>NicholeFoust8</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust7@gmail.com</v>
+        <v>NicholeFoust8@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5247,15 +5247,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell7</v>
+        <v>ManuelConnell8</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell7</v>
+        <v>ManuelConnell8</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell7@gmail.com</v>
+        <v>ManuelConnell8@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5264,15 +5264,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam7</v>
+        <v>LourdesElam8</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam7</v>
+        <v>LourdesElam8</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam7@gmail.com</v>
+        <v>LourdesElam8@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5281,15 +5281,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick7</v>
+        <v>LincolnFrederick8</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick7</v>
+        <v>LincolnFrederick8</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick7@gmail.com</v>
+        <v>LincolnFrederick8@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5298,15 +5298,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash7</v>
+        <v>AlisaCash8</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash7</v>
+        <v>AlisaCash8</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash7@gmail.com</v>
+        <v>AlisaCash8@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5315,15 +5315,15 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths7</v>
+        <v>LucilleGriffiths8</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths7</v>
+        <v>LucilleGriffiths8</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths7@gmail.com</v>
+        <v>LucilleGriffiths8@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
@@ -5345,15 +5345,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan12</v>
+        <v>DonnellJernigan13</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan12</v>
+        <v>DonnellJernigan13</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan12@gmail.com</v>
+        <v>DonnellJernigan13@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5362,21 +5362,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole12</v>
+        <v>MalikOtoole13</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole12</v>
+        <v>MalikOtoole13</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole12@gmail.com</v>
+        <v>MalikOtoole13@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5385,15 +5385,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill12</v>
+        <v>AlanCaudill13</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill12</v>
+        <v>AlanCaudill13</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill12@gmail.com</v>
+        <v>AlanCaudill13@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5402,15 +5402,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate12</v>
+        <v>AdanApplegate13</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate12</v>
+        <v>AdanApplegate13</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate12@gmail.com</v>
+        <v>AdanApplegate13@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5419,15 +5419,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth12</v>
+        <v>AiyanaWhitworth13</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth12</v>
+        <v>AiyanaWhitworth13</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth12@gmail.com</v>
+        <v>AiyanaWhitworth13@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5436,15 +5436,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien12</v>
+        <v>MercedezBrien13</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien12</v>
+        <v>MercedezBrien13</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien12@gmail.com</v>
+        <v>MercedezBrien13@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5453,15 +5453,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager12</v>
+        <v>DuaneHager13</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager12</v>
+        <v>DuaneHager13</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager12@gmail.com</v>
+        <v>DuaneHager13@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5470,15 +5470,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell12</v>
+        <v>LorenBell13</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell12</v>
+        <v>LorenBell13</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell12@gmail.com</v>
+        <v>LorenBell13@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5487,15 +5487,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller12</v>
+        <v>GeraldHiller13</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller12</v>
+        <v>GeraldHiller13</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller12@gmail.com</v>
+        <v>GeraldHiller13@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5504,15 +5504,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch12</v>
+        <v>DeionBranch13</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch12</v>
+        <v>DeionBranch13</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch12@gmail.com</v>
+        <v>DeionBranch13@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5521,15 +5521,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead12</v>
+        <v>DakotaHalstead13</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead12</v>
+        <v>DakotaHalstead13</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead12@gmail.com</v>
+        <v>DakotaHalstead13@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5538,15 +5538,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman12</v>
+        <v>ElliottFurman13</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman12</v>
+        <v>ElliottFurman13</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman12@gmail.com</v>
+        <v>ElliottFurman13@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5555,15 +5555,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp12</v>
+        <v>MiltonCamp13</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp12</v>
+        <v>MiltonCamp13</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp12@gmail.com</v>
+        <v>MiltonCamp13@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5572,15 +5572,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester12</v>
+        <v>DawnChester13</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester12</v>
+        <v>DawnChester13</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester12@gmail.com</v>
+        <v>DawnChester13@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5589,15 +5589,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie12</v>
+        <v>ZacheryPetrie13</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie12</v>
+        <v>ZacheryPetrie13</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie12@gmail.com</v>
+        <v>ZacheryPetrie13@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5606,15 +5606,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel12</v>
+        <v>EstebanAngel13</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel12</v>
+        <v>EstebanAngel13</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel12@gmail.com</v>
+        <v>EstebanAngel13@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5623,15 +5623,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship12</v>
+        <v>JimmyBlankenship13</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship12</v>
+        <v>JimmyBlankenship13</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship12@gmail.com</v>
+        <v>JimmyBlankenship13@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5640,15 +5640,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice12</v>
+        <v>AllysaGrice13</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice12</v>
+        <v>AllysaGrice13</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice12@gmail.com</v>
+        <v>AllysaGrice13@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5657,15 +5657,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo12</v>
+        <v>AugustineYoo13</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo12</v>
+        <v>AugustineYoo13</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo12@gmail.com</v>
+        <v>AugustineYoo13@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5674,15 +5674,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard12</v>
+        <v>BrandiSouthard13</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard12</v>
+        <v>BrandiSouthard13</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard12@gmail.com</v>
+        <v>BrandiSouthard13@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8E219-7337-4D7E-99A5-96FA9CE38C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5287DA-6F9C-4954-9DB6-2C5769191B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1060,244 +1060,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker8</t>
-  </si>
-  <si>
-    <t>EthanBaker8@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman8</t>
-  </si>
-  <si>
-    <t>DelanieCarman8@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew8</t>
-  </si>
-  <si>
-    <t>BretAgnew8@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor8</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor8@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis8</t>
-  </si>
-  <si>
-    <t>TyrekReis8@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow8</t>
-  </si>
-  <si>
-    <t>LeannaChow8@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson8</t>
-  </si>
-  <si>
-    <t>TuckerCarlson8@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor8</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor8@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte8</t>
-  </si>
-  <si>
-    <t>MoniqueWitte8@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock8</t>
-  </si>
-  <si>
-    <t>MikelWhitlock8@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya8</t>
-  </si>
-  <si>
-    <t>VincentAmaya8@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz8</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz8@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech8</t>
-  </si>
-  <si>
-    <t>EllisCreech8@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel8</t>
-  </si>
-  <si>
-    <t>DionteCreel8@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust8</t>
-  </si>
-  <si>
-    <t>NicholeFoust8@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell8</t>
-  </si>
-  <si>
-    <t>ManuelConnell8@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam8</t>
-  </si>
-  <si>
-    <t>LourdesElam8@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick8</t>
-  </si>
-  <si>
-    <t>LincolnFrederick8@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash8</t>
-  </si>
-  <si>
-    <t>AlisaCash8@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths8</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths8@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan13</t>
-  </si>
-  <si>
-    <t>DonnellJernigan13@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole13</t>
-  </si>
-  <si>
-    <t>MalikOtoole13@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill13</t>
-  </si>
-  <si>
-    <t>AlanCaudill13@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate13</t>
-  </si>
-  <si>
-    <t>AdanApplegate13@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth13</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth13@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien13</t>
-  </si>
-  <si>
-    <t>MercedezBrien13@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager13</t>
-  </si>
-  <si>
-    <t>DuaneHager13@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell13</t>
-  </si>
-  <si>
-    <t>LorenBell13@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller13</t>
-  </si>
-  <si>
-    <t>GeraldHiller13@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch13</t>
-  </si>
-  <si>
-    <t>DeionBranch13@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead13</t>
-  </si>
-  <si>
-    <t>DakotaHalstead13@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman13</t>
-  </si>
-  <si>
-    <t>ElliottFurman13@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp13</t>
-  </si>
-  <si>
-    <t>MiltonCamp13@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester13</t>
-  </si>
-  <si>
-    <t>DawnChester13@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie13</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie13@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel13</t>
-  </si>
-  <si>
-    <t>EstebanAngel13@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship13</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship13@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice13</t>
-  </si>
-  <si>
-    <t>AllysaGrice13@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo13</t>
-  </si>
-  <si>
-    <t>AugustineYoo13@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard13</t>
-  </si>
-  <si>
-    <t>BrandiSouthard13@gmail.com</t>
+    <t>EthanBaker9</t>
+  </si>
+  <si>
+    <t>EthanBaker9@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman9</t>
+  </si>
+  <si>
+    <t>DelanieCarman9@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew9</t>
+  </si>
+  <si>
+    <t>BretAgnew9@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor9</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor9@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis9</t>
+  </si>
+  <si>
+    <t>TyrekReis9@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow9</t>
+  </si>
+  <si>
+    <t>LeannaChow9@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson9</t>
+  </si>
+  <si>
+    <t>TuckerCarlson9@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor9</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor9@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte9</t>
+  </si>
+  <si>
+    <t>MoniqueWitte9@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock9</t>
+  </si>
+  <si>
+    <t>MikelWhitlock9@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya9</t>
+  </si>
+  <si>
+    <t>VincentAmaya9@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz9</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz9@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech9</t>
+  </si>
+  <si>
+    <t>EllisCreech9@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel9</t>
+  </si>
+  <si>
+    <t>DionteCreel9@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust9</t>
+  </si>
+  <si>
+    <t>NicholeFoust9@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell9</t>
+  </si>
+  <si>
+    <t>ManuelConnell9@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam9</t>
+  </si>
+  <si>
+    <t>LourdesElam9@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick9</t>
+  </si>
+  <si>
+    <t>LincolnFrederick9@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash9</t>
+  </si>
+  <si>
+    <t>AlisaCash9@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths9</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths9@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan14</t>
+  </si>
+  <si>
+    <t>DonnellJernigan14@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole14</t>
+  </si>
+  <si>
+    <t>MalikOtoole14@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill14</t>
+  </si>
+  <si>
+    <t>AlanCaudill14@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate14</t>
+  </si>
+  <si>
+    <t>AdanApplegate14@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth14</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth14@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien14</t>
+  </si>
+  <si>
+    <t>MercedezBrien14@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager14</t>
+  </si>
+  <si>
+    <t>DuaneHager14@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell14</t>
+  </si>
+  <si>
+    <t>LorenBell14@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller14</t>
+  </si>
+  <si>
+    <t>GeraldHiller14@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch14</t>
+  </si>
+  <si>
+    <t>DeionBranch14@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead14</t>
+  </si>
+  <si>
+    <t>DakotaHalstead14@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman14</t>
+  </si>
+  <si>
+    <t>ElliottFurman14@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp14</t>
+  </si>
+  <si>
+    <t>MiltonCamp14@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester14</t>
+  </si>
+  <si>
+    <t>DawnChester14@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie14</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie14@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel14</t>
+  </si>
+  <si>
+    <t>EstebanAngel14@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship14</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship14@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice14</t>
+  </si>
+  <si>
+    <t>AllysaGrice14@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo14</t>
+  </si>
+  <si>
+    <t>AugustineYoo14@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard14</t>
+  </si>
+  <si>
+    <t>BrandiSouthard14@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4957,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
@@ -4986,15 +4986,15 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker8</v>
+        <v>EthanBaker9</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker8</v>
+        <v>EthanBaker9</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker8@gmail.com</v>
+        <v>EthanBaker9@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -5003,21 +5003,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman8</v>
+        <v>DelanieCarman9</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman8</v>
+        <v>DelanieCarman9</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman8@gmail.com</v>
+        <v>DelanieCarman9@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5026,15 +5026,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew8</v>
+        <v>BretAgnew9</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew8</v>
+        <v>BretAgnew9</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew8@gmail.com</v>
+        <v>BretAgnew9@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5043,15 +5043,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor8</v>
+        <v>EdgardoTaylor9</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor8</v>
+        <v>EdgardoTaylor9</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor8@gmail.com</v>
+        <v>EdgardoTaylor9@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5060,15 +5060,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis8</v>
+        <v>TyrekReis9</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis8</v>
+        <v>TyrekReis9</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis8@gmail.com</v>
+        <v>TyrekReis9@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5077,15 +5077,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow8</v>
+        <v>LeannaChow9</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow8</v>
+        <v>LeannaChow9</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow8@gmail.com</v>
+        <v>LeannaChow9@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5094,15 +5094,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson8</v>
+        <v>TuckerCarlson9</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson8</v>
+        <v>TuckerCarlson9</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson8@gmail.com</v>
+        <v>TuckerCarlson9@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5111,15 +5111,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor8</v>
+        <v>AnnmarieConnor9</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor8</v>
+        <v>AnnmarieConnor9</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor8@gmail.com</v>
+        <v>AnnmarieConnor9@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5128,15 +5128,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte8</v>
+        <v>MoniqueWitte9</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte8</v>
+        <v>MoniqueWitte9</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte8@gmail.com</v>
+        <v>MoniqueWitte9@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5145,15 +5145,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock8</v>
+        <v>MikelWhitlock9</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock8</v>
+        <v>MikelWhitlock9</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock8@gmail.com</v>
+        <v>MikelWhitlock9@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5162,15 +5162,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya8</v>
+        <v>VincentAmaya9</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya8</v>
+        <v>VincentAmaya9</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya8@gmail.com</v>
+        <v>VincentAmaya9@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5179,15 +5179,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz8</v>
+        <v>KeiraQuiroz9</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz8</v>
+        <v>KeiraQuiroz9</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz8@gmail.com</v>
+        <v>KeiraQuiroz9@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5196,15 +5196,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech8</v>
+        <v>EllisCreech9</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech8</v>
+        <v>EllisCreech9</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech8@gmail.com</v>
+        <v>EllisCreech9@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5213,15 +5213,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel8</v>
+        <v>DionteCreel9</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel8</v>
+        <v>DionteCreel9</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel8@gmail.com</v>
+        <v>DionteCreel9@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5230,15 +5230,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust8</v>
+        <v>NicholeFoust9</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust8</v>
+        <v>NicholeFoust9</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust8@gmail.com</v>
+        <v>NicholeFoust9@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5247,15 +5247,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell8</v>
+        <v>ManuelConnell9</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell8</v>
+        <v>ManuelConnell9</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell8@gmail.com</v>
+        <v>ManuelConnell9@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5264,15 +5264,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam8</v>
+        <v>LourdesElam9</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam8</v>
+        <v>LourdesElam9</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam8@gmail.com</v>
+        <v>LourdesElam9@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5281,15 +5281,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick8</v>
+        <v>LincolnFrederick9</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick8</v>
+        <v>LincolnFrederick9</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick8@gmail.com</v>
+        <v>LincolnFrederick9@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5298,15 +5298,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash8</v>
+        <v>AlisaCash9</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash8</v>
+        <v>AlisaCash9</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash8@gmail.com</v>
+        <v>AlisaCash9@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5315,15 +5315,15 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths8</v>
+        <v>LucilleGriffiths9</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths8</v>
+        <v>LucilleGriffiths9</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths8@gmail.com</v>
+        <v>LucilleGriffiths9@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
@@ -5345,15 +5345,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan13</v>
+        <v>DonnellJernigan14</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan13</v>
+        <v>DonnellJernigan14</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan13@gmail.com</v>
+        <v>DonnellJernigan14@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5362,21 +5362,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole13</v>
+        <v>MalikOtoole14</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole13</v>
+        <v>MalikOtoole14</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole13@gmail.com</v>
+        <v>MalikOtoole14@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5385,15 +5385,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill13</v>
+        <v>AlanCaudill14</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill13</v>
+        <v>AlanCaudill14</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill13@gmail.com</v>
+        <v>AlanCaudill14@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5402,15 +5402,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate13</v>
+        <v>AdanApplegate14</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate13</v>
+        <v>AdanApplegate14</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate13@gmail.com</v>
+        <v>AdanApplegate14@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5419,15 +5419,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth13</v>
+        <v>AiyanaWhitworth14</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth13</v>
+        <v>AiyanaWhitworth14</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth13@gmail.com</v>
+        <v>AiyanaWhitworth14@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5436,15 +5436,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien13</v>
+        <v>MercedezBrien14</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien13</v>
+        <v>MercedezBrien14</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien13@gmail.com</v>
+        <v>MercedezBrien14@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5453,15 +5453,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager13</v>
+        <v>DuaneHager14</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager13</v>
+        <v>DuaneHager14</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager13@gmail.com</v>
+        <v>DuaneHager14@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5470,15 +5470,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell13</v>
+        <v>LorenBell14</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell13</v>
+        <v>LorenBell14</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell13@gmail.com</v>
+        <v>LorenBell14@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5487,15 +5487,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller13</v>
+        <v>GeraldHiller14</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller13</v>
+        <v>GeraldHiller14</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller13@gmail.com</v>
+        <v>GeraldHiller14@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5504,15 +5504,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch13</v>
+        <v>DeionBranch14</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch13</v>
+        <v>DeionBranch14</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch13@gmail.com</v>
+        <v>DeionBranch14@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5521,15 +5521,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead13</v>
+        <v>DakotaHalstead14</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead13</v>
+        <v>DakotaHalstead14</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead13@gmail.com</v>
+        <v>DakotaHalstead14@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5538,15 +5538,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman13</v>
+        <v>ElliottFurman14</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman13</v>
+        <v>ElliottFurman14</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman13@gmail.com</v>
+        <v>ElliottFurman14@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5555,15 +5555,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp13</v>
+        <v>MiltonCamp14</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp13</v>
+        <v>MiltonCamp14</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp13@gmail.com</v>
+        <v>MiltonCamp14@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5572,15 +5572,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester13</v>
+        <v>DawnChester14</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester13</v>
+        <v>DawnChester14</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester13@gmail.com</v>
+        <v>DawnChester14@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5589,15 +5589,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie13</v>
+        <v>ZacheryPetrie14</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie13</v>
+        <v>ZacheryPetrie14</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie13@gmail.com</v>
+        <v>ZacheryPetrie14@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5606,15 +5606,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel13</v>
+        <v>EstebanAngel14</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel13</v>
+        <v>EstebanAngel14</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel13@gmail.com</v>
+        <v>EstebanAngel14@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5623,15 +5623,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship13</v>
+        <v>JimmyBlankenship14</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship13</v>
+        <v>JimmyBlankenship14</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship13@gmail.com</v>
+        <v>JimmyBlankenship14@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5640,15 +5640,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice13</v>
+        <v>AllysaGrice14</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice13</v>
+        <v>AllysaGrice14</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice13@gmail.com</v>
+        <v>AllysaGrice14@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5657,15 +5657,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo13</v>
+        <v>AugustineYoo14</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo13</v>
+        <v>AugustineYoo14</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo13@gmail.com</v>
+        <v>AugustineYoo14@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5674,15 +5674,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard13</v>
+        <v>BrandiSouthard14</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard13</v>
+        <v>BrandiSouthard14</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard13@gmail.com</v>
+        <v>BrandiSouthard14@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5287DA-6F9C-4954-9DB6-2C5769191B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF95AB2-36CF-49BD-814A-5555BAC494C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1060,244 +1060,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker9</t>
-  </si>
-  <si>
-    <t>EthanBaker9@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman9</t>
-  </si>
-  <si>
-    <t>DelanieCarman9@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew9</t>
-  </si>
-  <si>
-    <t>BretAgnew9@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor9</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor9@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis9</t>
-  </si>
-  <si>
-    <t>TyrekReis9@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow9</t>
-  </si>
-  <si>
-    <t>LeannaChow9@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson9</t>
-  </si>
-  <si>
-    <t>TuckerCarlson9@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor9</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor9@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte9</t>
-  </si>
-  <si>
-    <t>MoniqueWitte9@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock9</t>
-  </si>
-  <si>
-    <t>MikelWhitlock9@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya9</t>
-  </si>
-  <si>
-    <t>VincentAmaya9@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz9</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz9@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech9</t>
-  </si>
-  <si>
-    <t>EllisCreech9@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel9</t>
-  </si>
-  <si>
-    <t>DionteCreel9@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust9</t>
-  </si>
-  <si>
-    <t>NicholeFoust9@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell9</t>
-  </si>
-  <si>
-    <t>ManuelConnell9@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam9</t>
-  </si>
-  <si>
-    <t>LourdesElam9@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick9</t>
-  </si>
-  <si>
-    <t>LincolnFrederick9@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash9</t>
-  </si>
-  <si>
-    <t>AlisaCash9@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths9</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths9@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan14</t>
-  </si>
-  <si>
-    <t>DonnellJernigan14@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole14</t>
-  </si>
-  <si>
-    <t>MalikOtoole14@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill14</t>
-  </si>
-  <si>
-    <t>AlanCaudill14@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate14</t>
-  </si>
-  <si>
-    <t>AdanApplegate14@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth14</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth14@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien14</t>
-  </si>
-  <si>
-    <t>MercedezBrien14@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager14</t>
-  </si>
-  <si>
-    <t>DuaneHager14@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell14</t>
-  </si>
-  <si>
-    <t>LorenBell14@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller14</t>
-  </si>
-  <si>
-    <t>GeraldHiller14@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch14</t>
-  </si>
-  <si>
-    <t>DeionBranch14@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead14</t>
-  </si>
-  <si>
-    <t>DakotaHalstead14@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman14</t>
-  </si>
-  <si>
-    <t>ElliottFurman14@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp14</t>
-  </si>
-  <si>
-    <t>MiltonCamp14@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester14</t>
-  </si>
-  <si>
-    <t>DawnChester14@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie14</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie14@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel14</t>
-  </si>
-  <si>
-    <t>EstebanAngel14@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship14</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship14@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice14</t>
-  </si>
-  <si>
-    <t>AllysaGrice14@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo14</t>
-  </si>
-  <si>
-    <t>AugustineYoo14@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard14</t>
-  </si>
-  <si>
-    <t>BrandiSouthard14@gmail.com</t>
+    <t>EthanBaker10</t>
+  </si>
+  <si>
+    <t>EthanBaker10@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman10</t>
+  </si>
+  <si>
+    <t>DelanieCarman10@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew10</t>
+  </si>
+  <si>
+    <t>BretAgnew10@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor10</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor10@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis10</t>
+  </si>
+  <si>
+    <t>TyrekReis10@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow10</t>
+  </si>
+  <si>
+    <t>LeannaChow10@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson10</t>
+  </si>
+  <si>
+    <t>TuckerCarlson10@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor10</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor10@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte10</t>
+  </si>
+  <si>
+    <t>MoniqueWitte10@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock10</t>
+  </si>
+  <si>
+    <t>MikelWhitlock10@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya10</t>
+  </si>
+  <si>
+    <t>VincentAmaya10@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz10</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz10@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech10</t>
+  </si>
+  <si>
+    <t>EllisCreech10@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel10</t>
+  </si>
+  <si>
+    <t>DionteCreel10@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust10</t>
+  </si>
+  <si>
+    <t>NicholeFoust10@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell10</t>
+  </si>
+  <si>
+    <t>ManuelConnell10@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam10</t>
+  </si>
+  <si>
+    <t>LourdesElam10@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick10</t>
+  </si>
+  <si>
+    <t>LincolnFrederick10@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash10</t>
+  </si>
+  <si>
+    <t>AlisaCash10@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths10</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths10@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan15</t>
+  </si>
+  <si>
+    <t>DonnellJernigan15@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole15</t>
+  </si>
+  <si>
+    <t>MalikOtoole15@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill15</t>
+  </si>
+  <si>
+    <t>AlanCaudill15@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate15</t>
+  </si>
+  <si>
+    <t>AdanApplegate15@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth15</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth15@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien15</t>
+  </si>
+  <si>
+    <t>MercedezBrien15@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager15</t>
+  </si>
+  <si>
+    <t>DuaneHager15@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell15</t>
+  </si>
+  <si>
+    <t>LorenBell15@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller15</t>
+  </si>
+  <si>
+    <t>GeraldHiller15@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch15</t>
+  </si>
+  <si>
+    <t>DeionBranch15@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead15</t>
+  </si>
+  <si>
+    <t>DakotaHalstead15@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman15</t>
+  </si>
+  <si>
+    <t>ElliottFurman15@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp15</t>
+  </si>
+  <si>
+    <t>MiltonCamp15@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester15</t>
+  </si>
+  <si>
+    <t>DawnChester15@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie15</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie15@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel15</t>
+  </si>
+  <si>
+    <t>EstebanAngel15@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship15</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship15@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice15</t>
+  </si>
+  <si>
+    <t>AllysaGrice15@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo15</t>
+  </si>
+  <si>
+    <t>AugustineYoo15@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard15</t>
+  </si>
+  <si>
+    <t>BrandiSouthard15@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4957,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
@@ -4986,15 +4986,15 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker9</v>
+        <v>EthanBaker10</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker9</v>
+        <v>EthanBaker10</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker9@gmail.com</v>
+        <v>EthanBaker10@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -5003,21 +5003,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman9</v>
+        <v>DelanieCarman10</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman9</v>
+        <v>DelanieCarman10</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman9@gmail.com</v>
+        <v>DelanieCarman10@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5026,15 +5026,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew9</v>
+        <v>BretAgnew10</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew9</v>
+        <v>BretAgnew10</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew9@gmail.com</v>
+        <v>BretAgnew10@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5043,15 +5043,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor9</v>
+        <v>EdgardoTaylor10</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor9</v>
+        <v>EdgardoTaylor10</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor9@gmail.com</v>
+        <v>EdgardoTaylor10@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5060,15 +5060,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis9</v>
+        <v>TyrekReis10</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis9</v>
+        <v>TyrekReis10</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis9@gmail.com</v>
+        <v>TyrekReis10@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5077,15 +5077,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow9</v>
+        <v>LeannaChow10</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow9</v>
+        <v>LeannaChow10</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow9@gmail.com</v>
+        <v>LeannaChow10@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5094,15 +5094,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson9</v>
+        <v>TuckerCarlson10</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson9</v>
+        <v>TuckerCarlson10</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson9@gmail.com</v>
+        <v>TuckerCarlson10@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5111,15 +5111,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor9</v>
+        <v>AnnmarieConnor10</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor9</v>
+        <v>AnnmarieConnor10</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor9@gmail.com</v>
+        <v>AnnmarieConnor10@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5128,15 +5128,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte9</v>
+        <v>MoniqueWitte10</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte9</v>
+        <v>MoniqueWitte10</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte9@gmail.com</v>
+        <v>MoniqueWitte10@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5145,15 +5145,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock9</v>
+        <v>MikelWhitlock10</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock9</v>
+        <v>MikelWhitlock10</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock9@gmail.com</v>
+        <v>MikelWhitlock10@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5162,15 +5162,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya9</v>
+        <v>VincentAmaya10</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya9</v>
+        <v>VincentAmaya10</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya9@gmail.com</v>
+        <v>VincentAmaya10@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5179,15 +5179,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz9</v>
+        <v>KeiraQuiroz10</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz9</v>
+        <v>KeiraQuiroz10</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz9@gmail.com</v>
+        <v>KeiraQuiroz10@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5196,15 +5196,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech9</v>
+        <v>EllisCreech10</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech9</v>
+        <v>EllisCreech10</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech9@gmail.com</v>
+        <v>EllisCreech10@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5213,15 +5213,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel9</v>
+        <v>DionteCreel10</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel9</v>
+        <v>DionteCreel10</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel9@gmail.com</v>
+        <v>DionteCreel10@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5230,15 +5230,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust9</v>
+        <v>NicholeFoust10</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust9</v>
+        <v>NicholeFoust10</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust9@gmail.com</v>
+        <v>NicholeFoust10@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5247,15 +5247,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell9</v>
+        <v>ManuelConnell10</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell9</v>
+        <v>ManuelConnell10</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell9@gmail.com</v>
+        <v>ManuelConnell10@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5264,15 +5264,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam9</v>
+        <v>LourdesElam10</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam9</v>
+        <v>LourdesElam10</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam9@gmail.com</v>
+        <v>LourdesElam10@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5281,15 +5281,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick9</v>
+        <v>LincolnFrederick10</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick9</v>
+        <v>LincolnFrederick10</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick9@gmail.com</v>
+        <v>LincolnFrederick10@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5298,15 +5298,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash9</v>
+        <v>AlisaCash10</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash9</v>
+        <v>AlisaCash10</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash9@gmail.com</v>
+        <v>AlisaCash10@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5315,15 +5315,15 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths9</v>
+        <v>LucilleGriffiths10</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths9</v>
+        <v>LucilleGriffiths10</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths9@gmail.com</v>
+        <v>LucilleGriffiths10@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
@@ -5345,15 +5345,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan14</v>
+        <v>DonnellJernigan15</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan14</v>
+        <v>DonnellJernigan15</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan14@gmail.com</v>
+        <v>DonnellJernigan15@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5362,21 +5362,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole14</v>
+        <v>MalikOtoole15</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole14</v>
+        <v>MalikOtoole15</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole14@gmail.com</v>
+        <v>MalikOtoole15@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5385,15 +5385,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill14</v>
+        <v>AlanCaudill15</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill14</v>
+        <v>AlanCaudill15</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill14@gmail.com</v>
+        <v>AlanCaudill15@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5402,15 +5402,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate14</v>
+        <v>AdanApplegate15</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate14</v>
+        <v>AdanApplegate15</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate14@gmail.com</v>
+        <v>AdanApplegate15@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5419,15 +5419,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth14</v>
+        <v>AiyanaWhitworth15</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth14</v>
+        <v>AiyanaWhitworth15</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth14@gmail.com</v>
+        <v>AiyanaWhitworth15@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5436,15 +5436,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien14</v>
+        <v>MercedezBrien15</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien14</v>
+        <v>MercedezBrien15</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien14@gmail.com</v>
+        <v>MercedezBrien15@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5453,15 +5453,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager14</v>
+        <v>DuaneHager15</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager14</v>
+        <v>DuaneHager15</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager14@gmail.com</v>
+        <v>DuaneHager15@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5470,15 +5470,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell14</v>
+        <v>LorenBell15</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell14</v>
+        <v>LorenBell15</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell14@gmail.com</v>
+        <v>LorenBell15@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5487,15 +5487,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller14</v>
+        <v>GeraldHiller15</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller14</v>
+        <v>GeraldHiller15</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller14@gmail.com</v>
+        <v>GeraldHiller15@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5504,15 +5504,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch14</v>
+        <v>DeionBranch15</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch14</v>
+        <v>DeionBranch15</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch14@gmail.com</v>
+        <v>DeionBranch15@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5521,15 +5521,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead14</v>
+        <v>DakotaHalstead15</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead14</v>
+        <v>DakotaHalstead15</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead14@gmail.com</v>
+        <v>DakotaHalstead15@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5538,15 +5538,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman14</v>
+        <v>ElliottFurman15</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman14</v>
+        <v>ElliottFurman15</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman14@gmail.com</v>
+        <v>ElliottFurman15@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5555,15 +5555,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp14</v>
+        <v>MiltonCamp15</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp14</v>
+        <v>MiltonCamp15</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp14@gmail.com</v>
+        <v>MiltonCamp15@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5572,15 +5572,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester14</v>
+        <v>DawnChester15</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester14</v>
+        <v>DawnChester15</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester14@gmail.com</v>
+        <v>DawnChester15@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5589,15 +5589,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie14</v>
+        <v>ZacheryPetrie15</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie14</v>
+        <v>ZacheryPetrie15</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie14@gmail.com</v>
+        <v>ZacheryPetrie15@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5606,15 +5606,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel14</v>
+        <v>EstebanAngel15</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel14</v>
+        <v>EstebanAngel15</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel14@gmail.com</v>
+        <v>EstebanAngel15@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5623,15 +5623,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship14</v>
+        <v>JimmyBlankenship15</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship14</v>
+        <v>JimmyBlankenship15</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship14@gmail.com</v>
+        <v>JimmyBlankenship15@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5640,15 +5640,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice14</v>
+        <v>AllysaGrice15</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice14</v>
+        <v>AllysaGrice15</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice14@gmail.com</v>
+        <v>AllysaGrice15@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5657,15 +5657,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo14</v>
+        <v>AugustineYoo15</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo14</v>
+        <v>AugustineYoo15</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo14@gmail.com</v>
+        <v>AugustineYoo15@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5674,15 +5674,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard14</v>
+        <v>BrandiSouthard15</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard14</v>
+        <v>BrandiSouthard15</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard14@gmail.com</v>
+        <v>BrandiSouthard15@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF95AB2-36CF-49BD-814A-5555BAC494C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CBEA1-6234-4C2A-A97C-1F3D2BC4CD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1060,244 +1060,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker10</t>
-  </si>
-  <si>
-    <t>EthanBaker10@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman10</t>
-  </si>
-  <si>
-    <t>DelanieCarman10@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew10</t>
-  </si>
-  <si>
-    <t>BretAgnew10@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor10</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor10@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis10</t>
-  </si>
-  <si>
-    <t>TyrekReis10@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow10</t>
-  </si>
-  <si>
-    <t>LeannaChow10@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson10</t>
-  </si>
-  <si>
-    <t>TuckerCarlson10@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor10</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor10@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte10</t>
-  </si>
-  <si>
-    <t>MoniqueWitte10@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock10</t>
-  </si>
-  <si>
-    <t>MikelWhitlock10@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya10</t>
-  </si>
-  <si>
-    <t>VincentAmaya10@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz10</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz10@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech10</t>
-  </si>
-  <si>
-    <t>EllisCreech10@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel10</t>
-  </si>
-  <si>
-    <t>DionteCreel10@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust10</t>
-  </si>
-  <si>
-    <t>NicholeFoust10@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell10</t>
-  </si>
-  <si>
-    <t>ManuelConnell10@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam10</t>
-  </si>
-  <si>
-    <t>LourdesElam10@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick10</t>
-  </si>
-  <si>
-    <t>LincolnFrederick10@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash10</t>
-  </si>
-  <si>
-    <t>AlisaCash10@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths10</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths10@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan15</t>
-  </si>
-  <si>
-    <t>DonnellJernigan15@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole15</t>
-  </si>
-  <si>
-    <t>MalikOtoole15@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill15</t>
-  </si>
-  <si>
-    <t>AlanCaudill15@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate15</t>
-  </si>
-  <si>
-    <t>AdanApplegate15@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth15</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth15@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien15</t>
-  </si>
-  <si>
-    <t>MercedezBrien15@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager15</t>
-  </si>
-  <si>
-    <t>DuaneHager15@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell15</t>
-  </si>
-  <si>
-    <t>LorenBell15@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller15</t>
-  </si>
-  <si>
-    <t>GeraldHiller15@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch15</t>
-  </si>
-  <si>
-    <t>DeionBranch15@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead15</t>
-  </si>
-  <si>
-    <t>DakotaHalstead15@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman15</t>
-  </si>
-  <si>
-    <t>ElliottFurman15@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp15</t>
-  </si>
-  <si>
-    <t>MiltonCamp15@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester15</t>
-  </si>
-  <si>
-    <t>DawnChester15@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie15</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie15@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel15</t>
-  </si>
-  <si>
-    <t>EstebanAngel15@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship15</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship15@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice15</t>
-  </si>
-  <si>
-    <t>AllysaGrice15@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo15</t>
-  </si>
-  <si>
-    <t>AugustineYoo15@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard15</t>
-  </si>
-  <si>
-    <t>BrandiSouthard15@gmail.com</t>
+    <t>EthanBaker11</t>
+  </si>
+  <si>
+    <t>EthanBaker11@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman11</t>
+  </si>
+  <si>
+    <t>DelanieCarman11@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew11</t>
+  </si>
+  <si>
+    <t>BretAgnew11@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor11</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor11@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis11</t>
+  </si>
+  <si>
+    <t>TyrekReis11@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow11</t>
+  </si>
+  <si>
+    <t>LeannaChow11@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson11</t>
+  </si>
+  <si>
+    <t>TuckerCarlson11@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor11</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor11@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte11</t>
+  </si>
+  <si>
+    <t>MoniqueWitte11@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock11</t>
+  </si>
+  <si>
+    <t>MikelWhitlock11@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya11</t>
+  </si>
+  <si>
+    <t>VincentAmaya11@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz11</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz11@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech11</t>
+  </si>
+  <si>
+    <t>EllisCreech11@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel11</t>
+  </si>
+  <si>
+    <t>DionteCreel11@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust11</t>
+  </si>
+  <si>
+    <t>NicholeFoust11@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell11</t>
+  </si>
+  <si>
+    <t>ManuelConnell11@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam11</t>
+  </si>
+  <si>
+    <t>LourdesElam11@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick11</t>
+  </si>
+  <si>
+    <t>LincolnFrederick11@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash11</t>
+  </si>
+  <si>
+    <t>AlisaCash11@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths11</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths11@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan16</t>
+  </si>
+  <si>
+    <t>DonnellJernigan16@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole16</t>
+  </si>
+  <si>
+    <t>MalikOtoole16@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill16</t>
+  </si>
+  <si>
+    <t>AlanCaudill16@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate16</t>
+  </si>
+  <si>
+    <t>AdanApplegate16@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth16</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth16@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien16</t>
+  </si>
+  <si>
+    <t>MercedezBrien16@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager16</t>
+  </si>
+  <si>
+    <t>DuaneHager16@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell16</t>
+  </si>
+  <si>
+    <t>LorenBell16@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller16</t>
+  </si>
+  <si>
+    <t>GeraldHiller16@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch16</t>
+  </si>
+  <si>
+    <t>DeionBranch16@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead16</t>
+  </si>
+  <si>
+    <t>DakotaHalstead16@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman16</t>
+  </si>
+  <si>
+    <t>ElliottFurman16@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp16</t>
+  </si>
+  <si>
+    <t>MiltonCamp16@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester16</t>
+  </si>
+  <si>
+    <t>DawnChester16@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie16</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie16@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel16</t>
+  </si>
+  <si>
+    <t>EstebanAngel16@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship16</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship16@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice16</t>
+  </si>
+  <si>
+    <t>AllysaGrice16@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo16</t>
+  </si>
+  <si>
+    <t>AugustineYoo16@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard16</t>
+  </si>
+  <si>
+    <t>BrandiSouthard16@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4957,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
@@ -4986,15 +4986,15 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker10</v>
+        <v>EthanBaker11</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker10</v>
+        <v>EthanBaker11</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker10@gmail.com</v>
+        <v>EthanBaker11@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -5003,21 +5003,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman10</v>
+        <v>DelanieCarman11</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman10</v>
+        <v>DelanieCarman11</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman10@gmail.com</v>
+        <v>DelanieCarman11@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5026,15 +5026,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew10</v>
+        <v>BretAgnew11</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew10</v>
+        <v>BretAgnew11</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew10@gmail.com</v>
+        <v>BretAgnew11@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5043,15 +5043,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor10</v>
+        <v>EdgardoTaylor11</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor10</v>
+        <v>EdgardoTaylor11</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor10@gmail.com</v>
+        <v>EdgardoTaylor11@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5060,15 +5060,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis10</v>
+        <v>TyrekReis11</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis10</v>
+        <v>TyrekReis11</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis10@gmail.com</v>
+        <v>TyrekReis11@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5077,15 +5077,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow10</v>
+        <v>LeannaChow11</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow10</v>
+        <v>LeannaChow11</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow10@gmail.com</v>
+        <v>LeannaChow11@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5094,15 +5094,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson10</v>
+        <v>TuckerCarlson11</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson10</v>
+        <v>TuckerCarlson11</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson10@gmail.com</v>
+        <v>TuckerCarlson11@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5111,15 +5111,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor10</v>
+        <v>AnnmarieConnor11</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor10</v>
+        <v>AnnmarieConnor11</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor10@gmail.com</v>
+        <v>AnnmarieConnor11@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5128,15 +5128,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte10</v>
+        <v>MoniqueWitte11</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte10</v>
+        <v>MoniqueWitte11</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte10@gmail.com</v>
+        <v>MoniqueWitte11@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5145,15 +5145,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock10</v>
+        <v>MikelWhitlock11</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock10</v>
+        <v>MikelWhitlock11</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock10@gmail.com</v>
+        <v>MikelWhitlock11@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5162,15 +5162,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya10</v>
+        <v>VincentAmaya11</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya10</v>
+        <v>VincentAmaya11</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya10@gmail.com</v>
+        <v>VincentAmaya11@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5179,15 +5179,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz10</v>
+        <v>KeiraQuiroz11</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz10</v>
+        <v>KeiraQuiroz11</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz10@gmail.com</v>
+        <v>KeiraQuiroz11@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5196,15 +5196,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech10</v>
+        <v>EllisCreech11</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech10</v>
+        <v>EllisCreech11</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech10@gmail.com</v>
+        <v>EllisCreech11@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5213,15 +5213,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel10</v>
+        <v>DionteCreel11</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel10</v>
+        <v>DionteCreel11</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel10@gmail.com</v>
+        <v>DionteCreel11@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5230,15 +5230,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust10</v>
+        <v>NicholeFoust11</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust10</v>
+        <v>NicholeFoust11</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust10@gmail.com</v>
+        <v>NicholeFoust11@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5247,15 +5247,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell10</v>
+        <v>ManuelConnell11</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell10</v>
+        <v>ManuelConnell11</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell10@gmail.com</v>
+        <v>ManuelConnell11@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5264,15 +5264,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam10</v>
+        <v>LourdesElam11</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam10</v>
+        <v>LourdesElam11</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam10@gmail.com</v>
+        <v>LourdesElam11@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5281,15 +5281,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick10</v>
+        <v>LincolnFrederick11</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick10</v>
+        <v>LincolnFrederick11</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick10@gmail.com</v>
+        <v>LincolnFrederick11@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5298,15 +5298,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash10</v>
+        <v>AlisaCash11</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash10</v>
+        <v>AlisaCash11</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash10@gmail.com</v>
+        <v>AlisaCash11@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5315,15 +5315,15 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths10</v>
+        <v>LucilleGriffiths11</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths10</v>
+        <v>LucilleGriffiths11</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths10@gmail.com</v>
+        <v>LucilleGriffiths11@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
@@ -5345,15 +5345,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan15</v>
+        <v>DonnellJernigan16</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan15</v>
+        <v>DonnellJernigan16</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan15@gmail.com</v>
+        <v>DonnellJernigan16@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5362,21 +5362,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole15</v>
+        <v>MalikOtoole16</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole15</v>
+        <v>MalikOtoole16</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole15@gmail.com</v>
+        <v>MalikOtoole16@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5385,15 +5385,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill15</v>
+        <v>AlanCaudill16</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill15</v>
+        <v>AlanCaudill16</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill15@gmail.com</v>
+        <v>AlanCaudill16@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5402,15 +5402,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate15</v>
+        <v>AdanApplegate16</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate15</v>
+        <v>AdanApplegate16</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate15@gmail.com</v>
+        <v>AdanApplegate16@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5419,15 +5419,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth15</v>
+        <v>AiyanaWhitworth16</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth15</v>
+        <v>AiyanaWhitworth16</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth15@gmail.com</v>
+        <v>AiyanaWhitworth16@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5436,15 +5436,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien15</v>
+        <v>MercedezBrien16</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien15</v>
+        <v>MercedezBrien16</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien15@gmail.com</v>
+        <v>MercedezBrien16@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5453,15 +5453,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager15</v>
+        <v>DuaneHager16</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager15</v>
+        <v>DuaneHager16</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager15@gmail.com</v>
+        <v>DuaneHager16@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5470,15 +5470,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell15</v>
+        <v>LorenBell16</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell15</v>
+        <v>LorenBell16</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell15@gmail.com</v>
+        <v>LorenBell16@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5487,15 +5487,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller15</v>
+        <v>GeraldHiller16</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller15</v>
+        <v>GeraldHiller16</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller15@gmail.com</v>
+        <v>GeraldHiller16@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5504,15 +5504,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch15</v>
+        <v>DeionBranch16</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch15</v>
+        <v>DeionBranch16</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch15@gmail.com</v>
+        <v>DeionBranch16@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5521,15 +5521,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead15</v>
+        <v>DakotaHalstead16</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead15</v>
+        <v>DakotaHalstead16</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead15@gmail.com</v>
+        <v>DakotaHalstead16@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5538,15 +5538,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman15</v>
+        <v>ElliottFurman16</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman15</v>
+        <v>ElliottFurman16</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman15@gmail.com</v>
+        <v>ElliottFurman16@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5555,15 +5555,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp15</v>
+        <v>MiltonCamp16</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp15</v>
+        <v>MiltonCamp16</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp15@gmail.com</v>
+        <v>MiltonCamp16@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5572,15 +5572,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester15</v>
+        <v>DawnChester16</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester15</v>
+        <v>DawnChester16</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester15@gmail.com</v>
+        <v>DawnChester16@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5589,15 +5589,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie15</v>
+        <v>ZacheryPetrie16</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie15</v>
+        <v>ZacheryPetrie16</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie15@gmail.com</v>
+        <v>ZacheryPetrie16@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5606,15 +5606,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel15</v>
+        <v>EstebanAngel16</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel15</v>
+        <v>EstebanAngel16</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel15@gmail.com</v>
+        <v>EstebanAngel16@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5623,15 +5623,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship15</v>
+        <v>JimmyBlankenship16</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship15</v>
+        <v>JimmyBlankenship16</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship15@gmail.com</v>
+        <v>JimmyBlankenship16@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5640,15 +5640,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice15</v>
+        <v>AllysaGrice16</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice15</v>
+        <v>AllysaGrice16</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice15@gmail.com</v>
+        <v>AllysaGrice16@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5657,15 +5657,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo15</v>
+        <v>AugustineYoo16</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo15</v>
+        <v>AugustineYoo16</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo15@gmail.com</v>
+        <v>AugustineYoo16@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5674,15 +5674,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard15</v>
+        <v>BrandiSouthard16</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard15</v>
+        <v>BrandiSouthard16</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard15@gmail.com</v>
+        <v>BrandiSouthard16@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CBEA1-6234-4C2A-A97C-1F3D2BC4CD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEC714-2F79-4ACE-948E-082340DCAF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1060,244 +1060,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker11</t>
-  </si>
-  <si>
-    <t>EthanBaker11@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman11</t>
-  </si>
-  <si>
-    <t>DelanieCarman11@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew11</t>
-  </si>
-  <si>
-    <t>BretAgnew11@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor11</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor11@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis11</t>
-  </si>
-  <si>
-    <t>TyrekReis11@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow11</t>
-  </si>
-  <si>
-    <t>LeannaChow11@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson11</t>
-  </si>
-  <si>
-    <t>TuckerCarlson11@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor11</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor11@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte11</t>
-  </si>
-  <si>
-    <t>MoniqueWitte11@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock11</t>
-  </si>
-  <si>
-    <t>MikelWhitlock11@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya11</t>
-  </si>
-  <si>
-    <t>VincentAmaya11@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz11</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz11@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech11</t>
-  </si>
-  <si>
-    <t>EllisCreech11@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel11</t>
-  </si>
-  <si>
-    <t>DionteCreel11@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust11</t>
-  </si>
-  <si>
-    <t>NicholeFoust11@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell11</t>
-  </si>
-  <si>
-    <t>ManuelConnell11@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam11</t>
-  </si>
-  <si>
-    <t>LourdesElam11@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick11</t>
-  </si>
-  <si>
-    <t>LincolnFrederick11@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash11</t>
-  </si>
-  <si>
-    <t>AlisaCash11@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths11</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths11@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan16</t>
-  </si>
-  <si>
-    <t>DonnellJernigan16@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole16</t>
-  </si>
-  <si>
-    <t>MalikOtoole16@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill16</t>
-  </si>
-  <si>
-    <t>AlanCaudill16@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate16</t>
-  </si>
-  <si>
-    <t>AdanApplegate16@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth16</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth16@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien16</t>
-  </si>
-  <si>
-    <t>MercedezBrien16@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager16</t>
-  </si>
-  <si>
-    <t>DuaneHager16@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell16</t>
-  </si>
-  <si>
-    <t>LorenBell16@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller16</t>
-  </si>
-  <si>
-    <t>GeraldHiller16@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch16</t>
-  </si>
-  <si>
-    <t>DeionBranch16@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead16</t>
-  </si>
-  <si>
-    <t>DakotaHalstead16@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman16</t>
-  </si>
-  <si>
-    <t>ElliottFurman16@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp16</t>
-  </si>
-  <si>
-    <t>MiltonCamp16@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester16</t>
-  </si>
-  <si>
-    <t>DawnChester16@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie16</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie16@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel16</t>
-  </si>
-  <si>
-    <t>EstebanAngel16@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship16</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship16@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice16</t>
-  </si>
-  <si>
-    <t>AllysaGrice16@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo16</t>
-  </si>
-  <si>
-    <t>AugustineYoo16@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard16</t>
-  </si>
-  <si>
-    <t>BrandiSouthard16@gmail.com</t>
+    <t>EthanBaker12</t>
+  </si>
+  <si>
+    <t>EthanBaker12@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman12</t>
+  </si>
+  <si>
+    <t>DelanieCarman12@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew12</t>
+  </si>
+  <si>
+    <t>BretAgnew12@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor12</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor12@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis12</t>
+  </si>
+  <si>
+    <t>TyrekReis12@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow12</t>
+  </si>
+  <si>
+    <t>LeannaChow12@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson12</t>
+  </si>
+  <si>
+    <t>TuckerCarlson12@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor12</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor12@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte12</t>
+  </si>
+  <si>
+    <t>MoniqueWitte12@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock12</t>
+  </si>
+  <si>
+    <t>MikelWhitlock12@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya12</t>
+  </si>
+  <si>
+    <t>VincentAmaya12@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz12</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz12@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech12</t>
+  </si>
+  <si>
+    <t>EllisCreech12@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel12</t>
+  </si>
+  <si>
+    <t>DionteCreel12@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust12</t>
+  </si>
+  <si>
+    <t>NicholeFoust12@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell12</t>
+  </si>
+  <si>
+    <t>ManuelConnell12@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam12</t>
+  </si>
+  <si>
+    <t>LourdesElam12@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick12</t>
+  </si>
+  <si>
+    <t>LincolnFrederick12@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash12</t>
+  </si>
+  <si>
+    <t>AlisaCash12@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths12</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths12@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan17</t>
+  </si>
+  <si>
+    <t>DonnellJernigan17@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole17</t>
+  </si>
+  <si>
+    <t>MalikOtoole17@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill17</t>
+  </si>
+  <si>
+    <t>AlanCaudill17@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate17</t>
+  </si>
+  <si>
+    <t>AdanApplegate17@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth17</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth17@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien17</t>
+  </si>
+  <si>
+    <t>MercedezBrien17@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager17</t>
+  </si>
+  <si>
+    <t>DuaneHager17@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell17</t>
+  </si>
+  <si>
+    <t>LorenBell17@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller17</t>
+  </si>
+  <si>
+    <t>GeraldHiller17@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch17</t>
+  </si>
+  <si>
+    <t>DeionBranch17@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead17</t>
+  </si>
+  <si>
+    <t>DakotaHalstead17@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman17</t>
+  </si>
+  <si>
+    <t>ElliottFurman17@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp17</t>
+  </si>
+  <si>
+    <t>MiltonCamp17@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester17</t>
+  </si>
+  <si>
+    <t>DawnChester17@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie17</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie17@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel17</t>
+  </si>
+  <si>
+    <t>EstebanAngel17@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship17</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship17@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice17</t>
+  </si>
+  <si>
+    <t>AllysaGrice17@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo17</t>
+  </si>
+  <si>
+    <t>AugustineYoo17@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard17</t>
+  </si>
+  <si>
+    <t>BrandiSouthard17@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2939,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T21"/>
+      <selection activeCell="R2" sqref="R2:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4957,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAB06A-EAA7-4BA7-8A4C-8C5EF7E0517A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C42"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4986,15 +4986,15 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker11</v>
+        <v>EthanBaker12</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker11</v>
+        <v>EthanBaker12</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker11@gmail.com</v>
+        <v>EthanBaker12@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
@@ -5003,21 +5003,21 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman11</v>
+        <v>DelanieCarman12</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman11</v>
+        <v>DelanieCarman12</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman11@gmail.com</v>
+        <v>DelanieCarman12@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -5026,15 +5026,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew11</v>
+        <v>BretAgnew12</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew11</v>
+        <v>BretAgnew12</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew11@gmail.com</v>
+        <v>BretAgnew12@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>137</v>
@@ -5043,15 +5043,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor11</v>
+        <v>EdgardoTaylor12</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor11</v>
+        <v>EdgardoTaylor12</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor11@gmail.com</v>
+        <v>EdgardoTaylor12@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -5060,15 +5060,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis11</v>
+        <v>TyrekReis12</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis11</v>
+        <v>TyrekReis12</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis11@gmail.com</v>
+        <v>TyrekReis12@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>139</v>
@@ -5077,15 +5077,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow11</v>
+        <v>LeannaChow12</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow11</v>
+        <v>LeannaChow12</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow11@gmail.com</v>
+        <v>LeannaChow12@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>140</v>
@@ -5094,15 +5094,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson11</v>
+        <v>TuckerCarlson12</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson11</v>
+        <v>TuckerCarlson12</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson11@gmail.com</v>
+        <v>TuckerCarlson12@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5111,15 +5111,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor11</v>
+        <v>AnnmarieConnor12</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor11</v>
+        <v>AnnmarieConnor12</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor11@gmail.com</v>
+        <v>AnnmarieConnor12@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
@@ -5128,15 +5128,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte11</v>
+        <v>MoniqueWitte12</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte11</v>
+        <v>MoniqueWitte12</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte11@gmail.com</v>
+        <v>MoniqueWitte12@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
@@ -5145,15 +5145,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock11</v>
+        <v>MikelWhitlock12</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock11</v>
+        <v>MikelWhitlock12</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock11@gmail.com</v>
+        <v>MikelWhitlock12@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -5162,15 +5162,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya11</v>
+        <v>VincentAmaya12</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya11</v>
+        <v>VincentAmaya12</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya11@gmail.com</v>
+        <v>VincentAmaya12@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -5179,15 +5179,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz11</v>
+        <v>KeiraQuiroz12</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz11</v>
+        <v>KeiraQuiroz12</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz11@gmail.com</v>
+        <v>KeiraQuiroz12@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -5196,15 +5196,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech11</v>
+        <v>EllisCreech12</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech11</v>
+        <v>EllisCreech12</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech11@gmail.com</v>
+        <v>EllisCreech12@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -5213,15 +5213,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel11</v>
+        <v>DionteCreel12</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel11</v>
+        <v>DionteCreel12</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel11@gmail.com</v>
+        <v>DionteCreel12@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -5230,15 +5230,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust11</v>
+        <v>NicholeFoust12</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust11</v>
+        <v>NicholeFoust12</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust11@gmail.com</v>
+        <v>NicholeFoust12@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -5247,15 +5247,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell11</v>
+        <v>ManuelConnell12</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell11</v>
+        <v>ManuelConnell12</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell11@gmail.com</v>
+        <v>ManuelConnell12@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -5264,15 +5264,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam11</v>
+        <v>LourdesElam12</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam11</v>
+        <v>LourdesElam12</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam11@gmail.com</v>
+        <v>LourdesElam12@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -5281,15 +5281,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick11</v>
+        <v>LincolnFrederick12</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick11</v>
+        <v>LincolnFrederick12</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick11@gmail.com</v>
+        <v>LincolnFrederick12@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -5298,15 +5298,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash11</v>
+        <v>AlisaCash12</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash11</v>
+        <v>AlisaCash12</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash11@gmail.com</v>
+        <v>AlisaCash12@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -5315,15 +5315,15 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths11</v>
+        <v>LucilleGriffiths12</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths11</v>
+        <v>LucilleGriffiths12</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths11@gmail.com</v>
+        <v>LucilleGriffiths12@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
@@ -5345,15 +5345,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan16</v>
+        <v>DonnellJernigan17</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan16</v>
+        <v>DonnellJernigan17</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan16@gmail.com</v>
+        <v>DonnellJernigan17@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>155</v>
@@ -5362,21 +5362,21 @@
         <v>75</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole16</v>
+        <v>MalikOtoole17</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole16</v>
+        <v>MalikOtoole17</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole16@gmail.com</v>
+        <v>MalikOtoole17@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -5385,15 +5385,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill16</v>
+        <v>AlanCaudill17</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill16</v>
+        <v>AlanCaudill17</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill16@gmail.com</v>
+        <v>AlanCaudill17@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -5402,15 +5402,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate16</v>
+        <v>AdanApplegate17</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate16</v>
+        <v>AdanApplegate17</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate16@gmail.com</v>
+        <v>AdanApplegate17@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -5419,15 +5419,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth16</v>
+        <v>AiyanaWhitworth17</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth16</v>
+        <v>AiyanaWhitworth17</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth16@gmail.com</v>
+        <v>AiyanaWhitworth17@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -5436,15 +5436,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien16</v>
+        <v>MercedezBrien17</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien16</v>
+        <v>MercedezBrien17</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien16@gmail.com</v>
+        <v>MercedezBrien17@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
@@ -5453,15 +5453,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager16</v>
+        <v>DuaneHager17</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager16</v>
+        <v>DuaneHager17</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager16@gmail.com</v>
+        <v>DuaneHager17@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -5470,15 +5470,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell16</v>
+        <v>LorenBell17</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell16</v>
+        <v>LorenBell17</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell16@gmail.com</v>
+        <v>LorenBell17@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -5487,15 +5487,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller16</v>
+        <v>GeraldHiller17</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller16</v>
+        <v>GeraldHiller17</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller16@gmail.com</v>
+        <v>GeraldHiller17@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>163</v>
@@ -5504,15 +5504,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch16</v>
+        <v>DeionBranch17</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch16</v>
+        <v>DeionBranch17</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch16@gmail.com</v>
+        <v>DeionBranch17@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -5521,15 +5521,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead16</v>
+        <v>DakotaHalstead17</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead16</v>
+        <v>DakotaHalstead17</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead16@gmail.com</v>
+        <v>DakotaHalstead17@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -5538,15 +5538,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman16</v>
+        <v>ElliottFurman17</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman16</v>
+        <v>ElliottFurman17</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman16@gmail.com</v>
+        <v>ElliottFurman17@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>166</v>
@@ -5555,15 +5555,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp16</v>
+        <v>MiltonCamp17</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp16</v>
+        <v>MiltonCamp17</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp16@gmail.com</v>
+        <v>MiltonCamp17@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>167</v>
@@ -5572,15 +5572,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester16</v>
+        <v>DawnChester17</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester16</v>
+        <v>DawnChester17</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester16@gmail.com</v>
+        <v>DawnChester17@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>168</v>
@@ -5589,15 +5589,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie16</v>
+        <v>ZacheryPetrie17</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie16</v>
+        <v>ZacheryPetrie17</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie16@gmail.com</v>
+        <v>ZacheryPetrie17@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>169</v>
@@ -5606,15 +5606,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel16</v>
+        <v>EstebanAngel17</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel16</v>
+        <v>EstebanAngel17</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel16@gmail.com</v>
+        <v>EstebanAngel17@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -5623,15 +5623,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship16</v>
+        <v>JimmyBlankenship17</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship16</v>
+        <v>JimmyBlankenship17</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship16@gmail.com</v>
+        <v>JimmyBlankenship17@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>171</v>
@@ -5640,15 +5640,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice16</v>
+        <v>AllysaGrice17</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice16</v>
+        <v>AllysaGrice17</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice16@gmail.com</v>
+        <v>AllysaGrice17@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>172</v>
@@ -5657,15 +5657,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo16</v>
+        <v>AugustineYoo17</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo16</v>
+        <v>AugustineYoo17</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo16@gmail.com</v>
+        <v>AugustineYoo17@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -5674,15 +5674,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard16</v>
+        <v>BrandiSouthard17</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard16</v>
+        <v>BrandiSouthard17</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard16@gmail.com</v>
+        <v>BrandiSouthard17@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>174</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEC714-2F79-4ACE-948E-082340DCAF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5769F9-98C2-4FEC-91CC-1EBF24359363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="416">
   <si>
     <t>run</t>
   </si>
@@ -130,24 +130,12 @@
     <t>used_email</t>
   </si>
   <si>
-    <t>AutoTestChicago2@gmail.com</t>
-  </si>
-  <si>
     <t>team_members</t>
   </si>
   <si>
     <t>Harvey Spector_Founder – CEO,Jessica Pearson_COO,Rachel Zain_Marketing Head,Luise Litt_Lead Developer,Katrina Bennett_Intern Designer,Marco Foster_Intern Designer</t>
   </si>
   <si>
-    <t>AutomationTestChicago2</t>
-  </si>
-  <si>
-    <t>AutomationTestChicago3</t>
-  </si>
-  <si>
-    <t>AutoTestChicago3@gmail.com</t>
-  </si>
-  <si>
     <t>error_message</t>
   </si>
   <si>
@@ -1060,244 +1048,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker12</t>
-  </si>
-  <si>
-    <t>EthanBaker12@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman12</t>
-  </si>
-  <si>
-    <t>DelanieCarman12@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew12</t>
-  </si>
-  <si>
-    <t>BretAgnew12@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor12</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor12@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis12</t>
-  </si>
-  <si>
-    <t>TyrekReis12@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow12</t>
-  </si>
-  <si>
-    <t>LeannaChow12@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson12</t>
-  </si>
-  <si>
-    <t>TuckerCarlson12@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor12</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor12@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte12</t>
-  </si>
-  <si>
-    <t>MoniqueWitte12@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock12</t>
-  </si>
-  <si>
-    <t>MikelWhitlock12@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya12</t>
-  </si>
-  <si>
-    <t>VincentAmaya12@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz12</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz12@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech12</t>
-  </si>
-  <si>
-    <t>EllisCreech12@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel12</t>
-  </si>
-  <si>
-    <t>DionteCreel12@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust12</t>
-  </si>
-  <si>
-    <t>NicholeFoust12@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell12</t>
-  </si>
-  <si>
-    <t>ManuelConnell12@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam12</t>
-  </si>
-  <si>
-    <t>LourdesElam12@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick12</t>
-  </si>
-  <si>
-    <t>LincolnFrederick12@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash12</t>
-  </si>
-  <si>
-    <t>AlisaCash12@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths12</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths12@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan17</t>
-  </si>
-  <si>
-    <t>DonnellJernigan17@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole17</t>
-  </si>
-  <si>
-    <t>MalikOtoole17@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill17</t>
-  </si>
-  <si>
-    <t>AlanCaudill17@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate17</t>
-  </si>
-  <si>
-    <t>AdanApplegate17@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth17</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth17@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien17</t>
-  </si>
-  <si>
-    <t>MercedezBrien17@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager17</t>
-  </si>
-  <si>
-    <t>DuaneHager17@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell17</t>
-  </si>
-  <si>
-    <t>LorenBell17@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller17</t>
-  </si>
-  <si>
-    <t>GeraldHiller17@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch17</t>
-  </si>
-  <si>
-    <t>DeionBranch17@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead17</t>
-  </si>
-  <si>
-    <t>DakotaHalstead17@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman17</t>
-  </si>
-  <si>
-    <t>ElliottFurman17@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp17</t>
-  </si>
-  <si>
-    <t>MiltonCamp17@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester17</t>
-  </si>
-  <si>
-    <t>DawnChester17@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie17</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie17@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel17</t>
-  </si>
-  <si>
-    <t>EstebanAngel17@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship17</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship17@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice17</t>
-  </si>
-  <si>
-    <t>AllysaGrice17@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo17</t>
-  </si>
-  <si>
-    <t>AugustineYoo17@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard17</t>
-  </si>
-  <si>
-    <t>BrandiSouthard17@gmail.com</t>
+    <t>EthanBaker13</t>
+  </si>
+  <si>
+    <t>EthanBaker13@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman13</t>
+  </si>
+  <si>
+    <t>DelanieCarman13@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew13</t>
+  </si>
+  <si>
+    <t>BretAgnew13@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor13</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor13@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis13</t>
+  </si>
+  <si>
+    <t>TyrekReis13@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow13</t>
+  </si>
+  <si>
+    <t>LeannaChow13@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson13</t>
+  </si>
+  <si>
+    <t>TuckerCarlson13@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor13</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor13@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte13</t>
+  </si>
+  <si>
+    <t>MoniqueWitte13@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock13</t>
+  </si>
+  <si>
+    <t>MikelWhitlock13@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya13</t>
+  </si>
+  <si>
+    <t>VincentAmaya13@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz13</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz13@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech13</t>
+  </si>
+  <si>
+    <t>EllisCreech13@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel13</t>
+  </si>
+  <si>
+    <t>DionteCreel13@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust13</t>
+  </si>
+  <si>
+    <t>NicholeFoust13@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell13</t>
+  </si>
+  <si>
+    <t>ManuelConnell13@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam13</t>
+  </si>
+  <si>
+    <t>LourdesElam13@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick13</t>
+  </si>
+  <si>
+    <t>LincolnFrederick13@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash13</t>
+  </si>
+  <si>
+    <t>AlisaCash13@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths13</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths13@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan18</t>
+  </si>
+  <si>
+    <t>DonnellJernigan18@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole18</t>
+  </si>
+  <si>
+    <t>MalikOtoole18@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill18</t>
+  </si>
+  <si>
+    <t>AlanCaudill18@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate18</t>
+  </si>
+  <si>
+    <t>AdanApplegate18@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth18</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth18@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien18</t>
+  </si>
+  <si>
+    <t>MercedezBrien18@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager18</t>
+  </si>
+  <si>
+    <t>DuaneHager18@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell18</t>
+  </si>
+  <si>
+    <t>LorenBell18@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller18</t>
+  </si>
+  <si>
+    <t>GeraldHiller18@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch18</t>
+  </si>
+  <si>
+    <t>DeionBranch18@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead18</t>
+  </si>
+  <si>
+    <t>DakotaHalstead18@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman18</t>
+  </si>
+  <si>
+    <t>ElliottFurman18@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp18</t>
+  </si>
+  <si>
+    <t>MiltonCamp18@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester18</t>
+  </si>
+  <si>
+    <t>DawnChester18@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie18</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie18@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel18</t>
+  </si>
+  <si>
+    <t>EstebanAngel18@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship18</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship18@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice18</t>
+  </si>
+  <si>
+    <t>AllysaGrice18@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo18</t>
+  </si>
+  <si>
+    <t>AugustineYoo18@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard18</t>
+  </si>
+  <si>
+    <t>BrandiSouthard18@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2040,27 +2028,27 @@
         <v>29</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -2069,31 +2057,31 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>337</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -2101,11 +2089,11 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
+      <c r="B3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -2115,39 +2103,39 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>339</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
+      <c r="B4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -2157,39 +2145,39 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>341</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
+      <c r="B5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2199,39 +2187,39 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>343</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -2241,39 +2229,39 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>345</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
+      <c r="B7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -2283,39 +2271,39 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>347</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -2325,39 +2313,39 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>349</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
+      <c r="B9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -2367,39 +2355,39 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>351</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
+      <c r="B10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -2409,39 +2397,39 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>30</v>
+        <v>353</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
+      <c r="B11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -2451,39 +2439,39 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>35</v>
+        <v>355</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
+      <c r="B12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -2493,39 +2481,39 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>357</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
+      <c r="B13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -2535,39 +2523,39 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>35</v>
+        <v>359</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
+      <c r="B14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -2577,39 +2565,39 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>30</v>
+        <v>361</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
+      <c r="B15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -2619,39 +2607,39 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>363</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
+      <c r="B16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -2661,39 +2649,39 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>365</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
+      <c r="B17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2703,39 +2691,39 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>35</v>
+        <v>367</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
+      <c r="B18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -2745,39 +2733,39 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>35</v>
+        <v>369</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
+      <c r="B19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -2787,39 +2775,39 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>35</v>
+        <v>371</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
+      <c r="B20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
@@ -2829,39 +2817,39 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>35</v>
+        <v>373</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
+      <c r="B21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -2871,64 +2859,38 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>35</v>
+        <v>375</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="AutomationTestPalatine28@gmail.com" xr:uid="{FAA270D8-B32D-4263-B50A-619A8BA3431D}"/>
-    <hyperlink ref="J2:J6" r:id="rId2" display="AutoTestChicago1@gmail.com" xr:uid="{7F91D625-5288-43DC-8979-78A7388D337B}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{15D73157-6E66-4502-AC65-62B4BAFE9816}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{D4FD3346-1CEF-4AE7-97C7-FD9419EB66FD}"/>
-    <hyperlink ref="J4:J5" r:id="rId5" display="AutoTestChicago1@gmail.com" xr:uid="{C9481CE0-2508-41E6-A916-6DEE20D9E1A0}"/>
-    <hyperlink ref="J6:J7" r:id="rId6" display="AutoTestChicago1@gmail.com" xr:uid="{FD3D8037-74BE-4749-8808-67ACB96B7FEA}"/>
-    <hyperlink ref="J8:J9" r:id="rId7" display="AutoTestChicago1@gmail.com" xr:uid="{A79E3732-2844-49C8-8701-0FD3C08E02F4}"/>
-    <hyperlink ref="J10:J11" r:id="rId8" display="AutoTestChicago1@gmail.com" xr:uid="{6F7ABCC3-94A8-4942-B94F-C2A7D48C4822}"/>
-    <hyperlink ref="J12:J13" r:id="rId9" display="AutoTestChicago1@gmail.com" xr:uid="{A5A255A4-C0A8-46A2-BC38-2855EA6AE312}"/>
-    <hyperlink ref="J14:J15" r:id="rId10" display="AutoTestChicago1@gmail.com" xr:uid="{A23DAACF-7E86-4F72-87CE-DAD083D5E492}"/>
-    <hyperlink ref="J16:J17" r:id="rId11" display="AutoTestChicago1@gmail.com" xr:uid="{194C6FB3-BA95-4977-80DE-6A006CFBEC66}"/>
-    <hyperlink ref="J4" r:id="rId12" xr:uid="{79E7172D-25FB-4057-87A8-8AEB517EF0DF}"/>
-    <hyperlink ref="J6" r:id="rId13" xr:uid="{71372C41-8F24-4416-A60C-81F5259EF097}"/>
-    <hyperlink ref="J8" r:id="rId14" xr:uid="{97501CFB-1C2F-4E63-BA73-9627AB45D56E}"/>
-    <hyperlink ref="J10" r:id="rId15" xr:uid="{B62FA038-9B79-47A1-937F-B58D8BFA51C8}"/>
-    <hyperlink ref="J12" r:id="rId16" xr:uid="{E100B131-B4BB-4674-A287-FB0AF327E132}"/>
-    <hyperlink ref="J14" r:id="rId17" xr:uid="{938601F9-05FB-47AC-B729-376FAA36D6DD}"/>
-    <hyperlink ref="J16" r:id="rId18" xr:uid="{A015B10D-73DA-4750-BBB5-E313C24DC706}"/>
-    <hyperlink ref="J5" r:id="rId19" xr:uid="{F71BD189-2D03-4B7C-9DFE-F340DF3C37B4}"/>
-    <hyperlink ref="J7" r:id="rId20" xr:uid="{69DBCB76-DC67-44F7-833A-646CEA2D7F74}"/>
-    <hyperlink ref="J9" r:id="rId21" xr:uid="{48F1A990-4BF8-4C1E-B096-0301D3989B81}"/>
-    <hyperlink ref="J11" r:id="rId22" xr:uid="{D5ED9D19-6C96-4475-B1AE-488B7BFBCBD8}"/>
-    <hyperlink ref="J13" r:id="rId23" xr:uid="{8048E439-CF3F-4BC0-B159-8D492B54AB71}"/>
-    <hyperlink ref="J15" r:id="rId24" xr:uid="{83BD500C-B648-4789-B411-85D60FA9385E}"/>
-    <hyperlink ref="J17" r:id="rId25" xr:uid="{C6A2ABB0-4E7B-4B5A-9736-8007E9A4CD3F}"/>
-    <hyperlink ref="I3:I17" r:id="rId26" display="AutomationTestPalatine28@gmail.com" xr:uid="{ADD3FDEB-C73A-4417-9838-6AD8DC4B2A00}"/>
-    <hyperlink ref="J18" r:id="rId27" xr:uid="{BD7CAF26-07A1-431A-88B2-D02F3F66B638}"/>
-    <hyperlink ref="J19" r:id="rId28" xr:uid="{6BE2C065-FD88-4D05-B5D0-B9DFEC45BF70}"/>
-    <hyperlink ref="J20" r:id="rId29" xr:uid="{B6C39211-3B67-4FB9-91FE-3C5E634FD290}"/>
-    <hyperlink ref="J21" r:id="rId30" xr:uid="{6172F02A-A3F1-442A-BE36-22F91AE04D47}"/>
-    <hyperlink ref="I12" r:id="rId31" display="VincentAmaya1@gmail.com" xr:uid="{6D467585-22DC-4BE4-A44E-4F64ABA50F76}"/>
+    <hyperlink ref="I3:I17" r:id="rId2" display="AutomationTestPalatine28@gmail.com" xr:uid="{ADD3FDEB-C73A-4417-9838-6AD8DC4B2A00}"/>
+    <hyperlink ref="I12" r:id="rId3" display="VincentAmaya1@gmail.com" xr:uid="{6D467585-22DC-4BE4-A44E-4F64ABA50F76}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{0B9699C5-0EC0-4F4F-B4E4-7C65C295DC75}"/>
+    <hyperlink ref="J3:J21" r:id="rId5" display="TestChicago112@gmail.com" xr:uid="{6EC234DC-2002-4F99-A743-60A20D68921C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2938,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DEA-3893-49AA-8C48-45DC29C761B9}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,34 +2999,34 @@
         <v>11</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3072,43 +3034,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>27</v>
@@ -3117,37 +3079,37 @@
         <v>26</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AB2" s="14" t="s">
         <v>23</v>
@@ -3156,7 +3118,7 @@
         <v>24</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF2" s="16"/>
     </row>
@@ -3165,43 +3127,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>27</v>
@@ -3210,37 +3172,37 @@
         <v>26</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AB3" s="14" t="s">
         <v>23</v>
@@ -3249,7 +3211,7 @@
         <v>24</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AF3" s="16"/>
     </row>
@@ -3258,43 +3220,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O4" s="20" t="s">
         <v>27</v>
@@ -3303,37 +3265,37 @@
         <v>26</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Y4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="Z4" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="AA4" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AB4" s="14" t="s">
         <v>23</v>
@@ -3342,7 +3304,7 @@
         <v>24</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AF4" s="16"/>
     </row>
@@ -3351,43 +3313,43 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>27</v>
@@ -3396,37 +3358,37 @@
         <v>26</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>23</v>
@@ -3435,7 +3397,7 @@
         <v>24</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="16"/>
     </row>
@@ -3444,43 +3406,43 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O6" s="20" t="s">
         <v>27</v>
@@ -3489,37 +3451,37 @@
         <v>26</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>23</v>
@@ -3528,7 +3490,7 @@
         <v>24</v>
       </c>
       <c r="AD6" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="16"/>
     </row>
@@ -3537,43 +3499,43 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O7" s="20" t="s">
         <v>27</v>
@@ -3582,37 +3544,37 @@
         <v>26</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>23</v>
@@ -3621,7 +3583,7 @@
         <v>24</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="16"/>
     </row>
@@ -3630,43 +3592,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O8" s="20" t="s">
         <v>27</v>
@@ -3675,37 +3637,37 @@
         <v>26</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AB8" s="14" t="s">
         <v>23</v>
@@ -3714,7 +3676,7 @@
         <v>24</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AF8" s="16"/>
     </row>
@@ -3723,43 +3685,43 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="K9" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O9" s="20" t="s">
         <v>27</v>
@@ -3768,37 +3730,37 @@
         <v>26</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V9" s="27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AB9" s="14" t="s">
         <v>23</v>
@@ -3807,7 +3769,7 @@
         <v>24</v>
       </c>
       <c r="AD9" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AF9" s="16"/>
     </row>
@@ -3816,43 +3778,43 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="O10" s="20" t="s">
         <v>27</v>
@@ -3861,37 +3823,37 @@
         <v>26</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AB10" s="14" t="s">
         <v>23</v>
@@ -3900,7 +3862,7 @@
         <v>24</v>
       </c>
       <c r="AD10" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AF10" s="16"/>
     </row>
@@ -3909,43 +3871,43 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O11" s="20" t="s">
         <v>27</v>
@@ -3954,37 +3916,37 @@
         <v>26</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V11" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA11" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AB11" s="14" t="s">
         <v>23</v>
@@ -3993,7 +3955,7 @@
         <v>24</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AF11" s="16"/>
     </row>
@@ -4002,43 +3964,43 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O12" s="20" t="s">
         <v>27</v>
@@ -4047,37 +4009,37 @@
         <v>26</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB12" s="14" t="s">
         <v>23</v>
@@ -4086,7 +4048,7 @@
         <v>24</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AF12" s="16"/>
     </row>
@@ -4095,43 +4057,43 @@
         <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O13" s="20" t="s">
         <v>27</v>
@@ -4140,37 +4102,37 @@
         <v>26</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V13" s="26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="W13" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="X13" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AB13" s="14" t="s">
         <v>23</v>
@@ -4179,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="AD13" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AF13" s="16"/>
     </row>
@@ -4188,43 +4150,43 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="F14" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O14" s="20" t="s">
         <v>27</v>
@@ -4233,37 +4195,37 @@
         <v>26</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="X14" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z14" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AA14" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AB14" s="14" t="s">
         <v>23</v>
@@ -4272,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="AD14" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AF14" s="16"/>
     </row>
@@ -4281,43 +4243,43 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O15" s="20" t="s">
         <v>27</v>
@@ -4326,37 +4288,37 @@
         <v>26</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AB15" s="14" t="s">
         <v>23</v>
@@ -4365,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="AD15" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AF15" s="16"/>
     </row>
@@ -4374,43 +4336,43 @@
         <v>1</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O16" s="20" t="s">
         <v>27</v>
@@ -4419,37 +4381,37 @@
         <v>26</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB16" s="14" t="s">
         <v>23</v>
@@ -4458,7 +4420,7 @@
         <v>24</v>
       </c>
       <c r="AD16" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF16" s="16"/>
     </row>
@@ -4467,43 +4429,43 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O17" s="20" t="s">
         <v>27</v>
@@ -4512,37 +4474,37 @@
         <v>26</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AB17" s="14" t="s">
         <v>23</v>
@@ -4551,7 +4513,7 @@
         <v>24</v>
       </c>
       <c r="AD17" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4559,43 +4521,43 @@
         <v>1</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O18" s="20" t="s">
         <v>27</v>
@@ -4604,37 +4566,37 @@
         <v>26</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="X18" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AA18" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AB18" s="14" t="s">
         <v>23</v>
@@ -4643,7 +4605,7 @@
         <v>24</v>
       </c>
       <c r="AD18" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4651,43 +4613,43 @@
         <v>1</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O19" s="20" t="s">
         <v>27</v>
@@ -4696,37 +4658,37 @@
         <v>26</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V19" s="26" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AB19" s="14" t="s">
         <v>23</v>
@@ -4735,7 +4697,7 @@
         <v>24</v>
       </c>
       <c r="AD19" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4743,43 +4705,43 @@
         <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="K20" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O20" s="20" t="s">
         <v>27</v>
@@ -4788,37 +4750,37 @@
         <v>26</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AB20" s="14" t="s">
         <v>23</v>
@@ -4827,7 +4789,7 @@
         <v>24</v>
       </c>
       <c r="AD20" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
@@ -4835,43 +4797,43 @@
         <v>1</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O21" s="20" t="s">
         <v>27</v>
@@ -4880,37 +4842,37 @@
         <v>26</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AB21" s="14" t="s">
         <v>23</v>
@@ -4919,7 +4881,7 @@
         <v>24</v>
       </c>
       <c r="AD21" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +4920,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C43"/>
+      <selection activeCell="A23" sqref="A23:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4972,7 +4934,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -4986,352 +4948,352 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker12</v>
+        <v>EthanBaker13</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker12</v>
+        <v>EthanBaker13</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker12@gmail.com</v>
+        <v>EthanBaker13@gmail.com</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman12</v>
+        <v>DelanieCarman13</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman12</v>
+        <v>DelanieCarman13</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman12@gmail.com</v>
+        <v>DelanieCarman13@gmail.com</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew12</v>
+        <v>BretAgnew13</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew12</v>
+        <v>BretAgnew13</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew12@gmail.com</v>
+        <v>BretAgnew13@gmail.com</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor12</v>
+        <v>EdgardoTaylor13</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor12</v>
+        <v>EdgardoTaylor13</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor12@gmail.com</v>
+        <v>EdgardoTaylor13@gmail.com</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis12</v>
+        <v>TyrekReis13</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis12</v>
+        <v>TyrekReis13</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis12@gmail.com</v>
+        <v>TyrekReis13@gmail.com</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow12</v>
+        <v>LeannaChow13</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow12</v>
+        <v>LeannaChow13</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow12@gmail.com</v>
+        <v>LeannaChow13@gmail.com</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson12</v>
+        <v>TuckerCarlson13</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson12</v>
+        <v>TuckerCarlson13</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson12@gmail.com</v>
+        <v>TuckerCarlson13@gmail.com</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor12</v>
+        <v>AnnmarieConnor13</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor12</v>
+        <v>AnnmarieConnor13</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor12@gmail.com</v>
+        <v>AnnmarieConnor13@gmail.com</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte12</v>
+        <v>MoniqueWitte13</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte12</v>
+        <v>MoniqueWitte13</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte12@gmail.com</v>
+        <v>MoniqueWitte13@gmail.com</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock12</v>
+        <v>MikelWhitlock13</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock12</v>
+        <v>MikelWhitlock13</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock12@gmail.com</v>
+        <v>MikelWhitlock13@gmail.com</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya12</v>
+        <v>VincentAmaya13</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya12</v>
+        <v>VincentAmaya13</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya12@gmail.com</v>
+        <v>VincentAmaya13@gmail.com</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz12</v>
+        <v>KeiraQuiroz13</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz12</v>
+        <v>KeiraQuiroz13</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz12@gmail.com</v>
+        <v>KeiraQuiroz13@gmail.com</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech12</v>
+        <v>EllisCreech13</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech12</v>
+        <v>EllisCreech13</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech12@gmail.com</v>
+        <v>EllisCreech13@gmail.com</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel12</v>
+        <v>DionteCreel13</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel12</v>
+        <v>DionteCreel13</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel12@gmail.com</v>
+        <v>DionteCreel13@gmail.com</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust12</v>
+        <v>NicholeFoust13</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust12</v>
+        <v>NicholeFoust13</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust12@gmail.com</v>
+        <v>NicholeFoust13@gmail.com</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell12</v>
+        <v>ManuelConnell13</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell12</v>
+        <v>ManuelConnell13</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell12@gmail.com</v>
+        <v>ManuelConnell13@gmail.com</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam12</v>
+        <v>LourdesElam13</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam12</v>
+        <v>LourdesElam13</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam12@gmail.com</v>
+        <v>LourdesElam13@gmail.com</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick12</v>
+        <v>LincolnFrederick13</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick12</v>
+        <v>LincolnFrederick13</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick12@gmail.com</v>
+        <v>LincolnFrederick13@gmail.com</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash12</v>
+        <v>AlisaCash13</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash12</v>
+        <v>AlisaCash13</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash12@gmail.com</v>
+        <v>AlisaCash13@gmail.com</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths12</v>
+        <v>LucilleGriffiths13</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths12</v>
+        <v>LucilleGriffiths13</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths12@gmail.com</v>
+        <v>LucilleGriffiths13@gmail.com</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="33" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -5345,347 +5307,347 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan17</v>
+        <v>DonnellJernigan18</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan17</v>
+        <v>DonnellJernigan18</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan17@gmail.com</v>
+        <v>DonnellJernigan18@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I23">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole17</v>
+        <v>MalikOtoole18</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole17</v>
+        <v>MalikOtoole18</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole17@gmail.com</v>
+        <v>MalikOtoole18@gmail.com</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill17</v>
+        <v>AlanCaudill18</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill17</v>
+        <v>AlanCaudill18</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill17@gmail.com</v>
+        <v>AlanCaudill18@gmail.com</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate17</v>
+        <v>AdanApplegate18</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate17</v>
+        <v>AdanApplegate18</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate17@gmail.com</v>
+        <v>AdanApplegate18@gmail.com</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth17</v>
+        <v>AiyanaWhitworth18</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth17</v>
+        <v>AiyanaWhitworth18</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth17@gmail.com</v>
+        <v>AiyanaWhitworth18@gmail.com</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien17</v>
+        <v>MercedezBrien18</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien17</v>
+        <v>MercedezBrien18</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien17@gmail.com</v>
+        <v>MercedezBrien18@gmail.com</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager17</v>
+        <v>DuaneHager18</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager17</v>
+        <v>DuaneHager18</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager17@gmail.com</v>
+        <v>DuaneHager18@gmail.com</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell17</v>
+        <v>LorenBell18</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell17</v>
+        <v>LorenBell18</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell17@gmail.com</v>
+        <v>LorenBell18@gmail.com</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller17</v>
+        <v>GeraldHiller18</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller17</v>
+        <v>GeraldHiller18</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller17@gmail.com</v>
+        <v>GeraldHiller18@gmail.com</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch17</v>
+        <v>DeionBranch18</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch17</v>
+        <v>DeionBranch18</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch17@gmail.com</v>
+        <v>DeionBranch18@gmail.com</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead17</v>
+        <v>DakotaHalstead18</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead17</v>
+        <v>DakotaHalstead18</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead17@gmail.com</v>
+        <v>DakotaHalstead18@gmail.com</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman17</v>
+        <v>ElliottFurman18</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman17</v>
+        <v>ElliottFurman18</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman17@gmail.com</v>
+        <v>ElliottFurman18@gmail.com</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp17</v>
+        <v>MiltonCamp18</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp17</v>
+        <v>MiltonCamp18</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp17@gmail.com</v>
+        <v>MiltonCamp18@gmail.com</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester17</v>
+        <v>DawnChester18</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester17</v>
+        <v>DawnChester18</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester17@gmail.com</v>
+        <v>DawnChester18@gmail.com</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie17</v>
+        <v>ZacheryPetrie18</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie17</v>
+        <v>ZacheryPetrie18</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie17@gmail.com</v>
+        <v>ZacheryPetrie18@gmail.com</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel17</v>
+        <v>EstebanAngel18</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel17</v>
+        <v>EstebanAngel18</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel17@gmail.com</v>
+        <v>EstebanAngel18@gmail.com</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship17</v>
+        <v>JimmyBlankenship18</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship17</v>
+        <v>JimmyBlankenship18</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship17@gmail.com</v>
+        <v>JimmyBlankenship18@gmail.com</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice17</v>
+        <v>AllysaGrice18</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice17</v>
+        <v>AllysaGrice18</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice17@gmail.com</v>
+        <v>AllysaGrice18@gmail.com</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo17</v>
+        <v>AugustineYoo18</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo17</v>
+        <v>AugustineYoo18</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo17@gmail.com</v>
+        <v>AugustineYoo18@gmail.com</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard17</v>
+        <v>BrandiSouthard18</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard17</v>
+        <v>BrandiSouthard18</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard17@gmail.com</v>
+        <v>BrandiSouthard18@gmail.com</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5769F9-98C2-4FEC-91CC-1EBF24359363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05883D7-BDAB-4B28-8817-DC8A47211DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1048,244 +1048,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker13</t>
-  </si>
-  <si>
-    <t>EthanBaker13@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman13</t>
-  </si>
-  <si>
-    <t>DelanieCarman13@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew13</t>
-  </si>
-  <si>
-    <t>BretAgnew13@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor13</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor13@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis13</t>
-  </si>
-  <si>
-    <t>TyrekReis13@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow13</t>
-  </si>
-  <si>
-    <t>LeannaChow13@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson13</t>
-  </si>
-  <si>
-    <t>TuckerCarlson13@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor13</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor13@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte13</t>
-  </si>
-  <si>
-    <t>MoniqueWitte13@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock13</t>
-  </si>
-  <si>
-    <t>MikelWhitlock13@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya13</t>
-  </si>
-  <si>
-    <t>VincentAmaya13@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz13</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz13@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech13</t>
-  </si>
-  <si>
-    <t>EllisCreech13@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel13</t>
-  </si>
-  <si>
-    <t>DionteCreel13@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust13</t>
-  </si>
-  <si>
-    <t>NicholeFoust13@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell13</t>
-  </si>
-  <si>
-    <t>ManuelConnell13@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam13</t>
-  </si>
-  <si>
-    <t>LourdesElam13@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick13</t>
-  </si>
-  <si>
-    <t>LincolnFrederick13@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash13</t>
-  </si>
-  <si>
-    <t>AlisaCash13@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths13</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths13@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan18</t>
-  </si>
-  <si>
-    <t>DonnellJernigan18@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole18</t>
-  </si>
-  <si>
-    <t>MalikOtoole18@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill18</t>
-  </si>
-  <si>
-    <t>AlanCaudill18@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate18</t>
-  </si>
-  <si>
-    <t>AdanApplegate18@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth18</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth18@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien18</t>
-  </si>
-  <si>
-    <t>MercedezBrien18@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager18</t>
-  </si>
-  <si>
-    <t>DuaneHager18@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell18</t>
-  </si>
-  <si>
-    <t>LorenBell18@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller18</t>
-  </si>
-  <si>
-    <t>GeraldHiller18@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch18</t>
-  </si>
-  <si>
-    <t>DeionBranch18@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead18</t>
-  </si>
-  <si>
-    <t>DakotaHalstead18@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman18</t>
-  </si>
-  <si>
-    <t>ElliottFurman18@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp18</t>
-  </si>
-  <si>
-    <t>MiltonCamp18@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester18</t>
-  </si>
-  <si>
-    <t>DawnChester18@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie18</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie18@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel18</t>
-  </si>
-  <si>
-    <t>EstebanAngel18@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship18</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship18@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice18</t>
-  </si>
-  <si>
-    <t>AllysaGrice18@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo18</t>
-  </si>
-  <si>
-    <t>AugustineYoo18@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard18</t>
-  </si>
-  <si>
-    <t>BrandiSouthard18@gmail.com</t>
+    <t>EthanBaker14</t>
+  </si>
+  <si>
+    <t>EthanBaker14@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman14</t>
+  </si>
+  <si>
+    <t>DelanieCarman14@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew14</t>
+  </si>
+  <si>
+    <t>BretAgnew14@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor14</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor14@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis14</t>
+  </si>
+  <si>
+    <t>TyrekReis14@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow14</t>
+  </si>
+  <si>
+    <t>LeannaChow14@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson14</t>
+  </si>
+  <si>
+    <t>TuckerCarlson14@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor14</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor14@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte14</t>
+  </si>
+  <si>
+    <t>MoniqueWitte14@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock14</t>
+  </si>
+  <si>
+    <t>MikelWhitlock14@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya14</t>
+  </si>
+  <si>
+    <t>VincentAmaya14@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz14</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz14@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech14</t>
+  </si>
+  <si>
+    <t>EllisCreech14@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel14</t>
+  </si>
+  <si>
+    <t>DionteCreel14@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust14</t>
+  </si>
+  <si>
+    <t>NicholeFoust14@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell14</t>
+  </si>
+  <si>
+    <t>ManuelConnell14@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam14</t>
+  </si>
+  <si>
+    <t>LourdesElam14@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick14</t>
+  </si>
+  <si>
+    <t>LincolnFrederick14@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash14</t>
+  </si>
+  <si>
+    <t>AlisaCash14@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths14</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths14@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan19</t>
+  </si>
+  <si>
+    <t>DonnellJernigan19@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole19</t>
+  </si>
+  <si>
+    <t>MalikOtoole19@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill19</t>
+  </si>
+  <si>
+    <t>AlanCaudill19@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate19</t>
+  </si>
+  <si>
+    <t>AdanApplegate19@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth19</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth19@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien19</t>
+  </si>
+  <si>
+    <t>MercedezBrien19@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager19</t>
+  </si>
+  <si>
+    <t>DuaneHager19@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell19</t>
+  </si>
+  <si>
+    <t>LorenBell19@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller19</t>
+  </si>
+  <si>
+    <t>GeraldHiller19@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch19</t>
+  </si>
+  <si>
+    <t>DeionBranch19@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead19</t>
+  </si>
+  <si>
+    <t>DakotaHalstead19@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman19</t>
+  </si>
+  <si>
+    <t>ElliottFurman19@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp19</t>
+  </si>
+  <si>
+    <t>MiltonCamp19@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester19</t>
+  </si>
+  <si>
+    <t>DawnChester19@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie19</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie19@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel19</t>
+  </si>
+  <si>
+    <t>EstebanAngel19@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship19</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship19@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice19</t>
+  </si>
+  <si>
+    <t>AllysaGrice19@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo19</t>
+  </si>
+  <si>
+    <t>AugustineYoo19@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard19</t>
+  </si>
+  <si>
+    <t>BrandiSouthard19@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4948,15 +4948,15 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker13</v>
+        <v>EthanBaker14</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker13</v>
+        <v>EthanBaker14</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker13@gmail.com</v>
+        <v>EthanBaker14@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>131</v>
@@ -4965,21 +4965,21 @@
         <v>71</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman13</v>
+        <v>DelanieCarman14</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman13</v>
+        <v>DelanieCarman14</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman13@gmail.com</v>
+        <v>DelanieCarman14@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>132</v>
@@ -4988,15 +4988,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew13</v>
+        <v>BretAgnew14</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew13</v>
+        <v>BretAgnew14</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew13@gmail.com</v>
+        <v>BretAgnew14@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>133</v>
@@ -5005,15 +5005,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor13</v>
+        <v>EdgardoTaylor14</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor13</v>
+        <v>EdgardoTaylor14</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor13@gmail.com</v>
+        <v>EdgardoTaylor14@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -5022,15 +5022,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis13</v>
+        <v>TyrekReis14</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis13</v>
+        <v>TyrekReis14</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis13@gmail.com</v>
+        <v>TyrekReis14@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>135</v>
@@ -5039,15 +5039,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow13</v>
+        <v>LeannaChow14</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow13</v>
+        <v>LeannaChow14</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow13@gmail.com</v>
+        <v>LeannaChow14@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>136</v>
@@ -5056,15 +5056,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson13</v>
+        <v>TuckerCarlson14</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson13</v>
+        <v>TuckerCarlson14</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson13@gmail.com</v>
+        <v>TuckerCarlson14@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>137</v>
@@ -5073,15 +5073,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor13</v>
+        <v>AnnmarieConnor14</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor13</v>
+        <v>AnnmarieConnor14</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor13@gmail.com</v>
+        <v>AnnmarieConnor14@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>138</v>
@@ -5090,15 +5090,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte13</v>
+        <v>MoniqueWitte14</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte13</v>
+        <v>MoniqueWitte14</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte13@gmail.com</v>
+        <v>MoniqueWitte14@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>139</v>
@@ -5107,15 +5107,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock13</v>
+        <v>MikelWhitlock14</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock13</v>
+        <v>MikelWhitlock14</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock13@gmail.com</v>
+        <v>MikelWhitlock14@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>140</v>
@@ -5124,15 +5124,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya13</v>
+        <v>VincentAmaya14</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya13</v>
+        <v>VincentAmaya14</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya13@gmail.com</v>
+        <v>VincentAmaya14@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>141</v>
@@ -5141,15 +5141,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz13</v>
+        <v>KeiraQuiroz14</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz13</v>
+        <v>KeiraQuiroz14</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz13@gmail.com</v>
+        <v>KeiraQuiroz14@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>142</v>
@@ -5158,15 +5158,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech13</v>
+        <v>EllisCreech14</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech13</v>
+        <v>EllisCreech14</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech13@gmail.com</v>
+        <v>EllisCreech14@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
@@ -5175,15 +5175,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel13</v>
+        <v>DionteCreel14</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel13</v>
+        <v>DionteCreel14</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel13@gmail.com</v>
+        <v>DionteCreel14@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>144</v>
@@ -5192,15 +5192,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust13</v>
+        <v>NicholeFoust14</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust13</v>
+        <v>NicholeFoust14</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust13@gmail.com</v>
+        <v>NicholeFoust14@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>145</v>
@@ -5209,15 +5209,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell13</v>
+        <v>ManuelConnell14</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell13</v>
+        <v>ManuelConnell14</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell13@gmail.com</v>
+        <v>ManuelConnell14@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>146</v>
@@ -5226,15 +5226,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam13</v>
+        <v>LourdesElam14</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam13</v>
+        <v>LourdesElam14</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam13@gmail.com</v>
+        <v>LourdesElam14@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>147</v>
@@ -5243,15 +5243,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick13</v>
+        <v>LincolnFrederick14</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick13</v>
+        <v>LincolnFrederick14</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick13@gmail.com</v>
+        <v>LincolnFrederick14@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>148</v>
@@ -5260,15 +5260,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash13</v>
+        <v>AlisaCash14</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash13</v>
+        <v>AlisaCash14</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash13@gmail.com</v>
+        <v>AlisaCash14@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>149</v>
@@ -5277,15 +5277,15 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths13</v>
+        <v>LucilleGriffiths14</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths13</v>
+        <v>LucilleGriffiths14</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths13@gmail.com</v>
+        <v>LucilleGriffiths14@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>150</v>
@@ -5307,15 +5307,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan18</v>
+        <v>DonnellJernigan19</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan18</v>
+        <v>DonnellJernigan19</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan18@gmail.com</v>
+        <v>DonnellJernigan19@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>151</v>
@@ -5324,21 +5324,21 @@
         <v>71</v>
       </c>
       <c r="I23">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole18</v>
+        <v>MalikOtoole19</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole18</v>
+        <v>MalikOtoole19</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole18@gmail.com</v>
+        <v>MalikOtoole19@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>152</v>
@@ -5347,15 +5347,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill18</v>
+        <v>AlanCaudill19</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill18</v>
+        <v>AlanCaudill19</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill18@gmail.com</v>
+        <v>AlanCaudill19@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>153</v>
@@ -5364,15 +5364,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate18</v>
+        <v>AdanApplegate19</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate18</v>
+        <v>AdanApplegate19</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate18@gmail.com</v>
+        <v>AdanApplegate19@gmail.com</v>
       </c>
       <c r="G26" t="s">
         <v>154</v>
@@ -5381,15 +5381,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth18</v>
+        <v>AiyanaWhitworth19</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AiyanaWhitworth18</v>
+        <v>AiyanaWhitworth19</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AiyanaWhitworth18@gmail.com</v>
+        <v>AiyanaWhitworth19@gmail.com</v>
       </c>
       <c r="G27" t="s">
         <v>155</v>
@@ -5398,15 +5398,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien18</v>
+        <v>MercedezBrien19</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MercedezBrien18</v>
+        <v>MercedezBrien19</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MercedezBrien18@gmail.com</v>
+        <v>MercedezBrien19@gmail.com</v>
       </c>
       <c r="G28" t="s">
         <v>156</v>
@@ -5415,15 +5415,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager18</v>
+        <v>DuaneHager19</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DuaneHager18</v>
+        <v>DuaneHager19</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DuaneHager18@gmail.com</v>
+        <v>DuaneHager19@gmail.com</v>
       </c>
       <c r="G29" t="s">
         <v>157</v>
@@ -5432,15 +5432,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell18</v>
+        <v>LorenBell19</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>LorenBell18</v>
+        <v>LorenBell19</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LorenBell18@gmail.com</v>
+        <v>LorenBell19@gmail.com</v>
       </c>
       <c r="G30" t="s">
         <v>158</v>
@@ -5449,15 +5449,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller18</v>
+        <v>GeraldHiller19</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GeraldHiller18</v>
+        <v>GeraldHiller19</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>GeraldHiller18@gmail.com</v>
+        <v>GeraldHiller19@gmail.com</v>
       </c>
       <c r="G31" t="s">
         <v>159</v>
@@ -5466,15 +5466,15 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch18</v>
+        <v>DeionBranch19</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DeionBranch18</v>
+        <v>DeionBranch19</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DeionBranch18@gmail.com</v>
+        <v>DeionBranch19@gmail.com</v>
       </c>
       <c r="G32" t="s">
         <v>160</v>
@@ -5483,15 +5483,15 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead18</v>
+        <v>DakotaHalstead19</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DakotaHalstead18</v>
+        <v>DakotaHalstead19</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DakotaHalstead18@gmail.com</v>
+        <v>DakotaHalstead19@gmail.com</v>
       </c>
       <c r="G33" t="s">
         <v>161</v>
@@ -5500,15 +5500,15 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman18</v>
+        <v>ElliottFurman19</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ElliottFurman18</v>
+        <v>ElliottFurman19</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ElliottFurman18@gmail.com</v>
+        <v>ElliottFurman19@gmail.com</v>
       </c>
       <c r="G34" t="s">
         <v>162</v>
@@ -5517,15 +5517,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp18</v>
+        <v>MiltonCamp19</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MiltonCamp18</v>
+        <v>MiltonCamp19</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>MiltonCamp18@gmail.com</v>
+        <v>MiltonCamp19@gmail.com</v>
       </c>
       <c r="G35" t="s">
         <v>163</v>
@@ -5534,15 +5534,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester18</v>
+        <v>DawnChester19</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DawnChester18</v>
+        <v>DawnChester19</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DawnChester18@gmail.com</v>
+        <v>DawnChester19@gmail.com</v>
       </c>
       <c r="G36" t="s">
         <v>164</v>
@@ -5551,15 +5551,15 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie18</v>
+        <v>ZacheryPetrie19</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ZacheryPetrie18</v>
+        <v>ZacheryPetrie19</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ZacheryPetrie18@gmail.com</v>
+        <v>ZacheryPetrie19@gmail.com</v>
       </c>
       <c r="G37" t="s">
         <v>165</v>
@@ -5568,15 +5568,15 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel18</v>
+        <v>EstebanAngel19</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>EstebanAngel18</v>
+        <v>EstebanAngel19</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>EstebanAngel18@gmail.com</v>
+        <v>EstebanAngel19@gmail.com</v>
       </c>
       <c r="G38" t="s">
         <v>166</v>
@@ -5585,15 +5585,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship18</v>
+        <v>JimmyBlankenship19</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JimmyBlankenship18</v>
+        <v>JimmyBlankenship19</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>JimmyBlankenship18@gmail.com</v>
+        <v>JimmyBlankenship19@gmail.com</v>
       </c>
       <c r="G39" t="s">
         <v>167</v>
@@ -5602,15 +5602,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice18</v>
+        <v>AllysaGrice19</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AllysaGrice18</v>
+        <v>AllysaGrice19</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AllysaGrice18@gmail.com</v>
+        <v>AllysaGrice19@gmail.com</v>
       </c>
       <c r="G40" t="s">
         <v>168</v>
@@ -5619,15 +5619,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo18</v>
+        <v>AugustineYoo19</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AugustineYoo18</v>
+        <v>AugustineYoo19</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AugustineYoo18@gmail.com</v>
+        <v>AugustineYoo19@gmail.com</v>
       </c>
       <c r="G41" t="s">
         <v>169</v>
@@ -5636,15 +5636,15 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard18</v>
+        <v>BrandiSouthard19</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>BrandiSouthard18</v>
+        <v>BrandiSouthard19</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BrandiSouthard18@gmail.com</v>
+        <v>BrandiSouthard19@gmail.com</v>
       </c>
       <c r="G42" t="s">
         <v>170</v>

--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verkh\IdeaProjects\pom6\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05883D7-BDAB-4B28-8817-DC8A47211DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677FFA95-6AF8-4996-905A-2E11BAEC6516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="12180" tabRatio="594" activeTab="1" xr2:uid="{56D596F5-221D-421D-9FC5-55182B639D44}"/>
   </bookViews>
@@ -1048,244 +1048,244 @@
     <t>3</t>
   </si>
   <si>
-    <t>EthanBaker14</t>
-  </si>
-  <si>
-    <t>EthanBaker14@gmail.com</t>
-  </si>
-  <si>
-    <t>DelanieCarman14</t>
-  </si>
-  <si>
-    <t>DelanieCarman14@gmail.com</t>
-  </si>
-  <si>
-    <t>BretAgnew14</t>
-  </si>
-  <si>
-    <t>BretAgnew14@gmail.com</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor14</t>
-  </si>
-  <si>
-    <t>EdgardoTaylor14@gmail.com</t>
-  </si>
-  <si>
-    <t>TyrekReis14</t>
-  </si>
-  <si>
-    <t>TyrekReis14@gmail.com</t>
-  </si>
-  <si>
-    <t>LeannaChow14</t>
-  </si>
-  <si>
-    <t>LeannaChow14@gmail.com</t>
-  </si>
-  <si>
-    <t>TuckerCarlson14</t>
-  </si>
-  <si>
-    <t>TuckerCarlson14@gmail.com</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor14</t>
-  </si>
-  <si>
-    <t>AnnmarieConnor14@gmail.com</t>
-  </si>
-  <si>
-    <t>MoniqueWitte14</t>
-  </si>
-  <si>
-    <t>MoniqueWitte14@gmail.com</t>
-  </si>
-  <si>
-    <t>MikelWhitlock14</t>
-  </si>
-  <si>
-    <t>MikelWhitlock14@gmail.com</t>
-  </si>
-  <si>
-    <t>VincentAmaya14</t>
-  </si>
-  <si>
-    <t>VincentAmaya14@gmail.com</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz14</t>
-  </si>
-  <si>
-    <t>KeiraQuiroz14@gmail.com</t>
-  </si>
-  <si>
-    <t>EllisCreech14</t>
-  </si>
-  <si>
-    <t>EllisCreech14@gmail.com</t>
-  </si>
-  <si>
-    <t>DionteCreel14</t>
-  </si>
-  <si>
-    <t>DionteCreel14@gmail.com</t>
-  </si>
-  <si>
-    <t>NicholeFoust14</t>
-  </si>
-  <si>
-    <t>NicholeFoust14@gmail.com</t>
-  </si>
-  <si>
-    <t>ManuelConnell14</t>
-  </si>
-  <si>
-    <t>ManuelConnell14@gmail.com</t>
-  </si>
-  <si>
-    <t>LourdesElam14</t>
-  </si>
-  <si>
-    <t>LourdesElam14@gmail.com</t>
-  </si>
-  <si>
-    <t>LincolnFrederick14</t>
-  </si>
-  <si>
-    <t>LincolnFrederick14@gmail.com</t>
-  </si>
-  <si>
-    <t>AlisaCash14</t>
-  </si>
-  <si>
-    <t>AlisaCash14@gmail.com</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths14</t>
-  </si>
-  <si>
-    <t>LucilleGriffiths14@gmail.com</t>
-  </si>
-  <si>
-    <t>DonnellJernigan19</t>
-  </si>
-  <si>
-    <t>DonnellJernigan19@gmail.com</t>
-  </si>
-  <si>
-    <t>MalikOtoole19</t>
-  </si>
-  <si>
-    <t>MalikOtoole19@gmail.com</t>
-  </si>
-  <si>
-    <t>AlanCaudill19</t>
-  </si>
-  <si>
-    <t>AlanCaudill19@gmail.com</t>
-  </si>
-  <si>
-    <t>AdanApplegate19</t>
-  </si>
-  <si>
-    <t>AdanApplegate19@gmail.com</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth19</t>
-  </si>
-  <si>
-    <t>AiyanaWhitworth19@gmail.com</t>
-  </si>
-  <si>
-    <t>MercedezBrien19</t>
-  </si>
-  <si>
-    <t>MercedezBrien19@gmail.com</t>
-  </si>
-  <si>
-    <t>DuaneHager19</t>
-  </si>
-  <si>
-    <t>DuaneHager19@gmail.com</t>
-  </si>
-  <si>
-    <t>LorenBell19</t>
-  </si>
-  <si>
-    <t>LorenBell19@gmail.com</t>
-  </si>
-  <si>
-    <t>GeraldHiller19</t>
-  </si>
-  <si>
-    <t>GeraldHiller19@gmail.com</t>
-  </si>
-  <si>
-    <t>DeionBranch19</t>
-  </si>
-  <si>
-    <t>DeionBranch19@gmail.com</t>
-  </si>
-  <si>
-    <t>DakotaHalstead19</t>
-  </si>
-  <si>
-    <t>DakotaHalstead19@gmail.com</t>
-  </si>
-  <si>
-    <t>ElliottFurman19</t>
-  </si>
-  <si>
-    <t>ElliottFurman19@gmail.com</t>
-  </si>
-  <si>
-    <t>MiltonCamp19</t>
-  </si>
-  <si>
-    <t>MiltonCamp19@gmail.com</t>
-  </si>
-  <si>
-    <t>DawnChester19</t>
-  </si>
-  <si>
-    <t>DawnChester19@gmail.com</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie19</t>
-  </si>
-  <si>
-    <t>ZacheryPetrie19@gmail.com</t>
-  </si>
-  <si>
-    <t>EstebanAngel19</t>
-  </si>
-  <si>
-    <t>EstebanAngel19@gmail.com</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship19</t>
-  </si>
-  <si>
-    <t>JimmyBlankenship19@gmail.com</t>
-  </si>
-  <si>
-    <t>AllysaGrice19</t>
-  </si>
-  <si>
-    <t>AllysaGrice19@gmail.com</t>
-  </si>
-  <si>
-    <t>AugustineYoo19</t>
-  </si>
-  <si>
-    <t>AugustineYoo19@gmail.com</t>
-  </si>
-  <si>
-    <t>BrandiSouthard19</t>
-  </si>
-  <si>
-    <t>BrandiSouthard19@gmail.com</t>
+    <t>EthanBaker15</t>
+  </si>
+  <si>
+    <t>EthanBaker15@gmail.com</t>
+  </si>
+  <si>
+    <t>DelanieCarman15</t>
+  </si>
+  <si>
+    <t>DelanieCarman15@gmail.com</t>
+  </si>
+  <si>
+    <t>BretAgnew15</t>
+  </si>
+  <si>
+    <t>BretAgnew15@gmail.com</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor15</t>
+  </si>
+  <si>
+    <t>EdgardoTaylor15@gmail.com</t>
+  </si>
+  <si>
+    <t>TyrekReis15</t>
+  </si>
+  <si>
+    <t>TyrekReis15@gmail.com</t>
+  </si>
+  <si>
+    <t>LeannaChow15</t>
+  </si>
+  <si>
+    <t>LeannaChow15@gmail.com</t>
+  </si>
+  <si>
+    <t>TuckerCarlson15</t>
+  </si>
+  <si>
+    <t>TuckerCarlson15@gmail.com</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor15</t>
+  </si>
+  <si>
+    <t>AnnmarieConnor15@gmail.com</t>
+  </si>
+  <si>
+    <t>MoniqueWitte15</t>
+  </si>
+  <si>
+    <t>MoniqueWitte15@gmail.com</t>
+  </si>
+  <si>
+    <t>MikelWhitlock15</t>
+  </si>
+  <si>
+    <t>MikelWhitlock15@gmail.com</t>
+  </si>
+  <si>
+    <t>VincentAmaya15</t>
+  </si>
+  <si>
+    <t>VincentAmaya15@gmail.com</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz15</t>
+  </si>
+  <si>
+    <t>KeiraQuiroz15@gmail.com</t>
+  </si>
+  <si>
+    <t>EllisCreech15</t>
+  </si>
+  <si>
+    <t>EllisCreech15@gmail.com</t>
+  </si>
+  <si>
+    <t>DionteCreel15</t>
+  </si>
+  <si>
+    <t>DionteCreel15@gmail.com</t>
+  </si>
+  <si>
+    <t>NicholeFoust15</t>
+  </si>
+  <si>
+    <t>NicholeFoust15@gmail.com</t>
+  </si>
+  <si>
+    <t>ManuelConnell15</t>
+  </si>
+  <si>
+    <t>ManuelConnell15@gmail.com</t>
+  </si>
+  <si>
+    <t>LourdesElam15</t>
+  </si>
+  <si>
+    <t>LourdesElam15@gmail.com</t>
+  </si>
+  <si>
+    <t>LincolnFrederick15</t>
+  </si>
+  <si>
+    <t>LincolnFrederick15@gmail.com</t>
+  </si>
+  <si>
+    <t>AlisaCash15</t>
+  </si>
+  <si>
+    <t>AlisaCash15@gmail.com</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths15</t>
+  </si>
+  <si>
+    <t>LucilleGriffiths15@gmail.com</t>
+  </si>
+  <si>
+    <t>DonnellJernigan20</t>
+  </si>
+  <si>
+    <t>DonnellJernigan20@gmail.com</t>
+  </si>
+  <si>
+    <t>MalikOtoole20</t>
+  </si>
+  <si>
+    <t>MalikOtoole20@gmail.com</t>
+  </si>
+  <si>
+    <t>AlanCaudill20</t>
+  </si>
+  <si>
+    <t>AlanCaudill20@gmail.com</t>
+  </si>
+  <si>
+    <t>AdanApplegate20</t>
+  </si>
+  <si>
+    <t>AdanApplegate20@gmail.com</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth20</t>
+  </si>
+  <si>
+    <t>AiyanaWhitworth20@gmail.com</t>
+  </si>
+  <si>
+    <t>MercedezBrien20</t>
+  </si>
+  <si>
+    <t>MercedezBrien20@gmail.com</t>
+  </si>
+  <si>
+    <t>DuaneHager20</t>
+  </si>
+  <si>
+    <t>DuaneHager20@gmail.com</t>
+  </si>
+  <si>
+    <t>LorenBell20</t>
+  </si>
+  <si>
+    <t>LorenBell20@gmail.com</t>
+  </si>
+  <si>
+    <t>GeraldHiller20</t>
+  </si>
+  <si>
+    <t>GeraldHiller20@gmail.com</t>
+  </si>
+  <si>
+    <t>DeionBranch20</t>
+  </si>
+  <si>
+    <t>DeionBranch20@gmail.com</t>
+  </si>
+  <si>
+    <t>DakotaHalstead20</t>
+  </si>
+  <si>
+    <t>DakotaHalstead20@gmail.com</t>
+  </si>
+  <si>
+    <t>ElliottFurman20</t>
+  </si>
+  <si>
+    <t>ElliottFurman20@gmail.com</t>
+  </si>
+  <si>
+    <t>MiltonCamp20</t>
+  </si>
+  <si>
+    <t>MiltonCamp20@gmail.com</t>
+  </si>
+  <si>
+    <t>DawnChester20</t>
+  </si>
+  <si>
+    <t>DawnChester20@gmail.com</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie20</t>
+  </si>
+  <si>
+    <t>ZacheryPetrie20@gmail.com</t>
+  </si>
+  <si>
+    <t>EstebanAngel20</t>
+  </si>
+  <si>
+    <t>EstebanAngel20@gmail.com</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship20</t>
+  </si>
+  <si>
+    <t>JimmyBlankenship20@gmail.com</t>
+  </si>
+  <si>
+    <t>AllysaGrice20</t>
+  </si>
+  <si>
+    <t>AllysaGrice20@gmail.com</t>
+  </si>
+  <si>
+    <t>AugustineYoo20</t>
+  </si>
+  <si>
+    <t>AugustineYoo20@gmail.com</t>
+  </si>
+  <si>
+    <t>BrandiSouthard20</t>
+  </si>
+  <si>
+    <t>BrandiSouthard20@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4948,15 +4948,15 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker14</v>
+        <v>EthanBaker15</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE($G2,$I$2)</f>
-        <v>EthanBaker14</v>
+        <v>EthanBaker15</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE($G2,$I$2,$H$2)</f>
-        <v>EthanBaker14@gmail.com</v>
+        <v>EthanBaker15@gmail.com</v>
       </c>
       <c r="G2" t="s">
         <v>131</v>
@@ -4965,21 +4965,21 @@
         <v>71</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:B21" si="0">CONCATENATE($G3,$I$2)</f>
-        <v>DelanieCarman14</v>
+        <v>DelanieCarman15</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DelanieCarman14</v>
+        <v>DelanieCarman15</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C21" si="1">CONCATENATE($G3,$I$2,$H$2)</f>
-        <v>DelanieCarman14@gmail.com</v>
+        <v>DelanieCarman15@gmail.com</v>
       </c>
       <c r="G3" t="s">
         <v>132</v>
@@ -4988,15 +4988,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew14</v>
+        <v>BretAgnew15</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BretAgnew14</v>
+        <v>BretAgnew15</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BretAgnew14@gmail.com</v>
+        <v>BretAgnew15@gmail.com</v>
       </c>
       <c r="G4" t="s">
         <v>133</v>
@@ -5005,15 +5005,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor14</v>
+        <v>EdgardoTaylor15</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EdgardoTaylor14</v>
+        <v>EdgardoTaylor15</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EdgardoTaylor14@gmail.com</v>
+        <v>EdgardoTaylor15@gmail.com</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -5022,15 +5022,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis14</v>
+        <v>TyrekReis15</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TyrekReis14</v>
+        <v>TyrekReis15</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TyrekReis14@gmail.com</v>
+        <v>TyrekReis15@gmail.com</v>
       </c>
       <c r="G6" t="s">
         <v>135</v>
@@ -5039,15 +5039,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow14</v>
+        <v>LeannaChow15</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LeannaChow14</v>
+        <v>LeannaChow15</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeannaChow14@gmail.com</v>
+        <v>LeannaChow15@gmail.com</v>
       </c>
       <c r="G7" t="s">
         <v>136</v>
@@ -5056,15 +5056,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson14</v>
+        <v>TuckerCarlson15</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TuckerCarlson14</v>
+        <v>TuckerCarlson15</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>TuckerCarlson14@gmail.com</v>
+        <v>TuckerCarlson15@gmail.com</v>
       </c>
       <c r="G8" t="s">
         <v>137</v>
@@ -5073,15 +5073,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor14</v>
+        <v>AnnmarieConnor15</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AnnmarieConnor14</v>
+        <v>AnnmarieConnor15</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AnnmarieConnor14@gmail.com</v>
+        <v>AnnmarieConnor15@gmail.com</v>
       </c>
       <c r="G9" t="s">
         <v>138</v>
@@ -5090,15 +5090,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte14</v>
+        <v>MoniqueWitte15</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MoniqueWitte14</v>
+        <v>MoniqueWitte15</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MoniqueWitte14@gmail.com</v>
+        <v>MoniqueWitte15@gmail.com</v>
       </c>
       <c r="G10" t="s">
         <v>139</v>
@@ -5107,15 +5107,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock14</v>
+        <v>MikelWhitlock15</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MikelWhitlock14</v>
+        <v>MikelWhitlock15</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MikelWhitlock14@gmail.com</v>
+        <v>MikelWhitlock15@gmail.com</v>
       </c>
       <c r="G11" t="s">
         <v>140</v>
@@ -5124,15 +5124,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya14</v>
+        <v>VincentAmaya15</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VincentAmaya14</v>
+        <v>VincentAmaya15</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VincentAmaya14@gmail.com</v>
+        <v>VincentAmaya15@gmail.com</v>
       </c>
       <c r="G12" t="s">
         <v>141</v>
@@ -5141,15 +5141,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz14</v>
+        <v>KeiraQuiroz15</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>KeiraQuiroz14</v>
+        <v>KeiraQuiroz15</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>KeiraQuiroz14@gmail.com</v>
+        <v>KeiraQuiroz15@gmail.com</v>
       </c>
       <c r="G13" t="s">
         <v>142</v>
@@ -5158,15 +5158,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech14</v>
+        <v>EllisCreech15</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EllisCreech14</v>
+        <v>EllisCreech15</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>EllisCreech14@gmail.com</v>
+        <v>EllisCreech15@gmail.com</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
@@ -5175,15 +5175,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel14</v>
+        <v>DionteCreel15</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DionteCreel14</v>
+        <v>DionteCreel15</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DionteCreel14@gmail.com</v>
+        <v>DionteCreel15@gmail.com</v>
       </c>
       <c r="G15" t="s">
         <v>144</v>
@@ -5192,15 +5192,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust14</v>
+        <v>NicholeFoust15</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>NicholeFoust14</v>
+        <v>NicholeFoust15</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NicholeFoust14@gmail.com</v>
+        <v>NicholeFoust15@gmail.com</v>
       </c>
       <c r="G16" t="s">
         <v>145</v>
@@ -5209,15 +5209,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell14</v>
+        <v>ManuelConnell15</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManuelConnell14</v>
+        <v>ManuelConnell15</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ManuelConnell14@gmail.com</v>
+        <v>ManuelConnell15@gmail.com</v>
       </c>
       <c r="G17" t="s">
         <v>146</v>
@@ -5226,15 +5226,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam14</v>
+        <v>LourdesElam15</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LourdesElam14</v>
+        <v>LourdesElam15</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LourdesElam14@gmail.com</v>
+        <v>LourdesElam15@gmail.com</v>
       </c>
       <c r="G18" t="s">
         <v>147</v>
@@ -5243,15 +5243,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick14</v>
+        <v>LincolnFrederick15</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LincolnFrederick14</v>
+        <v>LincolnFrederick15</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LincolnFrederick14@gmail.com</v>
+        <v>LincolnFrederick15@gmail.com</v>
       </c>
       <c r="G19" t="s">
         <v>148</v>
@@ -5260,15 +5260,15 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash14</v>
+        <v>AlisaCash15</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AlisaCash14</v>
+        <v>AlisaCash15</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>AlisaCash14@gmail.com</v>
+        <v>AlisaCash15@gmail.com</v>
       </c>
       <c r="G20" t="s">
         <v>149</v>
@@ -5277,15 +5277,15 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths14</v>
+        <v>LucilleGriffiths15</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LucilleGriffiths14</v>
+        <v>LucilleGriffiths15</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LucilleGriffiths14@gmail.com</v>
+        <v>LucilleGriffiths15@gmail.com</v>
       </c>
       <c r="G21" t="s">
         <v>150</v>
@@ -5307,15 +5307,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan19</v>
+        <v>DonnellJernigan20</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>CONCATENATE($G23,$I$23)</f>
-        <v>DonnellJernigan19</v>
+        <v>DonnellJernigan20</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>CONCATENATE($G23,$I$23,$H$23)</f>
-        <v>DonnellJernigan19@gmail.com</v>
+        <v>DonnellJernigan20@gmail.com</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>151</v>
@@ -5324,21 +5324,21 @@
         <v>71</v>
       </c>
       <c r="I23">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:B42" si="2">CONCATENATE($G24,$I$23)</f>
-        <v>MalikOtoole19</v>
+        <v>MalikOtoole20</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>MalikOtoole19</v>
+        <v>MalikOtoole20</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ref="C24:C42" si="3">CONCATENATE($G24,$I$23,$H$23)</f>
-        <v>MalikOtoole19@gmail.com</v>
+        <v>MalikOtoole20@gmail.com</v>
       </c>
       <c r="G24" t="s">
         <v>152</v>
@@ -5347,15 +5347,15 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill19</v>
+        <v>AlanCaudill20</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AlanCaudill19</v>
+        <v>AlanCaudill20</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AlanCaudill19@gmail.com</v>
+        <v>AlanCaudill20@gmail.com</v>
       </c>
       <c r="G25" t="s">
         <v>153</v>
@@ -5364,15 +5364,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate19</v>
+        <v>AdanApplegate20</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AdanApplegate19</v>
+        <v>AdanApplegate20</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>AdanApplegate19@gmail.com</v>
+        <v>AdanApplegate2